--- a/VT_REGION1_REF.xlsx
+++ b/VT_REGION1_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88625B14-C996-45EE-A30A-F0A67F97ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EF47E-270D-4A44-87A4-A60BF5BCB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
+    <workbookView xWindow="-5340" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
     <author>bruno merven</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000004000000}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{14B80336-1D14-4011-83E8-B4FA65E43308}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{14B80336-1D14-4011-83E8-B4FA65E43308}">
       <text>
         <r>
           <rPr>
@@ -3387,7 +3387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="918">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -7273,6 +7273,9 @@
   </si>
   <si>
     <t>ENV_ACT~CH4C</t>
+  </si>
+  <si>
+    <t>Share~UP~0</t>
   </si>
 </sst>
 </file>
@@ -9465,24 +9468,6 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9512,6 +9497,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9549,10 +9552,31 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9571,27 +9595,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18761,10 +18764,10 @@
   <dimension ref="A1:BH117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18772,20 +18775,20 @@
     <col min="1" max="1" width="47" style="117" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="117" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="117" customWidth="1"/>
-    <col min="4" max="7" width="10" style="117" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="117" customWidth="1"/>
-    <col min="9" max="9" width="10" style="117" customWidth="1"/>
-    <col min="10" max="13" width="7.28515625" style="117" customWidth="1"/>
-    <col min="14" max="16" width="10" style="117" customWidth="1"/>
-    <col min="17" max="19" width="9.7109375" style="117" customWidth="1"/>
-    <col min="20" max="20" width="10" style="117" customWidth="1"/>
-    <col min="21" max="28" width="8.28515625" style="117" customWidth="1"/>
-    <col min="29" max="29" width="10" style="117" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" style="117" customWidth="1"/>
-    <col min="31" max="37" width="7.28515625" style="117" customWidth="1"/>
-    <col min="38" max="38" width="8.42578125" style="117" customWidth="1"/>
-    <col min="39" max="44" width="7.28515625" style="117" customWidth="1"/>
-    <col min="45" max="16384" width="11.42578125" style="117"/>
+    <col min="4" max="8" width="10" style="117" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="117" customWidth="1"/>
+    <col min="10" max="10" width="10" style="117" customWidth="1"/>
+    <col min="11" max="14" width="7.28515625" style="117" customWidth="1"/>
+    <col min="15" max="17" width="10" style="117" customWidth="1"/>
+    <col min="18" max="20" width="9.7109375" style="117" customWidth="1"/>
+    <col min="21" max="21" width="10" style="117" customWidth="1"/>
+    <col min="22" max="29" width="8.28515625" style="117" customWidth="1"/>
+    <col min="30" max="30" width="10" style="117" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="117" customWidth="1"/>
+    <col min="32" max="38" width="7.28515625" style="117" customWidth="1"/>
+    <col min="39" max="39" width="8.42578125" style="117" customWidth="1"/>
+    <col min="40" max="45" width="7.28515625" style="117" customWidth="1"/>
+    <col min="46" max="16384" width="11.42578125" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18798,8 +18801,8 @@
       <c r="F1" s="447"/>
       <c r="G1" s="445"/>
       <c r="H1" s="445"/>
-      <c r="O1" s="446"/>
-      <c r="T1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="P1" s="446"/>
       <c r="U1" s="445"/>
       <c r="V1" s="445"/>
       <c r="W1" s="445"/>
@@ -18809,6 +18812,7 @@
       <c r="AA1" s="445"/>
       <c r="AB1" s="445"/>
       <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
     </row>
     <row r="2" spans="1:60" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="97"/>
@@ -18824,8 +18828,8 @@
       <c r="K2" s="448"/>
       <c r="L2" s="448"/>
       <c r="M2" s="448"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="448"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="97"/>
       <c r="P2" s="448"/>
       <c r="Q2" s="448"/>
       <c r="R2" s="448"/>
@@ -18840,6 +18844,7 @@
       <c r="AA2" s="448"/>
       <c r="AB2" s="448"/>
       <c r="AC2" s="448"/>
+      <c r="AD2" s="448"/>
     </row>
     <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -18873,10 +18878,10 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="449" t="s">
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="449" t="s">
         <v>468</v>
       </c>
-      <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -18903,6 +18908,7 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
       <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
     </row>
     <row r="4" spans="1:60" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="450" t="s">
@@ -18924,191 +18930,194 @@
         <v>465</v>
       </c>
       <c r="G4" s="449" t="s">
+        <v>917</v>
+      </c>
+      <c r="H4" s="449" t="s">
         <v>863</v>
       </c>
-      <c r="H4" s="443" t="s">
+      <c r="I4" s="443" t="s">
         <v>864</v>
       </c>
-      <c r="I4" s="449" t="s">
+      <c r="J4" s="449" t="s">
         <v>496</v>
       </c>
-      <c r="J4" s="449" t="s">
+      <c r="K4" s="449" t="s">
         <v>915</v>
       </c>
-      <c r="K4" s="451" t="s">
+      <c r="L4" s="451" t="s">
         <v>916</v>
       </c>
-      <c r="L4" s="449" t="s">
+      <c r="M4" s="449" t="s">
         <v>913</v>
       </c>
-      <c r="M4" s="451" t="s">
+      <c r="N4" s="451" t="s">
         <v>914</v>
       </c>
-      <c r="N4" s="449" t="s">
+      <c r="O4" s="449" t="s">
         <v>815</v>
       </c>
-      <c r="O4" s="449" t="s">
+      <c r="P4" s="449" t="s">
         <v>489</v>
       </c>
-      <c r="P4" s="449" t="s">
+      <c r="Q4" s="449" t="s">
         <v>461</v>
       </c>
-      <c r="Q4" s="449" t="s">
+      <c r="R4" s="449" t="s">
         <v>814</v>
       </c>
-      <c r="R4" s="449" t="s">
+      <c r="S4" s="449" t="s">
         <v>876</v>
       </c>
-      <c r="S4" s="449" t="s">
+      <c r="T4" s="449" t="s">
         <v>877</v>
       </c>
-      <c r="T4" s="450" t="s">
+      <c r="U4" s="450" t="s">
         <v>862</v>
       </c>
-      <c r="U4" s="450" t="str">
-        <f>"AFA~UP~"&amp;U6</f>
+      <c r="V4" s="450" t="str">
+        <f>"AFA~UP~"&amp;V6</f>
         <v>AFA~UP~2017</v>
       </c>
-      <c r="V4" s="450" t="str">
-        <f t="shared" ref="V4:Y4" si="0">"AFA~UP~"&amp;V6</f>
+      <c r="W4" s="450" t="str">
+        <f t="shared" ref="W4:Z4" si="0">"AFA~UP~"&amp;W6</f>
         <v>AFA~UP~2018</v>
       </c>
-      <c r="W4" s="450" t="str">
+      <c r="X4" s="450" t="str">
         <f t="shared" si="0"/>
         <v>AFA~UP~2019</v>
       </c>
-      <c r="X4" s="450" t="str">
+      <c r="Y4" s="450" t="str">
         <f t="shared" si="0"/>
         <v>AFA~UP~2020</v>
       </c>
-      <c r="Y4" s="450" t="str">
+      <c r="Z4" s="450" t="str">
         <f t="shared" si="0"/>
         <v>AFA~UP~2021</v>
       </c>
-      <c r="Z4" s="450" t="str">
-        <f t="shared" ref="Z4:AA4" si="1">"AFA~UP~"&amp;Z6</f>
+      <c r="AA4" s="450" t="str">
+        <f t="shared" ref="AA4:AB4" si="1">"AFA~UP~"&amp;AA6</f>
         <v>AFA~UP~2022</v>
       </c>
-      <c r="AA4" s="450" t="str">
+      <c r="AB4" s="450" t="str">
         <f t="shared" si="1"/>
         <v>AFA~UP~2023</v>
       </c>
-      <c r="AB4" s="450" t="str">
-        <f t="shared" ref="AB4" si="2">"AFA~UP~"&amp;AB6</f>
+      <c r="AC4" s="450" t="str">
+        <f t="shared" ref="AC4" si="2">"AFA~UP~"&amp;AC6</f>
         <v>AFA~UP~2024</v>
       </c>
-      <c r="AC4" s="451" t="s">
+      <c r="AD4" s="451" t="s">
         <v>878</v>
       </c>
-      <c r="AD4" s="449" t="str">
-        <f t="shared" ref="AD4:BE4" si="3">$AD$3&amp;"~"&amp;AD6</f>
+      <c r="AE4" s="449" t="str">
+        <f t="shared" ref="AE4:BF4" si="3">$AE$3&amp;"~"&amp;AE6</f>
         <v>RESID~2017</v>
       </c>
-      <c r="AE4" s="449" t="str">
+      <c r="AF4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2018</v>
       </c>
-      <c r="AF4" s="449" t="str">
+      <c r="AG4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2019</v>
       </c>
-      <c r="AG4" s="449" t="str">
+      <c r="AH4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2020</v>
       </c>
-      <c r="AH4" s="449" t="str">
+      <c r="AI4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2021</v>
       </c>
-      <c r="AI4" s="449" t="str">
+      <c r="AJ4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2022</v>
       </c>
-      <c r="AJ4" s="449" t="str">
+      <c r="AK4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2023</v>
       </c>
-      <c r="AK4" s="449" t="str">
+      <c r="AL4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2024</v>
       </c>
-      <c r="AL4" s="449" t="str">
+      <c r="AM4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2025</v>
       </c>
-      <c r="AM4" s="449" t="str">
+      <c r="AN4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2026</v>
       </c>
-      <c r="AN4" s="449" t="str">
+      <c r="AO4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2027</v>
       </c>
-      <c r="AO4" s="449" t="str">
+      <c r="AP4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2028</v>
       </c>
-      <c r="AP4" s="449" t="str">
+      <c r="AQ4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2029</v>
       </c>
-      <c r="AQ4" s="449" t="str">
+      <c r="AR4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2030</v>
       </c>
-      <c r="AR4" s="449" t="str">
+      <c r="AS4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2031</v>
       </c>
-      <c r="AS4" s="449" t="str">
+      <c r="AT4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2032</v>
       </c>
-      <c r="AT4" s="449" t="str">
+      <c r="AU4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2033</v>
       </c>
-      <c r="AU4" s="449" t="str">
+      <c r="AV4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2034</v>
       </c>
-      <c r="AV4" s="449" t="str">
+      <c r="AW4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2035</v>
       </c>
-      <c r="AW4" s="449" t="str">
+      <c r="AX4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2036</v>
       </c>
-      <c r="AX4" s="449" t="str">
+      <c r="AY4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2037</v>
       </c>
-      <c r="AY4" s="449" t="str">
+      <c r="AZ4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2038</v>
       </c>
-      <c r="AZ4" s="449" t="str">
+      <c r="BA4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2039</v>
       </c>
-      <c r="BA4" s="449" t="str">
+      <c r="BB4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2040</v>
       </c>
-      <c r="BB4" s="449" t="str">
+      <c r="BC4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2045</v>
       </c>
-      <c r="BC4" s="449" t="str">
+      <c r="BD4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2050</v>
       </c>
-      <c r="BD4" s="449" t="str">
+      <c r="BE4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2060</v>
       </c>
-      <c r="BE4" s="449" t="str">
+      <c r="BF4" s="449" t="str">
         <f t="shared" si="3"/>
         <v>RESID~2070</v>
       </c>
@@ -19136,40 +19145,40 @@
         <v>805</v>
       </c>
       <c r="H5" s="453" t="s">
+        <v>805</v>
+      </c>
+      <c r="I5" s="453" t="s">
         <v>865</v>
       </c>
-      <c r="I5" s="452" t="s">
+      <c r="J5" s="452" t="s">
         <v>803</v>
       </c>
-      <c r="J5" s="452" t="s">
+      <c r="K5" s="452" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="452" t="s">
+      <c r="L5" s="452" t="s">
         <v>589</v>
       </c>
-      <c r="L5" s="452" t="s">
+      <c r="M5" s="452" t="s">
         <v>242</v>
       </c>
-      <c r="M5" s="452" t="s">
+      <c r="N5" s="452" t="s">
         <v>589</v>
       </c>
-      <c r="N5" s="453" t="s">
+      <c r="O5" s="453" t="s">
         <v>804</v>
       </c>
-      <c r="O5" s="452" t="s">
+      <c r="P5" s="452" t="s">
         <v>808</v>
       </c>
-      <c r="P5" s="453" t="s">
+      <c r="Q5" s="453" t="s">
         <v>460</v>
       </c>
-      <c r="Q5" s="452"/>
       <c r="R5" s="452"/>
       <c r="S5" s="452"/>
-      <c r="T5" s="453" t="s">
+      <c r="T5" s="452"/>
+      <c r="U5" s="453" t="s">
         <v>806</v>
-      </c>
-      <c r="U5" s="453" t="s">
-        <v>807</v>
       </c>
       <c r="V5" s="453" t="s">
         <v>807</v>
@@ -19192,8 +19201,10 @@
       <c r="AB5" s="453" t="s">
         <v>807</v>
       </c>
-      <c r="AC5" s="472"/>
-      <c r="AD5" s="454"/>
+      <c r="AC5" s="453" t="s">
+        <v>807</v>
+      </c>
+      <c r="AD5" s="472"/>
       <c r="AE5" s="454"/>
       <c r="AF5" s="454"/>
       <c r="AG5" s="454"/>
@@ -19221,6 +19232,7 @@
       <c r="BC5" s="454"/>
       <c r="BD5" s="454"/>
       <c r="BE5" s="454"/>
+      <c r="BF5" s="454"/>
     </row>
     <row r="6" spans="1:60" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="455" t="s">
@@ -19235,150 +19247,151 @@
       </c>
       <c r="G6" s="458"/>
       <c r="H6" s="458"/>
-      <c r="I6" s="458" t="s">
+      <c r="I6" s="458"/>
+      <c r="J6" s="458" t="s">
         <v>498</v>
       </c>
-      <c r="J6" s="456" t="s">
+      <c r="K6" s="456" t="s">
         <v>800</v>
       </c>
-      <c r="K6" s="456"/>
-      <c r="L6" s="456" t="s">
+      <c r="L6" s="456"/>
+      <c r="M6" s="456" t="s">
         <v>800</v>
       </c>
-      <c r="M6" s="456"/>
-      <c r="N6" s="458"/>
-      <c r="O6" s="457" t="s">
+      <c r="N6" s="456"/>
+      <c r="O6" s="458"/>
+      <c r="P6" s="457" t="s">
         <v>488</v>
       </c>
-      <c r="P6" s="458" t="s">
+      <c r="Q6" s="458" t="s">
         <v>498</v>
       </c>
-      <c r="Q6" s="458" t="s">
+      <c r="R6" s="458" t="s">
         <v>488</v>
       </c>
-      <c r="R6" s="458"/>
       <c r="S6" s="458"/>
       <c r="T6" s="458"/>
-      <c r="U6" s="473">
+      <c r="U6" s="458"/>
+      <c r="V6" s="473">
         <v>2017</v>
       </c>
-      <c r="V6" s="473">
+      <c r="W6" s="473">
         <v>2018</v>
       </c>
-      <c r="W6" s="473">
+      <c r="X6" s="473">
         <v>2019</v>
       </c>
-      <c r="X6" s="473">
+      <c r="Y6" s="473">
         <v>2020</v>
       </c>
-      <c r="Y6" s="473">
+      <c r="Z6" s="473">
         <v>2021</v>
       </c>
-      <c r="Z6" s="473">
+      <c r="AA6" s="473">
         <v>2022</v>
       </c>
-      <c r="AA6" s="473">
+      <c r="AB6" s="473">
         <v>2023</v>
       </c>
-      <c r="AB6" s="473">
+      <c r="AC6" s="473">
         <v>2024</v>
       </c>
-      <c r="AC6" s="458"/>
-      <c r="AD6" s="459">
+      <c r="AD6" s="458"/>
+      <c r="AE6" s="459">
         <v>2017</v>
       </c>
-      <c r="AE6" s="459">
+      <c r="AF6" s="459">
         <v>2018</v>
       </c>
-      <c r="AF6" s="459">
+      <c r="AG6" s="459">
         <v>2019</v>
       </c>
-      <c r="AG6" s="459">
+      <c r="AH6" s="459">
         <v>2020</v>
       </c>
-      <c r="AH6" s="459">
+      <c r="AI6" s="459">
         <v>2021</v>
       </c>
-      <c r="AI6" s="459">
+      <c r="AJ6" s="459">
         <v>2022</v>
       </c>
-      <c r="AJ6" s="459">
+      <c r="AK6" s="459">
         <v>2023</v>
       </c>
-      <c r="AK6" s="459">
+      <c r="AL6" s="459">
         <v>2024</v>
       </c>
-      <c r="AL6" s="459">
+      <c r="AM6" s="459">
         <v>2025</v>
       </c>
-      <c r="AM6" s="459">
+      <c r="AN6" s="459">
         <v>2026</v>
       </c>
-      <c r="AN6" s="459">
+      <c r="AO6" s="459">
         <v>2027</v>
       </c>
-      <c r="AO6" s="459">
+      <c r="AP6" s="459">
         <v>2028</v>
       </c>
-      <c r="AP6" s="459">
+      <c r="AQ6" s="459">
         <v>2029</v>
       </c>
-      <c r="AQ6" s="459">
-        <f t="shared" ref="AQ6:BA6" si="4">AP6+1</f>
+      <c r="AR6" s="459">
+        <f t="shared" ref="AR6:BB6" si="4">AQ6+1</f>
         <v>2030</v>
       </c>
-      <c r="AR6" s="459">
+      <c r="AS6" s="459">
         <f t="shared" si="4"/>
         <v>2031</v>
       </c>
-      <c r="AS6" s="459">
+      <c r="AT6" s="459">
         <f t="shared" si="4"/>
         <v>2032</v>
       </c>
-      <c r="AT6" s="459">
+      <c r="AU6" s="459">
         <f t="shared" si="4"/>
         <v>2033</v>
       </c>
-      <c r="AU6" s="459">
+      <c r="AV6" s="459">
         <f t="shared" si="4"/>
         <v>2034</v>
       </c>
-      <c r="AV6" s="459">
+      <c r="AW6" s="459">
         <f t="shared" si="4"/>
         <v>2035</v>
       </c>
-      <c r="AW6" s="459">
+      <c r="AX6" s="459">
         <f t="shared" si="4"/>
         <v>2036</v>
       </c>
-      <c r="AX6" s="459">
+      <c r="AY6" s="459">
         <f t="shared" si="4"/>
         <v>2037</v>
       </c>
-      <c r="AY6" s="459">
+      <c r="AZ6" s="459">
         <f t="shared" si="4"/>
         <v>2038</v>
       </c>
-      <c r="AZ6" s="459">
+      <c r="BA6" s="459">
         <f t="shared" si="4"/>
         <v>2039</v>
       </c>
-      <c r="BA6" s="459">
+      <c r="BB6" s="459">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
-      <c r="BB6" s="459">
-        <f>BA6+5</f>
-        <v>2045</v>
-      </c>
       <c r="BC6" s="459">
         <f>BB6+5</f>
+        <v>2045</v>
+      </c>
+      <c r="BD6" s="459">
+        <f>BC6+5</f>
         <v>2050</v>
       </c>
-      <c r="BD6" s="459">
+      <c r="BE6" s="459">
         <v>2060</v>
       </c>
-      <c r="BE6" s="459">
+      <c r="BF6" s="459">
         <v>2070</v>
       </c>
     </row>
@@ -19399,35 +19412,32 @@
       </c>
       <c r="G7" s="436"/>
       <c r="H7" s="436"/>
-      <c r="I7" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$269,$B7&amp;I$4,RefineriesData!$N$13:$N$269)</f>
+      <c r="I7" s="436"/>
+      <c r="J7" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$269,$B7&amp;J$4,RefineriesData!$N$13:$N$269)</f>
         <v>27.763122599999996</v>
-      </c>
-      <c r="J7" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B7&amp;J$5,RefineriesData!$N$13:$N$245)</f>
-        <v>3.9048398119126899</v>
       </c>
       <c r="K7" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B7&amp;K$5,RefineriesData!$N$13:$N$245)</f>
+        <v>3.9048398119126899</v>
+      </c>
+      <c r="L7" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B7&amp;L$5,RefineriesData!$N$13:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="435"/>
       <c r="M7" s="435"/>
-      <c r="N7" s="436"/>
+      <c r="N7" s="435"/>
       <c r="O7" s="436"/>
-      <c r="P7" s="439"/>
-      <c r="Q7" s="435"/>
-      <c r="R7" s="435">
+      <c r="P7" s="436"/>
+      <c r="Q7" s="439"/>
+      <c r="R7" s="435"/>
+      <c r="S7" s="435">
         <v>3</v>
       </c>
-      <c r="S7" s="435">
+      <c r="T7" s="435">
         <v>0</v>
       </c>
-      <c r="U7" s="435">
-        <v>0.76</v>
-      </c>
       <c r="V7" s="435">
-        <f>U7</f>
         <v>0.76</v>
       </c>
       <c r="W7" s="435">
@@ -19439,11 +19449,11 @@
         <v>0.76</v>
       </c>
       <c r="Y7" s="435">
-        <f t="shared" ref="Y7:AB7" si="5">X7</f>
+        <f>X7</f>
         <v>0.76</v>
       </c>
       <c r="Z7" s="435">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Z7:AC7" si="5">Y7</f>
         <v>0.76</v>
       </c>
       <c r="AA7" s="435">
@@ -19454,28 +19464,31 @@
         <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
-      <c r="AC7" s="464">
-        <f>U7*AD7/F7</f>
+      <c r="AC7" s="435">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="AD7" s="464">
+        <f>V7*AE7/F7</f>
         <v>445.09645919394001</v>
       </c>
-      <c r="AD7" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$270,$B7&amp;AD$3,RefineriesData!$N$16:$N$270)</f>
+      <c r="AE7" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$270,$B7&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
         <v>556.85035264068915</v>
       </c>
-      <c r="AE7" s="465"/>
       <c r="AF7" s="465"/>
-      <c r="AG7" s="465">
-        <f>AD7</f>
+      <c r="AG7" s="465"/>
+      <c r="AH7" s="465">
+        <f>AE7</f>
         <v>556.85035264068915</v>
       </c>
-      <c r="AH7" s="465">
-        <f>AG7*'Crude refineries'!G52/('Crude refineries'!E52+'Crude refineries'!E53)</f>
+      <c r="AI7" s="465">
+        <f>AH7*'Crude refineries'!G52/('Crude refineries'!E52+'Crude refineries'!E53)</f>
         <v>318.20020150896522</v>
       </c>
-      <c r="AI7" s="465">
+      <c r="AJ7" s="465">
         <v>0</v>
       </c>
-      <c r="AJ7" s="465"/>
       <c r="AK7" s="465"/>
       <c r="AL7" s="465"/>
       <c r="AM7" s="465"/>
@@ -19497,9 +19510,7 @@
       <c r="BC7" s="465"/>
       <c r="BD7" s="465"/>
       <c r="BE7" s="465"/>
-      <c r="BH7" s="117">
-        <v>1</v>
-      </c>
+      <c r="BF7" s="465"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="461"/>
@@ -19509,22 +19520,22 @@
       </c>
       <c r="F8" s="436"/>
       <c r="G8" s="436"/>
-      <c r="H8" s="482">
+      <c r="H8" s="436"/>
+      <c r="I8" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B7&amp;C8,RefineriesData!$N$16:$N$270)</f>
         <v>2.1728907852209679E-3</v>
       </c>
-      <c r="I8" s="439"/>
-      <c r="J8" s="435"/>
+      <c r="J8" s="439"/>
       <c r="K8" s="435"/>
       <c r="L8" s="435"/>
       <c r="M8" s="435"/>
-      <c r="N8" s="436"/>
+      <c r="N8" s="435"/>
       <c r="O8" s="436"/>
-      <c r="P8" s="439"/>
-      <c r="Q8" s="435"/>
+      <c r="P8" s="436"/>
+      <c r="Q8" s="439"/>
       <c r="R8" s="435"/>
       <c r="S8" s="435"/>
-      <c r="T8" s="436"/>
+      <c r="T8" s="435"/>
       <c r="U8" s="436"/>
       <c r="V8" s="436"/>
       <c r="W8" s="436"/>
@@ -19533,8 +19544,8 @@
       <c r="Z8" s="436"/>
       <c r="AA8" s="436"/>
       <c r="AB8" s="436"/>
-      <c r="AC8" s="435"/>
-      <c r="AD8" s="465"/>
+      <c r="AC8" s="436"/>
+      <c r="AD8" s="435"/>
       <c r="AE8" s="465"/>
       <c r="AF8" s="465"/>
       <c r="AG8" s="465"/>
@@ -19562,10 +19573,7 @@
       <c r="BC8" s="465"/>
       <c r="BD8" s="465"/>
       <c r="BE8" s="465"/>
-      <c r="BH8" s="117">
-        <f t="shared" ref="BH8:BH17" si="6">BH7+1</f>
-        <v>2</v>
-      </c>
+      <c r="BF8" s="465"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="461"/>
@@ -19575,22 +19583,22 @@
       </c>
       <c r="F9" s="436"/>
       <c r="G9" s="436"/>
-      <c r="H9" s="482">
+      <c r="H9" s="436"/>
+      <c r="I9" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B7&amp;C9,RefineriesData!$N$16:$N$270)</f>
         <v>4.8529200409580869E-3</v>
       </c>
-      <c r="I9" s="439"/>
-      <c r="J9" s="435"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="435"/>
       <c r="L9" s="435"/>
       <c r="M9" s="435"/>
-      <c r="N9" s="436"/>
+      <c r="N9" s="435"/>
       <c r="O9" s="436"/>
-      <c r="P9" s="439"/>
-      <c r="Q9" s="435"/>
+      <c r="P9" s="436"/>
+      <c r="Q9" s="439"/>
       <c r="R9" s="435"/>
       <c r="S9" s="435"/>
-      <c r="T9" s="436"/>
+      <c r="T9" s="435"/>
       <c r="U9" s="436"/>
       <c r="V9" s="436"/>
       <c r="W9" s="436"/>
@@ -19599,8 +19607,8 @@
       <c r="Z9" s="436"/>
       <c r="AA9" s="436"/>
       <c r="AB9" s="436"/>
-      <c r="AC9" s="435"/>
-      <c r="AD9" s="465"/>
+      <c r="AC9" s="436"/>
+      <c r="AD9" s="435"/>
       <c r="AE9" s="465"/>
       <c r="AF9" s="465"/>
       <c r="AG9" s="465"/>
@@ -19628,11 +19636,8 @@
       <c r="BC9" s="465"/>
       <c r="BD9" s="465"/>
       <c r="BE9" s="465"/>
-      <c r="BG9" s="462"/>
-      <c r="BH9" s="117">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
+      <c r="BF9" s="465"/>
+      <c r="BH9" s="462"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="461"/>
@@ -19642,23 +19647,25 @@
         <v>525</v>
       </c>
       <c r="F10" s="436"/>
-      <c r="G10" s="442">
+      <c r="G10" s="437">
+        <v>3</v>
+      </c>
+      <c r="H10" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E10,3),RefineriesData!$N$16:$N$245)</f>
         <v>3.7782040119212234E-3</v>
       </c>
-      <c r="H10" s="442"/>
-      <c r="I10" s="439"/>
-      <c r="J10" s="435"/>
+      <c r="I10" s="442"/>
+      <c r="J10" s="439"/>
       <c r="K10" s="435"/>
       <c r="L10" s="435"/>
       <c r="M10" s="435"/>
-      <c r="N10" s="436"/>
+      <c r="N10" s="435"/>
       <c r="O10" s="436"/>
-      <c r="P10" s="439"/>
-      <c r="Q10" s="435"/>
+      <c r="P10" s="436"/>
+      <c r="Q10" s="439"/>
       <c r="R10" s="435"/>
       <c r="S10" s="435"/>
-      <c r="U10" s="436"/>
+      <c r="T10" s="435"/>
       <c r="V10" s="436"/>
       <c r="W10" s="436"/>
       <c r="X10" s="436"/>
@@ -19666,11 +19673,11 @@
       <c r="Z10" s="436"/>
       <c r="AA10" s="436"/>
       <c r="AB10" s="436"/>
-      <c r="AC10" s="435">
-        <f>AC$7*F$7*G10</f>
+      <c r="AC10" s="436"/>
+      <c r="AD10" s="435">
+        <f>AD$7*F$7*H10</f>
         <v>1.5989596196539679</v>
       </c>
-      <c r="AD10" s="465"/>
       <c r="AE10" s="465"/>
       <c r="AF10" s="465"/>
       <c r="AG10" s="465"/>
@@ -19698,11 +19705,8 @@
       <c r="BC10" s="465"/>
       <c r="BD10" s="465"/>
       <c r="BE10" s="465"/>
-      <c r="BG10" s="462"/>
-      <c r="BH10" s="117">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="BF10" s="465"/>
+      <c r="BH10" s="462"/>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="461"/>
@@ -19712,23 +19716,25 @@
         <v>499</v>
       </c>
       <c r="F11" s="436"/>
-      <c r="G11" s="442">
+      <c r="G11" s="437">
+        <v>3</v>
+      </c>
+      <c r="H11" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E11,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.31968891523101722</v>
       </c>
-      <c r="H11" s="442"/>
-      <c r="I11" s="439"/>
-      <c r="J11" s="435"/>
+      <c r="I11" s="442"/>
+      <c r="J11" s="439"/>
       <c r="K11" s="435"/>
       <c r="L11" s="435"/>
       <c r="M11" s="435"/>
-      <c r="N11" s="436"/>
+      <c r="N11" s="435"/>
       <c r="O11" s="436"/>
-      <c r="P11" s="439"/>
-      <c r="Q11" s="435"/>
+      <c r="P11" s="436"/>
+      <c r="Q11" s="439"/>
       <c r="R11" s="435"/>
       <c r="S11" s="435"/>
-      <c r="U11" s="436"/>
+      <c r="T11" s="435"/>
       <c r="V11" s="436"/>
       <c r="W11" s="436"/>
       <c r="X11" s="436"/>
@@ -19736,11 +19742,11 @@
       <c r="Z11" s="436"/>
       <c r="AA11" s="436"/>
       <c r="AB11" s="436"/>
-      <c r="AC11" s="435">
-        <f t="shared" ref="AC11:AC16" si="7">AC$7*F$7*G11</f>
+      <c r="AC11" s="436"/>
+      <c r="AD11" s="435">
+        <f t="shared" ref="AD11:AD16" si="6">AD$7*F$7*H11</f>
         <v>135.2943527381006</v>
       </c>
-      <c r="AD11" s="465"/>
       <c r="AE11" s="465"/>
       <c r="AF11" s="465"/>
       <c r="AG11" s="465"/>
@@ -19768,11 +19774,8 @@
       <c r="BC11" s="465"/>
       <c r="BD11" s="465"/>
       <c r="BE11" s="465"/>
-      <c r="BG11" s="462"/>
-      <c r="BH11" s="117">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="BF11" s="465"/>
+      <c r="BH11" s="462"/>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="461"/>
@@ -19782,23 +19785,25 @@
         <v>497</v>
       </c>
       <c r="F12" s="436"/>
-      <c r="G12" s="442">
+      <c r="G12" s="437">
+        <v>3</v>
+      </c>
+      <c r="H12" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E12,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.28122161740282847</v>
       </c>
-      <c r="H12" s="442"/>
-      <c r="I12" s="439"/>
-      <c r="J12" s="435"/>
+      <c r="I12" s="442"/>
+      <c r="J12" s="439"/>
       <c r="K12" s="435"/>
       <c r="L12" s="435"/>
       <c r="M12" s="435"/>
-      <c r="N12" s="436"/>
+      <c r="N12" s="435"/>
       <c r="O12" s="436"/>
-      <c r="P12" s="439"/>
-      <c r="Q12" s="435"/>
+      <c r="P12" s="436"/>
+      <c r="Q12" s="439"/>
       <c r="R12" s="435"/>
       <c r="S12" s="435"/>
-      <c r="U12" s="436"/>
+      <c r="T12" s="435"/>
       <c r="V12" s="436"/>
       <c r="W12" s="436"/>
       <c r="X12" s="436"/>
@@ -19806,11 +19811,11 @@
       <c r="Z12" s="436"/>
       <c r="AA12" s="436"/>
       <c r="AB12" s="436"/>
-      <c r="AC12" s="435">
-        <f t="shared" si="7"/>
+      <c r="AC12" s="436"/>
+      <c r="AD12" s="435">
+        <f t="shared" si="6"/>
         <v>119.014751183922</v>
       </c>
-      <c r="AD12" s="465"/>
       <c r="AE12" s="465"/>
       <c r="AF12" s="465"/>
       <c r="AG12" s="465"/>
@@ -19838,11 +19843,8 @@
       <c r="BC12" s="465"/>
       <c r="BD12" s="465"/>
       <c r="BE12" s="465"/>
-      <c r="BG12" s="462"/>
-      <c r="BH12" s="117">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
+      <c r="BF12" s="465"/>
+      <c r="BH12" s="462"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="461"/>
@@ -19852,23 +19854,25 @@
         <v>491</v>
       </c>
       <c r="F13" s="436"/>
-      <c r="G13" s="442">
+      <c r="G13" s="437">
+        <v>3</v>
+      </c>
+      <c r="H13" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E13,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.23372169677136084</v>
       </c>
-      <c r="H13" s="442"/>
-      <c r="I13" s="439"/>
-      <c r="J13" s="435"/>
+      <c r="I13" s="442"/>
+      <c r="J13" s="439"/>
       <c r="K13" s="435"/>
       <c r="L13" s="435"/>
       <c r="M13" s="435"/>
-      <c r="N13" s="436"/>
+      <c r="N13" s="435"/>
       <c r="O13" s="436"/>
-      <c r="P13" s="439"/>
-      <c r="Q13" s="435"/>
+      <c r="P13" s="436"/>
+      <c r="Q13" s="439"/>
       <c r="R13" s="435"/>
       <c r="S13" s="435"/>
-      <c r="U13" s="436"/>
+      <c r="T13" s="435"/>
       <c r="V13" s="436"/>
       <c r="W13" s="436"/>
       <c r="X13" s="436"/>
@@ -19876,11 +19880,11 @@
       <c r="Z13" s="436"/>
       <c r="AA13" s="436"/>
       <c r="AB13" s="436"/>
-      <c r="AC13" s="435">
-        <f t="shared" si="7"/>
+      <c r="AC13" s="436"/>
+      <c r="AD13" s="435">
+        <f t="shared" si="6"/>
         <v>98.912487042853513</v>
       </c>
-      <c r="AD13" s="465"/>
       <c r="AE13" s="465"/>
       <c r="AF13" s="465"/>
       <c r="AG13" s="465"/>
@@ -19908,11 +19912,8 @@
       <c r="BC13" s="465"/>
       <c r="BD13" s="465"/>
       <c r="BE13" s="465"/>
-      <c r="BG13" s="462"/>
-      <c r="BH13" s="117">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="BF13" s="465"/>
+      <c r="BH13" s="462"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="461"/>
@@ -19922,23 +19923,25 @@
         <v>490</v>
       </c>
       <c r="F14" s="436"/>
-      <c r="G14" s="442">
+      <c r="G14" s="437">
+        <v>3</v>
+      </c>
+      <c r="H14" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E14,3),RefineriesData!$N$16:$N$245)</f>
         <v>9.8059797015436129E-2</v>
       </c>
-      <c r="H14" s="442"/>
-      <c r="I14" s="439"/>
-      <c r="J14" s="435"/>
+      <c r="I14" s="442"/>
+      <c r="J14" s="439"/>
       <c r="K14" s="435"/>
       <c r="L14" s="435"/>
       <c r="M14" s="435"/>
-      <c r="N14" s="436"/>
+      <c r="N14" s="435"/>
       <c r="O14" s="436"/>
-      <c r="P14" s="439"/>
-      <c r="Q14" s="435"/>
+      <c r="P14" s="436"/>
+      <c r="Q14" s="439"/>
       <c r="R14" s="435"/>
       <c r="S14" s="435"/>
-      <c r="U14" s="436"/>
+      <c r="T14" s="435"/>
       <c r="V14" s="436"/>
       <c r="W14" s="436"/>
       <c r="X14" s="436"/>
@@ -19946,11 +19949,11 @@
       <c r="Z14" s="436"/>
       <c r="AA14" s="436"/>
       <c r="AB14" s="436"/>
-      <c r="AC14" s="435">
-        <f t="shared" si="7"/>
+      <c r="AC14" s="436"/>
+      <c r="AD14" s="435">
+        <f t="shared" si="6"/>
         <v>41.499520736419207</v>
       </c>
-      <c r="AD14" s="465"/>
       <c r="AE14" s="465"/>
       <c r="AF14" s="465"/>
       <c r="AG14" s="465"/>
@@ -19978,11 +19981,8 @@
       <c r="BC14" s="465"/>
       <c r="BD14" s="465"/>
       <c r="BE14" s="465"/>
-      <c r="BG14" s="462"/>
-      <c r="BH14" s="117">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="BF14" s="465"/>
+      <c r="BH14" s="462"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="461"/>
@@ -19992,23 +19992,25 @@
         <v>487</v>
       </c>
       <c r="F15" s="436"/>
-      <c r="G15" s="442">
+      <c r="G15" s="437">
+        <v>3</v>
+      </c>
+      <c r="H15" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B7&amp;RIGHT($E15,3),RefineriesData!$N$16:$N$245)</f>
         <v>2.1436699505158505E-2</v>
       </c>
-      <c r="H15" s="442"/>
-      <c r="I15" s="439"/>
-      <c r="J15" s="435"/>
+      <c r="I15" s="442"/>
+      <c r="J15" s="439"/>
       <c r="K15" s="435"/>
       <c r="L15" s="435"/>
       <c r="M15" s="435"/>
-      <c r="N15" s="436"/>
+      <c r="N15" s="435"/>
       <c r="O15" s="436"/>
-      <c r="P15" s="439"/>
-      <c r="Q15" s="435"/>
+      <c r="P15" s="436"/>
+      <c r="Q15" s="439"/>
       <c r="R15" s="435"/>
       <c r="S15" s="435"/>
-      <c r="U15" s="436"/>
+      <c r="T15" s="435"/>
       <c r="V15" s="436"/>
       <c r="W15" s="436"/>
       <c r="X15" s="436"/>
@@ -20016,11 +20018,11 @@
       <c r="Z15" s="436"/>
       <c r="AA15" s="436"/>
       <c r="AB15" s="436"/>
-      <c r="AC15" s="435">
-        <f t="shared" si="7"/>
+      <c r="AC15" s="436"/>
+      <c r="AD15" s="435">
+        <f t="shared" si="6"/>
         <v>9.0721455959640007</v>
       </c>
-      <c r="AD15" s="465"/>
       <c r="AE15" s="465"/>
       <c r="AF15" s="465"/>
       <c r="AG15" s="465"/>
@@ -20048,11 +20050,8 @@
       <c r="BC15" s="465"/>
       <c r="BD15" s="465"/>
       <c r="BE15" s="465"/>
-      <c r="BG15" s="462"/>
-      <c r="BH15" s="117">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
+      <c r="BF15" s="465"/>
+      <c r="BH15" s="462"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="461"/>
@@ -20062,23 +20061,25 @@
         <v>485</v>
       </c>
       <c r="F16" s="436"/>
-      <c r="G16" s="442">
-        <f>1-SUM(G10:G15)</f>
+      <c r="G16" s="437">
+        <v>3</v>
+      </c>
+      <c r="H16" s="442">
+        <f>1-SUM(H10:H15)</f>
         <v>4.2093070062277582E-2</v>
       </c>
-      <c r="H16" s="442"/>
-      <c r="I16" s="439"/>
-      <c r="J16" s="435"/>
+      <c r="I16" s="442"/>
+      <c r="J16" s="439"/>
       <c r="K16" s="435"/>
       <c r="L16" s="435"/>
       <c r="M16" s="435"/>
-      <c r="N16" s="436"/>
+      <c r="N16" s="435"/>
       <c r="O16" s="436"/>
-      <c r="P16" s="439"/>
-      <c r="Q16" s="435"/>
+      <c r="P16" s="436"/>
+      <c r="Q16" s="439"/>
       <c r="R16" s="435"/>
       <c r="S16" s="435"/>
-      <c r="U16" s="436"/>
+      <c r="T16" s="435"/>
       <c r="V16" s="436"/>
       <c r="W16" s="436"/>
       <c r="X16" s="436"/>
@@ -20086,11 +20087,11 @@
       <c r="Z16" s="436"/>
       <c r="AA16" s="436"/>
       <c r="AB16" s="436"/>
-      <c r="AC16" s="435">
-        <f t="shared" si="7"/>
+      <c r="AC16" s="436"/>
+      <c r="AD16" s="435">
+        <f t="shared" si="6"/>
         <v>17.814051090010466</v>
       </c>
-      <c r="AD16" s="465"/>
       <c r="AE16" s="465"/>
       <c r="AF16" s="465"/>
       <c r="AG16" s="465"/>
@@ -20118,11 +20119,8 @@
       <c r="BC16" s="465"/>
       <c r="BD16" s="465"/>
       <c r="BE16" s="465"/>
-      <c r="BG16" s="462"/>
-      <c r="BH16" s="117">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="BF16" s="465"/>
+      <c r="BH16" s="462"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="460" t="s">
@@ -20133,18 +20131,18 @@
       <c r="F17" s="436"/>
       <c r="G17" s="436"/>
       <c r="H17" s="436"/>
-      <c r="I17" s="439"/>
-      <c r="J17" s="435"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="439"/>
       <c r="K17" s="435"/>
       <c r="L17" s="435"/>
       <c r="M17" s="435"/>
-      <c r="N17" s="436"/>
+      <c r="N17" s="435"/>
       <c r="O17" s="436"/>
-      <c r="P17" s="439"/>
-      <c r="Q17" s="435"/>
+      <c r="P17" s="436"/>
+      <c r="Q17" s="439"/>
       <c r="R17" s="435"/>
       <c r="S17" s="435"/>
-      <c r="T17" s="436"/>
+      <c r="T17" s="435"/>
       <c r="U17" s="436"/>
       <c r="V17" s="436"/>
       <c r="W17" s="436"/>
@@ -20154,7 +20152,7 @@
       <c r="AA17" s="436"/>
       <c r="AB17" s="436"/>
       <c r="AC17" s="436"/>
-      <c r="AD17" s="465"/>
+      <c r="AD17" s="436"/>
       <c r="AE17" s="465"/>
       <c r="AF17" s="465"/>
       <c r="AG17" s="465"/>
@@ -20182,11 +20180,8 @@
       <c r="BC17" s="465"/>
       <c r="BD17" s="465"/>
       <c r="BE17" s="465"/>
-      <c r="BG17" s="462"/>
-      <c r="BH17" s="117">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
+      <c r="BF17" s="465"/>
+      <c r="BH17" s="462"/>
     </row>
     <row r="18" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="461" t="s">
@@ -20205,45 +20200,43 @@
       </c>
       <c r="G18" s="436"/>
       <c r="H18" s="436"/>
-      <c r="I18" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$269,$B18&amp;I$4,RefineriesData!$N$13:$N$269)</f>
+      <c r="I18" s="436"/>
+      <c r="J18" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$269,$B18&amp;J$4,RefineriesData!$N$13:$N$269)</f>
         <v>27.763122599999996</v>
-      </c>
-      <c r="J18" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B18&amp;J$5,RefineriesData!$N$13:$N$245)</f>
-        <v>3.9048398119126899</v>
       </c>
       <c r="K18" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B18&amp;K$5,RefineriesData!$N$13:$N$245)</f>
+        <v>3.9048398119126899</v>
+      </c>
+      <c r="L18" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B18&amp;L$5,RefineriesData!$N$13:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="435"/>
       <c r="M18" s="435"/>
-      <c r="N18" s="436"/>
+      <c r="N18" s="435"/>
       <c r="O18" s="436"/>
-      <c r="P18" s="439"/>
-      <c r="Q18" s="435"/>
-      <c r="R18" s="435">
+      <c r="P18" s="436"/>
+      <c r="Q18" s="439"/>
+      <c r="R18" s="435"/>
+      <c r="S18" s="435">
         <v>3</v>
       </c>
-      <c r="S18" s="435">
+      <c r="T18" s="435">
         <v>0</v>
       </c>
-      <c r="T18" s="464"/>
-      <c r="U18" s="435">
-        <f>U7</f>
+      <c r="U18" s="464"/>
+      <c r="V18" s="435">
+        <f>V7</f>
         <v>0.76</v>
       </c>
-      <c r="V18" s="435">
-        <f t="shared" ref="V18:W18" si="8">V7</f>
+      <c r="W18" s="435">
+        <f t="shared" ref="W18:X18" si="7">W7</f>
         <v>0.76</v>
       </c>
-      <c r="W18" s="435">
-        <f t="shared" si="8"/>
+      <c r="X18" s="435">
+        <f t="shared" si="7"/>
         <v>0.76</v>
-      </c>
-      <c r="X18" s="435">
-        <v>0</v>
       </c>
       <c r="Y18" s="435">
         <v>0</v>
@@ -20252,22 +20245,24 @@
         <v>0</v>
       </c>
       <c r="AA18" s="435">
-        <f>W18</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="435">
+        <f>X18</f>
         <v>0.76</v>
       </c>
-      <c r="AB18" s="435">
-        <f>AA18</f>
+      <c r="AC18" s="435">
+        <f>AB18</f>
         <v>0.76</v>
       </c>
-      <c r="AC18" s="464">
-        <f>U18*AD18/F18</f>
+      <c r="AD18" s="464">
+        <f>V18*AE18/F18</f>
         <v>151.75379956651199</v>
       </c>
-      <c r="AD18" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$270,$B18&amp;AD$3,RefineriesData!$N$16:$N$270)</f>
+      <c r="AE18" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$270,$B18&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
         <v>190.08954718866366</v>
       </c>
-      <c r="AE18" s="465"/>
       <c r="AF18" s="465"/>
       <c r="AG18" s="465"/>
       <c r="AH18" s="465"/>
@@ -20291,12 +20286,15 @@
       <c r="AZ18" s="465"/>
       <c r="BA18" s="465"/>
       <c r="BB18" s="465"/>
-      <c r="BC18" s="465"/>
-      <c r="BD18" s="465"/>
+      <c r="BC18" s="465">
+        <f>AE18</f>
+        <v>190.08954718866366</v>
+      </c>
+      <c r="BD18" s="465">
+        <v>0</v>
+      </c>
       <c r="BE18" s="465"/>
-      <c r="BH18" s="117">
-        <v>1</v>
-      </c>
+      <c r="BF18" s="465"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="461"/>
@@ -20305,22 +20303,21 @@
         <v>825</v>
       </c>
       <c r="F19" s="436"/>
-      <c r="H19" s="482">
+      <c r="I19" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B18&amp;C19,RefineriesData!$N$16:$N$270)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="439"/>
-      <c r="J19" s="435"/>
+      <c r="J19" s="439"/>
       <c r="K19" s="435"/>
       <c r="L19" s="435"/>
       <c r="M19" s="435"/>
-      <c r="N19" s="436"/>
+      <c r="N19" s="435"/>
       <c r="O19" s="436"/>
-      <c r="P19" s="439"/>
-      <c r="Q19" s="435"/>
+      <c r="P19" s="436"/>
+      <c r="Q19" s="439"/>
       <c r="R19" s="435"/>
       <c r="S19" s="435"/>
-      <c r="T19" s="436"/>
+      <c r="T19" s="435"/>
       <c r="U19" s="436"/>
       <c r="V19" s="436"/>
       <c r="W19" s="436"/>
@@ -20329,8 +20326,8 @@
       <c r="Z19" s="436"/>
       <c r="AA19" s="436"/>
       <c r="AB19" s="436"/>
-      <c r="AC19" s="435"/>
-      <c r="AD19" s="465"/>
+      <c r="AC19" s="436"/>
+      <c r="AD19" s="435"/>
       <c r="AE19" s="465"/>
       <c r="AF19" s="465"/>
       <c r="AG19" s="465"/>
@@ -20358,10 +20355,7 @@
       <c r="BC19" s="465"/>
       <c r="BD19" s="465"/>
       <c r="BE19" s="465"/>
-      <c r="BH19" s="117">
-        <f t="shared" ref="BH19:BH28" si="9">BH18+1</f>
-        <v>2</v>
-      </c>
+      <c r="BF19" s="465"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="461"/>
@@ -20371,22 +20365,22 @@
       </c>
       <c r="F20" s="436"/>
       <c r="G20" s="436"/>
-      <c r="H20" s="482">
+      <c r="H20" s="436"/>
+      <c r="I20" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B18&amp;C20,RefineriesData!$N$16:$N$270)</f>
         <v>4.5130780547547305E-3</v>
       </c>
-      <c r="I20" s="439"/>
-      <c r="J20" s="435"/>
+      <c r="J20" s="439"/>
       <c r="K20" s="435"/>
       <c r="L20" s="435"/>
       <c r="M20" s="435"/>
-      <c r="N20" s="436"/>
+      <c r="N20" s="435"/>
       <c r="O20" s="436"/>
-      <c r="P20" s="439"/>
-      <c r="Q20" s="435"/>
+      <c r="P20" s="436"/>
+      <c r="Q20" s="439"/>
       <c r="R20" s="435"/>
       <c r="S20" s="435"/>
-      <c r="T20" s="436"/>
+      <c r="T20" s="435"/>
       <c r="U20" s="436"/>
       <c r="V20" s="436"/>
       <c r="W20" s="436"/>
@@ -20395,8 +20389,8 @@
       <c r="Z20" s="436"/>
       <c r="AA20" s="436"/>
       <c r="AB20" s="436"/>
-      <c r="AC20" s="435"/>
-      <c r="AD20" s="465"/>
+      <c r="AC20" s="436"/>
+      <c r="AD20" s="435"/>
       <c r="AE20" s="465"/>
       <c r="AF20" s="465"/>
       <c r="AG20" s="465"/>
@@ -20424,11 +20418,8 @@
       <c r="BC20" s="465"/>
       <c r="BD20" s="465"/>
       <c r="BE20" s="465"/>
-      <c r="BG20" s="462"/>
-      <c r="BH20" s="117">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
+      <c r="BF20" s="465"/>
+      <c r="BH20" s="462"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="461"/>
@@ -20438,23 +20429,25 @@
         <v>525</v>
       </c>
       <c r="F21" s="436"/>
-      <c r="G21" s="442">
+      <c r="G21" s="437">
+        <v>3</v>
+      </c>
+      <c r="H21" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E21,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="442"/>
-      <c r="I21" s="439"/>
-      <c r="J21" s="435"/>
+      <c r="I21" s="442"/>
+      <c r="J21" s="439"/>
       <c r="K21" s="435"/>
       <c r="L21" s="435"/>
       <c r="M21" s="435"/>
-      <c r="N21" s="436"/>
+      <c r="N21" s="435"/>
       <c r="O21" s="436"/>
-      <c r="P21" s="439"/>
-      <c r="Q21" s="435"/>
+      <c r="P21" s="436"/>
+      <c r="Q21" s="439"/>
       <c r="R21" s="435"/>
       <c r="S21" s="435"/>
-      <c r="T21" s="436"/>
+      <c r="T21" s="435"/>
       <c r="U21" s="436"/>
       <c r="V21" s="436"/>
       <c r="W21" s="436"/>
@@ -20463,11 +20456,11 @@
       <c r="Z21" s="436"/>
       <c r="AA21" s="436"/>
       <c r="AB21" s="436"/>
-      <c r="AC21" s="435">
-        <f>AC$18*F$18*G21</f>
+      <c r="AC21" s="436"/>
+      <c r="AD21" s="435">
+        <f>AD$18*F$18*H21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="465"/>
       <c r="AE21" s="465"/>
       <c r="AF21" s="465"/>
       <c r="AG21" s="465"/>
@@ -20495,11 +20488,8 @@
       <c r="BC21" s="465"/>
       <c r="BD21" s="465"/>
       <c r="BE21" s="465"/>
-      <c r="BG21" s="462"/>
-      <c r="BH21" s="117">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
+      <c r="BF21" s="465"/>
+      <c r="BH21" s="462"/>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="461"/>
@@ -20509,23 +20499,25 @@
         <v>499</v>
       </c>
       <c r="F22" s="436"/>
-      <c r="G22" s="442">
+      <c r="G22" s="437">
+        <v>3</v>
+      </c>
+      <c r="H22" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E22,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.35276939364868132</v>
       </c>
-      <c r="H22" s="442"/>
-      <c r="I22" s="439"/>
-      <c r="J22" s="435"/>
+      <c r="I22" s="442"/>
+      <c r="J22" s="439"/>
       <c r="K22" s="435"/>
       <c r="L22" s="435"/>
       <c r="M22" s="435"/>
-      <c r="N22" s="436"/>
+      <c r="N22" s="435"/>
       <c r="O22" s="436"/>
-      <c r="P22" s="439"/>
-      <c r="Q22" s="435"/>
+      <c r="P22" s="436"/>
+      <c r="Q22" s="439"/>
       <c r="R22" s="435"/>
       <c r="S22" s="435"/>
-      <c r="T22" s="436"/>
+      <c r="T22" s="435"/>
       <c r="U22" s="436"/>
       <c r="V22" s="436"/>
       <c r="W22" s="436"/>
@@ -20534,11 +20526,11 @@
       <c r="Z22" s="436"/>
       <c r="AA22" s="436"/>
       <c r="AB22" s="436"/>
-      <c r="AC22" s="435">
-        <f t="shared" ref="AC22:AC27" si="10">AC$18*F$18*G22</f>
+      <c r="AC22" s="436"/>
+      <c r="AD22" s="435">
+        <f t="shared" ref="AD22:AD27" si="8">AD$18*F$18*H22</f>
         <v>50.96390846852993</v>
       </c>
-      <c r="AD22" s="465"/>
       <c r="AE22" s="465"/>
       <c r="AF22" s="465"/>
       <c r="AG22" s="465"/>
@@ -20566,11 +20558,8 @@
       <c r="BC22" s="465"/>
       <c r="BD22" s="465"/>
       <c r="BE22" s="465"/>
-      <c r="BG22" s="462"/>
-      <c r="BH22" s="117">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
+      <c r="BF22" s="465"/>
+      <c r="BH22" s="462"/>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="461"/>
@@ -20580,23 +20569,25 @@
         <v>497</v>
       </c>
       <c r="F23" s="436"/>
-      <c r="G23" s="442">
+      <c r="G23" s="437">
+        <v>3</v>
+      </c>
+      <c r="H23" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E23,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.3002204613879127</v>
       </c>
-      <c r="H23" s="442"/>
-      <c r="I23" s="439"/>
-      <c r="J23" s="435"/>
+      <c r="I23" s="442"/>
+      <c r="J23" s="439"/>
       <c r="K23" s="435"/>
       <c r="L23" s="435"/>
       <c r="M23" s="435"/>
-      <c r="N23" s="436"/>
+      <c r="N23" s="435"/>
       <c r="O23" s="436"/>
-      <c r="P23" s="439"/>
-      <c r="Q23" s="435"/>
+      <c r="P23" s="436"/>
+      <c r="Q23" s="439"/>
       <c r="R23" s="435"/>
       <c r="S23" s="435"/>
-      <c r="T23" s="436"/>
+      <c r="T23" s="435"/>
       <c r="U23" s="436"/>
       <c r="V23" s="436"/>
       <c r="W23" s="436"/>
@@ -20605,11 +20596,11 @@
       <c r="Z23" s="436"/>
       <c r="AA23" s="436"/>
       <c r="AB23" s="436"/>
-      <c r="AC23" s="435">
-        <f t="shared" si="10"/>
+      <c r="AC23" s="436"/>
+      <c r="AD23" s="435">
+        <f t="shared" si="8"/>
         <v>43.372266387120007</v>
       </c>
-      <c r="AD23" s="465"/>
       <c r="AE23" s="465"/>
       <c r="AF23" s="465"/>
       <c r="AG23" s="465"/>
@@ -20637,11 +20628,8 @@
       <c r="BC23" s="465"/>
       <c r="BD23" s="465"/>
       <c r="BE23" s="465"/>
-      <c r="BG23" s="462"/>
-      <c r="BH23" s="117">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+      <c r="BF23" s="465"/>
+      <c r="BH23" s="462"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="461"/>
@@ -20651,23 +20639,25 @@
         <v>491</v>
       </c>
       <c r="F24" s="436"/>
-      <c r="G24" s="442">
+      <c r="G24" s="437">
+        <v>3</v>
+      </c>
+      <c r="H24" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E24,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.20197781416846072</v>
       </c>
-      <c r="H24" s="442"/>
-      <c r="I24" s="439"/>
-      <c r="J24" s="435"/>
+      <c r="I24" s="442"/>
+      <c r="J24" s="439"/>
       <c r="K24" s="435"/>
       <c r="L24" s="435"/>
       <c r="M24" s="435"/>
-      <c r="N24" s="436"/>
+      <c r="N24" s="435"/>
       <c r="O24" s="436"/>
-      <c r="P24" s="439"/>
-      <c r="Q24" s="435"/>
+      <c r="P24" s="436"/>
+      <c r="Q24" s="439"/>
       <c r="R24" s="435"/>
       <c r="S24" s="435"/>
-      <c r="T24" s="436"/>
+      <c r="T24" s="435"/>
       <c r="U24" s="436"/>
       <c r="V24" s="436"/>
       <c r="W24" s="436"/>
@@ -20676,11 +20666,11 @@
       <c r="Z24" s="436"/>
       <c r="AA24" s="436"/>
       <c r="AB24" s="436"/>
-      <c r="AC24" s="435">
-        <f t="shared" si="10"/>
+      <c r="AC24" s="436"/>
+      <c r="AD24" s="435">
+        <f t="shared" si="8"/>
         <v>29.179342140453457</v>
       </c>
-      <c r="AD24" s="465"/>
       <c r="AE24" s="465"/>
       <c r="AF24" s="465"/>
       <c r="AG24" s="465"/>
@@ -20708,11 +20698,8 @@
       <c r="BC24" s="465"/>
       <c r="BD24" s="465"/>
       <c r="BE24" s="465"/>
-      <c r="BG24" s="462"/>
-      <c r="BH24" s="117">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
+      <c r="BF24" s="465"/>
+      <c r="BH24" s="462"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="461"/>
@@ -20722,23 +20709,25 @@
         <v>490</v>
       </c>
       <c r="F25" s="436"/>
-      <c r="G25" s="442">
+      <c r="G25" s="437">
+        <v>3</v>
+      </c>
+      <c r="H25" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E25,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.12524521696188154</v>
       </c>
-      <c r="H25" s="442"/>
-      <c r="I25" s="439"/>
-      <c r="J25" s="435"/>
+      <c r="I25" s="442"/>
+      <c r="J25" s="439"/>
       <c r="K25" s="435"/>
       <c r="L25" s="435"/>
       <c r="M25" s="435"/>
-      <c r="N25" s="436"/>
+      <c r="N25" s="435"/>
       <c r="O25" s="436"/>
-      <c r="P25" s="439"/>
-      <c r="Q25" s="435"/>
+      <c r="P25" s="436"/>
+      <c r="Q25" s="439"/>
       <c r="R25" s="435"/>
       <c r="S25" s="435"/>
-      <c r="T25" s="436"/>
+      <c r="T25" s="435"/>
       <c r="U25" s="436"/>
       <c r="V25" s="436"/>
       <c r="W25" s="436"/>
@@ -20747,11 +20736,11 @@
       <c r="Z25" s="436"/>
       <c r="AA25" s="436"/>
       <c r="AB25" s="436"/>
-      <c r="AC25" s="435">
-        <f t="shared" si="10"/>
+      <c r="AC25" s="436"/>
+      <c r="AD25" s="435">
+        <f t="shared" si="8"/>
         <v>18.093933000670802</v>
       </c>
-      <c r="AD25" s="465"/>
       <c r="AE25" s="465"/>
       <c r="AF25" s="465"/>
       <c r="AG25" s="465"/>
@@ -20779,11 +20768,8 @@
       <c r="BC25" s="465"/>
       <c r="BD25" s="465"/>
       <c r="BE25" s="465"/>
-      <c r="BG25" s="462"/>
-      <c r="BH25" s="117">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
+      <c r="BF25" s="465"/>
+      <c r="BH25" s="462"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="461"/>
@@ -20793,23 +20779,25 @@
         <v>487</v>
       </c>
       <c r="F26" s="436"/>
-      <c r="G26" s="442">
+      <c r="G26" s="437">
+        <v>3</v>
+      </c>
+      <c r="H26" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E26,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="442"/>
-      <c r="I26" s="439"/>
-      <c r="J26" s="435"/>
+      <c r="I26" s="442"/>
+      <c r="J26" s="439"/>
       <c r="K26" s="435"/>
       <c r="L26" s="435"/>
       <c r="M26" s="435"/>
-      <c r="N26" s="436"/>
+      <c r="N26" s="435"/>
       <c r="O26" s="436"/>
-      <c r="P26" s="439"/>
-      <c r="Q26" s="435"/>
+      <c r="P26" s="436"/>
+      <c r="Q26" s="439"/>
       <c r="R26" s="435"/>
       <c r="S26" s="435"/>
-      <c r="T26" s="436"/>
+      <c r="T26" s="435"/>
       <c r="U26" s="436"/>
       <c r="V26" s="436"/>
       <c r="W26" s="436"/>
@@ -20818,11 +20806,11 @@
       <c r="Z26" s="436"/>
       <c r="AA26" s="436"/>
       <c r="AB26" s="436"/>
-      <c r="AC26" s="435">
-        <f t="shared" si="10"/>
+      <c r="AC26" s="436"/>
+      <c r="AD26" s="435">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="465"/>
       <c r="AE26" s="465"/>
       <c r="AF26" s="465"/>
       <c r="AG26" s="465"/>
@@ -20850,11 +20838,8 @@
       <c r="BC26" s="465"/>
       <c r="BD26" s="465"/>
       <c r="BE26" s="465"/>
-      <c r="BG26" s="462"/>
-      <c r="BH26" s="117">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
+      <c r="BF26" s="465"/>
+      <c r="BH26" s="462"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="461"/>
@@ -20864,23 +20849,25 @@
         <v>485</v>
       </c>
       <c r="F27" s="436"/>
-      <c r="G27" s="442">
-        <f>1-SUM(G21:G26)</f>
+      <c r="G27" s="437">
+        <v>3</v>
+      </c>
+      <c r="H27" s="442">
+        <f>1-SUM(H21:H26)</f>
         <v>1.9787113833063752E-2</v>
       </c>
-      <c r="H27" s="442"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="435"/>
+      <c r="I27" s="442"/>
+      <c r="J27" s="439"/>
       <c r="K27" s="435"/>
       <c r="L27" s="435"/>
       <c r="M27" s="435"/>
-      <c r="N27" s="436"/>
+      <c r="N27" s="435"/>
       <c r="O27" s="436"/>
-      <c r="P27" s="439"/>
-      <c r="Q27" s="435"/>
+      <c r="P27" s="436"/>
+      <c r="Q27" s="439"/>
       <c r="R27" s="435"/>
       <c r="S27" s="435"/>
-      <c r="T27" s="436"/>
+      <c r="T27" s="435"/>
       <c r="U27" s="436"/>
       <c r="V27" s="436"/>
       <c r="W27" s="436"/>
@@ -20889,11 +20876,11 @@
       <c r="Z27" s="436"/>
       <c r="AA27" s="436"/>
       <c r="AB27" s="436"/>
-      <c r="AC27" s="435">
-        <f t="shared" si="10"/>
+      <c r="AC27" s="436"/>
+      <c r="AD27" s="435">
+        <f t="shared" si="8"/>
         <v>2.8586058666102003</v>
       </c>
-      <c r="AD27" s="465"/>
       <c r="AE27" s="465"/>
       <c r="AF27" s="465"/>
       <c r="AG27" s="465"/>
@@ -20921,11 +20908,8 @@
       <c r="BC27" s="465"/>
       <c r="BD27" s="465"/>
       <c r="BE27" s="465"/>
-      <c r="BG27" s="462"/>
-      <c r="BH27" s="117">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
+      <c r="BF27" s="465"/>
+      <c r="BH27" s="462"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="460" t="s">
@@ -20936,18 +20920,18 @@
       <c r="F28" s="436"/>
       <c r="G28" s="436"/>
       <c r="H28" s="436"/>
-      <c r="I28" s="439"/>
-      <c r="J28" s="435"/>
+      <c r="I28" s="436"/>
+      <c r="J28" s="439"/>
       <c r="K28" s="435"/>
       <c r="L28" s="435"/>
       <c r="M28" s="435"/>
-      <c r="N28" s="436"/>
+      <c r="N28" s="435"/>
       <c r="O28" s="436"/>
-      <c r="P28" s="439"/>
-      <c r="Q28" s="435"/>
+      <c r="P28" s="436"/>
+      <c r="Q28" s="439"/>
       <c r="R28" s="435"/>
       <c r="S28" s="435"/>
-      <c r="T28" s="436"/>
+      <c r="T28" s="435"/>
       <c r="U28" s="436"/>
       <c r="V28" s="436"/>
       <c r="W28" s="436"/>
@@ -20956,8 +20940,8 @@
       <c r="Z28" s="436"/>
       <c r="AA28" s="436"/>
       <c r="AB28" s="436"/>
-      <c r="AC28" s="435"/>
-      <c r="AD28" s="465"/>
+      <c r="AC28" s="436"/>
+      <c r="AD28" s="435"/>
       <c r="AE28" s="465"/>
       <c r="AF28" s="465"/>
       <c r="AG28" s="465"/>
@@ -20985,11 +20969,8 @@
       <c r="BC28" s="465"/>
       <c r="BD28" s="465"/>
       <c r="BE28" s="465"/>
-      <c r="BG28" s="462"/>
-      <c r="BH28" s="117">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
+      <c r="BF28" s="465"/>
+      <c r="BH28" s="462"/>
     </row>
     <row r="29" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="461" t="s">
@@ -21008,71 +20989,71 @@
       </c>
       <c r="G29" s="436"/>
       <c r="H29" s="436"/>
-      <c r="I29" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$269,$B29&amp;I$4,RefineriesData!$N$13:$N$269)</f>
+      <c r="I29" s="436"/>
+      <c r="J29" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$269,$B29&amp;J$4,RefineriesData!$N$13:$N$269)</f>
         <v>27.763122599999996</v>
-      </c>
-      <c r="J29" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B29&amp;J$5,RefineriesData!$N$13:$N$245)</f>
-        <v>4.3387109021252108</v>
       </c>
       <c r="K29" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B29&amp;K$5,RefineriesData!$N$13:$N$245)</f>
+        <v>4.3387109021252108</v>
+      </c>
+      <c r="L29" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B29&amp;L$5,RefineriesData!$N$13:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="435"/>
       <c r="M29" s="435"/>
-      <c r="N29" s="436"/>
+      <c r="N29" s="435"/>
       <c r="O29" s="436"/>
-      <c r="P29" s="439"/>
-      <c r="Q29" s="435"/>
-      <c r="R29" s="435">
+      <c r="P29" s="436"/>
+      <c r="Q29" s="439"/>
+      <c r="R29" s="435"/>
+      <c r="S29" s="435">
         <v>3</v>
       </c>
-      <c r="S29" s="435">
+      <c r="T29" s="435">
         <v>0</v>
       </c>
-      <c r="T29" s="464"/>
-      <c r="U29" s="442">
-        <f>U18</f>
+      <c r="U29" s="464"/>
+      <c r="V29" s="442">
+        <f>V18</f>
         <v>0.76</v>
       </c>
-      <c r="V29" s="442">
-        <f t="shared" ref="V29:W29" si="11">V18</f>
+      <c r="W29" s="442">
+        <f t="shared" ref="W29:X29" si="9">W18</f>
         <v>0.76</v>
       </c>
-      <c r="W29" s="442">
-        <f t="shared" si="11"/>
+      <c r="X29" s="442">
+        <f t="shared" si="9"/>
         <v>0.76</v>
       </c>
-      <c r="X29" s="442">
+      <c r="Y29" s="442">
         <v>0</v>
       </c>
-      <c r="Y29" s="442">
-        <f>V29</f>
+      <c r="Z29" s="442">
+        <f>W29</f>
         <v>0.76</v>
       </c>
-      <c r="Z29" s="442">
-        <f t="shared" ref="Z29" si="12">W29</f>
-        <v>0.76</v>
-      </c>
       <c r="AA29" s="442">
-        <f>Z29</f>
+        <f t="shared" ref="AA29" si="10">X29</f>
         <v>0.76</v>
       </c>
       <c r="AB29" s="442">
         <f>AA29</f>
         <v>0.76</v>
       </c>
-      <c r="AC29" s="464">
-        <f>U29*AD29/F29</f>
+      <c r="AC29" s="442">
+        <f>AB29</f>
+        <v>0.76</v>
+      </c>
+      <c r="AD29" s="464">
+        <f>V29*AE29/F29</f>
         <v>167.22576194085102</v>
       </c>
-      <c r="AD29" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$270,$B29&amp;AD$3,RefineriesData!$N$16:$N$270)</f>
+      <c r="AE29" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$270,$B29&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
         <v>212.15979141387726</v>
       </c>
-      <c r="AE29" s="465"/>
       <c r="AF29" s="465"/>
       <c r="AG29" s="465"/>
       <c r="AH29" s="465"/>
@@ -21096,14 +21077,16 @@
       <c r="AZ29" s="465"/>
       <c r="BA29" s="465"/>
       <c r="BB29" s="465"/>
-      <c r="BC29" s="465"/>
-      <c r="BD29" s="465"/>
+      <c r="BC29" s="465">
+        <f>AE29</f>
+        <v>212.15979141387726</v>
+      </c>
+      <c r="BD29" s="465">
+        <v>0</v>
+      </c>
       <c r="BE29" s="465"/>
-      <c r="BG29" s="462"/>
-      <c r="BH29" s="117">
-        <f>BH17+1</f>
-        <v>12</v>
-      </c>
+      <c r="BF29" s="465"/>
+      <c r="BH29" s="462"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="461"/>
@@ -21113,22 +21096,22 @@
       </c>
       <c r="F30" s="436"/>
       <c r="G30" s="436"/>
-      <c r="H30" s="482">
+      <c r="H30" s="436"/>
+      <c r="I30" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B29&amp;C30,RefineriesData!$N$16:$N$270)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="439"/>
-      <c r="J30" s="435"/>
+      <c r="J30" s="439"/>
       <c r="K30" s="435"/>
       <c r="L30" s="435"/>
       <c r="M30" s="435"/>
-      <c r="N30" s="436"/>
+      <c r="N30" s="435"/>
       <c r="O30" s="436"/>
-      <c r="P30" s="439"/>
-      <c r="Q30" s="435"/>
+      <c r="P30" s="436"/>
+      <c r="Q30" s="439"/>
       <c r="R30" s="435"/>
       <c r="S30" s="435"/>
-      <c r="T30" s="436"/>
+      <c r="T30" s="435"/>
       <c r="U30" s="436"/>
       <c r="V30" s="436"/>
       <c r="W30" s="436"/>
@@ -21138,7 +21121,7 @@
       <c r="AA30" s="436"/>
       <c r="AB30" s="436"/>
       <c r="AC30" s="436"/>
-      <c r="AD30" s="465"/>
+      <c r="AD30" s="436"/>
       <c r="AE30" s="465"/>
       <c r="AF30" s="465"/>
       <c r="AG30" s="465"/>
@@ -21166,11 +21149,8 @@
       <c r="BC30" s="465"/>
       <c r="BD30" s="465"/>
       <c r="BE30" s="465"/>
-      <c r="BG30" s="462"/>
-      <c r="BH30" s="117">
-        <f t="shared" ref="BH30:BH50" si="13">BH29+1</f>
-        <v>13</v>
-      </c>
+      <c r="BF30" s="465"/>
+      <c r="BH30" s="462"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="461"/>
@@ -21180,22 +21160,22 @@
       </c>
       <c r="F31" s="436"/>
       <c r="G31" s="436"/>
-      <c r="H31" s="482">
+      <c r="H31" s="436"/>
+      <c r="I31" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B29&amp;C31,RefineriesData!$N$16:$N$270)</f>
         <v>4.8281344602274104E-3</v>
       </c>
-      <c r="I31" s="439"/>
-      <c r="J31" s="435"/>
+      <c r="J31" s="439"/>
       <c r="K31" s="435"/>
       <c r="L31" s="435"/>
       <c r="M31" s="435"/>
-      <c r="N31" s="436"/>
+      <c r="N31" s="435"/>
       <c r="O31" s="436"/>
-      <c r="P31" s="439"/>
-      <c r="Q31" s="435"/>
+      <c r="P31" s="436"/>
+      <c r="Q31" s="439"/>
       <c r="R31" s="435"/>
       <c r="S31" s="435"/>
-      <c r="T31" s="436"/>
+      <c r="T31" s="435"/>
       <c r="U31" s="436"/>
       <c r="V31" s="436"/>
       <c r="W31" s="436"/>
@@ -21205,7 +21185,7 @@
       <c r="AA31" s="436"/>
       <c r="AB31" s="436"/>
       <c r="AC31" s="436"/>
-      <c r="AD31" s="465"/>
+      <c r="AD31" s="436"/>
       <c r="AE31" s="465"/>
       <c r="AF31" s="465"/>
       <c r="AG31" s="465"/>
@@ -21233,11 +21213,8 @@
       <c r="BC31" s="465"/>
       <c r="BD31" s="465"/>
       <c r="BE31" s="465"/>
-      <c r="BG31" s="462"/>
-      <c r="BH31" s="117">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
+      <c r="BF31" s="465"/>
+      <c r="BH31" s="462"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="461"/>
@@ -21247,23 +21224,25 @@
         <v>525</v>
       </c>
       <c r="F32" s="436"/>
-      <c r="G32" s="442">
+      <c r="G32" s="437">
+        <v>3</v>
+      </c>
+      <c r="H32" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E32,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="442"/>
-      <c r="I32" s="439"/>
-      <c r="J32" s="435"/>
+      <c r="I32" s="442"/>
+      <c r="J32" s="439"/>
       <c r="K32" s="435"/>
       <c r="L32" s="435"/>
       <c r="M32" s="435"/>
-      <c r="N32" s="436"/>
+      <c r="N32" s="435"/>
       <c r="O32" s="436"/>
-      <c r="P32" s="439"/>
-      <c r="Q32" s="435"/>
+      <c r="P32" s="436"/>
+      <c r="Q32" s="439"/>
       <c r="R32" s="435"/>
       <c r="S32" s="435"/>
-      <c r="T32" s="436"/>
+      <c r="T32" s="435"/>
       <c r="U32" s="436"/>
       <c r="V32" s="436"/>
       <c r="W32" s="436"/>
@@ -21272,11 +21251,11 @@
       <c r="Z32" s="436"/>
       <c r="AA32" s="436"/>
       <c r="AB32" s="436"/>
-      <c r="AC32" s="435">
-        <f>AC$29*F$29*G32</f>
+      <c r="AC32" s="436"/>
+      <c r="AD32" s="435">
+        <f>AD$29*F$29*H32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="465"/>
       <c r="AE32" s="465"/>
       <c r="AF32" s="465"/>
       <c r="AG32" s="465"/>
@@ -21304,11 +21283,8 @@
       <c r="BC32" s="465"/>
       <c r="BD32" s="465"/>
       <c r="BE32" s="465"/>
-      <c r="BG32" s="462"/>
-      <c r="BH32" s="117">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
+      <c r="BF32" s="465"/>
+      <c r="BH32" s="462"/>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="461"/>
@@ -21318,23 +21294,25 @@
         <v>499</v>
       </c>
       <c r="F33" s="436"/>
-      <c r="G33" s="442">
+      <c r="G33" s="437">
+        <v>3</v>
+      </c>
+      <c r="H33" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E33,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.38519100880852519</v>
       </c>
-      <c r="H33" s="442"/>
-      <c r="I33" s="439"/>
-      <c r="J33" s="435"/>
+      <c r="I33" s="442"/>
+      <c r="J33" s="439"/>
       <c r="K33" s="435"/>
       <c r="L33" s="435"/>
       <c r="M33" s="435"/>
-      <c r="N33" s="436"/>
+      <c r="N33" s="435"/>
       <c r="O33" s="436"/>
-      <c r="P33" s="439"/>
-      <c r="Q33" s="435"/>
+      <c r="P33" s="436"/>
+      <c r="Q33" s="439"/>
       <c r="R33" s="435"/>
       <c r="S33" s="435"/>
-      <c r="T33" s="436"/>
+      <c r="T33" s="435"/>
       <c r="U33" s="436"/>
       <c r="V33" s="436"/>
       <c r="W33" s="436"/>
@@ -21343,11 +21321,11 @@
       <c r="Z33" s="436"/>
       <c r="AA33" s="436"/>
       <c r="AB33" s="436"/>
-      <c r="AC33" s="435">
-        <f t="shared" ref="AC33:AC38" si="14">AC$29*F$29*G33</f>
+      <c r="AC33" s="436"/>
+      <c r="AD33" s="435">
+        <f t="shared" ref="AD33:AD38" si="11">AD$29*F$29*H33</f>
         <v>62.108753503321424</v>
       </c>
-      <c r="AD33" s="465"/>
       <c r="AE33" s="465"/>
       <c r="AF33" s="465"/>
       <c r="AG33" s="465"/>
@@ -21375,11 +21353,8 @@
       <c r="BC33" s="465"/>
       <c r="BD33" s="465"/>
       <c r="BE33" s="465"/>
-      <c r="BG33" s="462"/>
-      <c r="BH33" s="117">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
+      <c r="BF33" s="465"/>
+      <c r="BH33" s="462"/>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="461"/>
@@ -21389,23 +21364,25 @@
         <v>497</v>
       </c>
       <c r="F34" s="436"/>
-      <c r="G34" s="442">
+      <c r="G34" s="437">
+        <v>3</v>
+      </c>
+      <c r="H34" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E34,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.32388872844513639</v>
       </c>
-      <c r="H34" s="442"/>
-      <c r="I34" s="439"/>
-      <c r="J34" s="435"/>
+      <c r="I34" s="442"/>
+      <c r="J34" s="439"/>
       <c r="K34" s="435"/>
       <c r="L34" s="435"/>
       <c r="M34" s="435"/>
-      <c r="N34" s="436"/>
+      <c r="N34" s="435"/>
       <c r="O34" s="436"/>
-      <c r="P34" s="439"/>
-      <c r="Q34" s="435"/>
+      <c r="P34" s="436"/>
+      <c r="Q34" s="439"/>
       <c r="R34" s="435"/>
       <c r="S34" s="435"/>
-      <c r="T34" s="436"/>
+      <c r="T34" s="435"/>
       <c r="U34" s="436"/>
       <c r="V34" s="436"/>
       <c r="W34" s="436"/>
@@ -21414,11 +21391,11 @@
       <c r="Z34" s="436"/>
       <c r="AA34" s="436"/>
       <c r="AB34" s="436"/>
-      <c r="AC34" s="435">
-        <f t="shared" si="14"/>
+      <c r="AC34" s="436"/>
+      <c r="AD34" s="435">
+        <f t="shared" si="11"/>
         <v>52.224285451851813</v>
       </c>
-      <c r="AD34" s="465"/>
       <c r="AE34" s="465"/>
       <c r="AF34" s="465"/>
       <c r="AG34" s="465"/>
@@ -21446,11 +21423,8 @@
       <c r="BC34" s="465"/>
       <c r="BD34" s="465"/>
       <c r="BE34" s="465"/>
-      <c r="BG34" s="462"/>
-      <c r="BH34" s="117">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
+      <c r="BF34" s="465"/>
+      <c r="BH34" s="462"/>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="461"/>
@@ -21460,23 +21434,25 @@
         <v>491</v>
       </c>
       <c r="F35" s="436"/>
-      <c r="G35" s="442">
+      <c r="G35" s="437">
+        <v>3</v>
+      </c>
+      <c r="H35" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E35,3),RefineriesData!$N$16:$N$245)</f>
         <v>3.70569602416869E-2</v>
       </c>
-      <c r="H35" s="442"/>
-      <c r="I35" s="439"/>
-      <c r="J35" s="435"/>
+      <c r="I35" s="442"/>
+      <c r="J35" s="439"/>
       <c r="K35" s="435"/>
       <c r="L35" s="435"/>
       <c r="M35" s="435"/>
-      <c r="N35" s="436"/>
+      <c r="N35" s="435"/>
       <c r="O35" s="436"/>
-      <c r="P35" s="439"/>
-      <c r="Q35" s="435"/>
+      <c r="P35" s="436"/>
+      <c r="Q35" s="439"/>
       <c r="R35" s="435"/>
       <c r="S35" s="435"/>
-      <c r="T35" s="436"/>
+      <c r="T35" s="435"/>
       <c r="U35" s="436"/>
       <c r="V35" s="436"/>
       <c r="W35" s="436"/>
@@ -21485,11 +21461,11 @@
       <c r="Z35" s="436"/>
       <c r="AA35" s="436"/>
       <c r="AB35" s="436"/>
-      <c r="AC35" s="435">
-        <f t="shared" si="14"/>
+      <c r="AC35" s="436"/>
+      <c r="AD35" s="435">
+        <f t="shared" si="11"/>
         <v>5.9751176860345625</v>
       </c>
-      <c r="AD35" s="465"/>
       <c r="AE35" s="465"/>
       <c r="AF35" s="465"/>
       <c r="AG35" s="465"/>
@@ -21517,11 +21493,8 @@
       <c r="BC35" s="465"/>
       <c r="BD35" s="465"/>
       <c r="BE35" s="465"/>
-      <c r="BG35" s="462"/>
-      <c r="BH35" s="117">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
+      <c r="BF35" s="465"/>
+      <c r="BH35" s="462"/>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="461"/>
@@ -21531,23 +21504,25 @@
         <v>490</v>
       </c>
       <c r="F36" s="436"/>
-      <c r="G36" s="442">
+      <c r="G36" s="437">
+        <v>3</v>
+      </c>
+      <c r="H36" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E36,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.21374627875427765</v>
       </c>
-      <c r="H36" s="442"/>
-      <c r="I36" s="439"/>
-      <c r="J36" s="435"/>
+      <c r="I36" s="442"/>
+      <c r="J36" s="439"/>
       <c r="K36" s="435"/>
       <c r="L36" s="435"/>
       <c r="M36" s="435"/>
-      <c r="N36" s="436"/>
+      <c r="N36" s="435"/>
       <c r="O36" s="436"/>
-      <c r="P36" s="439"/>
-      <c r="Q36" s="435"/>
+      <c r="P36" s="436"/>
+      <c r="Q36" s="439"/>
       <c r="R36" s="435"/>
       <c r="S36" s="435"/>
-      <c r="T36" s="436"/>
+      <c r="T36" s="435"/>
       <c r="U36" s="436"/>
       <c r="V36" s="436"/>
       <c r="W36" s="436"/>
@@ -21556,11 +21531,11 @@
       <c r="Z36" s="436"/>
       <c r="AA36" s="436"/>
       <c r="AB36" s="436"/>
-      <c r="AC36" s="435">
-        <f t="shared" si="14"/>
+      <c r="AC36" s="436"/>
+      <c r="AD36" s="435">
+        <f t="shared" si="11"/>
         <v>34.464758096160011</v>
       </c>
-      <c r="AD36" s="465"/>
       <c r="AE36" s="465"/>
       <c r="AF36" s="465"/>
       <c r="AG36" s="465"/>
@@ -21588,11 +21563,8 @@
       <c r="BC36" s="465"/>
       <c r="BD36" s="465"/>
       <c r="BE36" s="465"/>
-      <c r="BG36" s="462"/>
-      <c r="BH36" s="117">
-        <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
+      <c r="BF36" s="465"/>
+      <c r="BH36" s="462"/>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="461"/>
@@ -21602,23 +21574,25 @@
         <v>487</v>
       </c>
       <c r="F37" s="436"/>
-      <c r="G37" s="442">
+      <c r="G37" s="437">
+        <v>3</v>
+      </c>
+      <c r="H37" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E37,3),RefineriesData!$N$16:$N$245)</f>
         <v>2.6523977888853558E-3</v>
       </c>
-      <c r="H37" s="442"/>
-      <c r="I37" s="439"/>
-      <c r="J37" s="435"/>
+      <c r="I37" s="442"/>
+      <c r="J37" s="439"/>
       <c r="K37" s="435"/>
       <c r="L37" s="435"/>
       <c r="M37" s="435"/>
-      <c r="N37" s="436"/>
+      <c r="N37" s="435"/>
       <c r="O37" s="436"/>
-      <c r="P37" s="439"/>
-      <c r="Q37" s="435"/>
+      <c r="P37" s="436"/>
+      <c r="Q37" s="439"/>
       <c r="R37" s="435"/>
       <c r="S37" s="435"/>
-      <c r="T37" s="436"/>
+      <c r="T37" s="435"/>
       <c r="U37" s="436"/>
       <c r="V37" s="436"/>
       <c r="W37" s="436"/>
@@ -21627,11 +21601,11 @@
       <c r="Z37" s="436"/>
       <c r="AA37" s="436"/>
       <c r="AB37" s="436"/>
-      <c r="AC37" s="435">
-        <f t="shared" si="14"/>
+      <c r="AC37" s="436"/>
+      <c r="AD37" s="435">
+        <f t="shared" si="11"/>
         <v>0.42767644284377521</v>
       </c>
-      <c r="AD37" s="465"/>
       <c r="AE37" s="465"/>
       <c r="AF37" s="465"/>
       <c r="AG37" s="465"/>
@@ -21659,11 +21633,8 @@
       <c r="BC37" s="465"/>
       <c r="BD37" s="465"/>
       <c r="BE37" s="465"/>
-      <c r="BG37" s="462"/>
-      <c r="BH37" s="117">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
+      <c r="BF37" s="465"/>
+      <c r="BH37" s="462"/>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="461"/>
@@ -21673,23 +21644,25 @@
         <v>485</v>
       </c>
       <c r="F38" s="436"/>
-      <c r="G38" s="442">
+      <c r="G38" s="437">
+        <v>3</v>
+      </c>
+      <c r="H38" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B29&amp;RIGHT($E38,3),RefineriesData!$N$16:$N$245)</f>
         <v>3.7464625961488515E-2</v>
       </c>
-      <c r="H38" s="442"/>
-      <c r="I38" s="439"/>
-      <c r="J38" s="435"/>
+      <c r="I38" s="442"/>
+      <c r="J38" s="439"/>
       <c r="K38" s="435"/>
       <c r="L38" s="435"/>
       <c r="M38" s="435"/>
-      <c r="N38" s="436"/>
+      <c r="N38" s="435"/>
       <c r="O38" s="436"/>
-      <c r="P38" s="439"/>
-      <c r="Q38" s="435"/>
+      <c r="P38" s="436"/>
+      <c r="Q38" s="439"/>
       <c r="R38" s="435"/>
       <c r="S38" s="435"/>
-      <c r="T38" s="436"/>
+      <c r="T38" s="435"/>
       <c r="U38" s="436"/>
       <c r="V38" s="436"/>
       <c r="W38" s="436"/>
@@ -21698,11 +21671,11 @@
       <c r="Z38" s="436"/>
       <c r="AA38" s="436"/>
       <c r="AB38" s="436"/>
-      <c r="AC38" s="435">
-        <f t="shared" si="14"/>
+      <c r="AC38" s="436"/>
+      <c r="AD38" s="435">
+        <f t="shared" si="11"/>
         <v>6.0408502943351339</v>
       </c>
-      <c r="AD38" s="465"/>
       <c r="AE38" s="465"/>
       <c r="AF38" s="465"/>
       <c r="AG38" s="465"/>
@@ -21730,11 +21703,8 @@
       <c r="BC38" s="465"/>
       <c r="BD38" s="465"/>
       <c r="BE38" s="465"/>
-      <c r="BG38" s="462"/>
-      <c r="BH38" s="117">
-        <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
+      <c r="BF38" s="465"/>
+      <c r="BH38" s="462"/>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="461" t="s">
@@ -21745,18 +21715,18 @@
       <c r="F39" s="436"/>
       <c r="G39" s="442"/>
       <c r="H39" s="442"/>
-      <c r="I39" s="439"/>
-      <c r="J39" s="435"/>
+      <c r="I39" s="442"/>
+      <c r="J39" s="439"/>
       <c r="K39" s="435"/>
       <c r="L39" s="435"/>
       <c r="M39" s="435"/>
-      <c r="N39" s="436"/>
+      <c r="N39" s="435"/>
       <c r="O39" s="436"/>
-      <c r="P39" s="439"/>
-      <c r="Q39" s="435"/>
+      <c r="P39" s="436"/>
+      <c r="Q39" s="439"/>
       <c r="R39" s="435"/>
       <c r="S39" s="435"/>
-      <c r="T39" s="436"/>
+      <c r="T39" s="435"/>
       <c r="U39" s="436"/>
       <c r="V39" s="436"/>
       <c r="W39" s="436"/>
@@ -21766,7 +21736,7 @@
       <c r="AA39" s="436"/>
       <c r="AB39" s="436"/>
       <c r="AC39" s="436"/>
-      <c r="AD39" s="465"/>
+      <c r="AD39" s="436"/>
       <c r="AE39" s="465"/>
       <c r="AF39" s="465"/>
       <c r="AG39" s="465"/>
@@ -21794,11 +21764,8 @@
       <c r="BC39" s="465"/>
       <c r="BD39" s="465"/>
       <c r="BE39" s="465"/>
-      <c r="BG39" s="462"/>
-      <c r="BH39" s="117">
-        <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
+      <c r="BF39" s="465"/>
+      <c r="BH39" s="462"/>
     </row>
     <row r="40" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="461" t="s">
@@ -21817,34 +21784,31 @@
       </c>
       <c r="G40" s="436"/>
       <c r="H40" s="436"/>
-      <c r="I40" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$269,$B40&amp;I$4,RefineriesData!$N$13:$N$269)</f>
+      <c r="I40" s="436"/>
+      <c r="J40" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$269,$B40&amp;J$4,RefineriesData!$N$13:$N$269)</f>
         <v>66.311492399999992</v>
       </c>
-      <c r="L40" s="466">
+      <c r="M40" s="466">
         <f>RefineriesData!D243</f>
         <v>6.4894696089818042</v>
       </c>
-      <c r="M40" s="467">
+      <c r="N40" s="467">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N40" s="436"/>
       <c r="O40" s="436"/>
-      <c r="P40" s="439"/>
-      <c r="Q40" s="435"/>
-      <c r="R40" s="435">
+      <c r="P40" s="436"/>
+      <c r="Q40" s="439"/>
+      <c r="R40" s="435"/>
+      <c r="S40" s="435">
         <v>3</v>
       </c>
-      <c r="S40" s="435">
+      <c r="T40" s="435">
         <v>0</v>
       </c>
-      <c r="T40" s="464"/>
-      <c r="U40" s="435">
+      <c r="U40" s="464"/>
+      <c r="V40" s="435">
         <f>RefineriesData!D241</f>
-        <v>0.46714295102597259</v>
-      </c>
-      <c r="V40" s="435">
-        <f>U40</f>
         <v>0.46714295102597259</v>
       </c>
       <c r="W40" s="435">
@@ -21852,24 +21816,27 @@
         <v>0.46714295102597259</v>
       </c>
       <c r="X40" s="435">
+        <f>W40</f>
+        <v>0.46714295102597259</v>
+      </c>
+      <c r="Y40" s="435">
         <v>0</v>
       </c>
-      <c r="Y40" s="435">
+      <c r="Z40" s="435">
         <f>RefineriesData!H241</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="435"/>
       <c r="AA40" s="435"/>
       <c r="AB40" s="435"/>
-      <c r="AC40" s="464">
-        <f>U40*AD40/F40</f>
+      <c r="AC40" s="435"/>
+      <c r="AD40" s="464">
+        <f>V40*AE40/F40</f>
         <v>20.028765310925095</v>
       </c>
-      <c r="AD40" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$270,$B40&amp;AD$3,RefineriesData!$N$16:$N$270)</f>
+      <c r="AE40" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$270,$B40&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
         <v>58.795521804785629</v>
       </c>
-      <c r="AE40" s="465"/>
       <c r="AF40" s="465"/>
       <c r="AG40" s="465"/>
       <c r="AH40" s="465"/>
@@ -21896,11 +21863,8 @@
       <c r="BC40" s="465"/>
       <c r="BD40" s="465"/>
       <c r="BE40" s="465"/>
-      <c r="BG40" s="462"/>
-      <c r="BH40" s="117">
-        <f t="shared" si="13"/>
-        <v>23</v>
-      </c>
+      <c r="BF40" s="465"/>
+      <c r="BH40" s="462"/>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="461"/>
@@ -21910,17 +21874,17 @@
       </c>
       <c r="F41" s="435"/>
       <c r="G41" s="436"/>
-      <c r="H41" s="482">
+      <c r="H41" s="436"/>
+      <c r="I41" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B40&amp;C41,RefineriesData!$N$16:$N$270)</f>
         <v>0.24339802736239258</v>
       </c>
-      <c r="I41" s="439"/>
-      <c r="L41" s="435"/>
+      <c r="J41" s="439"/>
       <c r="M41" s="435"/>
-      <c r="N41" s="436"/>
+      <c r="N41" s="435"/>
       <c r="O41" s="436"/>
-      <c r="P41" s="439"/>
-      <c r="Q41" s="435"/>
+      <c r="P41" s="436"/>
+      <c r="Q41" s="439"/>
       <c r="R41" s="435"/>
       <c r="S41" s="435"/>
       <c r="T41" s="435"/>
@@ -21933,7 +21897,7 @@
       <c r="AA41" s="435"/>
       <c r="AB41" s="435"/>
       <c r="AC41" s="435"/>
-      <c r="AD41" s="465"/>
+      <c r="AD41" s="435"/>
       <c r="AE41" s="465"/>
       <c r="AF41" s="465"/>
       <c r="AG41" s="465"/>
@@ -21961,11 +21925,8 @@
       <c r="BC41" s="465"/>
       <c r="BD41" s="465"/>
       <c r="BE41" s="465"/>
-      <c r="BG41" s="462"/>
-      <c r="BH41" s="117">
-        <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
+      <c r="BF41" s="465"/>
+      <c r="BH41" s="462"/>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="461"/>
@@ -21975,20 +21936,20 @@
       </c>
       <c r="F42" s="436"/>
       <c r="G42" s="436"/>
-      <c r="H42" s="482">
+      <c r="H42" s="436"/>
+      <c r="I42" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B40&amp;C42,RefineriesData!$N$16:$N$270)</f>
         <v>2.3491886504442346E-2</v>
       </c>
-      <c r="I42" s="439"/>
-      <c r="L42" s="435"/>
+      <c r="J42" s="439"/>
       <c r="M42" s="435"/>
-      <c r="N42" s="436"/>
+      <c r="N42" s="435"/>
       <c r="O42" s="436"/>
-      <c r="P42" s="439"/>
-      <c r="Q42" s="435"/>
+      <c r="P42" s="436"/>
+      <c r="Q42" s="439"/>
       <c r="R42" s="435"/>
       <c r="S42" s="435"/>
-      <c r="T42" s="436"/>
+      <c r="T42" s="435"/>
       <c r="U42" s="436"/>
       <c r="V42" s="436"/>
       <c r="W42" s="436"/>
@@ -21998,7 +21959,7 @@
       <c r="AA42" s="436"/>
       <c r="AB42" s="436"/>
       <c r="AC42" s="436"/>
-      <c r="AD42" s="465"/>
+      <c r="AD42" s="436"/>
       <c r="AE42" s="465"/>
       <c r="AF42" s="465"/>
       <c r="AG42" s="465"/>
@@ -22026,11 +21987,8 @@
       <c r="BC42" s="465"/>
       <c r="BD42" s="465"/>
       <c r="BE42" s="465"/>
-      <c r="BG42" s="462"/>
-      <c r="BH42" s="117">
-        <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
+      <c r="BF42" s="465"/>
+      <c r="BH42" s="462"/>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="461"/>
@@ -22040,21 +21998,23 @@
         <v>491</v>
       </c>
       <c r="F43" s="436"/>
-      <c r="G43" s="442">
+      <c r="G43" s="437">
+        <v>3</v>
+      </c>
+      <c r="H43" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E43,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.04</v>
       </c>
-      <c r="H43" s="442"/>
-      <c r="I43" s="439"/>
-      <c r="L43" s="435"/>
+      <c r="I43" s="442"/>
+      <c r="J43" s="439"/>
       <c r="M43" s="435"/>
-      <c r="N43" s="436"/>
+      <c r="N43" s="435"/>
       <c r="O43" s="436"/>
-      <c r="P43" s="439"/>
-      <c r="Q43" s="435"/>
+      <c r="P43" s="436"/>
+      <c r="Q43" s="439"/>
       <c r="R43" s="435"/>
       <c r="S43" s="435"/>
-      <c r="T43" s="436"/>
+      <c r="T43" s="435"/>
       <c r="U43" s="436"/>
       <c r="V43" s="436"/>
       <c r="W43" s="436"/>
@@ -22063,11 +22023,11 @@
       <c r="Z43" s="436"/>
       <c r="AA43" s="436"/>
       <c r="AB43" s="436"/>
-      <c r="AC43" s="435">
-        <f>AC$40*F$40*G43</f>
+      <c r="AC43" s="436"/>
+      <c r="AD43" s="435">
+        <f>AD$40*F$40*H43</f>
         <v>1.0986365425199789</v>
       </c>
-      <c r="AD43" s="465"/>
       <c r="AE43" s="465"/>
       <c r="AF43" s="465"/>
       <c r="AG43" s="465"/>
@@ -22095,11 +22055,8 @@
       <c r="BC43" s="465"/>
       <c r="BD43" s="465"/>
       <c r="BE43" s="465"/>
-      <c r="BG43" s="462"/>
-      <c r="BH43" s="117">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
+      <c r="BF43" s="465"/>
+      <c r="BH43" s="462"/>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="461"/>
@@ -22109,21 +22066,23 @@
         <v>499</v>
       </c>
       <c r="F44" s="436"/>
-      <c r="G44" s="442">
+      <c r="G44" s="437">
+        <v>3</v>
+      </c>
+      <c r="H44" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E44,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.06</v>
       </c>
-      <c r="H44" s="442"/>
-      <c r="I44" s="439"/>
-      <c r="L44" s="435"/>
+      <c r="I44" s="442"/>
+      <c r="J44" s="439"/>
       <c r="M44" s="435"/>
-      <c r="N44" s="436"/>
+      <c r="N44" s="435"/>
       <c r="O44" s="436"/>
-      <c r="P44" s="439"/>
-      <c r="Q44" s="435"/>
+      <c r="P44" s="436"/>
+      <c r="Q44" s="439"/>
       <c r="R44" s="435"/>
       <c r="S44" s="435"/>
-      <c r="T44" s="436"/>
+      <c r="T44" s="435"/>
       <c r="U44" s="436"/>
       <c r="V44" s="436"/>
       <c r="W44" s="436"/>
@@ -22132,11 +22091,11 @@
       <c r="Z44" s="436"/>
       <c r="AA44" s="436"/>
       <c r="AB44" s="436"/>
-      <c r="AC44" s="435">
-        <f t="shared" ref="AC44:AC48" si="15">AC$40*F$40*G44</f>
+      <c r="AC44" s="436"/>
+      <c r="AD44" s="435">
+        <f>AD$40*F$40*H44</f>
         <v>1.6479548137799682</v>
       </c>
-      <c r="AD44" s="465"/>
       <c r="AE44" s="465"/>
       <c r="AF44" s="465"/>
       <c r="AG44" s="465"/>
@@ -22164,11 +22123,8 @@
       <c r="BC44" s="465"/>
       <c r="BD44" s="465"/>
       <c r="BE44" s="465"/>
-      <c r="BG44" s="462"/>
-      <c r="BH44" s="117">
-        <f t="shared" si="13"/>
-        <v>27</v>
-      </c>
+      <c r="BF44" s="465"/>
+      <c r="BH44" s="462"/>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" s="461"/>
@@ -22178,21 +22134,23 @@
         <v>497</v>
       </c>
       <c r="F45" s="436"/>
-      <c r="G45" s="442">
+      <c r="G45" s="437">
+        <v>3</v>
+      </c>
+      <c r="H45" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E45,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.53</v>
       </c>
-      <c r="H45" s="442"/>
-      <c r="I45" s="439"/>
-      <c r="L45" s="435"/>
+      <c r="I45" s="442"/>
+      <c r="J45" s="439"/>
       <c r="M45" s="435"/>
-      <c r="N45" s="436"/>
+      <c r="N45" s="435"/>
       <c r="O45" s="436"/>
-      <c r="P45" s="439"/>
-      <c r="Q45" s="435"/>
+      <c r="P45" s="436"/>
+      <c r="Q45" s="439"/>
       <c r="R45" s="435"/>
       <c r="S45" s="435"/>
-      <c r="T45" s="436"/>
+      <c r="T45" s="435"/>
       <c r="U45" s="436"/>
       <c r="V45" s="436"/>
       <c r="W45" s="436"/>
@@ -22201,11 +22159,11 @@
       <c r="Z45" s="436"/>
       <c r="AA45" s="436"/>
       <c r="AB45" s="436"/>
-      <c r="AC45" s="435">
-        <f t="shared" si="15"/>
+      <c r="AC45" s="436"/>
+      <c r="AD45" s="435">
+        <f>AD$40*F$40*H45</f>
         <v>14.55693418838972</v>
       </c>
-      <c r="AD45" s="465"/>
       <c r="AE45" s="465"/>
       <c r="AF45" s="465"/>
       <c r="AG45" s="465"/>
@@ -22233,11 +22191,8 @@
       <c r="BC45" s="465"/>
       <c r="BD45" s="465"/>
       <c r="BE45" s="465"/>
-      <c r="BG45" s="462"/>
-      <c r="BH45" s="117">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
+      <c r="BF45" s="465"/>
+      <c r="BH45" s="462"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="461"/>
@@ -22247,21 +22202,23 @@
         <v>490</v>
       </c>
       <c r="F46" s="436"/>
-      <c r="G46" s="442">
+      <c r="G46" s="437">
+        <v>3</v>
+      </c>
+      <c r="H46" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E46,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.11</v>
       </c>
-      <c r="H46" s="442"/>
-      <c r="I46" s="439"/>
-      <c r="L46" s="435"/>
+      <c r="I46" s="442"/>
+      <c r="J46" s="439"/>
       <c r="M46" s="435"/>
-      <c r="N46" s="436"/>
+      <c r="N46" s="435"/>
       <c r="O46" s="436"/>
-      <c r="P46" s="439"/>
-      <c r="Q46" s="435"/>
+      <c r="P46" s="436"/>
+      <c r="Q46" s="439"/>
       <c r="R46" s="435"/>
       <c r="S46" s="435"/>
-      <c r="T46" s="436"/>
+      <c r="T46" s="435"/>
       <c r="U46" s="436"/>
       <c r="V46" s="436"/>
       <c r="W46" s="436"/>
@@ -22270,11 +22227,11 @@
       <c r="Z46" s="436"/>
       <c r="AA46" s="436"/>
       <c r="AB46" s="436"/>
-      <c r="AC46" s="435">
-        <f t="shared" si="15"/>
+      <c r="AC46" s="436"/>
+      <c r="AD46" s="435">
+        <f>AD$40*F$40*H46</f>
         <v>3.0212504919299419</v>
       </c>
-      <c r="AD46" s="465"/>
       <c r="AE46" s="465"/>
       <c r="AF46" s="465"/>
       <c r="AG46" s="465"/>
@@ -22302,11 +22259,8 @@
       <c r="BC46" s="465"/>
       <c r="BD46" s="465"/>
       <c r="BE46" s="465"/>
-      <c r="BG46" s="462"/>
-      <c r="BH46" s="117">
-        <f t="shared" si="13"/>
-        <v>29</v>
-      </c>
+      <c r="BF46" s="465"/>
+      <c r="BH46" s="462"/>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" s="461"/>
@@ -22316,21 +22270,23 @@
         <v>487</v>
       </c>
       <c r="F47" s="436"/>
-      <c r="G47" s="442">
+      <c r="G47" s="437">
+        <v>3</v>
+      </c>
+      <c r="H47" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E47,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.08</v>
       </c>
-      <c r="H47" s="442"/>
-      <c r="I47" s="439"/>
-      <c r="L47" s="435"/>
+      <c r="I47" s="442"/>
+      <c r="J47" s="439"/>
       <c r="M47" s="435"/>
-      <c r="N47" s="436"/>
+      <c r="N47" s="435"/>
       <c r="O47" s="436"/>
-      <c r="P47" s="439"/>
-      <c r="Q47" s="435"/>
+      <c r="P47" s="436"/>
+      <c r="Q47" s="439"/>
       <c r="R47" s="435"/>
       <c r="S47" s="435"/>
-      <c r="T47" s="436"/>
+      <c r="T47" s="435"/>
       <c r="U47" s="436"/>
       <c r="V47" s="436"/>
       <c r="W47" s="436"/>
@@ -22339,11 +22295,11 @@
       <c r="Z47" s="436"/>
       <c r="AA47" s="436"/>
       <c r="AB47" s="436"/>
-      <c r="AC47" s="435">
-        <f t="shared" si="15"/>
+      <c r="AC47" s="436"/>
+      <c r="AD47" s="435">
+        <f>AD$40*F$40*H47</f>
         <v>2.1972730850399578</v>
       </c>
-      <c r="AD47" s="465"/>
       <c r="AE47" s="465"/>
       <c r="AF47" s="465"/>
       <c r="AG47" s="465"/>
@@ -22371,11 +22327,8 @@
       <c r="BC47" s="465"/>
       <c r="BD47" s="465"/>
       <c r="BE47" s="465"/>
-      <c r="BG47" s="462"/>
-      <c r="BH47" s="117">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
+      <c r="BF47" s="465"/>
+      <c r="BH47" s="462"/>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="461"/>
@@ -22385,21 +22338,23 @@
         <v>485</v>
       </c>
       <c r="F48" s="436"/>
-      <c r="G48" s="442">
+      <c r="G48" s="437">
+        <v>3</v>
+      </c>
+      <c r="H48" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B$40&amp;RIGHT($E48,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.18</v>
       </c>
-      <c r="H48" s="442"/>
-      <c r="I48" s="439"/>
-      <c r="L48" s="435"/>
+      <c r="I48" s="442"/>
+      <c r="J48" s="439"/>
       <c r="M48" s="435"/>
-      <c r="N48" s="436"/>
+      <c r="N48" s="435"/>
       <c r="O48" s="436"/>
-      <c r="P48" s="439"/>
-      <c r="Q48" s="435"/>
+      <c r="P48" s="436"/>
+      <c r="Q48" s="439"/>
       <c r="R48" s="435"/>
       <c r="S48" s="435"/>
-      <c r="T48" s="436"/>
+      <c r="T48" s="435"/>
       <c r="U48" s="436"/>
       <c r="V48" s="436"/>
       <c r="W48" s="436"/>
@@ -22408,11 +22363,11 @@
       <c r="Z48" s="436"/>
       <c r="AA48" s="436"/>
       <c r="AB48" s="436"/>
-      <c r="AC48" s="435">
-        <f t="shared" si="15"/>
+      <c r="AC48" s="436"/>
+      <c r="AD48" s="435">
+        <f>AD$40*F$40*H48</f>
         <v>4.9438644413399047</v>
       </c>
-      <c r="AD48" s="465"/>
       <c r="AE48" s="465"/>
       <c r="AF48" s="465"/>
       <c r="AG48" s="465"/>
@@ -22440,11 +22395,8 @@
       <c r="BC48" s="465"/>
       <c r="BD48" s="465"/>
       <c r="BE48" s="465"/>
-      <c r="BG48" s="462"/>
-      <c r="BH48" s="117">
-        <f t="shared" si="13"/>
-        <v>31</v>
-      </c>
+      <c r="BF48" s="465"/>
+      <c r="BH48" s="462"/>
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="461" t="s">
@@ -22455,16 +22407,16 @@
       <c r="F49" s="436"/>
       <c r="G49" s="442"/>
       <c r="H49" s="442"/>
-      <c r="I49" s="439"/>
-      <c r="L49" s="435"/>
+      <c r="I49" s="442"/>
+      <c r="J49" s="439"/>
       <c r="M49" s="435"/>
-      <c r="N49" s="436"/>
+      <c r="N49" s="435"/>
       <c r="O49" s="436"/>
-      <c r="P49" s="439"/>
-      <c r="Q49" s="435"/>
+      <c r="P49" s="436"/>
+      <c r="Q49" s="439"/>
       <c r="R49" s="435"/>
       <c r="S49" s="435"/>
-      <c r="T49" s="436"/>
+      <c r="T49" s="435"/>
       <c r="U49" s="436"/>
       <c r="V49" s="436"/>
       <c r="W49" s="436"/>
@@ -22474,7 +22426,7 @@
       <c r="AA49" s="436"/>
       <c r="AB49" s="436"/>
       <c r="AC49" s="436"/>
-      <c r="AD49" s="465"/>
+      <c r="AD49" s="436"/>
       <c r="AE49" s="465"/>
       <c r="AF49" s="465"/>
       <c r="AG49" s="465"/>
@@ -22502,11 +22454,8 @@
       <c r="BC49" s="465"/>
       <c r="BD49" s="465"/>
       <c r="BE49" s="465"/>
-      <c r="BG49" s="462"/>
-      <c r="BH49" s="117">
-        <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
+      <c r="BF49" s="465"/>
+      <c r="BH49" s="462"/>
     </row>
     <row r="50" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="461" t="s">
@@ -22524,44 +22473,44 @@
         <v>1.4398895185724963</v>
       </c>
       <c r="G50" s="436"/>
-      <c r="H50" s="482"/>
-      <c r="I50" s="439">
-        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;I$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="H50" s="436"/>
+      <c r="I50" s="482"/>
+      <c r="J50" s="439">
+        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>35.527165339469441</v>
       </c>
-      <c r="L50" s="466">
-        <f>L40</f>
+      <c r="M50" s="466">
+        <f>M40</f>
         <v>6.4894696089818042</v>
       </c>
-      <c r="M50" s="467">
-        <f>M40</f>
+      <c r="N50" s="467">
+        <f>N40</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N50" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$267,$B50&amp;N$4,RefineriesData!$N$13:$N$267)</f>
+      <c r="O50" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$267,$B50&amp;O$4,RefineriesData!$N$13:$N$267)</f>
         <v>2025</v>
       </c>
-      <c r="O50" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$269,$B50&amp;O$4,RefineriesData!$N$16:$N$269)</f>
+      <c r="P50" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$269,$B50&amp;P$4,RefineriesData!$N$16:$N$269)</f>
         <v>50</v>
       </c>
-      <c r="P50" s="441">
-        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;P$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="Q50" s="441">
+        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;Q$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>129.54169999999999</v>
       </c>
-      <c r="Q50" s="435">
+      <c r="R50" s="435">
         <v>-6</v>
-      </c>
-      <c r="R50" s="435" t="str">
-        <f>""</f>
-        <v/>
       </c>
       <c r="S50" s="435" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="T50" s="464"/>
-      <c r="U50" s="435"/>
+      <c r="T50" s="435" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="U50" s="464"/>
       <c r="V50" s="435"/>
       <c r="W50" s="435"/>
       <c r="X50" s="435"/>
@@ -22569,8 +22518,8 @@
       <c r="Z50" s="435"/>
       <c r="AA50" s="435"/>
       <c r="AB50" s="435"/>
-      <c r="AC50" s="464"/>
-      <c r="AD50" s="465"/>
+      <c r="AC50" s="435"/>
+      <c r="AD50" s="464"/>
       <c r="AE50" s="465"/>
       <c r="AF50" s="465"/>
       <c r="AG50" s="465"/>
@@ -22598,11 +22547,8 @@
       <c r="BC50" s="465"/>
       <c r="BD50" s="465"/>
       <c r="BE50" s="465"/>
-      <c r="BG50" s="462"/>
-      <c r="BH50" s="117">
-        <f t="shared" si="13"/>
-        <v>33</v>
-      </c>
+      <c r="BF50" s="465"/>
+      <c r="BH50" s="462"/>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="461"/>
@@ -22612,22 +22558,22 @@
       </c>
       <c r="F51" s="436"/>
       <c r="G51" s="436"/>
-      <c r="H51" s="482">
-        <f>H41</f>
+      <c r="H51" s="436"/>
+      <c r="I51" s="482">
+        <f>I41</f>
         <v>0.24339802736239258</v>
       </c>
-      <c r="I51" s="439"/>
-      <c r="J51" s="435"/>
+      <c r="J51" s="439"/>
       <c r="K51" s="435"/>
       <c r="L51" s="435"/>
       <c r="M51" s="435"/>
-      <c r="N51" s="436"/>
+      <c r="N51" s="435"/>
       <c r="O51" s="436"/>
-      <c r="P51" s="439"/>
-      <c r="Q51" s="435"/>
+      <c r="P51" s="436"/>
+      <c r="Q51" s="439"/>
       <c r="R51" s="435"/>
       <c r="S51" s="435"/>
-      <c r="T51" s="436"/>
+      <c r="T51" s="435"/>
       <c r="U51" s="436"/>
       <c r="V51" s="436"/>
       <c r="W51" s="436"/>
@@ -22637,7 +22583,7 @@
       <c r="AA51" s="436"/>
       <c r="AB51" s="436"/>
       <c r="AC51" s="436"/>
-      <c r="AD51" s="465"/>
+      <c r="AD51" s="436"/>
       <c r="AE51" s="465"/>
       <c r="AF51" s="465"/>
       <c r="AG51" s="465"/>
@@ -22665,11 +22611,8 @@
       <c r="BC51" s="465"/>
       <c r="BD51" s="465"/>
       <c r="BE51" s="465"/>
-      <c r="BG51" s="462"/>
-      <c r="BH51" s="117" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="BF51" s="465"/>
+      <c r="BH51" s="462"/>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="461"/>
@@ -22679,22 +22622,22 @@
       </c>
       <c r="F52" s="436"/>
       <c r="G52" s="436"/>
-      <c r="H52" s="482">
-        <f>H42</f>
+      <c r="H52" s="436"/>
+      <c r="I52" s="482">
+        <f>I42</f>
         <v>2.3491886504442346E-2</v>
       </c>
-      <c r="I52" s="439"/>
-      <c r="J52" s="435"/>
+      <c r="J52" s="439"/>
       <c r="K52" s="435"/>
       <c r="L52" s="435"/>
       <c r="M52" s="435"/>
-      <c r="N52" s="436"/>
+      <c r="N52" s="435"/>
       <c r="O52" s="436"/>
-      <c r="P52" s="439"/>
-      <c r="Q52" s="435"/>
+      <c r="P52" s="436"/>
+      <c r="Q52" s="439"/>
       <c r="R52" s="435"/>
       <c r="S52" s="435"/>
-      <c r="T52" s="436"/>
+      <c r="T52" s="435"/>
       <c r="U52" s="436"/>
       <c r="V52" s="436"/>
       <c r="W52" s="436"/>
@@ -22704,7 +22647,7 @@
       <c r="AA52" s="436"/>
       <c r="AB52" s="436"/>
       <c r="AC52" s="436"/>
-      <c r="AD52" s="465"/>
+      <c r="AD52" s="436"/>
       <c r="AE52" s="465"/>
       <c r="AF52" s="465"/>
       <c r="AG52" s="465"/>
@@ -22732,11 +22675,8 @@
       <c r="BC52" s="465"/>
       <c r="BD52" s="465"/>
       <c r="BE52" s="465"/>
-      <c r="BG52" s="462"/>
-      <c r="BH52" s="117" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="BF52" s="465"/>
+      <c r="BH52" s="462"/>
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="461"/>
@@ -22746,23 +22686,25 @@
         <v>525</v>
       </c>
       <c r="F53" s="436"/>
-      <c r="G53" s="442">
+      <c r="G53" s="437">
+        <v>3</v>
+      </c>
+      <c r="H53" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E53,3),RefineriesData!$N$16:$N$270)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="442"/>
-      <c r="I53" s="439"/>
-      <c r="J53" s="435"/>
+      <c r="I53" s="442"/>
+      <c r="J53" s="439"/>
       <c r="K53" s="435"/>
       <c r="L53" s="435"/>
       <c r="M53" s="435"/>
-      <c r="N53" s="436"/>
+      <c r="N53" s="435"/>
       <c r="O53" s="436"/>
-      <c r="P53" s="439"/>
-      <c r="Q53" s="435"/>
+      <c r="P53" s="436"/>
+      <c r="Q53" s="439"/>
       <c r="R53" s="435"/>
       <c r="S53" s="435"/>
-      <c r="T53" s="436"/>
+      <c r="T53" s="435"/>
       <c r="U53" s="436"/>
       <c r="V53" s="436"/>
       <c r="W53" s="436"/>
@@ -22772,7 +22714,7 @@
       <c r="AA53" s="436"/>
       <c r="AB53" s="436"/>
       <c r="AC53" s="436"/>
-      <c r="AD53" s="465"/>
+      <c r="AD53" s="436"/>
       <c r="AE53" s="465"/>
       <c r="AF53" s="465"/>
       <c r="AG53" s="465"/>
@@ -22800,11 +22742,8 @@
       <c r="BC53" s="465"/>
       <c r="BD53" s="465"/>
       <c r="BE53" s="465"/>
-      <c r="BG53" s="462"/>
-      <c r="BH53" s="117" t="e">
-        <f t="shared" ref="BH53:BH84" si="16">BH52+1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="BF53" s="465"/>
+      <c r="BH53" s="462"/>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="461"/>
@@ -22814,23 +22753,25 @@
         <v>499</v>
       </c>
       <c r="F54" s="436"/>
-      <c r="G54" s="442">
+      <c r="G54" s="437">
+        <v>3</v>
+      </c>
+      <c r="H54" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E54,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.28767932115906897</v>
       </c>
-      <c r="H54" s="442"/>
-      <c r="I54" s="439"/>
-      <c r="J54" s="435"/>
+      <c r="I54" s="442"/>
+      <c r="J54" s="439"/>
       <c r="K54" s="435"/>
       <c r="L54" s="435"/>
       <c r="M54" s="435"/>
-      <c r="N54" s="436"/>
+      <c r="N54" s="435"/>
       <c r="O54" s="436"/>
-      <c r="P54" s="439"/>
-      <c r="Q54" s="435"/>
+      <c r="P54" s="436"/>
+      <c r="Q54" s="439"/>
       <c r="R54" s="435"/>
       <c r="S54" s="435"/>
-      <c r="T54" s="436"/>
+      <c r="T54" s="435"/>
       <c r="U54" s="436"/>
       <c r="V54" s="436"/>
       <c r="W54" s="436"/>
@@ -22840,7 +22781,7 @@
       <c r="AA54" s="436"/>
       <c r="AB54" s="436"/>
       <c r="AC54" s="436"/>
-      <c r="AD54" s="465"/>
+      <c r="AD54" s="436"/>
       <c r="AE54" s="465"/>
       <c r="AF54" s="465"/>
       <c r="AG54" s="465"/>
@@ -22868,11 +22809,8 @@
       <c r="BC54" s="465"/>
       <c r="BD54" s="465"/>
       <c r="BE54" s="465"/>
-      <c r="BG54" s="462"/>
-      <c r="BH54" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF54" s="465"/>
+      <c r="BH54" s="462"/>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="461"/>
@@ -22882,23 +22820,25 @@
         <v>497</v>
       </c>
       <c r="F55" s="436"/>
-      <c r="G55" s="442">
+      <c r="G55" s="437">
+        <v>3</v>
+      </c>
+      <c r="H55" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E55,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.49809089633534509</v>
       </c>
-      <c r="H55" s="442"/>
-      <c r="I55" s="439"/>
-      <c r="J55" s="435"/>
+      <c r="I55" s="442"/>
+      <c r="J55" s="439"/>
       <c r="K55" s="435"/>
       <c r="L55" s="435"/>
       <c r="M55" s="435"/>
-      <c r="N55" s="436"/>
+      <c r="N55" s="435"/>
       <c r="O55" s="436"/>
-      <c r="P55" s="439"/>
-      <c r="Q55" s="435"/>
+      <c r="P55" s="436"/>
+      <c r="Q55" s="439"/>
       <c r="R55" s="435"/>
       <c r="S55" s="435"/>
-      <c r="T55" s="436"/>
+      <c r="T55" s="435"/>
       <c r="U55" s="436"/>
       <c r="V55" s="436"/>
       <c r="W55" s="436"/>
@@ -22908,7 +22848,7 @@
       <c r="AA55" s="436"/>
       <c r="AB55" s="436"/>
       <c r="AC55" s="436"/>
-      <c r="AD55" s="465"/>
+      <c r="AD55" s="436"/>
       <c r="AE55" s="465"/>
       <c r="AF55" s="465"/>
       <c r="AG55" s="465"/>
@@ -22936,11 +22876,8 @@
       <c r="BC55" s="465"/>
       <c r="BD55" s="465"/>
       <c r="BE55" s="465"/>
-      <c r="BG55" s="462"/>
-      <c r="BH55" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF55" s="465"/>
+      <c r="BH55" s="462"/>
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="461"/>
@@ -22950,23 +22887,25 @@
         <v>490</v>
       </c>
       <c r="F56" s="436"/>
-      <c r="G56" s="442">
+      <c r="G56" s="437">
+        <v>3</v>
+      </c>
+      <c r="H56" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E56,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.12259168661288511</v>
       </c>
-      <c r="H56" s="442"/>
-      <c r="I56" s="439"/>
-      <c r="J56" s="435"/>
+      <c r="I56" s="442"/>
+      <c r="J56" s="439"/>
       <c r="K56" s="435"/>
       <c r="L56" s="435"/>
       <c r="M56" s="435"/>
-      <c r="N56" s="436"/>
+      <c r="N56" s="435"/>
       <c r="O56" s="436"/>
-      <c r="P56" s="439"/>
-      <c r="Q56" s="435"/>
+      <c r="P56" s="436"/>
+      <c r="Q56" s="439"/>
       <c r="R56" s="435"/>
       <c r="S56" s="435"/>
-      <c r="T56" s="436"/>
+      <c r="T56" s="435"/>
       <c r="U56" s="436"/>
       <c r="V56" s="436"/>
       <c r="W56" s="436"/>
@@ -22976,7 +22915,7 @@
       <c r="AA56" s="436"/>
       <c r="AB56" s="436"/>
       <c r="AC56" s="436"/>
-      <c r="AD56" s="465"/>
+      <c r="AD56" s="436"/>
       <c r="AE56" s="465"/>
       <c r="AF56" s="465"/>
       <c r="AG56" s="465"/>
@@ -23004,11 +22943,8 @@
       <c r="BC56" s="465"/>
       <c r="BD56" s="465"/>
       <c r="BE56" s="465"/>
-      <c r="BG56" s="462"/>
-      <c r="BH56" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF56" s="465"/>
+      <c r="BH56" s="462"/>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="461"/>
@@ -23018,23 +22954,25 @@
         <v>487</v>
       </c>
       <c r="F57" s="436"/>
-      <c r="G57" s="442">
+      <c r="G57" s="437">
+        <v>3</v>
+      </c>
+      <c r="H57" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E57,3),RefineriesData!$N$16:$N$270)</f>
         <v>3.6696142945579213E-2</v>
       </c>
-      <c r="H57" s="442"/>
-      <c r="I57" s="439"/>
-      <c r="J57" s="435"/>
+      <c r="I57" s="442"/>
+      <c r="J57" s="439"/>
       <c r="K57" s="435"/>
       <c r="L57" s="435"/>
       <c r="M57" s="435"/>
-      <c r="N57" s="436"/>
+      <c r="N57" s="435"/>
       <c r="O57" s="436"/>
-      <c r="P57" s="439"/>
-      <c r="Q57" s="435"/>
+      <c r="P57" s="436"/>
+      <c r="Q57" s="439"/>
       <c r="R57" s="435"/>
       <c r="S57" s="435"/>
-      <c r="T57" s="436"/>
+      <c r="T57" s="435"/>
       <c r="U57" s="436"/>
       <c r="V57" s="436"/>
       <c r="W57" s="436"/>
@@ -23044,7 +22982,7 @@
       <c r="AA57" s="436"/>
       <c r="AB57" s="436"/>
       <c r="AC57" s="436"/>
-      <c r="AD57" s="465"/>
+      <c r="AD57" s="436"/>
       <c r="AE57" s="465"/>
       <c r="AF57" s="465"/>
       <c r="AG57" s="465"/>
@@ -23072,11 +23010,8 @@
       <c r="BC57" s="465"/>
       <c r="BD57" s="465"/>
       <c r="BE57" s="465"/>
-      <c r="BG57" s="462"/>
-      <c r="BH57" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF57" s="465"/>
+      <c r="BH57" s="462"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="461"/>
@@ -23086,23 +23021,25 @@
         <v>485</v>
       </c>
       <c r="F58" s="436"/>
-      <c r="G58" s="442">
+      <c r="G58" s="437">
+        <v>3</v>
+      </c>
+      <c r="H58" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E58,3),RefineriesData!$N$16:$N$270)</f>
         <v>5.4941952947121613E-2</v>
       </c>
-      <c r="H58" s="442"/>
-      <c r="I58" s="439"/>
-      <c r="J58" s="435"/>
+      <c r="I58" s="442"/>
+      <c r="J58" s="439"/>
       <c r="K58" s="435"/>
       <c r="L58" s="435"/>
       <c r="M58" s="435"/>
-      <c r="N58" s="436"/>
+      <c r="N58" s="435"/>
       <c r="O58" s="436"/>
-      <c r="P58" s="439"/>
-      <c r="Q58" s="435"/>
+      <c r="P58" s="436"/>
+      <c r="Q58" s="439"/>
       <c r="R58" s="435"/>
       <c r="S58" s="435"/>
-      <c r="T58" s="436"/>
+      <c r="T58" s="435"/>
       <c r="U58" s="436"/>
       <c r="V58" s="436"/>
       <c r="W58" s="436"/>
@@ -23112,7 +23049,7 @@
       <c r="AA58" s="436"/>
       <c r="AB58" s="436"/>
       <c r="AC58" s="436"/>
-      <c r="AD58" s="465"/>
+      <c r="AD58" s="436"/>
       <c r="AE58" s="465"/>
       <c r="AF58" s="465"/>
       <c r="AG58" s="465"/>
@@ -23140,11 +23077,8 @@
       <c r="BC58" s="465"/>
       <c r="BD58" s="465"/>
       <c r="BE58" s="465"/>
-      <c r="BG58" s="462"/>
-      <c r="BH58" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF58" s="465"/>
+      <c r="BH58" s="462"/>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="461" t="s">
@@ -23155,18 +23089,18 @@
       <c r="F59" s="436"/>
       <c r="G59" s="436"/>
       <c r="H59" s="436"/>
-      <c r="I59" s="439"/>
-      <c r="J59" s="435"/>
+      <c r="I59" s="436"/>
+      <c r="J59" s="439"/>
       <c r="K59" s="435"/>
       <c r="L59" s="435"/>
       <c r="M59" s="435"/>
-      <c r="N59" s="436"/>
+      <c r="N59" s="435"/>
       <c r="O59" s="436"/>
-      <c r="P59" s="439"/>
-      <c r="Q59" s="435"/>
+      <c r="P59" s="436"/>
+      <c r="Q59" s="439"/>
       <c r="R59" s="435"/>
       <c r="S59" s="435"/>
-      <c r="T59" s="436"/>
+      <c r="T59" s="435"/>
       <c r="U59" s="436"/>
       <c r="V59" s="436"/>
       <c r="W59" s="436"/>
@@ -23176,7 +23110,7 @@
       <c r="AA59" s="436"/>
       <c r="AB59" s="436"/>
       <c r="AC59" s="436"/>
-      <c r="AD59" s="465"/>
+      <c r="AD59" s="436"/>
       <c r="AE59" s="465"/>
       <c r="AF59" s="465"/>
       <c r="AG59" s="465"/>
@@ -23204,11 +23138,8 @@
       <c r="BC59" s="465"/>
       <c r="BD59" s="465"/>
       <c r="BE59" s="465"/>
-      <c r="BG59" s="462"/>
-      <c r="BH59" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF59" s="465"/>
+      <c r="BH59" s="462"/>
     </row>
     <row r="60" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="461" t="s">
@@ -23226,43 +23157,43 @@
         <v>1.4398895185724963</v>
       </c>
       <c r="G60" s="436"/>
-      <c r="H60" s="482"/>
-      <c r="I60" s="440">
-        <f>I50</f>
+      <c r="H60" s="436"/>
+      <c r="I60" s="482"/>
+      <c r="J60" s="440">
+        <f>J50</f>
         <v>35.527165339469441</v>
       </c>
-      <c r="L60" s="466">
-        <f>L40</f>
+      <c r="M60" s="466">
+        <f>M40</f>
         <v>6.4894696089818042</v>
       </c>
-      <c r="M60" s="467">
-        <f>M40</f>
+      <c r="N60" s="467">
+        <f>N40</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N60" s="439">
-        <f>N50</f>
+      <c r="O60" s="439">
+        <f>O50</f>
         <v>2025</v>
       </c>
-      <c r="O60" s="435">
-        <f>O50</f>
+      <c r="P60" s="435">
+        <f>P50</f>
         <v>50</v>
       </c>
-      <c r="P60" s="441">
-        <f>P50</f>
+      <c r="Q60" s="441">
+        <f>Q50</f>
         <v>129.54169999999999</v>
       </c>
-      <c r="Q60" s="435">
+      <c r="R60" s="435">
         <v>-6</v>
-      </c>
-      <c r="R60" s="435" t="str">
-        <f>""</f>
-        <v/>
       </c>
       <c r="S60" s="435" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="T60" s="435"/>
+      <c r="T60" s="435" t="str">
+        <f>""</f>
+        <v/>
+      </c>
       <c r="U60" s="435"/>
       <c r="V60" s="435"/>
       <c r="W60" s="435"/>
@@ -23272,7 +23203,7 @@
       <c r="AA60" s="435"/>
       <c r="AB60" s="435"/>
       <c r="AC60" s="435"/>
-      <c r="AD60" s="465"/>
+      <c r="AD60" s="435"/>
       <c r="AE60" s="465"/>
       <c r="AF60" s="465"/>
       <c r="AG60" s="465"/>
@@ -23300,11 +23231,8 @@
       <c r="BC60" s="465"/>
       <c r="BD60" s="465"/>
       <c r="BE60" s="465"/>
-      <c r="BG60" s="462"/>
-      <c r="BH60" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF60" s="465"/>
+      <c r="BH60" s="462"/>
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="461"/>
@@ -23314,19 +23242,19 @@
       </c>
       <c r="F61" s="435"/>
       <c r="G61" s="436"/>
-      <c r="H61" s="482">
-        <f>H51</f>
+      <c r="H61" s="436"/>
+      <c r="I61" s="482">
+        <f>I51</f>
         <v>0.24339802736239258</v>
       </c>
-      <c r="I61" s="435"/>
       <c r="J61" s="435"/>
       <c r="K61" s="435"/>
       <c r="L61" s="435"/>
       <c r="M61" s="435"/>
-      <c r="N61" s="436"/>
+      <c r="N61" s="435"/>
       <c r="O61" s="436"/>
-      <c r="P61" s="439"/>
-      <c r="Q61" s="435"/>
+      <c r="P61" s="436"/>
+      <c r="Q61" s="439"/>
       <c r="R61" s="435"/>
       <c r="S61" s="435"/>
       <c r="T61" s="435"/>
@@ -23339,7 +23267,7 @@
       <c r="AA61" s="435"/>
       <c r="AB61" s="435"/>
       <c r="AC61" s="435"/>
-      <c r="AD61" s="465"/>
+      <c r="AD61" s="435"/>
       <c r="AE61" s="465"/>
       <c r="AF61" s="465"/>
       <c r="AG61" s="465"/>
@@ -23367,11 +23295,8 @@
       <c r="BC61" s="465"/>
       <c r="BD61" s="465"/>
       <c r="BE61" s="465"/>
-      <c r="BG61" s="462"/>
-      <c r="BH61" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF61" s="465"/>
+      <c r="BH61" s="462"/>
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" s="461"/>
@@ -23381,22 +23306,22 @@
       </c>
       <c r="F62" s="436"/>
       <c r="G62" s="436"/>
-      <c r="H62" s="482">
-        <f>H52</f>
+      <c r="H62" s="436"/>
+      <c r="I62" s="482">
+        <f>I52</f>
         <v>2.3491886504442346E-2</v>
       </c>
-      <c r="I62" s="435"/>
       <c r="J62" s="435"/>
       <c r="K62" s="435"/>
       <c r="L62" s="435"/>
       <c r="M62" s="435"/>
-      <c r="N62" s="436"/>
+      <c r="N62" s="435"/>
       <c r="O62" s="436"/>
-      <c r="P62" s="439"/>
-      <c r="Q62" s="435"/>
+      <c r="P62" s="436"/>
+      <c r="Q62" s="439"/>
       <c r="R62" s="435"/>
       <c r="S62" s="435"/>
-      <c r="T62" s="436"/>
+      <c r="T62" s="435"/>
       <c r="U62" s="436"/>
       <c r="V62" s="436"/>
       <c r="W62" s="436"/>
@@ -23406,7 +23331,7 @@
       <c r="AA62" s="436"/>
       <c r="AB62" s="436"/>
       <c r="AC62" s="436"/>
-      <c r="AD62" s="465"/>
+      <c r="AD62" s="436"/>
       <c r="AE62" s="465"/>
       <c r="AF62" s="465"/>
       <c r="AG62" s="465"/>
@@ -23434,11 +23359,8 @@
       <c r="BC62" s="465"/>
       <c r="BD62" s="465"/>
       <c r="BE62" s="465"/>
-      <c r="BG62" s="462"/>
-      <c r="BH62" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF62" s="465"/>
+      <c r="BH62" s="462"/>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" s="461"/>
@@ -23448,23 +23370,25 @@
         <v>525</v>
       </c>
       <c r="F63" s="436"/>
-      <c r="G63" s="442">
+      <c r="G63" s="437">
+        <v>3</v>
+      </c>
+      <c r="H63" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E63,3),RefineriesData!$N$16:$N$270)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="442"/>
-      <c r="I63" s="435"/>
+      <c r="I63" s="442"/>
       <c r="J63" s="435"/>
       <c r="K63" s="435"/>
       <c r="L63" s="435"/>
       <c r="M63" s="435"/>
-      <c r="N63" s="436"/>
+      <c r="N63" s="435"/>
       <c r="O63" s="436"/>
-      <c r="P63" s="439"/>
-      <c r="Q63" s="435"/>
+      <c r="P63" s="436"/>
+      <c r="Q63" s="439"/>
       <c r="R63" s="435"/>
       <c r="S63" s="435"/>
-      <c r="T63" s="436"/>
+      <c r="T63" s="435"/>
       <c r="U63" s="436"/>
       <c r="V63" s="436"/>
       <c r="W63" s="436"/>
@@ -23474,7 +23398,7 @@
       <c r="AA63" s="436"/>
       <c r="AB63" s="436"/>
       <c r="AC63" s="436"/>
-      <c r="AD63" s="465"/>
+      <c r="AD63" s="436"/>
       <c r="AE63" s="465"/>
       <c r="AF63" s="465"/>
       <c r="AG63" s="465"/>
@@ -23502,11 +23426,8 @@
       <c r="BC63" s="465"/>
       <c r="BD63" s="465"/>
       <c r="BE63" s="465"/>
-      <c r="BG63" s="462"/>
-      <c r="BH63" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF63" s="465"/>
+      <c r="BH63" s="462"/>
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="461"/>
@@ -23516,23 +23437,25 @@
         <v>499</v>
       </c>
       <c r="F64" s="436"/>
-      <c r="G64" s="442">
+      <c r="G64" s="437">
+        <v>3</v>
+      </c>
+      <c r="H64" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E64,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.28767932115906897</v>
       </c>
-      <c r="H64" s="442"/>
-      <c r="I64" s="435"/>
+      <c r="I64" s="442"/>
       <c r="J64" s="435"/>
       <c r="K64" s="435"/>
       <c r="L64" s="435"/>
       <c r="M64" s="435"/>
-      <c r="N64" s="436"/>
+      <c r="N64" s="435"/>
       <c r="O64" s="436"/>
-      <c r="P64" s="439"/>
-      <c r="Q64" s="435"/>
+      <c r="P64" s="436"/>
+      <c r="Q64" s="439"/>
       <c r="R64" s="435"/>
       <c r="S64" s="435"/>
-      <c r="T64" s="436"/>
+      <c r="T64" s="435"/>
       <c r="U64" s="436"/>
       <c r="V64" s="436"/>
       <c r="W64" s="436"/>
@@ -23542,7 +23465,7 @@
       <c r="AA64" s="436"/>
       <c r="AB64" s="436"/>
       <c r="AC64" s="436"/>
-      <c r="AD64" s="465"/>
+      <c r="AD64" s="436"/>
       <c r="AE64" s="465"/>
       <c r="AF64" s="465"/>
       <c r="AG64" s="465"/>
@@ -23570,11 +23493,8 @@
       <c r="BC64" s="465"/>
       <c r="BD64" s="465"/>
       <c r="BE64" s="465"/>
-      <c r="BG64" s="462"/>
-      <c r="BH64" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF64" s="465"/>
+      <c r="BH64" s="462"/>
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" s="461"/>
@@ -23584,23 +23504,25 @@
         <v>497</v>
       </c>
       <c r="F65" s="436"/>
-      <c r="G65" s="442">
+      <c r="G65" s="437">
+        <v>3</v>
+      </c>
+      <c r="H65" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E65,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.49809089633534509</v>
       </c>
-      <c r="H65" s="442"/>
-      <c r="I65" s="435"/>
+      <c r="I65" s="442"/>
       <c r="J65" s="435"/>
       <c r="K65" s="435"/>
       <c r="L65" s="435"/>
       <c r="M65" s="435"/>
-      <c r="N65" s="436"/>
+      <c r="N65" s="435"/>
       <c r="O65" s="436"/>
-      <c r="P65" s="439"/>
-      <c r="Q65" s="435"/>
+      <c r="P65" s="436"/>
+      <c r="Q65" s="439"/>
       <c r="R65" s="435"/>
       <c r="S65" s="435"/>
-      <c r="T65" s="436"/>
+      <c r="T65" s="435"/>
       <c r="U65" s="436"/>
       <c r="V65" s="436"/>
       <c r="W65" s="436"/>
@@ -23610,7 +23532,7 @@
       <c r="AA65" s="436"/>
       <c r="AB65" s="436"/>
       <c r="AC65" s="436"/>
-      <c r="AD65" s="465"/>
+      <c r="AD65" s="436"/>
       <c r="AE65" s="465"/>
       <c r="AF65" s="465"/>
       <c r="AG65" s="465"/>
@@ -23638,11 +23560,8 @@
       <c r="BC65" s="465"/>
       <c r="BD65" s="465"/>
       <c r="BE65" s="465"/>
-      <c r="BG65" s="462"/>
-      <c r="BH65" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF65" s="465"/>
+      <c r="BH65" s="462"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="461"/>
@@ -23652,23 +23571,25 @@
         <v>490</v>
       </c>
       <c r="F66" s="436"/>
-      <c r="G66" s="442">
+      <c r="G66" s="437">
+        <v>3</v>
+      </c>
+      <c r="H66" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E66,3),RefineriesData!$N$16:$N$270)</f>
         <v>0.12259168661288511</v>
       </c>
-      <c r="H66" s="442"/>
-      <c r="I66" s="435"/>
+      <c r="I66" s="442"/>
       <c r="J66" s="435"/>
       <c r="K66" s="435"/>
       <c r="L66" s="435"/>
       <c r="M66" s="435"/>
-      <c r="N66" s="436"/>
+      <c r="N66" s="435"/>
       <c r="O66" s="436"/>
-      <c r="P66" s="439"/>
-      <c r="Q66" s="435"/>
+      <c r="P66" s="436"/>
+      <c r="Q66" s="439"/>
       <c r="R66" s="435"/>
       <c r="S66" s="435"/>
-      <c r="T66" s="436"/>
+      <c r="T66" s="435"/>
       <c r="U66" s="436"/>
       <c r="V66" s="436"/>
       <c r="W66" s="436"/>
@@ -23678,7 +23599,7 @@
       <c r="AA66" s="436"/>
       <c r="AB66" s="436"/>
       <c r="AC66" s="436"/>
-      <c r="AD66" s="465"/>
+      <c r="AD66" s="436"/>
       <c r="AE66" s="465"/>
       <c r="AF66" s="465"/>
       <c r="AG66" s="465"/>
@@ -23706,11 +23627,8 @@
       <c r="BC66" s="465"/>
       <c r="BD66" s="465"/>
       <c r="BE66" s="465"/>
-      <c r="BG66" s="462"/>
-      <c r="BH66" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF66" s="465"/>
+      <c r="BH66" s="462"/>
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="461"/>
@@ -23720,23 +23638,25 @@
         <v>487</v>
       </c>
       <c r="F67" s="436"/>
-      <c r="G67" s="442">
+      <c r="G67" s="437">
+        <v>3</v>
+      </c>
+      <c r="H67" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E67,3),RefineriesData!$N$16:$N$270)</f>
         <v>3.6696142945579213E-2</v>
       </c>
-      <c r="H67" s="442"/>
-      <c r="I67" s="435"/>
+      <c r="I67" s="442"/>
       <c r="J67" s="435"/>
       <c r="K67" s="435"/>
       <c r="L67" s="435"/>
       <c r="M67" s="435"/>
-      <c r="N67" s="436"/>
+      <c r="N67" s="435"/>
       <c r="O67" s="436"/>
-      <c r="P67" s="439"/>
-      <c r="Q67" s="435"/>
+      <c r="P67" s="436"/>
+      <c r="Q67" s="439"/>
       <c r="R67" s="435"/>
       <c r="S67" s="435"/>
-      <c r="T67" s="436"/>
+      <c r="T67" s="435"/>
       <c r="U67" s="436"/>
       <c r="V67" s="436"/>
       <c r="W67" s="436"/>
@@ -23746,7 +23666,7 @@
       <c r="AA67" s="436"/>
       <c r="AB67" s="436"/>
       <c r="AC67" s="436"/>
-      <c r="AD67" s="465"/>
+      <c r="AD67" s="436"/>
       <c r="AE67" s="465"/>
       <c r="AF67" s="465"/>
       <c r="AG67" s="465"/>
@@ -23774,11 +23694,8 @@
       <c r="BC67" s="465"/>
       <c r="BD67" s="465"/>
       <c r="BE67" s="465"/>
-      <c r="BG67" s="462"/>
-      <c r="BH67" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF67" s="465"/>
+      <c r="BH67" s="462"/>
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" s="461"/>
@@ -23788,23 +23705,25 @@
         <v>485</v>
       </c>
       <c r="F68" s="436"/>
-      <c r="G68" s="442">
+      <c r="G68" s="437">
+        <v>3</v>
+      </c>
+      <c r="H68" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B$50&amp;RIGHT($E68,3),RefineriesData!$N$16:$N$270)</f>
         <v>5.4941952947121613E-2</v>
       </c>
-      <c r="H68" s="442"/>
-      <c r="I68" s="435"/>
+      <c r="I68" s="442"/>
       <c r="J68" s="435"/>
       <c r="K68" s="435"/>
       <c r="L68" s="435"/>
       <c r="M68" s="435"/>
-      <c r="N68" s="436"/>
+      <c r="N68" s="435"/>
       <c r="O68" s="436"/>
-      <c r="P68" s="439"/>
-      <c r="Q68" s="435"/>
+      <c r="P68" s="436"/>
+      <c r="Q68" s="439"/>
       <c r="R68" s="435"/>
       <c r="S68" s="435"/>
-      <c r="T68" s="436"/>
+      <c r="T68" s="435"/>
       <c r="U68" s="436"/>
       <c r="V68" s="436"/>
       <c r="W68" s="436"/>
@@ -23814,7 +23733,7 @@
       <c r="AA68" s="436"/>
       <c r="AB68" s="436"/>
       <c r="AC68" s="436"/>
-      <c r="AD68" s="465"/>
+      <c r="AD68" s="436"/>
       <c r="AE68" s="465"/>
       <c r="AF68" s="465"/>
       <c r="AG68" s="465"/>
@@ -23842,11 +23761,8 @@
       <c r="BC68" s="465"/>
       <c r="BD68" s="465"/>
       <c r="BE68" s="465"/>
-      <c r="BG68" s="462"/>
-      <c r="BH68" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF68" s="465"/>
+      <c r="BH68" s="462"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="461" t="s">
@@ -23857,18 +23773,18 @@
       <c r="F69" s="436"/>
       <c r="G69" s="436"/>
       <c r="H69" s="436"/>
-      <c r="I69" s="435"/>
+      <c r="I69" s="436"/>
       <c r="J69" s="435"/>
       <c r="K69" s="435"/>
       <c r="L69" s="435"/>
       <c r="M69" s="435"/>
-      <c r="N69" s="436"/>
+      <c r="N69" s="435"/>
       <c r="O69" s="436"/>
-      <c r="P69" s="439"/>
-      <c r="Q69" s="435"/>
+      <c r="P69" s="436"/>
+      <c r="Q69" s="439"/>
       <c r="R69" s="435"/>
       <c r="S69" s="435"/>
-      <c r="T69" s="436"/>
+      <c r="T69" s="435"/>
       <c r="U69" s="436"/>
       <c r="V69" s="436"/>
       <c r="W69" s="436"/>
@@ -23878,7 +23794,7 @@
       <c r="AA69" s="436"/>
       <c r="AB69" s="436"/>
       <c r="AC69" s="436"/>
-      <c r="AD69" s="465"/>
+      <c r="AD69" s="436"/>
       <c r="AE69" s="465"/>
       <c r="AF69" s="465"/>
       <c r="AG69" s="465"/>
@@ -23906,11 +23822,8 @@
       <c r="BC69" s="465"/>
       <c r="BD69" s="465"/>
       <c r="BE69" s="465"/>
-      <c r="BG69" s="462"/>
-      <c r="BH69" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF69" s="465"/>
+      <c r="BH69" s="462"/>
     </row>
     <row r="70" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="461" t="s">
@@ -23929,50 +23842,50 @@
       </c>
       <c r="G70" s="436"/>
       <c r="H70" s="436"/>
-      <c r="I70" s="439">
-        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B70&amp;I$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="I70" s="436"/>
+      <c r="J70" s="439">
+        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B70&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>36.817867655087646</v>
       </c>
-      <c r="J70" s="435"/>
       <c r="K70" s="435"/>
-      <c r="L70" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B70&amp;L$5,RefineriesData!$N$13:$N$245)</f>
-        <v>109.73413027616279</v>
-      </c>
+      <c r="L70" s="435"/>
       <c r="M70" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B70&amp;M$5,RefineriesData!$N$13:$N$245)</f>
+        <v>109.73413027616279</v>
+      </c>
+      <c r="N70" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B70&amp;N$5,RefineriesData!$N$13:$N$245)</f>
         <v>0.43830718042180028</v>
       </c>
-      <c r="N70" s="436"/>
       <c r="O70" s="436"/>
-      <c r="P70" s="439"/>
-      <c r="Q70" s="435"/>
-      <c r="R70" s="435">
+      <c r="P70" s="436"/>
+      <c r="Q70" s="439"/>
+      <c r="R70" s="435"/>
+      <c r="S70" s="435">
         <v>3</v>
       </c>
-      <c r="S70" s="435">
+      <c r="T70" s="435">
         <v>0</v>
       </c>
-      <c r="T70" s="464"/>
-      <c r="U70" s="435">
+      <c r="U70" s="464"/>
+      <c r="V70" s="435">
         <v>0.9</v>
       </c>
-      <c r="V70" s="435"/>
       <c r="W70" s="435"/>
       <c r="X70" s="435"/>
       <c r="Y70" s="435"/>
       <c r="Z70" s="435"/>
       <c r="AA70" s="435"/>
       <c r="AB70" s="435"/>
-      <c r="AC70" s="464">
-        <f>U70*AD70/F70</f>
+      <c r="AC70" s="435"/>
+      <c r="AD70" s="464">
+        <f>V70*AE70/F70</f>
         <v>519.74929184743382</v>
       </c>
-      <c r="AD70" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$270,$B70&amp;AD$3,RefineriesData!$N$16:$N$270)</f>
+      <c r="AE70" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$270,$B70&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
         <v>237.47630903149673</v>
       </c>
-      <c r="AE70" s="465"/>
       <c r="AF70" s="465"/>
       <c r="AG70" s="465"/>
       <c r="AH70" s="465"/>
@@ -23996,15 +23909,17 @@
       <c r="AZ70" s="465"/>
       <c r="BA70" s="465"/>
       <c r="BB70" s="465"/>
-      <c r="BC70" s="465"/>
-      <c r="BD70" s="465"/>
+      <c r="BC70" s="465">
+        <f>AE70</f>
+        <v>237.47630903149673</v>
+      </c>
+      <c r="BD70" s="465">
+        <v>0</v>
+      </c>
       <c r="BE70" s="465"/>
       <c r="BF70" s="465"/>
-      <c r="BG70" s="462"/>
-      <c r="BH70" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BG70" s="465"/>
+      <c r="BH70" s="462"/>
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" s="461"/>
@@ -24014,22 +23929,22 @@
       </c>
       <c r="F71" s="436"/>
       <c r="G71" s="436"/>
-      <c r="H71" s="482">
+      <c r="H71" s="436"/>
+      <c r="I71" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B70&amp;C71,RefineriesData!$N$16:$N$270)</f>
         <v>0.22738749426150504</v>
       </c>
-      <c r="I71" s="439"/>
-      <c r="J71" s="435"/>
+      <c r="J71" s="439"/>
       <c r="K71" s="435"/>
       <c r="L71" s="435"/>
       <c r="M71" s="435"/>
-      <c r="N71" s="436"/>
+      <c r="N71" s="435"/>
       <c r="O71" s="436"/>
-      <c r="P71" s="439"/>
-      <c r="Q71" s="435"/>
+      <c r="P71" s="436"/>
+      <c r="Q71" s="439"/>
       <c r="R71" s="435"/>
       <c r="S71" s="435"/>
-      <c r="T71" s="436"/>
+      <c r="T71" s="435"/>
       <c r="U71" s="436"/>
       <c r="V71" s="436"/>
       <c r="W71" s="436"/>
@@ -24039,7 +23954,7 @@
       <c r="AA71" s="436"/>
       <c r="AB71" s="436"/>
       <c r="AC71" s="436"/>
-      <c r="AD71" s="465"/>
+      <c r="AD71" s="436"/>
       <c r="AE71" s="465"/>
       <c r="AF71" s="465"/>
       <c r="AG71" s="465"/>
@@ -24067,11 +23982,8 @@
       <c r="BC71" s="465"/>
       <c r="BD71" s="465"/>
       <c r="BE71" s="465"/>
-      <c r="BG71" s="462"/>
-      <c r="BH71" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF71" s="465"/>
+      <c r="BH71" s="462"/>
     </row>
     <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" s="461"/>
@@ -24081,22 +23993,22 @@
       </c>
       <c r="F72" s="436"/>
       <c r="G72" s="436"/>
-      <c r="H72" s="482">
+      <c r="H72" s="436"/>
+      <c r="I72" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B70&amp;C72,RefineriesData!$N$16:$N$270)</f>
         <v>0.1589295424742827</v>
       </c>
-      <c r="I72" s="439"/>
-      <c r="J72" s="435"/>
+      <c r="J72" s="439"/>
       <c r="K72" s="435"/>
       <c r="L72" s="435"/>
       <c r="M72" s="435"/>
-      <c r="N72" s="436"/>
+      <c r="N72" s="435"/>
       <c r="O72" s="436"/>
-      <c r="P72" s="439"/>
-      <c r="Q72" s="435"/>
+      <c r="P72" s="436"/>
+      <c r="Q72" s="439"/>
       <c r="R72" s="435"/>
       <c r="S72" s="435"/>
-      <c r="T72" s="436"/>
+      <c r="T72" s="435"/>
       <c r="U72" s="436"/>
       <c r="V72" s="436"/>
       <c r="W72" s="436"/>
@@ -24106,7 +24018,7 @@
       <c r="AA72" s="436"/>
       <c r="AB72" s="436"/>
       <c r="AC72" s="436"/>
-      <c r="AD72" s="465"/>
+      <c r="AD72" s="436"/>
       <c r="AE72" s="465"/>
       <c r="AF72" s="465"/>
       <c r="AG72" s="465"/>
@@ -24134,11 +24046,8 @@
       <c r="BC72" s="465"/>
       <c r="BD72" s="465"/>
       <c r="BE72" s="465"/>
-      <c r="BG72" s="462"/>
-      <c r="BH72" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF72" s="465"/>
+      <c r="BH72" s="462"/>
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="461"/>
@@ -24148,22 +24057,22 @@
       </c>
       <c r="F73" s="436"/>
       <c r="G73" s="436"/>
-      <c r="H73" s="482">
+      <c r="H73" s="436"/>
+      <c r="I73" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B70&amp;C73,RefineriesData!$N$16:$N$270)</f>
         <v>0.86910570466129278</v>
       </c>
-      <c r="I73" s="439"/>
-      <c r="J73" s="435"/>
+      <c r="J73" s="439"/>
       <c r="K73" s="435"/>
       <c r="L73" s="435"/>
       <c r="M73" s="435"/>
-      <c r="N73" s="436"/>
+      <c r="N73" s="435"/>
       <c r="O73" s="436"/>
-      <c r="P73" s="439"/>
-      <c r="Q73" s="435"/>
+      <c r="P73" s="436"/>
+      <c r="Q73" s="439"/>
       <c r="R73" s="435"/>
       <c r="S73" s="435"/>
-      <c r="T73" s="436"/>
+      <c r="T73" s="435"/>
       <c r="U73" s="436"/>
       <c r="V73" s="436"/>
       <c r="W73" s="436"/>
@@ -24173,7 +24082,7 @@
       <c r="AA73" s="436"/>
       <c r="AB73" s="436"/>
       <c r="AC73" s="436"/>
-      <c r="AD73" s="465"/>
+      <c r="AD73" s="436"/>
       <c r="AE73" s="465"/>
       <c r="AF73" s="465"/>
       <c r="AG73" s="465"/>
@@ -24201,11 +24110,8 @@
       <c r="BC73" s="465"/>
       <c r="BD73" s="465"/>
       <c r="BE73" s="465"/>
-      <c r="BG73" s="462"/>
-      <c r="BH73" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF73" s="465"/>
+      <c r="BH73" s="462"/>
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="461"/>
@@ -24215,23 +24121,25 @@
         <v>525</v>
       </c>
       <c r="F74" s="436"/>
-      <c r="G74" s="442">
+      <c r="G74" s="437">
+        <v>3</v>
+      </c>
+      <c r="H74" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E74,3),RefineriesData!$N$16:$N$245)</f>
         <v>4.2538688545872829E-3</v>
       </c>
-      <c r="H74" s="442"/>
-      <c r="I74" s="439"/>
-      <c r="J74" s="435"/>
+      <c r="I74" s="442"/>
+      <c r="J74" s="439"/>
       <c r="K74" s="435"/>
       <c r="L74" s="435"/>
       <c r="M74" s="435"/>
-      <c r="N74" s="436"/>
+      <c r="N74" s="435"/>
       <c r="O74" s="436"/>
-      <c r="P74" s="439"/>
-      <c r="Q74" s="435"/>
+      <c r="P74" s="436"/>
+      <c r="Q74" s="439"/>
       <c r="R74" s="435"/>
       <c r="S74" s="435"/>
-      <c r="T74" s="436"/>
+      <c r="T74" s="435"/>
       <c r="U74" s="436"/>
       <c r="V74" s="436"/>
       <c r="W74" s="436"/>
@@ -24240,11 +24148,11 @@
       <c r="Z74" s="436"/>
       <c r="AA74" s="436"/>
       <c r="AB74" s="436"/>
-      <c r="AC74" s="435">
-        <f>AC$70*F$70*G74</f>
+      <c r="AC74" s="436"/>
+      <c r="AD74" s="435">
+        <f>AD$70*F$70*H74</f>
         <v>0.90917376722228593</v>
       </c>
-      <c r="AD74" s="465"/>
       <c r="AE74" s="465"/>
       <c r="AF74" s="465"/>
       <c r="AG74" s="465"/>
@@ -24272,11 +24180,8 @@
       <c r="BC74" s="465"/>
       <c r="BD74" s="465"/>
       <c r="BE74" s="465"/>
-      <c r="BG74" s="462"/>
-      <c r="BH74" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF74" s="465"/>
+      <c r="BH74" s="462"/>
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="461"/>
@@ -24286,23 +24191,25 @@
         <v>499</v>
       </c>
       <c r="F75" s="436"/>
-      <c r="G75" s="442">
+      <c r="G75" s="437">
+        <v>3</v>
+      </c>
+      <c r="H75" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E75,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.24837109625983722</v>
       </c>
-      <c r="H75" s="442"/>
-      <c r="I75" s="439"/>
-      <c r="J75" s="435"/>
+      <c r="I75" s="442"/>
+      <c r="J75" s="439"/>
       <c r="K75" s="435"/>
       <c r="L75" s="435"/>
       <c r="M75" s="435"/>
-      <c r="N75" s="436"/>
+      <c r="N75" s="435"/>
       <c r="O75" s="436"/>
-      <c r="P75" s="439"/>
-      <c r="Q75" s="435"/>
+      <c r="P75" s="436"/>
+      <c r="Q75" s="439"/>
       <c r="R75" s="435"/>
       <c r="S75" s="435"/>
-      <c r="T75" s="436"/>
+      <c r="T75" s="435"/>
       <c r="U75" s="436"/>
       <c r="V75" s="436"/>
       <c r="W75" s="436"/>
@@ -24311,11 +24218,11 @@
       <c r="Z75" s="436"/>
       <c r="AA75" s="436"/>
       <c r="AB75" s="436"/>
-      <c r="AC75" s="435">
-        <f t="shared" ref="AC75:AC80" si="17">AC$70*F$70*G75</f>
+      <c r="AC75" s="436"/>
+      <c r="AD75" s="435">
+        <f t="shared" ref="AD75:AD80" si="12">AD$70*F$70*H75</f>
         <v>53.084026088903464</v>
       </c>
-      <c r="AD75" s="465"/>
       <c r="AE75" s="465"/>
       <c r="AF75" s="465"/>
       <c r="AG75" s="465"/>
@@ -24343,11 +24250,8 @@
       <c r="BC75" s="465"/>
       <c r="BD75" s="465"/>
       <c r="BE75" s="465"/>
-      <c r="BG75" s="462"/>
-      <c r="BH75" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF75" s="465"/>
+      <c r="BH75" s="462"/>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" s="461"/>
@@ -24357,23 +24261,25 @@
         <v>497</v>
       </c>
       <c r="F76" s="436"/>
-      <c r="G76" s="442">
+      <c r="G76" s="437">
+        <v>3</v>
+      </c>
+      <c r="H76" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E76,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.56393035832270655</v>
       </c>
-      <c r="H76" s="442"/>
-      <c r="I76" s="439"/>
-      <c r="J76" s="435"/>
+      <c r="I76" s="442"/>
+      <c r="J76" s="439"/>
       <c r="K76" s="435"/>
       <c r="L76" s="435"/>
       <c r="M76" s="435"/>
-      <c r="N76" s="436"/>
+      <c r="N76" s="435"/>
       <c r="O76" s="436"/>
-      <c r="P76" s="439"/>
-      <c r="Q76" s="435"/>
+      <c r="P76" s="436"/>
+      <c r="Q76" s="439"/>
       <c r="R76" s="435"/>
       <c r="S76" s="435"/>
-      <c r="T76" s="436"/>
+      <c r="T76" s="435"/>
       <c r="U76" s="436"/>
       <c r="V76" s="436"/>
       <c r="W76" s="436"/>
@@ -24382,11 +24288,11 @@
       <c r="Z76" s="436"/>
       <c r="AA76" s="436"/>
       <c r="AB76" s="436"/>
-      <c r="AC76" s="435">
-        <f t="shared" si="17"/>
+      <c r="AC76" s="436"/>
+      <c r="AD76" s="435">
+        <f t="shared" si="12"/>
         <v>120.52809004075719</v>
       </c>
-      <c r="AD76" s="465"/>
       <c r="AE76" s="465"/>
       <c r="AF76" s="465"/>
       <c r="AG76" s="465"/>
@@ -24414,11 +24320,8 @@
       <c r="BC76" s="465"/>
       <c r="BD76" s="465"/>
       <c r="BE76" s="465"/>
-      <c r="BG76" s="462"/>
-      <c r="BH76" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF76" s="465"/>
+      <c r="BH76" s="462"/>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="461"/>
@@ -24428,23 +24331,25 @@
         <v>733</v>
       </c>
       <c r="F77" s="436"/>
-      <c r="G77" s="442">
+      <c r="G77" s="437">
+        <v>3</v>
+      </c>
+      <c r="H77" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E77,3),RefineriesData!$N$16:$N$245)</f>
         <v>2.7824192294791578E-2</v>
       </c>
-      <c r="H77" s="442"/>
-      <c r="I77" s="439"/>
-      <c r="J77" s="435"/>
+      <c r="I77" s="442"/>
+      <c r="J77" s="439"/>
       <c r="K77" s="435"/>
       <c r="L77" s="435"/>
       <c r="M77" s="435"/>
-      <c r="N77" s="436"/>
+      <c r="N77" s="435"/>
       <c r="O77" s="436"/>
-      <c r="P77" s="439"/>
-      <c r="Q77" s="435"/>
+      <c r="P77" s="436"/>
+      <c r="Q77" s="439"/>
       <c r="R77" s="435"/>
       <c r="S77" s="435"/>
-      <c r="T77" s="436"/>
+      <c r="T77" s="435"/>
       <c r="U77" s="436"/>
       <c r="V77" s="436"/>
       <c r="W77" s="436"/>
@@ -24453,11 +24358,11 @@
       <c r="Z77" s="436"/>
       <c r="AA77" s="436"/>
       <c r="AB77" s="436"/>
-      <c r="AC77" s="435">
-        <f t="shared" si="17"/>
+      <c r="AC77" s="436"/>
+      <c r="AD77" s="435">
+        <f t="shared" si="12"/>
         <v>5.9468278391547447</v>
       </c>
-      <c r="AD77" s="465"/>
       <c r="AE77" s="465"/>
       <c r="AF77" s="465"/>
       <c r="AG77" s="465"/>
@@ -24485,11 +24390,8 @@
       <c r="BC77" s="465"/>
       <c r="BD77" s="465"/>
       <c r="BE77" s="465"/>
-      <c r="BG77" s="462"/>
-      <c r="BH77" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF77" s="465"/>
+      <c r="BH77" s="462"/>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="461"/>
@@ -24499,23 +24401,25 @@
         <v>490</v>
       </c>
       <c r="F78" s="436"/>
-      <c r="G78" s="442">
+      <c r="G78" s="437">
+        <v>3</v>
+      </c>
+      <c r="H78" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E78,3),RefineriesData!$N$16:$N$245)</f>
         <v>4.5231579584656276E-2</v>
       </c>
-      <c r="H78" s="442"/>
-      <c r="I78" s="439"/>
-      <c r="J78" s="435"/>
+      <c r="I78" s="442"/>
+      <c r="J78" s="439"/>
       <c r="K78" s="435"/>
       <c r="L78" s="435"/>
       <c r="M78" s="435"/>
-      <c r="N78" s="436"/>
+      <c r="N78" s="435"/>
       <c r="O78" s="436"/>
-      <c r="P78" s="439"/>
-      <c r="Q78" s="435"/>
+      <c r="P78" s="436"/>
+      <c r="Q78" s="439"/>
       <c r="R78" s="435"/>
       <c r="S78" s="435"/>
-      <c r="T78" s="436"/>
+      <c r="T78" s="435"/>
       <c r="U78" s="436"/>
       <c r="V78" s="436"/>
       <c r="W78" s="436"/>
@@ -24524,11 +24428,11 @@
       <c r="Z78" s="436"/>
       <c r="AA78" s="436"/>
       <c r="AB78" s="436"/>
-      <c r="AC78" s="435">
-        <f t="shared" si="17"/>
+      <c r="AC78" s="436"/>
+      <c r="AD78" s="435">
+        <f t="shared" si="12"/>
         <v>9.6672857142857165</v>
       </c>
-      <c r="AD78" s="465"/>
       <c r="AE78" s="465"/>
       <c r="AF78" s="465"/>
       <c r="AG78" s="465"/>
@@ -24556,11 +24460,8 @@
       <c r="BC78" s="465"/>
       <c r="BD78" s="465"/>
       <c r="BE78" s="465"/>
-      <c r="BG78" s="462"/>
-      <c r="BH78" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF78" s="465"/>
+      <c r="BH78" s="462"/>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="461"/>
@@ -24570,23 +24471,25 @@
         <v>487</v>
       </c>
       <c r="F79" s="436"/>
-      <c r="G79" s="442">
+      <c r="G79" s="437">
+        <v>3</v>
+      </c>
+      <c r="H79" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E79,3),RefineriesData!$N$16:$N$245)</f>
         <v>1.4350097636642347E-2</v>
       </c>
-      <c r="H79" s="442"/>
-      <c r="I79" s="439"/>
-      <c r="J79" s="435"/>
+      <c r="I79" s="442"/>
+      <c r="J79" s="439"/>
       <c r="K79" s="435"/>
       <c r="L79" s="435"/>
       <c r="M79" s="435"/>
-      <c r="N79" s="436"/>
+      <c r="N79" s="435"/>
       <c r="O79" s="436"/>
-      <c r="P79" s="439"/>
-      <c r="Q79" s="435"/>
+      <c r="P79" s="436"/>
+      <c r="Q79" s="439"/>
       <c r="R79" s="435"/>
       <c r="S79" s="435"/>
-      <c r="T79" s="436"/>
+      <c r="T79" s="435"/>
       <c r="U79" s="436"/>
       <c r="V79" s="436"/>
       <c r="W79" s="436"/>
@@ -24595,11 +24498,11 @@
       <c r="Z79" s="436"/>
       <c r="AA79" s="436"/>
       <c r="AB79" s="436"/>
-      <c r="AC79" s="435">
-        <f t="shared" si="17"/>
+      <c r="AC79" s="436"/>
+      <c r="AD79" s="435">
+        <f t="shared" si="12"/>
         <v>3.0670273988922867</v>
       </c>
-      <c r="AD79" s="465"/>
       <c r="AE79" s="465"/>
       <c r="AF79" s="465"/>
       <c r="AG79" s="465"/>
@@ -24627,11 +24530,8 @@
       <c r="BC79" s="465"/>
       <c r="BD79" s="465"/>
       <c r="BE79" s="465"/>
-      <c r="BG79" s="462"/>
-      <c r="BH79" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF79" s="465"/>
+      <c r="BH79" s="462"/>
     </row>
     <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" s="461"/>
@@ -24641,23 +24541,25 @@
         <v>485</v>
       </c>
       <c r="F80" s="436"/>
-      <c r="G80" s="442">
+      <c r="G80" s="437">
+        <v>3</v>
+      </c>
+      <c r="H80" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B70&amp;RIGHT($E80,3),RefineriesData!$N$16:$N$245)</f>
         <v>9.603880704677871E-2</v>
       </c>
-      <c r="H80" s="442"/>
-      <c r="I80" s="439"/>
-      <c r="J80" s="435"/>
+      <c r="I80" s="442"/>
+      <c r="J80" s="439"/>
       <c r="K80" s="435"/>
       <c r="L80" s="435"/>
       <c r="M80" s="435"/>
-      <c r="N80" s="436"/>
+      <c r="N80" s="435"/>
       <c r="O80" s="436"/>
-      <c r="P80" s="439"/>
-      <c r="Q80" s="435"/>
+      <c r="P80" s="436"/>
+      <c r="Q80" s="439"/>
       <c r="R80" s="435"/>
       <c r="S80" s="435"/>
-      <c r="T80" s="436"/>
+      <c r="T80" s="435"/>
       <c r="U80" s="436"/>
       <c r="V80" s="436"/>
       <c r="W80" s="436"/>
@@ -24666,11 +24568,11 @@
       <c r="Z80" s="436"/>
       <c r="AA80" s="436"/>
       <c r="AB80" s="436"/>
-      <c r="AC80" s="435">
-        <f t="shared" si="17"/>
+      <c r="AC80" s="436"/>
+      <c r="AD80" s="435">
+        <f t="shared" si="12"/>
         <v>20.5262472791314</v>
       </c>
-      <c r="AD80" s="465"/>
       <c r="AE80" s="465"/>
       <c r="AF80" s="465"/>
       <c r="AG80" s="465"/>
@@ -24698,11 +24600,8 @@
       <c r="BC80" s="465"/>
       <c r="BD80" s="465"/>
       <c r="BE80" s="465"/>
-      <c r="BG80" s="462"/>
-      <c r="BH80" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF80" s="465"/>
+      <c r="BH80" s="462"/>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" s="461" t="s">
@@ -24713,18 +24612,18 @@
       <c r="F81" s="436"/>
       <c r="G81" s="436"/>
       <c r="H81" s="436"/>
-      <c r="I81" s="439"/>
-      <c r="J81" s="435"/>
+      <c r="I81" s="436"/>
+      <c r="J81" s="439"/>
       <c r="K81" s="435"/>
       <c r="L81" s="435"/>
       <c r="M81" s="435"/>
-      <c r="N81" s="436"/>
+      <c r="N81" s="435"/>
       <c r="O81" s="436"/>
-      <c r="P81" s="439"/>
-      <c r="Q81" s="435"/>
+      <c r="P81" s="436"/>
+      <c r="Q81" s="439"/>
       <c r="R81" s="435"/>
       <c r="S81" s="435"/>
-      <c r="T81" s="436"/>
+      <c r="T81" s="435"/>
       <c r="U81" s="436"/>
       <c r="V81" s="436"/>
       <c r="W81" s="436"/>
@@ -24734,7 +24633,7 @@
       <c r="AA81" s="436"/>
       <c r="AB81" s="436"/>
       <c r="AC81" s="436"/>
-      <c r="AD81" s="465"/>
+      <c r="AD81" s="436"/>
       <c r="AE81" s="465"/>
       <c r="AF81" s="465"/>
       <c r="AG81" s="465"/>
@@ -24762,11 +24661,8 @@
       <c r="BC81" s="465"/>
       <c r="BD81" s="465"/>
       <c r="BE81" s="465"/>
-      <c r="BG81" s="462"/>
-      <c r="BH81" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF81" s="465"/>
+      <c r="BH81" s="462"/>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" s="461" t="s">
@@ -24785,47 +24681,47 @@
       </c>
       <c r="G82" s="436"/>
       <c r="H82" s="436"/>
-      <c r="I82" s="439">
-        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B82&amp;I$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="I82" s="436"/>
+      <c r="J82" s="439">
+        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B82&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>36.817867655087646</v>
       </c>
-      <c r="J82" s="435"/>
       <c r="K82" s="435"/>
-      <c r="L82" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B82&amp;L$5,RefineriesData!$N$13:$N$245)</f>
-        <v>109.73413027616279</v>
-      </c>
+      <c r="L82" s="435"/>
       <c r="M82" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B82&amp;M$5,RefineriesData!$N$13:$N$245)</f>
+        <v>109.73413027616279</v>
+      </c>
+      <c r="N82" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B82&amp;N$5,RefineriesData!$N$13:$N$245)</f>
         <v>0.43830718042180028</v>
       </c>
-      <c r="N82" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$267,$B82&amp;N$4,RefineriesData!$N$13:$N$267)</f>
+      <c r="O82" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$267,$B82&amp;O$4,RefineriesData!$N$13:$N$267)</f>
         <v>2030</v>
       </c>
-      <c r="O82" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;O$4,RefineriesData!$N$16:$N$245)</f>
+      <c r="P82" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;P$4,RefineriesData!$N$16:$N$245)</f>
         <v>50</v>
       </c>
-      <c r="P82" s="439">
-        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B82&amp;P$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="Q82" s="439">
+        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B82&amp;Q$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>806.40463680000005</v>
       </c>
-      <c r="Q82" s="435">
+      <c r="R82" s="435">
         <v>-6</v>
       </c>
-      <c r="R82" s="435">
+      <c r="S82" s="435">
         <v>0</v>
       </c>
-      <c r="S82" s="435"/>
-      <c r="T82" s="435" t="str">
+      <c r="T82" s="435"/>
+      <c r="U82" s="435" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="U82" s="435">
+      <c r="V82" s="435">
         <v>0.95</v>
       </c>
-      <c r="V82" s="435"/>
       <c r="W82" s="435"/>
       <c r="X82" s="435"/>
       <c r="Y82" s="435"/>
@@ -24833,7 +24729,7 @@
       <c r="AA82" s="435"/>
       <c r="AB82" s="435"/>
       <c r="AC82" s="435"/>
-      <c r="AD82" s="465"/>
+      <c r="AD82" s="435"/>
       <c r="AE82" s="465"/>
       <c r="AF82" s="465"/>
       <c r="AG82" s="465"/>
@@ -24862,11 +24758,8 @@
       <c r="BD82" s="465"/>
       <c r="BE82" s="465"/>
       <c r="BF82" s="465"/>
-      <c r="BG82" s="462"/>
-      <c r="BH82" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BG82" s="465"/>
+      <c r="BH82" s="462"/>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" s="461"/>
@@ -24876,22 +24769,22 @@
       </c>
       <c r="F83" s="436"/>
       <c r="G83" s="436"/>
-      <c r="H83" s="482">
+      <c r="H83" s="436"/>
+      <c r="I83" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B82&amp;C83,RefineriesData!$N$16:$N$270)</f>
         <v>0.22738749426150504</v>
       </c>
-      <c r="I83" s="439"/>
-      <c r="J83" s="435"/>
+      <c r="J83" s="439"/>
       <c r="K83" s="435"/>
       <c r="L83" s="435"/>
       <c r="M83" s="435"/>
-      <c r="N83" s="439"/>
-      <c r="O83" s="436"/>
-      <c r="P83" s="439"/>
-      <c r="Q83" s="435"/>
+      <c r="N83" s="435"/>
+      <c r="O83" s="439"/>
+      <c r="P83" s="436"/>
+      <c r="Q83" s="439"/>
       <c r="R83" s="435"/>
       <c r="S83" s="435"/>
-      <c r="T83" s="436"/>
+      <c r="T83" s="435"/>
       <c r="U83" s="436"/>
       <c r="V83" s="436"/>
       <c r="W83" s="436"/>
@@ -24901,7 +24794,7 @@
       <c r="AA83" s="436"/>
       <c r="AB83" s="436"/>
       <c r="AC83" s="436"/>
-      <c r="AD83" s="465"/>
+      <c r="AD83" s="436"/>
       <c r="AE83" s="465"/>
       <c r="AF83" s="465"/>
       <c r="AG83" s="465"/>
@@ -24929,11 +24822,8 @@
       <c r="BC83" s="465"/>
       <c r="BD83" s="465"/>
       <c r="BE83" s="465"/>
-      <c r="BG83" s="462"/>
-      <c r="BH83" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF83" s="465"/>
+      <c r="BH83" s="462"/>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" s="461"/>
@@ -24943,22 +24833,22 @@
       </c>
       <c r="F84" s="436"/>
       <c r="G84" s="436"/>
-      <c r="H84" s="482">
+      <c r="H84" s="436"/>
+      <c r="I84" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B82&amp;C84,RefineriesData!$N$16:$N$270)</f>
         <v>0.1589295424742827</v>
       </c>
-      <c r="I84" s="439"/>
-      <c r="J84" s="435"/>
+      <c r="J84" s="439"/>
       <c r="K84" s="435"/>
       <c r="L84" s="435"/>
       <c r="M84" s="435"/>
-      <c r="N84" s="439"/>
-      <c r="O84" s="436"/>
-      <c r="P84" s="439"/>
-      <c r="Q84" s="435"/>
+      <c r="N84" s="435"/>
+      <c r="O84" s="439"/>
+      <c r="P84" s="436"/>
+      <c r="Q84" s="439"/>
       <c r="R84" s="435"/>
       <c r="S84" s="435"/>
-      <c r="T84" s="436"/>
+      <c r="T84" s="435"/>
       <c r="U84" s="436"/>
       <c r="V84" s="436"/>
       <c r="W84" s="436"/>
@@ -24968,7 +24858,7 @@
       <c r="AA84" s="436"/>
       <c r="AB84" s="436"/>
       <c r="AC84" s="436"/>
-      <c r="AD84" s="465"/>
+      <c r="AD84" s="436"/>
       <c r="AE84" s="465"/>
       <c r="AF84" s="465"/>
       <c r="AG84" s="465"/>
@@ -24996,11 +24886,8 @@
       <c r="BC84" s="465"/>
       <c r="BD84" s="465"/>
       <c r="BE84" s="465"/>
-      <c r="BG84" s="462"/>
-      <c r="BH84" s="117" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF84" s="465"/>
+      <c r="BH84" s="462"/>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" s="461"/>
@@ -25010,22 +24897,22 @@
       </c>
       <c r="F85" s="436"/>
       <c r="G85" s="436"/>
-      <c r="H85" s="482">
+      <c r="H85" s="436"/>
+      <c r="I85" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B82&amp;C85,RefineriesData!$N$16:$N$270)</f>
         <v>0.86910570466129278</v>
       </c>
-      <c r="I85" s="439"/>
-      <c r="J85" s="435"/>
+      <c r="J85" s="439"/>
       <c r="K85" s="435"/>
       <c r="L85" s="435"/>
       <c r="M85" s="435"/>
-      <c r="N85" s="439"/>
-      <c r="O85" s="436"/>
-      <c r="P85" s="439"/>
-      <c r="Q85" s="435"/>
+      <c r="N85" s="435"/>
+      <c r="O85" s="439"/>
+      <c r="P85" s="436"/>
+      <c r="Q85" s="439"/>
       <c r="R85" s="435"/>
       <c r="S85" s="435"/>
-      <c r="T85" s="436"/>
+      <c r="T85" s="435"/>
       <c r="U85" s="436"/>
       <c r="V85" s="436"/>
       <c r="W85" s="436"/>
@@ -25035,7 +24922,7 @@
       <c r="AA85" s="436"/>
       <c r="AB85" s="436"/>
       <c r="AC85" s="436"/>
-      <c r="AD85" s="465"/>
+      <c r="AD85" s="436"/>
       <c r="AE85" s="465"/>
       <c r="AF85" s="465"/>
       <c r="AG85" s="465"/>
@@ -25063,11 +24950,8 @@
       <c r="BC85" s="465"/>
       <c r="BD85" s="465"/>
       <c r="BE85" s="465"/>
-      <c r="BG85" s="462"/>
-      <c r="BH85" s="117" t="e">
-        <f t="shared" ref="BH85:BH104" si="18">BH84+1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="BF85" s="465"/>
+      <c r="BH85" s="462"/>
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" s="461"/>
@@ -25077,23 +24961,25 @@
         <v>525</v>
       </c>
       <c r="F86" s="436"/>
-      <c r="G86" s="442">
+      <c r="G86" s="437">
+        <v>3</v>
+      </c>
+      <c r="H86" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E86,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="442"/>
-      <c r="I86" s="439"/>
-      <c r="J86" s="435"/>
+      <c r="I86" s="442"/>
+      <c r="J86" s="439"/>
       <c r="K86" s="435"/>
       <c r="L86" s="435"/>
       <c r="M86" s="435"/>
-      <c r="N86" s="439"/>
-      <c r="O86" s="436"/>
-      <c r="P86" s="439"/>
-      <c r="Q86" s="435"/>
+      <c r="N86" s="435"/>
+      <c r="O86" s="439"/>
+      <c r="P86" s="436"/>
+      <c r="Q86" s="439"/>
       <c r="R86" s="435"/>
       <c r="S86" s="435"/>
-      <c r="T86" s="436"/>
+      <c r="T86" s="435"/>
       <c r="U86" s="436"/>
       <c r="V86" s="436"/>
       <c r="W86" s="436"/>
@@ -25103,7 +24989,7 @@
       <c r="AA86" s="436"/>
       <c r="AB86" s="436"/>
       <c r="AC86" s="436"/>
-      <c r="AD86" s="465"/>
+      <c r="AD86" s="436"/>
       <c r="AE86" s="465"/>
       <c r="AF86" s="465"/>
       <c r="AG86" s="465"/>
@@ -25131,11 +25017,8 @@
       <c r="BC86" s="465"/>
       <c r="BD86" s="465"/>
       <c r="BE86" s="465"/>
-      <c r="BG86" s="462"/>
-      <c r="BH86" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF86" s="465"/>
+      <c r="BH86" s="462"/>
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" s="461"/>
@@ -25145,23 +25028,25 @@
         <v>499</v>
       </c>
       <c r="F87" s="436"/>
-      <c r="G87" s="442">
+      <c r="G87" s="437">
+        <v>3</v>
+      </c>
+      <c r="H87" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E87,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.73</v>
       </c>
-      <c r="H87" s="442"/>
-      <c r="I87" s="439"/>
-      <c r="J87" s="435"/>
+      <c r="I87" s="442"/>
+      <c r="J87" s="439"/>
       <c r="K87" s="435"/>
       <c r="L87" s="435"/>
       <c r="M87" s="435"/>
-      <c r="N87" s="439"/>
-      <c r="O87" s="436"/>
-      <c r="P87" s="439"/>
-      <c r="Q87" s="435"/>
+      <c r="N87" s="435"/>
+      <c r="O87" s="439"/>
+      <c r="P87" s="436"/>
+      <c r="Q87" s="439"/>
       <c r="R87" s="435"/>
       <c r="S87" s="435"/>
-      <c r="T87" s="436"/>
+      <c r="T87" s="435"/>
       <c r="U87" s="436"/>
       <c r="V87" s="436"/>
       <c r="W87" s="436"/>
@@ -25171,7 +25056,7 @@
       <c r="AA87" s="436"/>
       <c r="AB87" s="436"/>
       <c r="AC87" s="436"/>
-      <c r="AD87" s="465"/>
+      <c r="AD87" s="436"/>
       <c r="AE87" s="465"/>
       <c r="AF87" s="465"/>
       <c r="AG87" s="465"/>
@@ -25199,11 +25084,8 @@
       <c r="BC87" s="465"/>
       <c r="BD87" s="465"/>
       <c r="BE87" s="465"/>
-      <c r="BG87" s="462"/>
-      <c r="BH87" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF87" s="465"/>
+      <c r="BH87" s="462"/>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" s="461"/>
@@ -25213,23 +25095,25 @@
         <v>497</v>
       </c>
       <c r="F88" s="436"/>
-      <c r="G88" s="442">
+      <c r="G88" s="437">
+        <v>3</v>
+      </c>
+      <c r="H88" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E88,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H88" s="442"/>
-      <c r="I88" s="439"/>
-      <c r="J88" s="435"/>
+      <c r="I88" s="442"/>
+      <c r="J88" s="439"/>
       <c r="K88" s="435"/>
       <c r="L88" s="435"/>
       <c r="M88" s="435"/>
-      <c r="N88" s="439"/>
-      <c r="O88" s="436"/>
-      <c r="P88" s="439"/>
-      <c r="Q88" s="435"/>
+      <c r="N88" s="435"/>
+      <c r="O88" s="439"/>
+      <c r="P88" s="436"/>
+      <c r="Q88" s="439"/>
       <c r="R88" s="435"/>
       <c r="S88" s="435"/>
-      <c r="T88" s="436"/>
+      <c r="T88" s="435"/>
       <c r="U88" s="436"/>
       <c r="V88" s="436"/>
       <c r="W88" s="436"/>
@@ -25239,7 +25123,7 @@
       <c r="AA88" s="436"/>
       <c r="AB88" s="436"/>
       <c r="AC88" s="436"/>
-      <c r="AD88" s="465"/>
+      <c r="AD88" s="436"/>
       <c r="AE88" s="465"/>
       <c r="AF88" s="465"/>
       <c r="AG88" s="465"/>
@@ -25267,11 +25151,8 @@
       <c r="BC88" s="465"/>
       <c r="BD88" s="465"/>
       <c r="BE88" s="465"/>
-      <c r="BG88" s="462"/>
-      <c r="BH88" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF88" s="465"/>
+      <c r="BH88" s="462"/>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" s="461"/>
@@ -25281,23 +25162,25 @@
         <v>733</v>
       </c>
       <c r="F89" s="436"/>
-      <c r="G89" s="442">
+      <c r="G89" s="437">
+        <v>3</v>
+      </c>
+      <c r="H89" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E89,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="442"/>
-      <c r="I89" s="439"/>
-      <c r="J89" s="435"/>
+      <c r="I89" s="442"/>
+      <c r="J89" s="439"/>
       <c r="K89" s="435"/>
       <c r="L89" s="435"/>
       <c r="M89" s="435"/>
-      <c r="N89" s="439"/>
-      <c r="O89" s="436"/>
-      <c r="P89" s="439"/>
-      <c r="Q89" s="435"/>
+      <c r="N89" s="435"/>
+      <c r="O89" s="439"/>
+      <c r="P89" s="436"/>
+      <c r="Q89" s="439"/>
       <c r="R89" s="435"/>
       <c r="S89" s="435"/>
-      <c r="T89" s="436"/>
+      <c r="T89" s="435"/>
       <c r="U89" s="436"/>
       <c r="V89" s="436"/>
       <c r="W89" s="436"/>
@@ -25307,7 +25190,7 @@
       <c r="AA89" s="436"/>
       <c r="AB89" s="436"/>
       <c r="AC89" s="436"/>
-      <c r="AD89" s="465"/>
+      <c r="AD89" s="436"/>
       <c r="AE89" s="465"/>
       <c r="AF89" s="465"/>
       <c r="AG89" s="465"/>
@@ -25335,11 +25218,8 @@
       <c r="BC89" s="465"/>
       <c r="BD89" s="465"/>
       <c r="BE89" s="465"/>
-      <c r="BG89" s="462"/>
-      <c r="BH89" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF89" s="465"/>
+      <c r="BH89" s="462"/>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" s="461"/>
@@ -25349,23 +25229,25 @@
         <v>490</v>
       </c>
       <c r="F90" s="436"/>
-      <c r="G90" s="442">
+      <c r="G90" s="437">
+        <v>3</v>
+      </c>
+      <c r="H90" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E90,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H90" s="442"/>
-      <c r="I90" s="439"/>
-      <c r="J90" s="435"/>
+      <c r="I90" s="442"/>
+      <c r="J90" s="439"/>
       <c r="K90" s="435"/>
       <c r="L90" s="435"/>
       <c r="M90" s="435"/>
-      <c r="N90" s="439"/>
-      <c r="O90" s="436"/>
-      <c r="P90" s="439"/>
-      <c r="Q90" s="435"/>
+      <c r="N90" s="435"/>
+      <c r="O90" s="439"/>
+      <c r="P90" s="436"/>
+      <c r="Q90" s="439"/>
       <c r="R90" s="435"/>
       <c r="S90" s="435"/>
-      <c r="T90" s="436"/>
+      <c r="T90" s="435"/>
       <c r="U90" s="436"/>
       <c r="V90" s="436"/>
       <c r="W90" s="436"/>
@@ -25375,7 +25257,7 @@
       <c r="AA90" s="436"/>
       <c r="AB90" s="436"/>
       <c r="AC90" s="436"/>
-      <c r="AD90" s="465"/>
+      <c r="AD90" s="436"/>
       <c r="AE90" s="465"/>
       <c r="AF90" s="465"/>
       <c r="AG90" s="465"/>
@@ -25403,11 +25285,8 @@
       <c r="BC90" s="465"/>
       <c r="BD90" s="465"/>
       <c r="BE90" s="465"/>
-      <c r="BG90" s="462"/>
-      <c r="BH90" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF90" s="465"/>
+      <c r="BH90" s="462"/>
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" s="461"/>
@@ -25417,23 +25296,25 @@
         <v>487</v>
       </c>
       <c r="F91" s="436"/>
-      <c r="G91" s="442">
+      <c r="G91" s="437">
+        <v>3</v>
+      </c>
+      <c r="H91" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E91,3),RefineriesData!$N$16:$N$245)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H91" s="442"/>
-      <c r="I91" s="439"/>
-      <c r="J91" s="435"/>
+      <c r="I91" s="442"/>
+      <c r="J91" s="439"/>
       <c r="K91" s="435"/>
       <c r="L91" s="435"/>
       <c r="M91" s="435"/>
-      <c r="N91" s="439"/>
-      <c r="O91" s="436"/>
-      <c r="P91" s="439"/>
-      <c r="Q91" s="435"/>
+      <c r="N91" s="435"/>
+      <c r="O91" s="439"/>
+      <c r="P91" s="436"/>
+      <c r="Q91" s="439"/>
       <c r="R91" s="435"/>
       <c r="S91" s="435"/>
-      <c r="T91" s="436"/>
+      <c r="T91" s="435"/>
       <c r="U91" s="436"/>
       <c r="V91" s="436"/>
       <c r="W91" s="436"/>
@@ -25443,7 +25324,7 @@
       <c r="AA91" s="436"/>
       <c r="AB91" s="436"/>
       <c r="AC91" s="436"/>
-      <c r="AD91" s="465"/>
+      <c r="AD91" s="436"/>
       <c r="AE91" s="465"/>
       <c r="AF91" s="465"/>
       <c r="AG91" s="465"/>
@@ -25471,11 +25352,8 @@
       <c r="BC91" s="465"/>
       <c r="BD91" s="465"/>
       <c r="BE91" s="465"/>
-      <c r="BG91" s="462"/>
-      <c r="BH91" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF91" s="465"/>
+      <c r="BH91" s="462"/>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" s="461"/>
@@ -25485,23 +25363,25 @@
         <v>485</v>
       </c>
       <c r="F92" s="436"/>
-      <c r="G92" s="442">
+      <c r="G92" s="437">
+        <v>3</v>
+      </c>
+      <c r="H92" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B82&amp;RIGHT($E92,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="442"/>
-      <c r="I92" s="439"/>
-      <c r="J92" s="435"/>
+      <c r="I92" s="442"/>
+      <c r="J92" s="439"/>
       <c r="K92" s="435"/>
       <c r="L92" s="435"/>
       <c r="M92" s="435"/>
-      <c r="N92" s="439"/>
-      <c r="O92" s="436"/>
-      <c r="P92" s="439"/>
-      <c r="Q92" s="435"/>
+      <c r="N92" s="435"/>
+      <c r="O92" s="439"/>
+      <c r="P92" s="436"/>
+      <c r="Q92" s="439"/>
       <c r="R92" s="435"/>
       <c r="S92" s="435"/>
-      <c r="T92" s="436"/>
+      <c r="T92" s="435"/>
       <c r="U92" s="436"/>
       <c r="V92" s="436"/>
       <c r="W92" s="436"/>
@@ -25511,7 +25391,7 @@
       <c r="AA92" s="436"/>
       <c r="AB92" s="436"/>
       <c r="AC92" s="436"/>
-      <c r="AD92" s="465"/>
+      <c r="AD92" s="436"/>
       <c r="AE92" s="465"/>
       <c r="AF92" s="465"/>
       <c r="AG92" s="465"/>
@@ -25539,11 +25419,8 @@
       <c r="BC92" s="465"/>
       <c r="BD92" s="465"/>
       <c r="BE92" s="465"/>
-      <c r="BG92" s="462"/>
-      <c r="BH92" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF92" s="465"/>
+      <c r="BH92" s="462"/>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" s="461" t="s">
@@ -25554,18 +25431,18 @@
       <c r="F93" s="436"/>
       <c r="G93" s="436"/>
       <c r="H93" s="436"/>
-      <c r="I93" s="439"/>
-      <c r="J93" s="435"/>
+      <c r="I93" s="436"/>
+      <c r="J93" s="439"/>
       <c r="K93" s="435"/>
       <c r="L93" s="435"/>
       <c r="M93" s="435"/>
-      <c r="N93" s="439"/>
-      <c r="O93" s="436"/>
-      <c r="P93" s="439"/>
-      <c r="Q93" s="435"/>
+      <c r="N93" s="435"/>
+      <c r="O93" s="439"/>
+      <c r="P93" s="436"/>
+      <c r="Q93" s="439"/>
       <c r="R93" s="435"/>
       <c r="S93" s="435"/>
-      <c r="T93" s="436"/>
+      <c r="T93" s="435"/>
       <c r="U93" s="436"/>
       <c r="V93" s="436"/>
       <c r="W93" s="436"/>
@@ -25575,7 +25452,7 @@
       <c r="AA93" s="436"/>
       <c r="AB93" s="436"/>
       <c r="AC93" s="436"/>
-      <c r="AD93" s="465"/>
+      <c r="AD93" s="436"/>
       <c r="AE93" s="465"/>
       <c r="AF93" s="465"/>
       <c r="AG93" s="465"/>
@@ -25603,11 +25480,8 @@
       <c r="BC93" s="465"/>
       <c r="BD93" s="465"/>
       <c r="BE93" s="465"/>
-      <c r="BG93" s="462"/>
-      <c r="BH93" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF93" s="465"/>
+      <c r="BH93" s="462"/>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" s="461" t="s">
@@ -25626,38 +25500,35 @@
       </c>
       <c r="G94" s="436"/>
       <c r="H94" s="436"/>
-      <c r="I94" s="441">
-        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B94&amp;I$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="I94" s="436"/>
+      <c r="J94" s="441">
+        <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B94&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>50.509956475237367</v>
-      </c>
-      <c r="J94" s="435">
-        <f>SUMIF(RefineriesData!$J$13:$J$245,$B94&amp;J$5,RefineriesData!$N$13:$N$245)</f>
-        <v>3.9048398119126899</v>
       </c>
       <c r="K94" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B94&amp;K$5,RefineriesData!$N$13:$N$245)</f>
+        <v>3.9048398119126899</v>
+      </c>
+      <c r="L94" s="435">
+        <f>SUMIF(RefineriesData!$J$13:$J$245,$B94&amp;L$5,RefineriesData!$N$13:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="435"/>
       <c r="M94" s="435"/>
-      <c r="N94" s="439">
-        <f>SUMIF(RefineriesData!$J$13:$J$267,$B94&amp;N$4,RefineriesData!$N$13:$N$267)</f>
+      <c r="N94" s="435"/>
+      <c r="O94" s="439">
+        <f>SUMIF(RefineriesData!$J$13:$J$267,$B94&amp;O$4,RefineriesData!$N$13:$N$267)</f>
         <v>2030</v>
       </c>
-      <c r="O94" s="435">
-        <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;O$4,RefineriesData!$N$16:$N$245)</f>
+      <c r="P94" s="435">
+        <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;P$4,RefineriesData!$N$16:$N$245)</f>
         <v>50</v>
       </c>
-      <c r="P94" s="435">
-        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B94&amp;P$4,RefineriesData!$N$13:$N$269),"")</f>
+      <c r="Q94" s="435">
+        <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B94&amp;Q$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>360.38200986736047</v>
       </c>
-      <c r="Q94" s="435">
+      <c r="R94" s="435">
         <v>-5</v>
-      </c>
-      <c r="R94" s="435" t="str">
-        <f>""</f>
-        <v/>
       </c>
       <c r="S94" s="435" t="str">
         <f>""</f>
@@ -25667,10 +25538,13 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="U94" s="435">
+      <c r="U94" s="435" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="V94" s="435">
         <v>0.95</v>
       </c>
-      <c r="V94" s="435"/>
       <c r="W94" s="435"/>
       <c r="X94" s="435"/>
       <c r="Y94" s="435"/>
@@ -25678,7 +25552,7 @@
       <c r="AA94" s="435"/>
       <c r="AB94" s="435"/>
       <c r="AC94" s="435"/>
-      <c r="AD94" s="465"/>
+      <c r="AD94" s="435"/>
       <c r="AE94" s="465"/>
       <c r="AF94" s="465"/>
       <c r="AG94" s="465"/>
@@ -25706,11 +25580,8 @@
       <c r="BC94" s="465"/>
       <c r="BD94" s="465"/>
       <c r="BE94" s="465"/>
-      <c r="BG94" s="462"/>
-      <c r="BH94" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF94" s="465"/>
+      <c r="BH94" s="462"/>
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" s="461"/>
@@ -25720,22 +25591,22 @@
       </c>
       <c r="F95" s="436"/>
       <c r="G95" s="436"/>
-      <c r="H95" s="482">
+      <c r="H95" s="436"/>
+      <c r="I95" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B94&amp;C95,RefineriesData!$N$16:$N$270)</f>
         <v>0</v>
       </c>
-      <c r="I95" s="439"/>
-      <c r="J95" s="435"/>
+      <c r="J95" s="439"/>
       <c r="K95" s="435"/>
       <c r="L95" s="435"/>
       <c r="M95" s="435"/>
-      <c r="N95" s="439"/>
-      <c r="O95" s="436"/>
-      <c r="P95" s="439"/>
-      <c r="Q95" s="435"/>
+      <c r="N95" s="435"/>
+      <c r="O95" s="439"/>
+      <c r="P95" s="436"/>
+      <c r="Q95" s="439"/>
       <c r="R95" s="435"/>
       <c r="S95" s="435"/>
-      <c r="T95" s="436"/>
+      <c r="T95" s="435"/>
       <c r="U95" s="436"/>
       <c r="V95" s="436"/>
       <c r="W95" s="436"/>
@@ -25745,7 +25616,7 @@
       <c r="AA95" s="436"/>
       <c r="AB95" s="436"/>
       <c r="AC95" s="436"/>
-      <c r="AD95" s="465"/>
+      <c r="AD95" s="436"/>
       <c r="AE95" s="465"/>
       <c r="AF95" s="465"/>
       <c r="AG95" s="465"/>
@@ -25773,11 +25644,8 @@
       <c r="BC95" s="465"/>
       <c r="BD95" s="465"/>
       <c r="BE95" s="465"/>
-      <c r="BG95" s="462"/>
-      <c r="BH95" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF95" s="465"/>
+      <c r="BH95" s="462"/>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" s="461"/>
@@ -25787,22 +25655,22 @@
       </c>
       <c r="F96" s="436"/>
       <c r="G96" s="436"/>
-      <c r="H96" s="482">
+      <c r="H96" s="436"/>
+      <c r="I96" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B94&amp;C96,RefineriesData!$N$16:$N$270)</f>
         <v>4.5130780547547305E-3</v>
       </c>
-      <c r="I96" s="439"/>
-      <c r="J96" s="435"/>
+      <c r="J96" s="439"/>
       <c r="K96" s="435"/>
       <c r="L96" s="435"/>
       <c r="M96" s="435"/>
-      <c r="N96" s="439"/>
-      <c r="O96" s="436"/>
-      <c r="P96" s="439"/>
-      <c r="Q96" s="435"/>
+      <c r="N96" s="435"/>
+      <c r="O96" s="439"/>
+      <c r="P96" s="436"/>
+      <c r="Q96" s="439"/>
       <c r="R96" s="435"/>
       <c r="S96" s="435"/>
-      <c r="T96" s="436"/>
+      <c r="T96" s="435"/>
       <c r="U96" s="436"/>
       <c r="V96" s="436"/>
       <c r="W96" s="436"/>
@@ -25812,7 +25680,7 @@
       <c r="AA96" s="436"/>
       <c r="AB96" s="436"/>
       <c r="AC96" s="436"/>
-      <c r="AD96" s="465"/>
+      <c r="AD96" s="436"/>
       <c r="AE96" s="465"/>
       <c r="AF96" s="465"/>
       <c r="AG96" s="465"/>
@@ -25840,11 +25708,8 @@
       <c r="BC96" s="465"/>
       <c r="BD96" s="465"/>
       <c r="BE96" s="465"/>
-      <c r="BG96" s="462"/>
-      <c r="BH96" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF96" s="465"/>
+      <c r="BH96" s="462"/>
     </row>
     <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" s="461"/>
@@ -25854,23 +25719,25 @@
         <v>525</v>
       </c>
       <c r="F97" s="436"/>
-      <c r="G97" s="442">
+      <c r="G97" s="437">
+        <v>3</v>
+      </c>
+      <c r="H97" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E97,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="442"/>
-      <c r="I97" s="439"/>
-      <c r="J97" s="435"/>
+      <c r="I97" s="442"/>
+      <c r="J97" s="439"/>
       <c r="K97" s="435"/>
       <c r="L97" s="435"/>
       <c r="M97" s="435"/>
-      <c r="N97" s="436"/>
+      <c r="N97" s="435"/>
       <c r="O97" s="436"/>
-      <c r="P97" s="439"/>
-      <c r="Q97" s="435"/>
+      <c r="P97" s="436"/>
+      <c r="Q97" s="439"/>
       <c r="R97" s="435"/>
       <c r="S97" s="435"/>
-      <c r="T97" s="436"/>
+      <c r="T97" s="435"/>
       <c r="U97" s="436"/>
       <c r="V97" s="436"/>
       <c r="W97" s="436"/>
@@ -25880,7 +25747,7 @@
       <c r="AA97" s="436"/>
       <c r="AB97" s="436"/>
       <c r="AC97" s="436"/>
-      <c r="AD97" s="465"/>
+      <c r="AD97" s="436"/>
       <c r="AE97" s="465"/>
       <c r="AF97" s="465"/>
       <c r="AG97" s="465"/>
@@ -25908,11 +25775,8 @@
       <c r="BC97" s="465"/>
       <c r="BD97" s="465"/>
       <c r="BE97" s="465"/>
-      <c r="BG97" s="462"/>
-      <c r="BH97" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF97" s="465"/>
+      <c r="BH97" s="462"/>
     </row>
     <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" s="461"/>
@@ -25922,23 +25786,25 @@
         <v>499</v>
       </c>
       <c r="F98" s="436"/>
-      <c r="G98" s="442">
+      <c r="G98" s="437">
+        <v>3</v>
+      </c>
+      <c r="H98" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E98,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.375</v>
       </c>
-      <c r="H98" s="442"/>
-      <c r="I98" s="439"/>
-      <c r="J98" s="435"/>
+      <c r="I98" s="442"/>
+      <c r="J98" s="439"/>
       <c r="K98" s="435"/>
       <c r="L98" s="435"/>
       <c r="M98" s="435"/>
-      <c r="N98" s="436"/>
+      <c r="N98" s="435"/>
       <c r="O98" s="436"/>
-      <c r="P98" s="439"/>
-      <c r="Q98" s="435"/>
+      <c r="P98" s="436"/>
+      <c r="Q98" s="439"/>
       <c r="R98" s="435"/>
       <c r="S98" s="435"/>
-      <c r="T98" s="436"/>
+      <c r="T98" s="435"/>
       <c r="U98" s="436"/>
       <c r="V98" s="436"/>
       <c r="W98" s="436"/>
@@ -25948,7 +25814,7 @@
       <c r="AA98" s="436"/>
       <c r="AB98" s="436"/>
       <c r="AC98" s="436"/>
-      <c r="AD98" s="465"/>
+      <c r="AD98" s="436"/>
       <c r="AE98" s="465"/>
       <c r="AF98" s="465"/>
       <c r="AG98" s="465"/>
@@ -25976,11 +25842,8 @@
       <c r="BC98" s="465"/>
       <c r="BD98" s="465"/>
       <c r="BE98" s="465"/>
-      <c r="BG98" s="462"/>
-      <c r="BH98" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF98" s="465"/>
+      <c r="BH98" s="462"/>
     </row>
     <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99" s="461"/>
@@ -25990,23 +25853,25 @@
         <v>497</v>
       </c>
       <c r="F99" s="436"/>
-      <c r="G99" s="442">
+      <c r="G99" s="437">
+        <v>3</v>
+      </c>
+      <c r="H99" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E99,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.375</v>
       </c>
-      <c r="H99" s="442"/>
-      <c r="I99" s="439"/>
-      <c r="J99" s="435"/>
+      <c r="I99" s="442"/>
+      <c r="J99" s="439"/>
       <c r="K99" s="435"/>
       <c r="L99" s="435"/>
       <c r="M99" s="435"/>
-      <c r="N99" s="436"/>
+      <c r="N99" s="435"/>
       <c r="O99" s="436"/>
-      <c r="P99" s="439"/>
-      <c r="Q99" s="435"/>
+      <c r="P99" s="436"/>
+      <c r="Q99" s="439"/>
       <c r="R99" s="435"/>
       <c r="S99" s="435"/>
-      <c r="T99" s="436"/>
+      <c r="T99" s="435"/>
       <c r="U99" s="436"/>
       <c r="V99" s="436"/>
       <c r="W99" s="436"/>
@@ -26016,7 +25881,7 @@
       <c r="AA99" s="436"/>
       <c r="AB99" s="436"/>
       <c r="AC99" s="436"/>
-      <c r="AD99" s="465"/>
+      <c r="AD99" s="436"/>
       <c r="AE99" s="465"/>
       <c r="AF99" s="465"/>
       <c r="AG99" s="465"/>
@@ -26044,11 +25909,8 @@
       <c r="BC99" s="465"/>
       <c r="BD99" s="465"/>
       <c r="BE99" s="465"/>
-      <c r="BG99" s="462"/>
-      <c r="BH99" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF99" s="465"/>
+      <c r="BH99" s="462"/>
     </row>
     <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100" s="461"/>
@@ -26058,23 +25920,25 @@
         <v>491</v>
       </c>
       <c r="F100" s="436"/>
-      <c r="G100" s="442">
+      <c r="G100" s="437">
+        <v>3</v>
+      </c>
+      <c r="H100" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E100,3),RefineriesData!$N$16:$N$245)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="442"/>
-      <c r="I100" s="439"/>
-      <c r="J100" s="435"/>
+      <c r="I100" s="442"/>
+      <c r="J100" s="439"/>
       <c r="K100" s="435"/>
       <c r="L100" s="435"/>
       <c r="M100" s="435"/>
-      <c r="N100" s="436"/>
+      <c r="N100" s="435"/>
       <c r="O100" s="436"/>
-      <c r="P100" s="439"/>
-      <c r="Q100" s="435"/>
+      <c r="P100" s="436"/>
+      <c r="Q100" s="439"/>
       <c r="R100" s="435"/>
       <c r="S100" s="435"/>
-      <c r="T100" s="436"/>
+      <c r="T100" s="435"/>
       <c r="U100" s="436"/>
       <c r="V100" s="436"/>
       <c r="W100" s="436"/>
@@ -26084,7 +25948,7 @@
       <c r="AA100" s="436"/>
       <c r="AB100" s="436"/>
       <c r="AC100" s="436"/>
-      <c r="AD100" s="465"/>
+      <c r="AD100" s="436"/>
       <c r="AE100" s="465"/>
       <c r="AF100" s="465"/>
       <c r="AG100" s="465"/>
@@ -26112,11 +25976,8 @@
       <c r="BC100" s="465"/>
       <c r="BD100" s="465"/>
       <c r="BE100" s="465"/>
-      <c r="BG100" s="462"/>
-      <c r="BH100" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF100" s="465"/>
+      <c r="BH100" s="462"/>
     </row>
     <row r="101" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A101" s="461"/>
@@ -26126,23 +25987,25 @@
         <v>490</v>
       </c>
       <c r="F101" s="436"/>
-      <c r="G101" s="442">
+      <c r="G101" s="437">
+        <v>3</v>
+      </c>
+      <c r="H101" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E101,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.2</v>
       </c>
-      <c r="H101" s="442"/>
-      <c r="I101" s="439"/>
-      <c r="J101" s="435"/>
+      <c r="I101" s="442"/>
+      <c r="J101" s="439"/>
       <c r="K101" s="435"/>
       <c r="L101" s="435"/>
       <c r="M101" s="435"/>
-      <c r="N101" s="436"/>
+      <c r="N101" s="435"/>
       <c r="O101" s="436"/>
-      <c r="P101" s="439"/>
-      <c r="Q101" s="435"/>
+      <c r="P101" s="436"/>
+      <c r="Q101" s="439"/>
       <c r="R101" s="435"/>
       <c r="S101" s="435"/>
-      <c r="T101" s="436"/>
+      <c r="T101" s="435"/>
       <c r="U101" s="436"/>
       <c r="V101" s="436"/>
       <c r="W101" s="436"/>
@@ -26152,7 +26015,7 @@
       <c r="AA101" s="436"/>
       <c r="AB101" s="436"/>
       <c r="AC101" s="436"/>
-      <c r="AD101" s="465"/>
+      <c r="AD101" s="436"/>
       <c r="AE101" s="465"/>
       <c r="AF101" s="465"/>
       <c r="AG101" s="465"/>
@@ -26180,11 +26043,8 @@
       <c r="BC101" s="465"/>
       <c r="BD101" s="465"/>
       <c r="BE101" s="465"/>
-      <c r="BG101" s="462"/>
-      <c r="BH101" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF101" s="465"/>
+      <c r="BH101" s="462"/>
     </row>
     <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A102" s="461"/>
@@ -26194,23 +26054,25 @@
         <v>487</v>
       </c>
       <c r="F102" s="436"/>
-      <c r="G102" s="442">
+      <c r="G102" s="437">
+        <v>3</v>
+      </c>
+      <c r="H102" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B94&amp;RIGHT($E102,3),RefineriesData!$N$16:$N$245)</f>
         <v>0.03</v>
       </c>
-      <c r="H102" s="442"/>
-      <c r="I102" s="439"/>
-      <c r="J102" s="435"/>
+      <c r="I102" s="442"/>
+      <c r="J102" s="439"/>
       <c r="K102" s="435"/>
       <c r="L102" s="435"/>
       <c r="M102" s="435"/>
-      <c r="N102" s="436"/>
+      <c r="N102" s="435"/>
       <c r="O102" s="436"/>
-      <c r="P102" s="439"/>
-      <c r="Q102" s="435"/>
+      <c r="P102" s="436"/>
+      <c r="Q102" s="439"/>
       <c r="R102" s="435"/>
       <c r="S102" s="435"/>
-      <c r="T102" s="436"/>
+      <c r="T102" s="435"/>
       <c r="U102" s="436"/>
       <c r="V102" s="436"/>
       <c r="W102" s="436"/>
@@ -26220,7 +26082,7 @@
       <c r="AA102" s="436"/>
       <c r="AB102" s="436"/>
       <c r="AC102" s="436"/>
-      <c r="AD102" s="465"/>
+      <c r="AD102" s="436"/>
       <c r="AE102" s="465"/>
       <c r="AF102" s="465"/>
       <c r="AG102" s="465"/>
@@ -26248,11 +26110,8 @@
       <c r="BC102" s="465"/>
       <c r="BD102" s="465"/>
       <c r="BE102" s="465"/>
-      <c r="BG102" s="462"/>
-      <c r="BH102" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF102" s="465"/>
+      <c r="BH102" s="462"/>
     </row>
     <row r="103" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="461"/>
@@ -26262,22 +26121,24 @@
         <v>485</v>
       </c>
       <c r="F103" s="436"/>
-      <c r="G103" s="463">
+      <c r="G103" s="437">
+        <v>3</v>
+      </c>
+      <c r="H103" s="463">
         <v>0.05</v>
       </c>
-      <c r="H103" s="463"/>
-      <c r="I103" s="439"/>
-      <c r="J103" s="435"/>
+      <c r="I103" s="463"/>
+      <c r="J103" s="439"/>
       <c r="K103" s="435"/>
       <c r="L103" s="435"/>
       <c r="M103" s="435"/>
-      <c r="N103" s="436"/>
+      <c r="N103" s="435"/>
       <c r="O103" s="436"/>
-      <c r="P103" s="439"/>
-      <c r="Q103" s="435"/>
+      <c r="P103" s="436"/>
+      <c r="Q103" s="439"/>
       <c r="R103" s="435"/>
       <c r="S103" s="435"/>
-      <c r="T103" s="436"/>
+      <c r="T103" s="435"/>
       <c r="U103" s="436"/>
       <c r="V103" s="436"/>
       <c r="W103" s="436"/>
@@ -26287,7 +26148,7 @@
       <c r="AA103" s="436"/>
       <c r="AB103" s="436"/>
       <c r="AC103" s="436"/>
-      <c r="AD103" s="465"/>
+      <c r="AD103" s="436"/>
       <c r="AE103" s="465"/>
       <c r="AF103" s="465"/>
       <c r="AG103" s="465"/>
@@ -26315,11 +26176,8 @@
       <c r="BC103" s="465"/>
       <c r="BD103" s="465"/>
       <c r="BE103" s="465"/>
-      <c r="BG103" s="462"/>
-      <c r="BH103" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF103" s="465"/>
+      <c r="BH103" s="462"/>
     </row>
     <row r="104" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A104" s="461" t="s">
@@ -26330,18 +26188,18 @@
       <c r="F104" s="436"/>
       <c r="G104" s="436"/>
       <c r="H104" s="436"/>
-      <c r="I104" s="439"/>
-      <c r="J104" s="435"/>
+      <c r="I104" s="436"/>
+      <c r="J104" s="439"/>
       <c r="K104" s="435"/>
       <c r="L104" s="435"/>
       <c r="M104" s="435"/>
-      <c r="N104" s="436"/>
+      <c r="N104" s="435"/>
       <c r="O104" s="436"/>
-      <c r="P104" s="439"/>
-      <c r="Q104" s="435"/>
+      <c r="P104" s="436"/>
+      <c r="Q104" s="439"/>
       <c r="R104" s="435"/>
       <c r="S104" s="435"/>
-      <c r="T104" s="436"/>
+      <c r="T104" s="435"/>
       <c r="U104" s="436"/>
       <c r="V104" s="436"/>
       <c r="W104" s="436"/>
@@ -26351,7 +26209,7 @@
       <c r="AA104" s="436"/>
       <c r="AB104" s="436"/>
       <c r="AC104" s="436"/>
-      <c r="AD104" s="465"/>
+      <c r="AD104" s="436"/>
       <c r="AE104" s="465"/>
       <c r="AF104" s="465"/>
       <c r="AG104" s="465"/>
@@ -26379,11 +26237,8 @@
       <c r="BC104" s="465"/>
       <c r="BD104" s="465"/>
       <c r="BE104" s="465"/>
-      <c r="BG104" s="462"/>
-      <c r="BH104" s="117" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
+      <c r="BF104" s="465"/>
+      <c r="BH104" s="462"/>
     </row>
     <row r="105" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A105" s="461" t="s">
@@ -26405,24 +26260,24 @@
       </c>
       <c r="G105" s="436"/>
       <c r="H105" s="436"/>
-      <c r="I105" s="435"/>
-      <c r="J105" s="484">
+      <c r="I105" s="436"/>
+      <c r="J105" s="435"/>
+      <c r="K105" s="484">
         <f>RefineriesData!D33</f>
         <v>95.428011064048093</v>
       </c>
-      <c r="K105" s="468">
+      <c r="L105" s="468">
         <f>[4]NameConv!$AZ$14/F105</f>
         <v>1.1751170042122719E-3</v>
       </c>
-      <c r="L105" s="484"/>
-      <c r="M105" s="468"/>
-      <c r="N105" s="435"/>
-      <c r="O105" s="436"/>
-      <c r="P105" s="435"/>
-      <c r="Q105" s="465"/>
+      <c r="M105" s="484"/>
+      <c r="N105" s="468"/>
+      <c r="O105" s="435"/>
+      <c r="P105" s="436"/>
+      <c r="Q105" s="435"/>
       <c r="R105" s="465"/>
       <c r="S105" s="465"/>
-      <c r="T105" s="436"/>
+      <c r="T105" s="465"/>
       <c r="U105" s="436"/>
       <c r="V105" s="436"/>
       <c r="W105" s="436"/>
@@ -26432,11 +26287,11 @@
       <c r="AA105" s="436"/>
       <c r="AB105" s="436"/>
       <c r="AC105" s="436"/>
-      <c r="AD105" s="469"/>
+      <c r="AD105" s="436"/>
       <c r="AE105" s="469"/>
       <c r="AF105" s="469"/>
       <c r="AG105" s="469"/>
-      <c r="AH105" s="465"/>
+      <c r="AH105" s="469"/>
       <c r="AI105" s="465"/>
       <c r="AJ105" s="465"/>
       <c r="AK105" s="465"/>
@@ -26460,6 +26315,7 @@
       <c r="BC105" s="465"/>
       <c r="BD105" s="465"/>
       <c r="BE105" s="465"/>
+      <c r="BF105" s="465"/>
     </row>
     <row r="106" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A106" s="461" t="s">
@@ -26481,24 +26337,24 @@
       </c>
       <c r="G106" s="436"/>
       <c r="H106" s="436"/>
-      <c r="I106" s="435"/>
-      <c r="J106" s="484">
+      <c r="I106" s="436"/>
+      <c r="J106" s="435"/>
+      <c r="K106" s="484">
         <f>RefineriesData!D31/F106</f>
         <v>95.428011064048093</v>
       </c>
-      <c r="K106" s="468">
+      <c r="L106" s="468">
         <f>[4]NameConv!$AZ$14/F106</f>
         <v>1.1751170042122719E-3</v>
       </c>
-      <c r="L106" s="484"/>
-      <c r="M106" s="468"/>
-      <c r="N106" s="435"/>
-      <c r="O106" s="436"/>
-      <c r="P106" s="435"/>
-      <c r="Q106" s="465"/>
+      <c r="M106" s="484"/>
+      <c r="N106" s="468"/>
+      <c r="O106" s="435"/>
+      <c r="P106" s="436"/>
+      <c r="Q106" s="435"/>
       <c r="R106" s="465"/>
       <c r="S106" s="465"/>
-      <c r="T106" s="436"/>
+      <c r="T106" s="465"/>
       <c r="U106" s="436"/>
       <c r="V106" s="436"/>
       <c r="W106" s="436"/>
@@ -26508,7 +26364,7 @@
       <c r="AA106" s="436"/>
       <c r="AB106" s="436"/>
       <c r="AC106" s="436"/>
-      <c r="AD106" s="465"/>
+      <c r="AD106" s="436"/>
       <c r="AE106" s="465"/>
       <c r="AF106" s="465"/>
       <c r="AG106" s="465"/>
@@ -26536,6 +26392,7 @@
       <c r="BC106" s="465"/>
       <c r="BD106" s="465"/>
       <c r="BE106" s="465"/>
+      <c r="BF106" s="465"/>
     </row>
     <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A107" s="461" t="s">
@@ -26555,23 +26412,23 @@
       </c>
       <c r="G107" s="435"/>
       <c r="H107" s="435"/>
-      <c r="I107" s="465"/>
-      <c r="J107" s="484">
+      <c r="I107" s="435"/>
+      <c r="J107" s="465"/>
+      <c r="K107" s="484">
         <f>[4]NameConv!AY18</f>
         <v>56.1</v>
       </c>
-      <c r="K107" s="468">
+      <c r="L107" s="468">
         <f>[4]NameConv!AZ18</f>
         <v>1E-3</v>
       </c>
-      <c r="L107" s="484"/>
-      <c r="M107" s="468"/>
-      <c r="O107" s="436"/>
-      <c r="P107" s="435"/>
-      <c r="Q107" s="465"/>
+      <c r="M107" s="484"/>
+      <c r="N107" s="468"/>
+      <c r="P107" s="436"/>
+      <c r="Q107" s="435"/>
       <c r="R107" s="465"/>
       <c r="S107" s="465"/>
-      <c r="T107" s="436"/>
+      <c r="T107" s="465"/>
       <c r="U107" s="436"/>
       <c r="V107" s="436"/>
       <c r="W107" s="436"/>
@@ -26581,7 +26438,7 @@
       <c r="AA107" s="436"/>
       <c r="AB107" s="436"/>
       <c r="AC107" s="436"/>
-      <c r="AD107" s="465"/>
+      <c r="AD107" s="436"/>
       <c r="AE107" s="465"/>
       <c r="AF107" s="465"/>
       <c r="AG107" s="465"/>
@@ -26609,6 +26466,7 @@
       <c r="BC107" s="465"/>
       <c r="BD107" s="465"/>
       <c r="BE107" s="465"/>
+      <c r="BF107" s="465"/>
     </row>
     <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="E110" s="117" t="s">
@@ -26619,8 +26477,8 @@
       <c r="E111" s="117" t="s">
         <v>525</v>
       </c>
-      <c r="AC111" s="117">
-        <f>SUMIF($E$7:$E$107,E111,$AC$7:$AC$107)</f>
+      <c r="AD111" s="117">
+        <f>SUMIF($E$7:$E$107,E111,$AD$7:$AD$107)</f>
         <v>2.5081333868762536</v>
       </c>
     </row>
@@ -26628,53 +26486,53 @@
       <c r="E112" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="AC112" s="117">
-        <f t="shared" ref="AC112:AC117" si="19">SUMIF($E$7:$E$107,E112,$AC$7:$AC$107)</f>
+      <c r="AD112" s="117">
+        <f t="shared" ref="AD112:AD117" si="13">SUMIF($E$7:$E$107,E112,$AD$7:$AD$107)</f>
         <v>303.09899561263535</v>
       </c>
     </row>
-    <row r="113" spans="5:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E113" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="AC113" s="117">
-        <f t="shared" si="19"/>
+      <c r="AD113" s="117">
+        <f t="shared" si="13"/>
         <v>349.69632725204076</v>
       </c>
     </row>
-    <row r="114" spans="5:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E114" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="AC114" s="117">
-        <f t="shared" si="19"/>
+      <c r="AD114" s="117">
+        <f t="shared" si="13"/>
         <v>135.16558341186152</v>
       </c>
     </row>
-    <row r="115" spans="5:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E115" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="AC115" s="117">
-        <f t="shared" si="19"/>
+      <c r="AD115" s="117">
+        <f t="shared" si="13"/>
         <v>106.74674803946569</v>
       </c>
     </row>
-    <row r="116" spans="5:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E116" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="AC116" s="117">
-        <f t="shared" si="19"/>
+      <c r="AD116" s="117">
+        <f t="shared" si="13"/>
         <v>14.764122522740021</v>
       </c>
     </row>
-    <row r="117" spans="5:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E117" s="117" t="s">
         <v>485</v>
       </c>
-      <c r="AC117" s="117">
-        <f t="shared" si="19"/>
+      <c r="AD117" s="117">
+        <f t="shared" si="13"/>
         <v>52.183618971427109</v>
       </c>
     </row>
@@ -26693,7 +26551,7 @@
   <dimension ref="A1:AH286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29263,7 +29121,7 @@
         <v>2017</v>
       </c>
       <c r="R88" s="106">
-        <f>UPS!T29</f>
+        <f>UPS!U29</f>
         <v>0</v>
       </c>
     </row>
@@ -34593,26 +34451,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="486" t="s">
+      <c r="C2" s="496" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="488" t="s">
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="498" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="489"/>
-      <c r="H2" s="490"/>
-      <c r="I2" s="488" t="s">
+      <c r="G2" s="499"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="498" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="489"/>
-      <c r="K2" s="490"/>
-      <c r="L2" s="488" t="s">
+      <c r="J2" s="499"/>
+      <c r="K2" s="500"/>
+      <c r="L2" s="498" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="489"/>
-      <c r="N2" s="490"/>
+      <c r="M2" s="499"/>
+      <c r="N2" s="500"/>
       <c r="O2" s="97"/>
       <c r="P2" s="13"/>
       <c r="AA2" s="96" t="s">
@@ -34885,10 +34743,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="485" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="492"/>
+      <c r="B9" s="486"/>
       <c r="C9" s="49"/>
       <c r="D9" s="44">
         <f>D5/$O$5</f>
@@ -34913,49 +34771,49 @@
       <c r="O9" s="7">
         <v>788</v>
       </c>
-      <c r="Q9" s="497" t="s">
+      <c r="Q9" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="499" t="s">
+      <c r="S9" s="493" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="495" t="s">
+      <c r="V9" s="489" t="s">
         <v>881</v>
       </c>
-      <c r="W9" s="495" t="s">
+      <c r="W9" s="489" t="s">
         <v>882</v>
       </c>
-      <c r="X9" s="495" t="s">
+      <c r="X9" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="495" t="s">
+      <c r="Y9" s="489" t="s">
         <v>883</v>
       </c>
-      <c r="Z9" s="495" t="s">
+      <c r="Z9" s="489" t="s">
         <v>884</v>
       </c>
-      <c r="AA9" s="495" t="s">
+      <c r="AA9" s="489" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="495" t="s">
+      <c r="AB9" s="489" t="s">
         <v>885</v>
       </c>
-      <c r="AC9" s="495" t="s">
+      <c r="AC9" s="489" t="s">
         <v>886</v>
       </c>
-      <c r="AD9" s="495" t="s">
+      <c r="AD9" s="489" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="495" t="s">
+      <c r="AE9" s="489" t="s">
         <v>887</v>
       </c>
-      <c r="AF9" s="495" t="s">
+      <c r="AF9" s="489" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="493"/>
-      <c r="B10" s="494"/>
+      <c r="A10" s="487"/>
+      <c r="B10" s="488"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9">
         <f>D9*788</f>
@@ -34981,25 +34839,25 @@
         <f>O9-G10</f>
         <v>422.2729198252656</v>
       </c>
-      <c r="Q10" s="498"/>
+      <c r="Q10" s="492"/>
       <c r="R10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="500"/>
+      <c r="S10" s="494"/>
       <c r="U10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="496"/>
-      <c r="W10" s="496"/>
-      <c r="X10" s="496"/>
-      <c r="Y10" s="496"/>
-      <c r="Z10" s="496"/>
-      <c r="AA10" s="496"/>
-      <c r="AB10" s="496"/>
-      <c r="AC10" s="496"/>
-      <c r="AD10" s="496"/>
-      <c r="AE10" s="496"/>
-      <c r="AF10" s="496"/>
+      <c r="V10" s="490"/>
+      <c r="W10" s="490"/>
+      <c r="X10" s="490"/>
+      <c r="Y10" s="490"/>
+      <c r="Z10" s="490"/>
+      <c r="AA10" s="490"/>
+      <c r="AB10" s="490"/>
+      <c r="AC10" s="490"/>
+      <c r="AD10" s="490"/>
+      <c r="AE10" s="490"/>
+      <c r="AF10" s="490"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -37488,11 +37346,11 @@
       <c r="J62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="485" t="s">
+      <c r="K62" s="495" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="485"/>
-      <c r="M62" s="485"/>
+      <c r="L62" s="495"/>
+      <c r="M62" s="495"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="3:22" ht="15" x14ac:dyDescent="0.25">
@@ -37750,6 +37608,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AC9:AC10"/>
@@ -37764,11 +37627,6 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38136,7 +37994,7 @@
         <v>130</v>
       </c>
       <c r="L29" s="106">
-        <f>UPS!P94</f>
+        <f>UPS!Q94</f>
         <v>360.38200986736047</v>
       </c>
       <c r="S29" s="20" t="s">
@@ -38187,7 +38045,7 @@
         <v>124</v>
       </c>
       <c r="L33" s="112">
-        <f>UPS!P82*H33</f>
+        <f>UPS!Q82*H33</f>
         <v>64.512370944000011</v>
       </c>
     </row>
@@ -40437,7 +40295,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="509"/>
-      <c r="H2" s="490"/>
+      <c r="H2" s="500"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -40679,7 +40537,7 @@
       <c r="G14" s="88"/>
       <c r="H14" s="154"/>
       <c r="I14" s="153"/>
-      <c r="J14" s="500"/>
+      <c r="J14" s="494"/>
       <c r="K14" s="152" t="s">
         <v>79</v>
       </c>
@@ -44567,27 +44425,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="521" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="514"/>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
       <c r="J1" s="216" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="515" t="s">
+      <c r="A2" s="522" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
       <c r="D2" s="259">
         <v>2019</v>
       </c>
@@ -44624,16 +44482,16 @@
       <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="516" t="s">
+      <c r="A3" s="523" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="516"/>
+      <c r="B3" s="523"/>
       <c r="C3" s="254"/>
       <c r="D3" s="255"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="G3" s="253"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="524" t="s">
         <v>373</v>
       </c>
       <c r="Q3"/>
@@ -44643,10 +44501,10 @@
       <c r="U3" s="252"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="527" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="520"/>
+      <c r="B4" s="527"/>
       <c r="C4" s="241">
         <v>1</v>
       </c>
@@ -44662,7 +44520,7 @@
       <c r="G4" s="221">
         <v>18806</v>
       </c>
-      <c r="H4" s="518"/>
+      <c r="H4" s="525"/>
       <c r="J4" s="216">
         <f>D4/F4</f>
         <v>0.99859246427024684</v>
@@ -44680,10 +44538,10 @@
       <c r="T4" s="252"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="521" t="s">
+      <c r="A5" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="521"/>
+      <c r="B5" s="513"/>
       <c r="C5" s="239"/>
       <c r="D5" s="231">
         <v>6736</v>
@@ -44697,13 +44555,13 @@
       <c r="G5" s="221">
         <v>7019</v>
       </c>
-      <c r="H5" s="518"/>
+      <c r="H5" s="525"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="521" t="s">
+      <c r="A6" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="521"/>
+      <c r="B6" s="513"/>
       <c r="C6" s="239"/>
       <c r="D6" s="231">
         <v>1467</v>
@@ -44717,13 +44575,13 @@
       <c r="G6" s="221">
         <v>1461</v>
       </c>
-      <c r="H6" s="518"/>
+      <c r="H6" s="525"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="521" t="s">
+      <c r="A7" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="521"/>
+      <c r="B7" s="513"/>
       <c r="C7" s="239"/>
       <c r="D7" s="231">
         <v>3209</v>
@@ -44737,13 +44595,13 @@
       <c r="G7" s="221">
         <v>3331</v>
       </c>
-      <c r="H7" s="518"/>
+      <c r="H7" s="525"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="521" t="s">
+      <c r="A8" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="521"/>
+      <c r="B8" s="513"/>
       <c r="C8" s="239"/>
       <c r="D8" s="231">
         <v>4271</v>
@@ -44757,13 +44615,13 @@
       <c r="G8" s="221">
         <v>4067</v>
       </c>
-      <c r="H8" s="518"/>
+      <c r="H8" s="525"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="521"/>
+      <c r="B9" s="513"/>
       <c r="C9" s="239"/>
       <c r="D9" s="231">
         <v>1277</v>
@@ -44777,13 +44635,13 @@
       <c r="G9" s="221">
         <v>1309</v>
       </c>
-      <c r="H9" s="518"/>
+      <c r="H9" s="525"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="521" t="s">
+      <c r="A10" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="521"/>
+      <c r="B10" s="513"/>
       <c r="C10" s="239"/>
       <c r="D10" s="233">
         <v>688</v>
@@ -44797,13 +44655,13 @@
       <c r="G10" s="218">
         <v>793</v>
       </c>
-      <c r="H10" s="518"/>
+      <c r="H10" s="525"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="521"/>
+      <c r="B11" s="513"/>
       <c r="C11" s="239"/>
       <c r="D11" s="233">
         <v>53</v>
@@ -44817,14 +44675,14 @@
       <c r="G11" s="218">
         <v>62</v>
       </c>
-      <c r="H11" s="518"/>
+      <c r="H11" s="525"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="522" t="s">
+      <c r="A12" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="522"/>
-      <c r="C12" s="522"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
       <c r="D12" s="251">
         <v>745</v>
       </c>
@@ -44837,14 +44695,14 @@
       <c r="G12" s="249">
         <v>763</v>
       </c>
-      <c r="H12" s="519"/>
+      <c r="H12" s="526"/>
       <c r="V12" s="243"/>
     </row>
     <row r="13" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="523" t="s">
+      <c r="A13" s="520" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="523"/>
+      <c r="B13" s="520"/>
       <c r="C13" s="248">
         <v>2</v>
       </c>
@@ -44856,10 +44714,10 @@
       <c r="V13" s="243"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="514" t="s">
+      <c r="A14" s="516" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="514"/>
+      <c r="B14" s="516"/>
       <c r="C14" s="239"/>
       <c r="D14" s="231">
         <v>105.04</v>
@@ -44894,10 +44752,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="521" t="s">
+      <c r="A15" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="521"/>
+      <c r="B15" s="513"/>
       <c r="C15" s="239"/>
       <c r="D15" s="231">
         <v>96.16</v>
@@ -44930,10 +44788,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="521" t="s">
+      <c r="A16" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="521"/>
+      <c r="B16" s="513"/>
       <c r="C16" s="239"/>
       <c r="D16" s="231">
         <v>5.34</v>
@@ -44966,10 +44824,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="521" t="s">
+      <c r="A17" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B17" s="521"/>
+      <c r="B17" s="513"/>
       <c r="C17" s="239"/>
       <c r="D17" s="231">
         <v>3.49</v>
@@ -45002,10 +44860,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="521" t="s">
+      <c r="A18" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="521"/>
+      <c r="B18" s="513"/>
       <c r="C18" s="239"/>
       <c r="D18" s="242">
         <v>0</v>
@@ -45038,10 +44896,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="521" t="s">
+      <c r="A19" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="521"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="239"/>
       <c r="D19" s="231">
         <v>0</v>
@@ -45074,10 +44932,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="521"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="239"/>
       <c r="D20" s="231">
         <v>0.04</v>
@@ -45110,10 +44968,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="521" t="s">
+      <c r="A21" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="521"/>
+      <c r="B21" s="513"/>
       <c r="C21" s="239"/>
       <c r="D21" s="231">
         <v>0</v>
@@ -45146,11 +45004,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="521" t="s">
+      <c r="A22" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="521"/>
-      <c r="C22" s="521"/>
+      <c r="B22" s="513"/>
+      <c r="C22" s="513"/>
       <c r="D22" s="231">
         <v>0.01</v>
       </c>
@@ -45182,10 +45040,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="514" t="s">
+      <c r="A23" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="514"/>
+      <c r="B23" s="516"/>
       <c r="C23" s="239"/>
       <c r="D23" s="231">
         <v>1.64</v>
@@ -45220,10 +45078,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="521" t="s">
+      <c r="A24" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="521"/>
+      <c r="B24" s="513"/>
       <c r="C24" s="239"/>
       <c r="D24" s="231">
         <v>0.9</v>
@@ -45256,10 +45114,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="521"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="239"/>
       <c r="D25" s="231">
         <v>0.73</v>
@@ -45292,10 +45150,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="513"/>
       <c r="C26" s="239"/>
       <c r="D26" s="231">
         <v>0</v>
@@ -45328,10 +45186,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="521" t="s">
+      <c r="A27" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="521"/>
+      <c r="B27" s="513"/>
       <c r="C27" s="239"/>
       <c r="D27" s="231">
         <v>0</v>
@@ -45364,10 +45222,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="521" t="s">
+      <c r="A28" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="521"/>
+      <c r="B28" s="513"/>
       <c r="C28" s="239"/>
       <c r="D28" s="231">
         <v>0</v>
@@ -45400,10 +45258,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="521" t="s">
+      <c r="A29" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="521"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="239"/>
       <c r="D29" s="231">
         <v>0.01</v>
@@ -45436,10 +45294,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="521" t="s">
+      <c r="A30" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="521"/>
+      <c r="B30" s="513"/>
       <c r="C30" s="239"/>
       <c r="D30" s="231">
         <v>0</v>
@@ -45472,11 +45330,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="521" t="s">
+      <c r="A31" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="521"/>
-      <c r="C31" s="521"/>
+      <c r="B31" s="513"/>
+      <c r="C31" s="513"/>
       <c r="D31" s="231">
         <v>0</v>
       </c>
@@ -45508,10 +45366,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="514" t="s">
+      <c r="A32" s="516" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="514"/>
+      <c r="B32" s="516"/>
       <c r="C32" s="239"/>
       <c r="D32" s="231">
         <v>56004</v>
@@ -45546,10 +45404,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="521" t="s">
+      <c r="A33" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="521"/>
+      <c r="B33" s="513"/>
       <c r="C33" s="239"/>
       <c r="D33" s="231">
         <v>48418</v>
@@ -45588,10 +45446,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="521" t="s">
+      <c r="A34" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="521"/>
+      <c r="B34" s="513"/>
       <c r="C34" s="239"/>
       <c r="D34" s="231">
         <v>4557</v>
@@ -45624,10 +45482,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="521" t="s">
+      <c r="A35" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="521"/>
+      <c r="B35" s="513"/>
       <c r="C35" s="239"/>
       <c r="D35" s="233">
         <v>16</v>
@@ -45660,10 +45518,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="521" t="s">
+      <c r="A36" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="521"/>
+      <c r="B36" s="513"/>
       <c r="C36" s="239"/>
       <c r="D36" s="233">
         <v>932</v>
@@ -45696,10 +45554,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="239"/>
       <c r="D37" s="233">
         <v>610</v>
@@ -45732,10 +45590,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="521" t="s">
+      <c r="A38" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="521"/>
+      <c r="B38" s="513"/>
       <c r="C38" s="239"/>
       <c r="D38" s="231">
         <v>1163</v>
@@ -45768,10 +45626,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="521" t="s">
+      <c r="A39" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="521"/>
+      <c r="B39" s="513"/>
       <c r="C39" s="239"/>
       <c r="D39" s="233">
         <v>261</v>
@@ -45804,11 +45662,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="521" t="s">
+      <c r="A40" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="521"/>
-      <c r="C40" s="521"/>
+      <c r="B40" s="513"/>
+      <c r="C40" s="513"/>
       <c r="D40" s="233">
         <v>47</v>
       </c>
@@ -45840,10 +45698,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="514" t="s">
+      <c r="A41" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="514"/>
+      <c r="B41" s="516"/>
       <c r="C41" s="241">
         <v>3</v>
       </c>
@@ -45864,10 +45722,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="521" t="s">
+      <c r="A42" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="521"/>
+      <c r="B42" s="513"/>
       <c r="C42" s="239"/>
       <c r="D42" s="231">
         <v>5596</v>
@@ -45903,10 +45761,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="521" t="s">
+      <c r="A43" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="521"/>
+      <c r="B43" s="513"/>
       <c r="C43" s="239"/>
       <c r="D43" s="233">
         <v>400</v>
@@ -45942,10 +45800,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="521" t="s">
+      <c r="A44" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="521"/>
+      <c r="B44" s="513"/>
       <c r="C44" s="239"/>
       <c r="D44" s="233">
         <v>726</v>
@@ -45981,10 +45839,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="521" t="s">
+      <c r="A45" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="521"/>
+      <c r="B45" s="513"/>
       <c r="C45" s="239"/>
       <c r="D45" s="233">
         <v>289</v>
@@ -46020,10 +45878,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="521" t="s">
+      <c r="A46" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="521"/>
+      <c r="B46" s="513"/>
       <c r="C46" s="239"/>
       <c r="D46" s="233">
         <v>108</v>
@@ -46040,10 +45898,10 @@
       <c r="H46" s="230"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="521" t="s">
+      <c r="A47" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="521"/>
+      <c r="B47" s="513"/>
       <c r="C47" s="239"/>
       <c r="D47" s="233">
         <v>498</v>
@@ -46060,10 +45918,10 @@
       <c r="H47" s="230"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="521" t="s">
+      <c r="A48" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="521"/>
+      <c r="B48" s="513"/>
       <c r="C48" s="239"/>
       <c r="D48" s="231">
         <v>0</v>
@@ -46080,11 +45938,11 @@
       <c r="H48" s="230"/>
     </row>
     <row r="49" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="521" t="s">
+      <c r="A49" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="521"/>
-      <c r="C49" s="521"/>
+      <c r="B49" s="513"/>
+      <c r="C49" s="513"/>
       <c r="D49" s="233">
         <v>36</v>
       </c>
@@ -46100,10 +45958,10 @@
       <c r="H49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="514" t="s">
+      <c r="A50" s="516" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="514"/>
+      <c r="B50" s="516"/>
       <c r="C50" s="241">
         <v>4</v>
       </c>
@@ -46124,10 +45982,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="521" t="s">
+      <c r="A51" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="521"/>
+      <c r="B51" s="513"/>
       <c r="C51" s="239"/>
       <c r="D51" s="231">
         <v>0</v>
@@ -46144,10 +46002,10 @@
       <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="521" t="s">
+      <c r="A52" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="521"/>
+      <c r="B52" s="513"/>
       <c r="C52" s="239"/>
       <c r="D52" s="231">
         <v>0</v>
@@ -46164,10 +46022,10 @@
       <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="521" t="s">
+      <c r="A53" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="521"/>
+      <c r="B53" s="513"/>
       <c r="C53" s="239"/>
       <c r="D53" s="231">
         <v>0</v>
@@ -46184,10 +46042,10 @@
       <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="521" t="s">
+      <c r="A54" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B54" s="521"/>
+      <c r="B54" s="513"/>
       <c r="C54" s="239"/>
       <c r="D54" s="231">
         <v>0</v>
@@ -46204,10 +46062,10 @@
       <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="521" t="s">
+      <c r="A55" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="521"/>
+      <c r="B55" s="513"/>
       <c r="C55" s="239"/>
       <c r="D55" s="231">
         <v>0</v>
@@ -46224,10 +46082,10 @@
       <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="521" t="s">
+      <c r="A56" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="521"/>
+      <c r="B56" s="513"/>
       <c r="C56" s="239"/>
       <c r="D56" s="231">
         <v>0</v>
@@ -46244,10 +46102,10 @@
       <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="521" t="s">
+      <c r="A57" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="521"/>
+      <c r="B57" s="513"/>
       <c r="C57" s="239"/>
       <c r="D57" s="231">
         <v>0.05</v>
@@ -46264,11 +46122,11 @@
       <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="522" t="s">
+      <c r="A58" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="522"/>
-      <c r="C58" s="522"/>
+      <c r="B58" s="514"/>
+      <c r="C58" s="514"/>
       <c r="D58" s="229">
         <v>0</v>
       </c>
@@ -46284,46 +46142,46 @@
       <c r="H58" s="238"/>
     </row>
     <row r="59" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="514"/>
-      <c r="B59" s="514"/>
-      <c r="C59" s="514"/>
-      <c r="D59" s="514"/>
-      <c r="E59" s="514"/>
-      <c r="F59" s="514"/>
-      <c r="G59" s="514"/>
-      <c r="H59" s="514"/>
-      <c r="I59" s="514"/>
+      <c r="A59" s="516"/>
+      <c r="B59" s="516"/>
+      <c r="C59" s="516"/>
+      <c r="D59" s="516"/>
+      <c r="E59" s="516"/>
+      <c r="F59" s="516"/>
+      <c r="G59" s="516"/>
+      <c r="H59" s="516"/>
+      <c r="I59" s="516"/>
     </row>
     <row r="60" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="514"/>
-      <c r="B60" s="514"/>
-      <c r="C60" s="514"/>
-      <c r="D60" s="514"/>
-      <c r="E60" s="514"/>
-      <c r="F60" s="514"/>
-      <c r="G60" s="514"/>
-      <c r="H60" s="514"/>
-      <c r="I60" s="514"/>
+      <c r="A60" s="516"/>
+      <c r="B60" s="516"/>
+      <c r="C60" s="516"/>
+      <c r="D60" s="516"/>
+      <c r="E60" s="516"/>
+      <c r="F60" s="516"/>
+      <c r="G60" s="516"/>
+      <c r="H60" s="516"/>
+      <c r="I60" s="516"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="524" t="s">
+      <c r="A61" s="519" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="524"/>
-      <c r="C61" s="524"/>
-      <c r="D61" s="524"/>
-      <c r="E61" s="524"/>
-      <c r="F61" s="524"/>
-      <c r="G61" s="524"/>
-      <c r="H61" s="524"/>
-      <c r="I61" s="524"/>
+      <c r="B61" s="519"/>
+      <c r="C61" s="519"/>
+      <c r="D61" s="519"/>
+      <c r="E61" s="519"/>
+      <c r="F61" s="519"/>
+      <c r="G61" s="519"/>
+      <c r="H61" s="519"/>
+      <c r="I61" s="519"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="525" t="s">
+      <c r="A62" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="525"/>
-      <c r="C62" s="525"/>
+      <c r="B62" s="517"/>
+      <c r="C62" s="517"/>
       <c r="D62" s="225">
         <v>2019</v>
       </c>
@@ -46341,11 +46199,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="526" t="s">
+      <c r="A63" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="526"/>
-      <c r="C63" s="526"/>
+      <c r="B63" s="518"/>
+      <c r="C63" s="518"/>
       <c r="D63" s="220" t="s">
         <v>386</v>
       </c>
@@ -46363,11 +46221,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="521" t="s">
+      <c r="A64" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="521"/>
-      <c r="C64" s="521"/>
+      <c r="B64" s="513"/>
+      <c r="C64" s="513"/>
       <c r="D64" s="231" t="s">
         <v>382</v>
       </c>
@@ -46383,11 +46241,11 @@
       <c r="H64" s="230"/>
     </row>
     <row r="65" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="521" t="s">
+      <c r="A65" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="521"/>
-      <c r="C65" s="521"/>
+      <c r="B65" s="513"/>
+      <c r="C65" s="513"/>
       <c r="D65" s="231" t="s">
         <v>380</v>
       </c>
@@ -46403,11 +46261,11 @@
       <c r="H65" s="230"/>
     </row>
     <row r="66" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="521" t="s">
+      <c r="A66" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="521"/>
-      <c r="C66" s="521"/>
+      <c r="B66" s="513"/>
+      <c r="C66" s="513"/>
       <c r="D66" s="233">
         <v>822</v>
       </c>
@@ -46423,11 +46281,11 @@
       <c r="H66" s="230"/>
     </row>
     <row r="67" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="521" t="s">
+      <c r="A67" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="521"/>
-      <c r="C67" s="521"/>
+      <c r="B67" s="513"/>
+      <c r="C67" s="513"/>
       <c r="D67" s="231" t="s">
         <v>379</v>
       </c>
@@ -46443,11 +46301,11 @@
       <c r="H67" s="230"/>
     </row>
     <row r="68" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="521" t="s">
+      <c r="A68" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="521"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="513"/>
+      <c r="C68" s="513"/>
       <c r="D68" s="233">
         <v>717</v>
       </c>
@@ -46463,11 +46321,11 @@
       <c r="H68" s="230"/>
     </row>
     <row r="69" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="521" t="s">
+      <c r="A69" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="521"/>
-      <c r="C69" s="521"/>
+      <c r="B69" s="513"/>
+      <c r="C69" s="513"/>
       <c r="D69" s="231" t="s">
         <v>378</v>
       </c>
@@ -46483,11 +46341,11 @@
       <c r="H69" s="230"/>
     </row>
     <row r="70" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="521" t="s">
+      <c r="A70" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="521"/>
-      <c r="C70" s="521"/>
+      <c r="B70" s="513"/>
+      <c r="C70" s="513"/>
       <c r="D70" s="233">
         <v>261</v>
       </c>
@@ -46503,11 +46361,11 @@
       <c r="H70" s="230"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="521" t="s">
+      <c r="A71" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="521"/>
-      <c r="C71" s="521"/>
+      <c r="B71" s="513"/>
+      <c r="C71" s="513"/>
       <c r="D71" s="233">
         <v>83</v>
       </c>
@@ -46523,11 +46381,11 @@
       <c r="H71" s="230"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514" t="s">
+      <c r="A72" s="516" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="514"/>
-      <c r="C72" s="514"/>
+      <c r="B72" s="516"/>
+      <c r="C72" s="516"/>
       <c r="D72" s="231" t="s">
         <v>368</v>
       </c>
@@ -46545,11 +46403,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="521" t="s">
+      <c r="A73" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="521"/>
-      <c r="C73" s="521"/>
+      <c r="B73" s="513"/>
+      <c r="C73" s="513"/>
       <c r="D73" s="231" t="s">
         <v>372</v>
       </c>
@@ -46565,11 +46423,11 @@
       <c r="H73" s="230"/>
     </row>
     <row r="74" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="521" t="s">
+      <c r="A74" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="521"/>
-      <c r="C74" s="521"/>
+      <c r="B74" s="513"/>
+      <c r="C74" s="513"/>
       <c r="D74" s="231" t="s">
         <v>368</v>
       </c>
@@ -46585,11 +46443,11 @@
       <c r="H74" s="230"/>
     </row>
     <row r="75" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="521" t="s">
+      <c r="A75" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B75" s="521"/>
-      <c r="C75" s="521"/>
+      <c r="B75" s="513"/>
+      <c r="C75" s="513"/>
       <c r="D75" s="231" t="s">
         <v>348</v>
       </c>
@@ -46605,11 +46463,11 @@
       <c r="H75" s="230"/>
     </row>
     <row r="76" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="521" t="s">
+      <c r="A76" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="521"/>
-      <c r="C76" s="521"/>
+      <c r="B76" s="513"/>
+      <c r="C76" s="513"/>
       <c r="D76" s="231" t="s">
         <v>362</v>
       </c>
@@ -46625,11 +46483,11 @@
       <c r="H76" s="230"/>
     </row>
     <row r="77" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="521" t="s">
+      <c r="A77" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="521"/>
-      <c r="C77" s="521"/>
+      <c r="B77" s="513"/>
+      <c r="C77" s="513"/>
       <c r="D77" s="231" t="s">
         <v>361</v>
       </c>
@@ -46645,11 +46503,11 @@
       <c r="H77" s="230"/>
     </row>
     <row r="78" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="521" t="s">
+      <c r="A78" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="521"/>
-      <c r="C78" s="521"/>
+      <c r="B78" s="513"/>
+      <c r="C78" s="513"/>
       <c r="D78" s="231" t="s">
         <v>358</v>
       </c>
@@ -46665,11 +46523,11 @@
       <c r="H78" s="230"/>
     </row>
     <row r="79" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="521" t="s">
+      <c r="A79" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="521"/>
-      <c r="C79" s="521"/>
+      <c r="B79" s="513"/>
+      <c r="C79" s="513"/>
       <c r="D79" s="231" t="s">
         <v>354</v>
       </c>
@@ -46685,11 +46543,11 @@
       <c r="H79" s="230"/>
     </row>
     <row r="80" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="522" t="s">
+      <c r="A80" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="522"/>
-      <c r="C80" s="522"/>
+      <c r="B80" s="514"/>
+      <c r="C80" s="514"/>
       <c r="D80" s="229" t="s">
         <v>349</v>
       </c>
@@ -46705,30 +46563,30 @@
       <c r="H80" s="226"/>
     </row>
     <row r="81" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="527" t="s">
+      <c r="A81" s="515" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="514"/>
-      <c r="C81" s="514"/>
-      <c r="D81" s="514"/>
-      <c r="E81" s="514"/>
-      <c r="F81" s="514"/>
-      <c r="G81" s="514"/>
-      <c r="H81" s="514"/>
-      <c r="I81" s="514"/>
+      <c r="B81" s="516"/>
+      <c r="C81" s="516"/>
+      <c r="D81" s="516"/>
+      <c r="E81" s="516"/>
+      <c r="F81" s="516"/>
+      <c r="G81" s="516"/>
+      <c r="H81" s="516"/>
+      <c r="I81" s="516"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="514" t="s">
+      <c r="A82" s="516" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="514"/>
-      <c r="C82" s="514"/>
-      <c r="D82" s="514"/>
-      <c r="E82" s="514"/>
-      <c r="F82" s="514"/>
-      <c r="G82" s="514"/>
-      <c r="H82" s="514"/>
-      <c r="I82" s="514"/>
+      <c r="B82" s="516"/>
+      <c r="C82" s="516"/>
+      <c r="D82" s="516"/>
+      <c r="E82" s="516"/>
+      <c r="F82" s="516"/>
+      <c r="G82" s="516"/>
+      <c r="H82" s="516"/>
+      <c r="I82" s="516"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="216" t="str">
@@ -46749,11 +46607,11 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="525" t="s">
+      <c r="A85" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="525"/>
-      <c r="C85" s="525"/>
+      <c r="B85" s="517"/>
+      <c r="C85" s="517"/>
       <c r="D85" s="225">
         <v>2019</v>
       </c>
@@ -46780,11 +46638,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="526" t="s">
+      <c r="A86" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="526"/>
-      <c r="C86" s="526"/>
+      <c r="B86" s="518"/>
+      <c r="C86" s="518"/>
       <c r="D86" s="220">
         <f>D14*gwpch4+D23*gwpn2o+D32+D41+D50</f>
         <v>66558.41</v>
@@ -46822,11 +46680,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="521" t="s">
+      <c r="A87" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="521"/>
-      <c r="C87" s="521"/>
+      <c r="B87" s="513"/>
+      <c r="C87" s="513"/>
       <c r="D87" s="220">
         <f t="shared" ref="D87:D94" si="14">D15*gwpch4+D24*gwpn2o+D33+D42+D51</f>
         <v>56492.08</v>
@@ -46861,11 +46719,11 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="521" t="s">
+      <c r="A88" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="521"/>
-      <c r="C88" s="521"/>
+      <c r="B88" s="513"/>
+      <c r="C88" s="513"/>
       <c r="D88" s="220">
         <f t="shared" si="14"/>
         <v>5295.9</v>
@@ -46900,11 +46758,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="521" t="s">
+      <c r="A89" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="521"/>
-      <c r="C89" s="521"/>
+      <c r="B89" s="513"/>
+      <c r="C89" s="513"/>
       <c r="D89" s="220">
         <f t="shared" si="14"/>
         <v>822.27</v>
@@ -46939,11 +46797,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="521" t="s">
+      <c r="A90" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="521"/>
-      <c r="C90" s="521"/>
+      <c r="B90" s="513"/>
+      <c r="C90" s="513"/>
       <c r="D90" s="220">
         <f t="shared" si="14"/>
         <v>1221</v>
@@ -46978,11 +46836,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="521" t="s">
+      <c r="A91" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="521"/>
-      <c r="C91" s="521"/>
+      <c r="B91" s="513"/>
+      <c r="C91" s="513"/>
       <c r="D91" s="220">
         <f t="shared" si="14"/>
         <v>718</v>
@@ -47017,11 +46875,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="521" t="s">
+      <c r="A92" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="521"/>
-      <c r="C92" s="521"/>
+      <c r="B92" s="513"/>
+      <c r="C92" s="513"/>
       <c r="D92" s="220">
         <f t="shared" si="14"/>
         <v>1664.88</v>
@@ -47056,11 +46914,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="521" t="s">
+      <c r="A93" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="521"/>
-      <c r="C93" s="521"/>
+      <c r="B93" s="513"/>
+      <c r="C93" s="513"/>
       <c r="D93" s="220">
         <f t="shared" si="14"/>
         <v>261.05</v>
@@ -47095,11 +46953,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="521" t="s">
+      <c r="A94" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="521"/>
-      <c r="C94" s="521"/>
+      <c r="B94" s="513"/>
+      <c r="C94" s="513"/>
       <c r="D94" s="220">
         <f t="shared" si="14"/>
         <v>83.22999999999999</v>
@@ -47183,38 +47041,51 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:I59"/>
@@ -47231,51 +47102,38 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" display="http://www.sasol.com/" xr:uid="{94E57AF8-CF1E-4A4A-992A-3647A9F5048E}"/>

--- a/VT_REGION1_REF.xlsx
+++ b/VT_REGION1_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EF47E-270D-4A44-87A4-A60BF5BCB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28CB25-0F2D-4918-81B1-F6AA3D53C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
+    <workbookView xWindow="405" yWindow="-16290" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -9468,6 +9468,24 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9497,24 +9515,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9552,31 +9552,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9595,6 +9574,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18764,10 +18764,10 @@
   <dimension ref="A1:BH117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="M97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71:I73"/>
+      <selection pane="bottomRight" activeCell="AD116" sqref="AD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="F18" s="435">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B18&amp;F$4,RefineriesData!$N$16:$N$270)</f>
-        <v>0.95198971146726152</v>
+        <v>0.96412108310809064</v>
       </c>
       <c r="G18" s="436"/>
       <c r="H18" s="436"/>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="AE18" s="435">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B18&amp;AE$3,RefineriesData!$N$16:$N$270)</f>
-        <v>190.08954718866366</v>
+        <v>192.51189158399163</v>
       </c>
       <c r="AF18" s="465"/>
       <c r="AG18" s="465"/>
@@ -20288,7 +20288,7 @@
       <c r="BB18" s="465"/>
       <c r="BC18" s="465">
         <f>AE18</f>
-        <v>190.08954718866366</v>
+        <v>192.51189158399163</v>
       </c>
       <c r="BD18" s="465">
         <v>0</v>
@@ -20368,7 +20368,7 @@
       <c r="H20" s="436"/>
       <c r="I20" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B18&amp;C20,RefineriesData!$N$16:$N$270)</f>
-        <v>4.5130780547547305E-3</v>
+        <v>4.4562907610366017E-3</v>
       </c>
       <c r="J20" s="439"/>
       <c r="K20" s="435"/>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="H22" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E22,3),RefineriesData!$N$16:$N$245)</f>
-        <v>0.35276939364868132</v>
+        <v>0.34833055635651694</v>
       </c>
       <c r="I22" s="442"/>
       <c r="J22" s="439"/>
@@ -20574,7 +20574,7 @@
       </c>
       <c r="H23" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E23,3),RefineriesData!$N$16:$N$245)</f>
-        <v>0.3002204613879127</v>
+        <v>0.29644283837448704</v>
       </c>
       <c r="I23" s="442"/>
       <c r="J23" s="439"/>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="H24" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E24,3),RefineriesData!$N$16:$N$245)</f>
-        <v>0.20197781416846072</v>
+        <v>0.19943636167892398</v>
       </c>
       <c r="I24" s="442"/>
       <c r="J24" s="439"/>
@@ -20714,7 +20714,7 @@
       </c>
       <c r="H25" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E25,3),RefineriesData!$N$16:$N$245)</f>
-        <v>0.12524521696188154</v>
+        <v>0.12366927769468629</v>
       </c>
       <c r="I25" s="442"/>
       <c r="J25" s="439"/>
@@ -20784,7 +20784,7 @@
       </c>
       <c r="H26" s="442">
         <f>SUMIF(RefineriesData!$J$16:$J$245,$B18&amp;RIGHT($E26,3),RefineriesData!$N$16:$N$245)</f>
-        <v>0</v>
+        <v>1.2582829950902787E-2</v>
       </c>
       <c r="I26" s="442"/>
       <c r="J26" s="439"/>
@@ -20809,7 +20809,7 @@
       <c r="AC26" s="436"/>
       <c r="AD26" s="435">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8409817404492801</v>
       </c>
       <c r="AE26" s="465"/>
       <c r="AF26" s="465"/>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="H27" s="442">
         <f>1-SUM(H21:H26)</f>
-        <v>1.9787113833063752E-2</v>
+        <v>1.9538135944483059E-2</v>
       </c>
       <c r="I27" s="442"/>
       <c r="J27" s="439"/>
@@ -20879,7 +20879,7 @@
       <c r="AC27" s="436"/>
       <c r="AD27" s="435">
         <f t="shared" si="8"/>
-        <v>2.8586058666102003</v>
+        <v>2.8586058666101857</v>
       </c>
       <c r="AE27" s="465"/>
       <c r="AF27" s="465"/>
@@ -22025,7 +22025,7 @@
       <c r="AB43" s="436"/>
       <c r="AC43" s="436"/>
       <c r="AD43" s="435">
-        <f>AD$40*F$40*H43</f>
+        <f t="shared" ref="AD43:AD48" si="12">AD$40*F$40*H43</f>
         <v>1.0986365425199789</v>
       </c>
       <c r="AE43" s="465"/>
@@ -22093,7 +22093,7 @@
       <c r="AB44" s="436"/>
       <c r="AC44" s="436"/>
       <c r="AD44" s="435">
-        <f>AD$40*F$40*H44</f>
+        <f t="shared" si="12"/>
         <v>1.6479548137799682</v>
       </c>
       <c r="AE44" s="465"/>
@@ -22161,7 +22161,7 @@
       <c r="AB45" s="436"/>
       <c r="AC45" s="436"/>
       <c r="AD45" s="435">
-        <f>AD$40*F$40*H45</f>
+        <f t="shared" si="12"/>
         <v>14.55693418838972</v>
       </c>
       <c r="AE45" s="465"/>
@@ -22229,7 +22229,7 @@
       <c r="AB46" s="436"/>
       <c r="AC46" s="436"/>
       <c r="AD46" s="435">
-        <f>AD$40*F$40*H46</f>
+        <f t="shared" si="12"/>
         <v>3.0212504919299419</v>
       </c>
       <c r="AE46" s="465"/>
@@ -22297,7 +22297,7 @@
       <c r="AB47" s="436"/>
       <c r="AC47" s="436"/>
       <c r="AD47" s="435">
-        <f>AD$40*F$40*H47</f>
+        <f t="shared" si="12"/>
         <v>2.1972730850399578</v>
       </c>
       <c r="AE47" s="465"/>
@@ -22365,7 +22365,7 @@
       <c r="AB48" s="436"/>
       <c r="AC48" s="436"/>
       <c r="AD48" s="435">
-        <f>AD$40*F$40*H48</f>
+        <f t="shared" si="12"/>
         <v>4.9438644413399047</v>
       </c>
       <c r="AE48" s="465"/>
@@ -24220,7 +24220,7 @@
       <c r="AB75" s="436"/>
       <c r="AC75" s="436"/>
       <c r="AD75" s="435">
-        <f t="shared" ref="AD75:AD80" si="12">AD$70*F$70*H75</f>
+        <f t="shared" ref="AD75:AD80" si="13">AD$70*F$70*H75</f>
         <v>53.084026088903464</v>
       </c>
       <c r="AE75" s="465"/>
@@ -24290,7 +24290,7 @@
       <c r="AB76" s="436"/>
       <c r="AC76" s="436"/>
       <c r="AD76" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>120.52809004075719</v>
       </c>
       <c r="AE76" s="465"/>
@@ -24360,7 +24360,7 @@
       <c r="AB77" s="436"/>
       <c r="AC77" s="436"/>
       <c r="AD77" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.9468278391547447</v>
       </c>
       <c r="AE77" s="465"/>
@@ -24430,7 +24430,7 @@
       <c r="AB78" s="436"/>
       <c r="AC78" s="436"/>
       <c r="AD78" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6672857142857165</v>
       </c>
       <c r="AE78" s="465"/>
@@ -24500,7 +24500,7 @@
       <c r="AB79" s="436"/>
       <c r="AC79" s="436"/>
       <c r="AD79" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0670273988922867</v>
       </c>
       <c r="AE79" s="465"/>
@@ -24570,7 +24570,7 @@
       <c r="AB80" s="436"/>
       <c r="AC80" s="436"/>
       <c r="AD80" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.5262472791314</v>
       </c>
       <c r="AE80" s="465"/>
@@ -25658,7 +25658,7 @@
       <c r="H96" s="436"/>
       <c r="I96" s="482">
         <f>SUMIF(RefineriesData!$J$16:$J$270,B94&amp;C96,RefineriesData!$N$16:$N$270)</f>
-        <v>4.5130780547547305E-3</v>
+        <v>4.4562907610366017E-3</v>
       </c>
       <c r="J96" s="439"/>
       <c r="K96" s="435"/>
@@ -26487,7 +26487,7 @@
         <v>499</v>
       </c>
       <c r="AD112" s="117">
-        <f t="shared" ref="AD112:AD117" si="13">SUMIF($E$7:$E$107,E112,$AD$7:$AD$107)</f>
+        <f t="shared" ref="AD112:AD117" si="14">SUMIF($E$7:$E$107,E112,$AD$7:$AD$107)</f>
         <v>303.09899561263535</v>
       </c>
     </row>
@@ -26496,7 +26496,7 @@
         <v>497</v>
       </c>
       <c r="AD113" s="117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>349.69632725204076</v>
       </c>
     </row>
@@ -26505,7 +26505,7 @@
         <v>491</v>
       </c>
       <c r="AD114" s="117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>135.16558341186152</v>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
         <v>490</v>
       </c>
       <c r="AD115" s="117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>106.74674803946569</v>
       </c>
     </row>
@@ -26523,8 +26523,8 @@
         <v>487</v>
       </c>
       <c r="AD116" s="117">
-        <f t="shared" si="13"/>
-        <v>14.764122522740021</v>
+        <f t="shared" si="14"/>
+        <v>16.6051042631893</v>
       </c>
     </row>
     <row r="117" spans="5:30" x14ac:dyDescent="0.2">
@@ -26532,8 +26532,8 @@
         <v>485</v>
       </c>
       <c r="AD117" s="117">
-        <f t="shared" si="13"/>
-        <v>52.183618971427109</v>
+        <f t="shared" si="14"/>
+        <v>52.183618971427094</v>
       </c>
     </row>
   </sheetData>
@@ -26550,8 +26550,8 @@
   </sheetPr>
   <dimension ref="A1:AH286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31024,7 +31024,7 @@
       </c>
       <c r="N181" s="481">
         <f>D182/D193</f>
-        <v>4.5130780547547305E-3</v>
+        <v>4.4562907610366017E-3</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.25">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="D184" s="376">
         <f>'Crude refineries'!AC6</f>
-        <v>0.95198971146726152</v>
+        <v>0.96412108310809064</v>
       </c>
       <c r="J184" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31078,7 +31078,7 @@
       </c>
       <c r="N184" s="301">
         <f>D184</f>
-        <v>0.95198971146726152</v>
+        <v>0.96412108310809064</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.25">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="D187" s="375">
         <f>'Crude refineries'!$AF$14</f>
-        <v>0.35276939364868132</v>
+        <v>0.34833055635651694</v>
       </c>
       <c r="J187" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="N187" s="301">
         <f t="shared" si="19"/>
-        <v>0.35276939364868132</v>
+        <v>0.34833055635651694</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -31148,7 +31148,7 @@
       </c>
       <c r="D188" s="375">
         <f>'Crude refineries'!$AF$15</f>
-        <v>0.20197781416846072</v>
+        <v>0.19943636167892398</v>
       </c>
       <c r="J188" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31163,7 +31163,7 @@
       </c>
       <c r="N188" s="301">
         <f t="shared" si="19"/>
-        <v>0.20197781416846072</v>
+        <v>0.19943636167892398</v>
       </c>
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.25">
@@ -31172,7 +31172,7 @@
       </c>
       <c r="D189" s="375">
         <f>'Crude refineries'!$AF$17</f>
-        <v>0.12524521696188154</v>
+        <v>0.12366927769468629</v>
       </c>
       <c r="J189" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31187,7 +31187,7 @@
       </c>
       <c r="N189" s="301">
         <f t="shared" si="19"/>
-        <v>0.12524521696188154</v>
+        <v>0.12366927769468629</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
@@ -31196,7 +31196,7 @@
       </c>
       <c r="D190" s="375">
         <f>'Crude refineries'!$AF$18</f>
-        <v>0</v>
+        <v>1.2582829950902787E-2</v>
       </c>
       <c r="J190" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31211,7 +31211,7 @@
       </c>
       <c r="N190" s="301">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.2582829950902787E-2</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.25">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="D191" s="375">
         <f>SUM('Crude refineries'!$AF$20:$AF$23)</f>
-        <v>0.3002204613879127</v>
+        <v>0.29644283837448704</v>
       </c>
       <c r="J191" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="N191" s="301">
         <f t="shared" si="19"/>
-        <v>0.3002204613879127</v>
+        <v>0.29644283837448704</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.25">
@@ -31244,7 +31244,7 @@
       </c>
       <c r="D192" s="375">
         <f>1-SUM(D186:D191)</f>
-        <v>1.9787113833063752E-2</v>
+        <v>1.9538135944482948E-2</v>
       </c>
       <c r="J192" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31259,7 +31259,7 @@
       </c>
       <c r="N192" s="301">
         <f t="shared" si="19"/>
-        <v>1.9787113833063752E-2</v>
+        <v>1.9538135944482948E-2</v>
       </c>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.25">
@@ -31271,7 +31271,7 @@
       </c>
       <c r="D193" s="377">
         <f>'Crude refineries'!AC26</f>
-        <v>173597.75998964717</v>
+        <v>175809.94665204713</v>
       </c>
       <c r="J193" s="252" t="str">
         <f t="shared" si="17"/>
@@ -31340,7 +31340,7 @@
       </c>
       <c r="N195" s="299">
         <f>D193/D194/1000</f>
-        <v>190.08954718866366</v>
+        <v>192.51189158399163</v>
       </c>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.25">
@@ -31375,7 +31375,7 @@
       </c>
       <c r="N197" s="295">
         <f>N196+$D$107/N184</f>
-        <v>218.94165930864898</v>
+        <v>216.53609229098166</v>
       </c>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.25">
@@ -31394,7 +31394,7 @@
       </c>
       <c r="N198" s="295">
         <f>N196+$D$108/N184</f>
-        <v>282.66783821153194</v>
+        <v>279.46041552130885</v>
       </c>
     </row>
     <row r="200" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="N204" s="481">
         <f>N181</f>
-        <v>4.5130780547547305E-3</v>
+        <v>4.4562907610366017E-3</v>
       </c>
       <c r="R204" t="s">
         <v>556</v>
@@ -34393,7 +34393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE28" sqref="AE28"/>
+      <selection pane="topRight" activeCell="AC17" sqref="AC17:AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34451,26 +34451,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="496" t="s">
+      <c r="C2" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="498" t="s">
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="488" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="499"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="498" t="s">
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="488" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="500"/>
-      <c r="L2" s="498" t="s">
+      <c r="J2" s="489"/>
+      <c r="K2" s="490"/>
+      <c r="L2" s="488" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="499"/>
-      <c r="N2" s="500"/>
+      <c r="M2" s="489"/>
+      <c r="N2" s="490"/>
       <c r="O2" s="97"/>
       <c r="P2" s="13"/>
       <c r="AA2" s="96" t="s">
@@ -34678,7 +34678,7 @@
       </c>
       <c r="AC6" s="92">
         <f>AC26/AC5</f>
-        <v>0.95198971146726152</v>
+        <v>0.96412108310809064</v>
       </c>
       <c r="AD6" s="92">
         <f>AD26/AD5</f>
@@ -34743,10 +34743,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="485" t="s">
+      <c r="A9" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="486"/>
+      <c r="B9" s="492"/>
       <c r="C9" s="49"/>
       <c r="D9" s="44">
         <f>D5/$O$5</f>
@@ -34771,49 +34771,49 @@
       <c r="O9" s="7">
         <v>788</v>
       </c>
-      <c r="Q9" s="491" t="s">
+      <c r="Q9" s="497" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="493" t="s">
+      <c r="S9" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="489" t="s">
+      <c r="V9" s="495" t="s">
         <v>881</v>
       </c>
-      <c r="W9" s="489" t="s">
+      <c r="W9" s="495" t="s">
         <v>882</v>
       </c>
-      <c r="X9" s="489" t="s">
+      <c r="X9" s="495" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="489" t="s">
+      <c r="Y9" s="495" t="s">
         <v>883</v>
       </c>
-      <c r="Z9" s="489" t="s">
+      <c r="Z9" s="495" t="s">
         <v>884</v>
       </c>
-      <c r="AA9" s="489" t="s">
+      <c r="AA9" s="495" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="489" t="s">
+      <c r="AB9" s="495" t="s">
         <v>885</v>
       </c>
-      <c r="AC9" s="489" t="s">
+      <c r="AC9" s="495" t="s">
         <v>886</v>
       </c>
-      <c r="AD9" s="489" t="s">
+      <c r="AD9" s="495" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="489" t="s">
+      <c r="AE9" s="495" t="s">
         <v>887</v>
       </c>
-      <c r="AF9" s="489" t="s">
+      <c r="AF9" s="495" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="487"/>
-      <c r="B10" s="488"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9">
         <f>D9*788</f>
@@ -34839,25 +34839,25 @@
         <f>O9-G10</f>
         <v>422.2729198252656</v>
       </c>
-      <c r="Q10" s="492"/>
+      <c r="Q10" s="498"/>
       <c r="R10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="494"/>
+      <c r="S10" s="500"/>
       <c r="U10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="490"/>
-      <c r="W10" s="490"/>
-      <c r="X10" s="490"/>
-      <c r="Y10" s="490"/>
-      <c r="Z10" s="490"/>
-      <c r="AA10" s="490"/>
-      <c r="AB10" s="490"/>
-      <c r="AC10" s="490"/>
-      <c r="AD10" s="490"/>
-      <c r="AE10" s="490"/>
-      <c r="AF10" s="490"/>
+      <c r="V10" s="496"/>
+      <c r="W10" s="496"/>
+      <c r="X10" s="496"/>
+      <c r="Y10" s="496"/>
+      <c r="Z10" s="496"/>
+      <c r="AA10" s="496"/>
+      <c r="AB10" s="496"/>
+      <c r="AC10" s="496"/>
+      <c r="AD10" s="496"/>
+      <c r="AE10" s="496"/>
+      <c r="AF10" s="496"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -35072,7 +35072,7 @@
       </c>
       <c r="AF12" s="51">
         <f t="shared" ref="AF12:AF25" si="14">AC12/$AC$26</f>
-        <v>1.0274852538341359E-2</v>
+        <v>1.0145565816080809E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="AF13" s="51">
         <f t="shared" si="14"/>
-        <v>8.898113450842458E-3</v>
+        <v>8.7861500024066681E-3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -35285,7 +35285,7 @@
       </c>
       <c r="AF14" s="51">
         <f t="shared" si="14"/>
-        <v>0.35276939364868132</v>
+        <v>0.34833055635651694</v>
       </c>
       <c r="AG14" s="73">
         <f>AD14+AB14</f>
@@ -35404,7 +35404,7 @@
       </c>
       <c r="AF15" s="51">
         <f t="shared" si="14"/>
-        <v>0.20197781416846072</v>
+        <v>0.19943636167892398</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -35610,7 +35610,7 @@
       </c>
       <c r="AF17" s="51">
         <f t="shared" si="14"/>
-        <v>0.12524521696188154</v>
+        <v>0.12366927769468629</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -35707,7 +35707,10 @@
         <f t="shared" si="13"/>
         <v>10901.40062</v>
       </c>
-      <c r="AC18" s="50"/>
+      <c r="AC18" s="50">
+        <f t="shared" si="13"/>
+        <v>2212.1866623999999</v>
+      </c>
       <c r="AD18" s="50">
         <f t="shared" si="7"/>
         <v>539.60618239120879</v>
@@ -35718,7 +35721,7 @@
       </c>
       <c r="AF18" s="51">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.2582829950902787E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
@@ -36028,7 +36031,7 @@
       </c>
       <c r="AF21" s="51">
         <f t="shared" si="14"/>
-        <v>4.9268462856375962E-2</v>
+        <v>4.8648526166311823E-2</v>
       </c>
       <c r="AG21" s="73">
         <f>SUM(AB21:AB23)+SUM(AD21:AD23)</f>
@@ -36146,7 +36149,7 @@
       </c>
       <c r="AF22" s="51">
         <f t="shared" si="14"/>
-        <v>2.620034210275091E-2</v>
+        <v>2.5870667653416522E-2</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
@@ -36256,7 +36259,7 @@
       </c>
       <c r="AF23" s="51">
         <f t="shared" si="14"/>
-        <v>0.22475165642878581</v>
+        <v>0.22192364455475871</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
@@ -36356,7 +36359,7 @@
       </c>
       <c r="AF24" s="51">
         <f t="shared" si="14"/>
-        <v>6.1414784387977227E-4</v>
+        <v>6.0642012599551956E-4</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
@@ -36522,7 +36525,7 @@
       </c>
       <c r="AC26" s="45">
         <f>SUM(AC11:AC25)</f>
-        <v>173597.75998964717</v>
+        <v>175809.94665204713</v>
       </c>
       <c r="AD26" s="45">
         <f>SUM(AD11:AD25)</f>
@@ -37346,11 +37349,11 @@
       <c r="J62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="495" t="s">
+      <c r="K62" s="485" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="495"/>
-      <c r="M62" s="495"/>
+      <c r="L62" s="485"/>
+      <c r="M62" s="485"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="3:22" ht="15" x14ac:dyDescent="0.25">
@@ -37608,11 +37611,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AC9:AC10"/>
@@ -37627,6 +37625,11 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40295,7 +40298,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="509"/>
-      <c r="H2" s="500"/>
+      <c r="H2" s="490"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -40537,7 +40540,7 @@
       <c r="G14" s="88"/>
       <c r="H14" s="154"/>
       <c r="I14" s="153"/>
-      <c r="J14" s="494"/>
+      <c r="J14" s="500"/>
       <c r="K14" s="152" t="s">
         <v>79</v>
       </c>
@@ -44425,27 +44428,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="513" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
+      <c r="B1" s="514"/>
+      <c r="C1" s="514"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
       <c r="J1" s="216" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="515" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
       <c r="D2" s="259">
         <v>2019</v>
       </c>
@@ -44482,16 +44485,16 @@
       <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="523" t="s">
+      <c r="A3" s="516" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="523"/>
+      <c r="B3" s="516"/>
       <c r="C3" s="254"/>
       <c r="D3" s="255"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="G3" s="253"/>
-      <c r="H3" s="524" t="s">
+      <c r="H3" s="517" t="s">
         <v>373</v>
       </c>
       <c r="Q3"/>
@@ -44501,10 +44504,10 @@
       <c r="U3" s="252"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="527" t="s">
+      <c r="A4" s="520" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="527"/>
+      <c r="B4" s="520"/>
       <c r="C4" s="241">
         <v>1</v>
       </c>
@@ -44520,7 +44523,7 @@
       <c r="G4" s="221">
         <v>18806</v>
       </c>
-      <c r="H4" s="525"/>
+      <c r="H4" s="518"/>
       <c r="J4" s="216">
         <f>D4/F4</f>
         <v>0.99859246427024684</v>
@@ -44538,10 +44541,10 @@
       <c r="T4" s="252"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="513" t="s">
+      <c r="A5" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="513"/>
+      <c r="B5" s="521"/>
       <c r="C5" s="239"/>
       <c r="D5" s="231">
         <v>6736</v>
@@ -44555,13 +44558,13 @@
       <c r="G5" s="221">
         <v>7019</v>
       </c>
-      <c r="H5" s="525"/>
+      <c r="H5" s="518"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="513" t="s">
+      <c r="A6" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="513"/>
+      <c r="B6" s="521"/>
       <c r="C6" s="239"/>
       <c r="D6" s="231">
         <v>1467</v>
@@ -44575,13 +44578,13 @@
       <c r="G6" s="221">
         <v>1461</v>
       </c>
-      <c r="H6" s="525"/>
+      <c r="H6" s="518"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="513" t="s">
+      <c r="A7" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="513"/>
+      <c r="B7" s="521"/>
       <c r="C7" s="239"/>
       <c r="D7" s="231">
         <v>3209</v>
@@ -44595,13 +44598,13 @@
       <c r="G7" s="221">
         <v>3331</v>
       </c>
-      <c r="H7" s="525"/>
+      <c r="H7" s="518"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="513" t="s">
+      <c r="A8" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="513"/>
+      <c r="B8" s="521"/>
       <c r="C8" s="239"/>
       <c r="D8" s="231">
         <v>4271</v>
@@ -44615,13 +44618,13 @@
       <c r="G8" s="221">
         <v>4067</v>
       </c>
-      <c r="H8" s="525"/>
+      <c r="H8" s="518"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="513" t="s">
+      <c r="A9" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="513"/>
+      <c r="B9" s="521"/>
       <c r="C9" s="239"/>
       <c r="D9" s="231">
         <v>1277</v>
@@ -44635,13 +44638,13 @@
       <c r="G9" s="221">
         <v>1309</v>
       </c>
-      <c r="H9" s="525"/>
+      <c r="H9" s="518"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="513" t="s">
+      <c r="A10" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="513"/>
+      <c r="B10" s="521"/>
       <c r="C10" s="239"/>
       <c r="D10" s="233">
         <v>688</v>
@@ -44655,13 +44658,13 @@
       <c r="G10" s="218">
         <v>793</v>
       </c>
-      <c r="H10" s="525"/>
+      <c r="H10" s="518"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="513"/>
+      <c r="B11" s="521"/>
       <c r="C11" s="239"/>
       <c r="D11" s="233">
         <v>53</v>
@@ -44675,14 +44678,14 @@
       <c r="G11" s="218">
         <v>62</v>
       </c>
-      <c r="H11" s="525"/>
+      <c r="H11" s="518"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
+      <c r="A12" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="514"/>
-      <c r="C12" s="514"/>
+      <c r="B12" s="522"/>
+      <c r="C12" s="522"/>
       <c r="D12" s="251">
         <v>745</v>
       </c>
@@ -44695,14 +44698,14 @@
       <c r="G12" s="249">
         <v>763</v>
       </c>
-      <c r="H12" s="526"/>
+      <c r="H12" s="519"/>
       <c r="V12" s="243"/>
     </row>
     <row r="13" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="520" t="s">
+      <c r="A13" s="523" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="520"/>
+      <c r="B13" s="523"/>
       <c r="C13" s="248">
         <v>2</v>
       </c>
@@ -44714,10 +44717,10 @@
       <c r="V13" s="243"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="516" t="s">
+      <c r="A14" s="514" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="516"/>
+      <c r="B14" s="514"/>
       <c r="C14" s="239"/>
       <c r="D14" s="231">
         <v>105.04</v>
@@ -44752,10 +44755,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="513" t="s">
+      <c r="A15" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="513"/>
+      <c r="B15" s="521"/>
       <c r="C15" s="239"/>
       <c r="D15" s="231">
         <v>96.16</v>
@@ -44788,10 +44791,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="513" t="s">
+      <c r="A16" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="513"/>
+      <c r="B16" s="521"/>
       <c r="C16" s="239"/>
       <c r="D16" s="231">
         <v>5.34</v>
@@ -44824,10 +44827,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="513" t="s">
+      <c r="A17" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B17" s="513"/>
+      <c r="B17" s="521"/>
       <c r="C17" s="239"/>
       <c r="D17" s="231">
         <v>3.49</v>
@@ -44860,10 +44863,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="513" t="s">
+      <c r="A18" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="513"/>
+      <c r="B18" s="521"/>
       <c r="C18" s="239"/>
       <c r="D18" s="242">
         <v>0</v>
@@ -44896,10 +44899,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="513" t="s">
+      <c r="A19" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="513"/>
+      <c r="B19" s="521"/>
       <c r="C19" s="239"/>
       <c r="D19" s="231">
         <v>0</v>
@@ -44932,10 +44935,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="513" t="s">
+      <c r="A20" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="513"/>
+      <c r="B20" s="521"/>
       <c r="C20" s="239"/>
       <c r="D20" s="231">
         <v>0.04</v>
@@ -44968,10 +44971,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="513" t="s">
+      <c r="A21" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="513"/>
+      <c r="B21" s="521"/>
       <c r="C21" s="239"/>
       <c r="D21" s="231">
         <v>0</v>
@@ -45004,11 +45007,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="513" t="s">
+      <c r="A22" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="513"/>
-      <c r="C22" s="513"/>
+      <c r="B22" s="521"/>
+      <c r="C22" s="521"/>
       <c r="D22" s="231">
         <v>0.01</v>
       </c>
@@ -45040,10 +45043,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="516" t="s">
+      <c r="A23" s="514" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="516"/>
+      <c r="B23" s="514"/>
       <c r="C23" s="239"/>
       <c r="D23" s="231">
         <v>1.64</v>
@@ -45078,10 +45081,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="513" t="s">
+      <c r="A24" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="513"/>
+      <c r="B24" s="521"/>
       <c r="C24" s="239"/>
       <c r="D24" s="231">
         <v>0.9</v>
@@ -45114,10 +45117,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="513" t="s">
+      <c r="A25" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="513"/>
+      <c r="B25" s="521"/>
       <c r="C25" s="239"/>
       <c r="D25" s="231">
         <v>0.73</v>
@@ -45150,10 +45153,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="513" t="s">
+      <c r="A26" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="513"/>
+      <c r="B26" s="521"/>
       <c r="C26" s="239"/>
       <c r="D26" s="231">
         <v>0</v>
@@ -45186,10 +45189,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="513" t="s">
+      <c r="A27" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="513"/>
+      <c r="B27" s="521"/>
       <c r="C27" s="239"/>
       <c r="D27" s="231">
         <v>0</v>
@@ -45222,10 +45225,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="513" t="s">
+      <c r="A28" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="513"/>
+      <c r="B28" s="521"/>
       <c r="C28" s="239"/>
       <c r="D28" s="231">
         <v>0</v>
@@ -45258,10 +45261,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="513" t="s">
+      <c r="A29" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="513"/>
+      <c r="B29" s="521"/>
       <c r="C29" s="239"/>
       <c r="D29" s="231">
         <v>0.01</v>
@@ -45294,10 +45297,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="513" t="s">
+      <c r="A30" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="513"/>
+      <c r="B30" s="521"/>
       <c r="C30" s="239"/>
       <c r="D30" s="231">
         <v>0</v>
@@ -45330,11 +45333,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="513" t="s">
+      <c r="A31" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="513"/>
-      <c r="C31" s="513"/>
+      <c r="B31" s="521"/>
+      <c r="C31" s="521"/>
       <c r="D31" s="231">
         <v>0</v>
       </c>
@@ -45366,10 +45369,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="516" t="s">
+      <c r="A32" s="514" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="516"/>
+      <c r="B32" s="514"/>
       <c r="C32" s="239"/>
       <c r="D32" s="231">
         <v>56004</v>
@@ -45404,10 +45407,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="513" t="s">
+      <c r="A33" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="513"/>
+      <c r="B33" s="521"/>
       <c r="C33" s="239"/>
       <c r="D33" s="231">
         <v>48418</v>
@@ -45446,10 +45449,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="513" t="s">
+      <c r="A34" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="513"/>
+      <c r="B34" s="521"/>
       <c r="C34" s="239"/>
       <c r="D34" s="231">
         <v>4557</v>
@@ -45482,10 +45485,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="513" t="s">
+      <c r="A35" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="513"/>
+      <c r="B35" s="521"/>
       <c r="C35" s="239"/>
       <c r="D35" s="233">
         <v>16</v>
@@ -45518,10 +45521,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="513" t="s">
+      <c r="A36" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="513"/>
+      <c r="B36" s="521"/>
       <c r="C36" s="239"/>
       <c r="D36" s="233">
         <v>932</v>
@@ -45554,10 +45557,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="513" t="s">
+      <c r="A37" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="513"/>
+      <c r="B37" s="521"/>
       <c r="C37" s="239"/>
       <c r="D37" s="233">
         <v>610</v>
@@ -45590,10 +45593,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="513" t="s">
+      <c r="A38" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="513"/>
+      <c r="B38" s="521"/>
       <c r="C38" s="239"/>
       <c r="D38" s="231">
         <v>1163</v>
@@ -45626,10 +45629,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="513" t="s">
+      <c r="A39" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="513"/>
+      <c r="B39" s="521"/>
       <c r="C39" s="239"/>
       <c r="D39" s="233">
         <v>261</v>
@@ -45662,11 +45665,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="513" t="s">
+      <c r="A40" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="513"/>
-      <c r="C40" s="513"/>
+      <c r="B40" s="521"/>
+      <c r="C40" s="521"/>
       <c r="D40" s="233">
         <v>47</v>
       </c>
@@ -45698,10 +45701,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="516" t="s">
+      <c r="A41" s="514" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="516"/>
+      <c r="B41" s="514"/>
       <c r="C41" s="241">
         <v>3</v>
       </c>
@@ -45722,10 +45725,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="513" t="s">
+      <c r="A42" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="513"/>
+      <c r="B42" s="521"/>
       <c r="C42" s="239"/>
       <c r="D42" s="231">
         <v>5596</v>
@@ -45761,10 +45764,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="513" t="s">
+      <c r="A43" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="513"/>
+      <c r="B43" s="521"/>
       <c r="C43" s="239"/>
       <c r="D43" s="233">
         <v>400</v>
@@ -45800,10 +45803,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="513" t="s">
+      <c r="A44" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="513"/>
+      <c r="B44" s="521"/>
       <c r="C44" s="239"/>
       <c r="D44" s="233">
         <v>726</v>
@@ -45839,10 +45842,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="513" t="s">
+      <c r="A45" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="513"/>
+      <c r="B45" s="521"/>
       <c r="C45" s="239"/>
       <c r="D45" s="233">
         <v>289</v>
@@ -45878,10 +45881,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="513" t="s">
+      <c r="A46" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="513"/>
+      <c r="B46" s="521"/>
       <c r="C46" s="239"/>
       <c r="D46" s="233">
         <v>108</v>
@@ -45898,10 +45901,10 @@
       <c r="H46" s="230"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="513" t="s">
+      <c r="A47" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="513"/>
+      <c r="B47" s="521"/>
       <c r="C47" s="239"/>
       <c r="D47" s="233">
         <v>498</v>
@@ -45918,10 +45921,10 @@
       <c r="H47" s="230"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="513" t="s">
+      <c r="A48" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="513"/>
+      <c r="B48" s="521"/>
       <c r="C48" s="239"/>
       <c r="D48" s="231">
         <v>0</v>
@@ -45938,11 +45941,11 @@
       <c r="H48" s="230"/>
     </row>
     <row r="49" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="513" t="s">
+      <c r="A49" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="513"/>
-      <c r="C49" s="513"/>
+      <c r="B49" s="521"/>
+      <c r="C49" s="521"/>
       <c r="D49" s="233">
         <v>36</v>
       </c>
@@ -45958,10 +45961,10 @@
       <c r="H49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="516" t="s">
+      <c r="A50" s="514" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="516"/>
+      <c r="B50" s="514"/>
       <c r="C50" s="241">
         <v>4</v>
       </c>
@@ -45982,10 +45985,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="513" t="s">
+      <c r="A51" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="513"/>
+      <c r="B51" s="521"/>
       <c r="C51" s="239"/>
       <c r="D51" s="231">
         <v>0</v>
@@ -46002,10 +46005,10 @@
       <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="513" t="s">
+      <c r="A52" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="513"/>
+      <c r="B52" s="521"/>
       <c r="C52" s="239"/>
       <c r="D52" s="231">
         <v>0</v>
@@ -46022,10 +46025,10 @@
       <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="513" t="s">
+      <c r="A53" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="513"/>
+      <c r="B53" s="521"/>
       <c r="C53" s="239"/>
       <c r="D53" s="231">
         <v>0</v>
@@ -46042,10 +46045,10 @@
       <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="513" t="s">
+      <c r="A54" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B54" s="513"/>
+      <c r="B54" s="521"/>
       <c r="C54" s="239"/>
       <c r="D54" s="231">
         <v>0</v>
@@ -46062,10 +46065,10 @@
       <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="513" t="s">
+      <c r="A55" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="513"/>
+      <c r="B55" s="521"/>
       <c r="C55" s="239"/>
       <c r="D55" s="231">
         <v>0</v>
@@ -46082,10 +46085,10 @@
       <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="513" t="s">
+      <c r="A56" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="513"/>
+      <c r="B56" s="521"/>
       <c r="C56" s="239"/>
       <c r="D56" s="231">
         <v>0</v>
@@ -46102,10 +46105,10 @@
       <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="513" t="s">
+      <c r="A57" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="513"/>
+      <c r="B57" s="521"/>
       <c r="C57" s="239"/>
       <c r="D57" s="231">
         <v>0.05</v>
@@ -46122,11 +46125,11 @@
       <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="514" t="s">
+      <c r="A58" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="514"/>
-      <c r="C58" s="514"/>
+      <c r="B58" s="522"/>
+      <c r="C58" s="522"/>
       <c r="D58" s="229">
         <v>0</v>
       </c>
@@ -46142,46 +46145,46 @@
       <c r="H58" s="238"/>
     </row>
     <row r="59" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="516"/>
-      <c r="B59" s="516"/>
-      <c r="C59" s="516"/>
-      <c r="D59" s="516"/>
-      <c r="E59" s="516"/>
-      <c r="F59" s="516"/>
-      <c r="G59" s="516"/>
-      <c r="H59" s="516"/>
-      <c r="I59" s="516"/>
+      <c r="A59" s="514"/>
+      <c r="B59" s="514"/>
+      <c r="C59" s="514"/>
+      <c r="D59" s="514"/>
+      <c r="E59" s="514"/>
+      <c r="F59" s="514"/>
+      <c r="G59" s="514"/>
+      <c r="H59" s="514"/>
+      <c r="I59" s="514"/>
     </row>
     <row r="60" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="516"/>
-      <c r="B60" s="516"/>
-      <c r="C60" s="516"/>
-      <c r="D60" s="516"/>
-      <c r="E60" s="516"/>
-      <c r="F60" s="516"/>
-      <c r="G60" s="516"/>
-      <c r="H60" s="516"/>
-      <c r="I60" s="516"/>
+      <c r="A60" s="514"/>
+      <c r="B60" s="514"/>
+      <c r="C60" s="514"/>
+      <c r="D60" s="514"/>
+      <c r="E60" s="514"/>
+      <c r="F60" s="514"/>
+      <c r="G60" s="514"/>
+      <c r="H60" s="514"/>
+      <c r="I60" s="514"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="519" t="s">
+      <c r="A61" s="524" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="519"/>
-      <c r="C61" s="519"/>
-      <c r="D61" s="519"/>
-      <c r="E61" s="519"/>
-      <c r="F61" s="519"/>
-      <c r="G61" s="519"/>
-      <c r="H61" s="519"/>
-      <c r="I61" s="519"/>
+      <c r="B61" s="524"/>
+      <c r="C61" s="524"/>
+      <c r="D61" s="524"/>
+      <c r="E61" s="524"/>
+      <c r="F61" s="524"/>
+      <c r="G61" s="524"/>
+      <c r="H61" s="524"/>
+      <c r="I61" s="524"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="517" t="s">
+      <c r="A62" s="525" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="517"/>
-      <c r="C62" s="517"/>
+      <c r="B62" s="525"/>
+      <c r="C62" s="525"/>
       <c r="D62" s="225">
         <v>2019</v>
       </c>
@@ -46199,11 +46202,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="518" t="s">
+      <c r="A63" s="526" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="518"/>
-      <c r="C63" s="518"/>
+      <c r="B63" s="526"/>
+      <c r="C63" s="526"/>
       <c r="D63" s="220" t="s">
         <v>386</v>
       </c>
@@ -46221,11 +46224,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="513" t="s">
+      <c r="A64" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="513"/>
-      <c r="C64" s="513"/>
+      <c r="B64" s="521"/>
+      <c r="C64" s="521"/>
       <c r="D64" s="231" t="s">
         <v>382</v>
       </c>
@@ -46241,11 +46244,11 @@
       <c r="H64" s="230"/>
     </row>
     <row r="65" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="513" t="s">
+      <c r="A65" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="513"/>
-      <c r="C65" s="513"/>
+      <c r="B65" s="521"/>
+      <c r="C65" s="521"/>
       <c r="D65" s="231" t="s">
         <v>380</v>
       </c>
@@ -46261,11 +46264,11 @@
       <c r="H65" s="230"/>
     </row>
     <row r="66" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="513" t="s">
+      <c r="A66" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="513"/>
-      <c r="C66" s="513"/>
+      <c r="B66" s="521"/>
+      <c r="C66" s="521"/>
       <c r="D66" s="233">
         <v>822</v>
       </c>
@@ -46281,11 +46284,11 @@
       <c r="H66" s="230"/>
     </row>
     <row r="67" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="513" t="s">
+      <c r="A67" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="513"/>
-      <c r="C67" s="513"/>
+      <c r="B67" s="521"/>
+      <c r="C67" s="521"/>
       <c r="D67" s="231" t="s">
         <v>379</v>
       </c>
@@ -46301,11 +46304,11 @@
       <c r="H67" s="230"/>
     </row>
     <row r="68" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="513" t="s">
+      <c r="A68" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="513"/>
-      <c r="C68" s="513"/>
+      <c r="B68" s="521"/>
+      <c r="C68" s="521"/>
       <c r="D68" s="233">
         <v>717</v>
       </c>
@@ -46321,11 +46324,11 @@
       <c r="H68" s="230"/>
     </row>
     <row r="69" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="513" t="s">
+      <c r="A69" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="513"/>
-      <c r="C69" s="513"/>
+      <c r="B69" s="521"/>
+      <c r="C69" s="521"/>
       <c r="D69" s="231" t="s">
         <v>378</v>
       </c>
@@ -46341,11 +46344,11 @@
       <c r="H69" s="230"/>
     </row>
     <row r="70" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="513" t="s">
+      <c r="A70" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="513"/>
-      <c r="C70" s="513"/>
+      <c r="B70" s="521"/>
+      <c r="C70" s="521"/>
       <c r="D70" s="233">
         <v>261</v>
       </c>
@@ -46361,11 +46364,11 @@
       <c r="H70" s="230"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="513" t="s">
+      <c r="A71" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="513"/>
-      <c r="C71" s="513"/>
+      <c r="B71" s="521"/>
+      <c r="C71" s="521"/>
       <c r="D71" s="233">
         <v>83</v>
       </c>
@@ -46381,11 +46384,11 @@
       <c r="H71" s="230"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="516" t="s">
+      <c r="A72" s="514" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="516"/>
-      <c r="C72" s="516"/>
+      <c r="B72" s="514"/>
+      <c r="C72" s="514"/>
       <c r="D72" s="231" t="s">
         <v>368</v>
       </c>
@@ -46403,11 +46406,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="513" t="s">
+      <c r="A73" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="513"/>
-      <c r="C73" s="513"/>
+      <c r="B73" s="521"/>
+      <c r="C73" s="521"/>
       <c r="D73" s="231" t="s">
         <v>372</v>
       </c>
@@ -46423,11 +46426,11 @@
       <c r="H73" s="230"/>
     </row>
     <row r="74" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="513" t="s">
+      <c r="A74" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="513"/>
-      <c r="C74" s="513"/>
+      <c r="B74" s="521"/>
+      <c r="C74" s="521"/>
       <c r="D74" s="231" t="s">
         <v>368</v>
       </c>
@@ -46443,11 +46446,11 @@
       <c r="H74" s="230"/>
     </row>
     <row r="75" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="513" t="s">
+      <c r="A75" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B75" s="513"/>
-      <c r="C75" s="513"/>
+      <c r="B75" s="521"/>
+      <c r="C75" s="521"/>
       <c r="D75" s="231" t="s">
         <v>348</v>
       </c>
@@ -46463,11 +46466,11 @@
       <c r="H75" s="230"/>
     </row>
     <row r="76" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="513" t="s">
+      <c r="A76" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="513"/>
-      <c r="C76" s="513"/>
+      <c r="B76" s="521"/>
+      <c r="C76" s="521"/>
       <c r="D76" s="231" t="s">
         <v>362</v>
       </c>
@@ -46483,11 +46486,11 @@
       <c r="H76" s="230"/>
     </row>
     <row r="77" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="513" t="s">
+      <c r="A77" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="513"/>
-      <c r="C77" s="513"/>
+      <c r="B77" s="521"/>
+      <c r="C77" s="521"/>
       <c r="D77" s="231" t="s">
         <v>361</v>
       </c>
@@ -46503,11 +46506,11 @@
       <c r="H77" s="230"/>
     </row>
     <row r="78" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="513" t="s">
+      <c r="A78" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="513"/>
-      <c r="C78" s="513"/>
+      <c r="B78" s="521"/>
+      <c r="C78" s="521"/>
       <c r="D78" s="231" t="s">
         <v>358</v>
       </c>
@@ -46523,11 +46526,11 @@
       <c r="H78" s="230"/>
     </row>
     <row r="79" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="513" t="s">
+      <c r="A79" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="513"/>
-      <c r="C79" s="513"/>
+      <c r="B79" s="521"/>
+      <c r="C79" s="521"/>
       <c r="D79" s="231" t="s">
         <v>354</v>
       </c>
@@ -46543,11 +46546,11 @@
       <c r="H79" s="230"/>
     </row>
     <row r="80" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="514" t="s">
+      <c r="A80" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="514"/>
-      <c r="C80" s="514"/>
+      <c r="B80" s="522"/>
+      <c r="C80" s="522"/>
       <c r="D80" s="229" t="s">
         <v>349</v>
       </c>
@@ -46563,30 +46566,30 @@
       <c r="H80" s="226"/>
     </row>
     <row r="81" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="515" t="s">
+      <c r="A81" s="527" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="516"/>
-      <c r="C81" s="516"/>
-      <c r="D81" s="516"/>
-      <c r="E81" s="516"/>
-      <c r="F81" s="516"/>
-      <c r="G81" s="516"/>
-      <c r="H81" s="516"/>
-      <c r="I81" s="516"/>
+      <c r="B81" s="514"/>
+      <c r="C81" s="514"/>
+      <c r="D81" s="514"/>
+      <c r="E81" s="514"/>
+      <c r="F81" s="514"/>
+      <c r="G81" s="514"/>
+      <c r="H81" s="514"/>
+      <c r="I81" s="514"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="516" t="s">
+      <c r="A82" s="514" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="516"/>
-      <c r="C82" s="516"/>
-      <c r="D82" s="516"/>
-      <c r="E82" s="516"/>
-      <c r="F82" s="516"/>
-      <c r="G82" s="516"/>
-      <c r="H82" s="516"/>
-      <c r="I82" s="516"/>
+      <c r="B82" s="514"/>
+      <c r="C82" s="514"/>
+      <c r="D82" s="514"/>
+      <c r="E82" s="514"/>
+      <c r="F82" s="514"/>
+      <c r="G82" s="514"/>
+      <c r="H82" s="514"/>
+      <c r="I82" s="514"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="216" t="str">
@@ -46607,11 +46610,11 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="517" t="s">
+      <c r="A85" s="525" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="517"/>
-      <c r="C85" s="517"/>
+      <c r="B85" s="525"/>
+      <c r="C85" s="525"/>
       <c r="D85" s="225">
         <v>2019</v>
       </c>
@@ -46638,11 +46641,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="518" t="s">
+      <c r="A86" s="526" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="518"/>
-      <c r="C86" s="518"/>
+      <c r="B86" s="526"/>
+      <c r="C86" s="526"/>
       <c r="D86" s="220">
         <f>D14*gwpch4+D23*gwpn2o+D32+D41+D50</f>
         <v>66558.41</v>
@@ -46680,11 +46683,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="513" t="s">
+      <c r="A87" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="513"/>
-      <c r="C87" s="513"/>
+      <c r="B87" s="521"/>
+      <c r="C87" s="521"/>
       <c r="D87" s="220">
         <f t="shared" ref="D87:D94" si="14">D15*gwpch4+D24*gwpn2o+D33+D42+D51</f>
         <v>56492.08</v>
@@ -46719,11 +46722,11 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="513" t="s">
+      <c r="A88" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="513"/>
-      <c r="C88" s="513"/>
+      <c r="B88" s="521"/>
+      <c r="C88" s="521"/>
       <c r="D88" s="220">
         <f t="shared" si="14"/>
         <v>5295.9</v>
@@ -46758,11 +46761,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="513" t="s">
+      <c r="A89" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="513"/>
-      <c r="C89" s="513"/>
+      <c r="B89" s="521"/>
+      <c r="C89" s="521"/>
       <c r="D89" s="220">
         <f t="shared" si="14"/>
         <v>822.27</v>
@@ -46797,11 +46800,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="513" t="s">
+      <c r="A90" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="513"/>
-      <c r="C90" s="513"/>
+      <c r="B90" s="521"/>
+      <c r="C90" s="521"/>
       <c r="D90" s="220">
         <f t="shared" si="14"/>
         <v>1221</v>
@@ -46836,11 +46839,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="513" t="s">
+      <c r="A91" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="513"/>
-      <c r="C91" s="513"/>
+      <c r="B91" s="521"/>
+      <c r="C91" s="521"/>
       <c r="D91" s="220">
         <f t="shared" si="14"/>
         <v>718</v>
@@ -46875,11 +46878,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="513" t="s">
+      <c r="A92" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="513"/>
-      <c r="C92" s="513"/>
+      <c r="B92" s="521"/>
+      <c r="C92" s="521"/>
       <c r="D92" s="220">
         <f t="shared" si="14"/>
         <v>1664.88</v>
@@ -46914,11 +46917,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="513" t="s">
+      <c r="A93" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="513"/>
-      <c r="C93" s="513"/>
+      <c r="B93" s="521"/>
+      <c r="C93" s="521"/>
       <c r="D93" s="220">
         <f t="shared" si="14"/>
         <v>261.05</v>
@@ -46953,11 +46956,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="513" t="s">
+      <c r="A94" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="513"/>
-      <c r="C94" s="513"/>
+      <c r="B94" s="521"/>
+      <c r="C94" s="521"/>
       <c r="D94" s="220">
         <f t="shared" si="14"/>
         <v>83.22999999999999</v>
@@ -47041,15 +47044,74 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:B23"/>
@@ -47066,74 +47128,15 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" display="http://www.sasol.com/" xr:uid="{94E57AF8-CF1E-4A4A-992A-3647A9F5048E}"/>

--- a/VT_REGION1_REF.xlsx
+++ b/VT_REGION1_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28CB25-0F2D-4918-81B1-F6AA3D53C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B2AD8-FF79-48ED-BD19-13BBB5610ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="-16290" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -9468,24 +9468,6 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9515,6 +9497,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9552,10 +9552,31 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9574,27 +9595,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18763,11 +18763,11 @@
   </sheetPr>
   <dimension ref="A1:BH117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="M97" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AD116" sqref="AD116"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22470,14 +22470,14 @@
       </c>
       <c r="F50" s="435">
         <f>SUMIF(RefineriesData!$J$16:$J$270,$B50&amp;F$4,RefineriesData!$N$16:$N$270)</f>
-        <v>1.4398895185724963</v>
+        <v>1.3713233510214249</v>
       </c>
       <c r="G50" s="436"/>
       <c r="H50" s="436"/>
       <c r="I50" s="482"/>
       <c r="J50" s="439">
         <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
-        <v>35.527165339469441</v>
+        <v>55.422377929572328</v>
       </c>
       <c r="M50" s="466">
         <f>M40</f>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="O50" s="439">
         <f>SUMIF(RefineriesData!$J$13:$J$267,$B50&amp;O$4,RefineriesData!$N$13:$N$267)</f>
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="P50" s="435">
         <f>SUMIF(RefineriesData!$J$16:$J$269,$B50&amp;P$4,RefineriesData!$N$16:$N$269)</f>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="Q50" s="441">
         <f>IFERROR(SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;Q$4,RefineriesData!$N$13:$N$269),"")</f>
-        <v>129.54169999999999</v>
+        <v>202.08505199999999</v>
       </c>
       <c r="R50" s="435">
         <v>-6</v>
@@ -23154,14 +23154,14 @@
       </c>
       <c r="F60" s="435">
         <f>F50</f>
-        <v>1.4398895185724963</v>
+        <v>1.3713233510214249</v>
       </c>
       <c r="G60" s="436"/>
       <c r="H60" s="436"/>
       <c r="I60" s="482"/>
       <c r="J60" s="440">
         <f>J50</f>
-        <v>35.527165339469441</v>
+        <v>55.422377929572328</v>
       </c>
       <c r="M60" s="466">
         <f>M40</f>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="O60" s="439">
         <f>O50</f>
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="P60" s="435">
         <f>P50</f>
@@ -23181,7 +23181,7 @@
       </c>
       <c r="Q60" s="441">
         <f>Q50</f>
-        <v>129.54169999999999</v>
+        <v>202.08505199999999</v>
       </c>
       <c r="R60" s="435">
         <v>-6</v>
@@ -26550,8 +26550,8 @@
   </sheetPr>
   <dimension ref="A1:AH286"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="N267" sqref="N267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33568,8 +33568,8 @@
         <v>Main Fuel Efficiency</v>
       </c>
       <c r="N252" s="325">
-        <f>N232*1.05</f>
-        <v>1.4398895185724963</v>
+        <f>N232</f>
+        <v>1.3713233510214249</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
@@ -33659,7 +33659,8 @@
         <v>498</v>
       </c>
       <c r="D257" s="303">
-        <v>129.54169999999999</v>
+        <f>129.5417*1.56</f>
+        <v>202.08505199999999</v>
       </c>
       <c r="E257" s="302">
         <f>5/0.14</f>
@@ -33690,7 +33691,8 @@
         <v>494</v>
       </c>
       <c r="D258" s="303">
-        <v>12.8826</v>
+        <f>12.8826*1.56</f>
+        <v>20.096856000000002</v>
       </c>
       <c r="E258" s="302">
         <f>0.04*E257</f>
@@ -33722,7 +33724,7 @@
       </c>
       <c r="D259" s="176">
         <f>E259/E257 *D257</f>
-        <v>14.249587000000002</v>
+        <v>22.229355720000001</v>
       </c>
       <c r="E259" s="302">
         <f>0.55/0.14</f>
@@ -33822,7 +33824,7 @@
       </c>
       <c r="N263" s="299">
         <f>D259</f>
-        <v>14.249587000000002</v>
+        <v>22.229355720000001</v>
       </c>
     </row>
     <row r="264" spans="2:14" x14ac:dyDescent="0.25">
@@ -33847,7 +33849,7 @@
       </c>
       <c r="N264" s="299">
         <f>D257</f>
-        <v>129.54169999999999</v>
+        <v>202.08505199999999</v>
       </c>
     </row>
     <row r="265" spans="2:14" x14ac:dyDescent="0.25">
@@ -33872,7 +33874,7 @@
       </c>
       <c r="N265" s="299">
         <f>D258</f>
-        <v>12.8826</v>
+        <v>20.096856000000002</v>
       </c>
     </row>
     <row r="266" spans="2:14" x14ac:dyDescent="0.25">
@@ -33893,7 +33895,7 @@
         <v>492</v>
       </c>
       <c r="N266" s="298">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
@@ -34201,7 +34203,7 @@
       </c>
       <c r="K282" s="278">
         <f ca="1">SUMIF($J$37:$J$269,K$278&amp;$A282,$N$37:$N$245)</f>
-        <v>1.4398895185724963</v>
+        <v>1.3713233510214249</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -34244,7 +34246,7 @@
       </c>
       <c r="K283" s="276">
         <f ca="1">SUMIF($J$37:$J$269,K$278&amp;$A283,$N$37:$N$245)</f>
-        <v>27.132187000000002</v>
+        <v>42.326211720000003</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -34287,7 +34289,7 @@
       </c>
       <c r="K284" s="276">
         <f ca="1">SUMIF($J$37:$J$269,K$278&amp;$A284,$N$37:$N$245)</f>
-        <v>129.54169999999999</v>
+        <v>202.08505199999999</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -34451,26 +34453,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="486" t="s">
+      <c r="C2" s="496" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="488" t="s">
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="498" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="489"/>
-      <c r="H2" s="490"/>
-      <c r="I2" s="488" t="s">
+      <c r="G2" s="499"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="498" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="489"/>
-      <c r="K2" s="490"/>
-      <c r="L2" s="488" t="s">
+      <c r="J2" s="499"/>
+      <c r="K2" s="500"/>
+      <c r="L2" s="498" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="489"/>
-      <c r="N2" s="490"/>
+      <c r="M2" s="499"/>
+      <c r="N2" s="500"/>
       <c r="O2" s="97"/>
       <c r="P2" s="13"/>
       <c r="AA2" s="96" t="s">
@@ -34743,10 +34745,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="485" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="492"/>
+      <c r="B9" s="486"/>
       <c r="C9" s="49"/>
       <c r="D9" s="44">
         <f>D5/$O$5</f>
@@ -34771,49 +34773,49 @@
       <c r="O9" s="7">
         <v>788</v>
       </c>
-      <c r="Q9" s="497" t="s">
+      <c r="Q9" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="499" t="s">
+      <c r="S9" s="493" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="495" t="s">
+      <c r="V9" s="489" t="s">
         <v>881</v>
       </c>
-      <c r="W9" s="495" t="s">
+      <c r="W9" s="489" t="s">
         <v>882</v>
       </c>
-      <c r="X9" s="495" t="s">
+      <c r="X9" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="495" t="s">
+      <c r="Y9" s="489" t="s">
         <v>883</v>
       </c>
-      <c r="Z9" s="495" t="s">
+      <c r="Z9" s="489" t="s">
         <v>884</v>
       </c>
-      <c r="AA9" s="495" t="s">
+      <c r="AA9" s="489" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="495" t="s">
+      <c r="AB9" s="489" t="s">
         <v>885</v>
       </c>
-      <c r="AC9" s="495" t="s">
+      <c r="AC9" s="489" t="s">
         <v>886</v>
       </c>
-      <c r="AD9" s="495" t="s">
+      <c r="AD9" s="489" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="495" t="s">
+      <c r="AE9" s="489" t="s">
         <v>887</v>
       </c>
-      <c r="AF9" s="495" t="s">
+      <c r="AF9" s="489" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="493"/>
-      <c r="B10" s="494"/>
+      <c r="A10" s="487"/>
+      <c r="B10" s="488"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9">
         <f>D9*788</f>
@@ -34839,25 +34841,25 @@
         <f>O9-G10</f>
         <v>422.2729198252656</v>
       </c>
-      <c r="Q10" s="498"/>
+      <c r="Q10" s="492"/>
       <c r="R10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="500"/>
+      <c r="S10" s="494"/>
       <c r="U10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="496"/>
-      <c r="W10" s="496"/>
-      <c r="X10" s="496"/>
-      <c r="Y10" s="496"/>
-      <c r="Z10" s="496"/>
-      <c r="AA10" s="496"/>
-      <c r="AB10" s="496"/>
-      <c r="AC10" s="496"/>
-      <c r="AD10" s="496"/>
-      <c r="AE10" s="496"/>
-      <c r="AF10" s="496"/>
+      <c r="V10" s="490"/>
+      <c r="W10" s="490"/>
+      <c r="X10" s="490"/>
+      <c r="Y10" s="490"/>
+      <c r="Z10" s="490"/>
+      <c r="AA10" s="490"/>
+      <c r="AB10" s="490"/>
+      <c r="AC10" s="490"/>
+      <c r="AD10" s="490"/>
+      <c r="AE10" s="490"/>
+      <c r="AF10" s="490"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -37349,11 +37351,11 @@
       <c r="J62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="485" t="s">
+      <c r="K62" s="495" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="485"/>
-      <c r="M62" s="485"/>
+      <c r="L62" s="495"/>
+      <c r="M62" s="495"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="3:22" ht="15" x14ac:dyDescent="0.25">
@@ -37611,6 +37613,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AC9:AC10"/>
@@ -37625,11 +37632,6 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40298,7 +40300,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="509"/>
-      <c r="H2" s="490"/>
+      <c r="H2" s="500"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -40540,7 +40542,7 @@
       <c r="G14" s="88"/>
       <c r="H14" s="154"/>
       <c r="I14" s="153"/>
-      <c r="J14" s="500"/>
+      <c r="J14" s="494"/>
       <c r="K14" s="152" t="s">
         <v>79</v>
       </c>
@@ -44428,27 +44430,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="521" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="514"/>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
       <c r="J1" s="216" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="515" t="s">
+      <c r="A2" s="522" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
       <c r="D2" s="259">
         <v>2019</v>
       </c>
@@ -44485,16 +44487,16 @@
       <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="516" t="s">
+      <c r="A3" s="523" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="516"/>
+      <c r="B3" s="523"/>
       <c r="C3" s="254"/>
       <c r="D3" s="255"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="G3" s="253"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="524" t="s">
         <v>373</v>
       </c>
       <c r="Q3"/>
@@ -44504,10 +44506,10 @@
       <c r="U3" s="252"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="527" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="520"/>
+      <c r="B4" s="527"/>
       <c r="C4" s="241">
         <v>1</v>
       </c>
@@ -44523,7 +44525,7 @@
       <c r="G4" s="221">
         <v>18806</v>
       </c>
-      <c r="H4" s="518"/>
+      <c r="H4" s="525"/>
       <c r="J4" s="216">
         <f>D4/F4</f>
         <v>0.99859246427024684</v>
@@ -44541,10 +44543,10 @@
       <c r="T4" s="252"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="521" t="s">
+      <c r="A5" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="521"/>
+      <c r="B5" s="513"/>
       <c r="C5" s="239"/>
       <c r="D5" s="231">
         <v>6736</v>
@@ -44558,13 +44560,13 @@
       <c r="G5" s="221">
         <v>7019</v>
       </c>
-      <c r="H5" s="518"/>
+      <c r="H5" s="525"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="521" t="s">
+      <c r="A6" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="521"/>
+      <c r="B6" s="513"/>
       <c r="C6" s="239"/>
       <c r="D6" s="231">
         <v>1467</v>
@@ -44578,13 +44580,13 @@
       <c r="G6" s="221">
         <v>1461</v>
       </c>
-      <c r="H6" s="518"/>
+      <c r="H6" s="525"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="521" t="s">
+      <c r="A7" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="521"/>
+      <c r="B7" s="513"/>
       <c r="C7" s="239"/>
       <c r="D7" s="231">
         <v>3209</v>
@@ -44598,13 +44600,13 @@
       <c r="G7" s="221">
         <v>3331</v>
       </c>
-      <c r="H7" s="518"/>
+      <c r="H7" s="525"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="521" t="s">
+      <c r="A8" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="521"/>
+      <c r="B8" s="513"/>
       <c r="C8" s="239"/>
       <c r="D8" s="231">
         <v>4271</v>
@@ -44618,13 +44620,13 @@
       <c r="G8" s="221">
         <v>4067</v>
       </c>
-      <c r="H8" s="518"/>
+      <c r="H8" s="525"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="521"/>
+      <c r="B9" s="513"/>
       <c r="C9" s="239"/>
       <c r="D9" s="231">
         <v>1277</v>
@@ -44638,13 +44640,13 @@
       <c r="G9" s="221">
         <v>1309</v>
       </c>
-      <c r="H9" s="518"/>
+      <c r="H9" s="525"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="521" t="s">
+      <c r="A10" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="521"/>
+      <c r="B10" s="513"/>
       <c r="C10" s="239"/>
       <c r="D10" s="233">
         <v>688</v>
@@ -44658,13 +44660,13 @@
       <c r="G10" s="218">
         <v>793</v>
       </c>
-      <c r="H10" s="518"/>
+      <c r="H10" s="525"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="521"/>
+      <c r="B11" s="513"/>
       <c r="C11" s="239"/>
       <c r="D11" s="233">
         <v>53</v>
@@ -44678,14 +44680,14 @@
       <c r="G11" s="218">
         <v>62</v>
       </c>
-      <c r="H11" s="518"/>
+      <c r="H11" s="525"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="522" t="s">
+      <c r="A12" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="522"/>
-      <c r="C12" s="522"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
       <c r="D12" s="251">
         <v>745</v>
       </c>
@@ -44698,14 +44700,14 @@
       <c r="G12" s="249">
         <v>763</v>
       </c>
-      <c r="H12" s="519"/>
+      <c r="H12" s="526"/>
       <c r="V12" s="243"/>
     </row>
     <row r="13" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="523" t="s">
+      <c r="A13" s="520" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="523"/>
+      <c r="B13" s="520"/>
       <c r="C13" s="248">
         <v>2</v>
       </c>
@@ -44717,10 +44719,10 @@
       <c r="V13" s="243"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="514" t="s">
+      <c r="A14" s="516" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="514"/>
+      <c r="B14" s="516"/>
       <c r="C14" s="239"/>
       <c r="D14" s="231">
         <v>105.04</v>
@@ -44755,10 +44757,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="521" t="s">
+      <c r="A15" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="521"/>
+      <c r="B15" s="513"/>
       <c r="C15" s="239"/>
       <c r="D15" s="231">
         <v>96.16</v>
@@ -44791,10 +44793,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="521" t="s">
+      <c r="A16" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="521"/>
+      <c r="B16" s="513"/>
       <c r="C16" s="239"/>
       <c r="D16" s="231">
         <v>5.34</v>
@@ -44827,10 +44829,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="521" t="s">
+      <c r="A17" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B17" s="521"/>
+      <c r="B17" s="513"/>
       <c r="C17" s="239"/>
       <c r="D17" s="231">
         <v>3.49</v>
@@ -44863,10 +44865,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="521" t="s">
+      <c r="A18" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="521"/>
+      <c r="B18" s="513"/>
       <c r="C18" s="239"/>
       <c r="D18" s="242">
         <v>0</v>
@@ -44899,10 +44901,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="521" t="s">
+      <c r="A19" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="521"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="239"/>
       <c r="D19" s="231">
         <v>0</v>
@@ -44935,10 +44937,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="521"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="239"/>
       <c r="D20" s="231">
         <v>0.04</v>
@@ -44971,10 +44973,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="521" t="s">
+      <c r="A21" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="521"/>
+      <c r="B21" s="513"/>
       <c r="C21" s="239"/>
       <c r="D21" s="231">
         <v>0</v>
@@ -45007,11 +45009,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="521" t="s">
+      <c r="A22" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="521"/>
-      <c r="C22" s="521"/>
+      <c r="B22" s="513"/>
+      <c r="C22" s="513"/>
       <c r="D22" s="231">
         <v>0.01</v>
       </c>
@@ -45043,10 +45045,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="514" t="s">
+      <c r="A23" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="514"/>
+      <c r="B23" s="516"/>
       <c r="C23" s="239"/>
       <c r="D23" s="231">
         <v>1.64</v>
@@ -45081,10 +45083,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="521" t="s">
+      <c r="A24" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="521"/>
+      <c r="B24" s="513"/>
       <c r="C24" s="239"/>
       <c r="D24" s="231">
         <v>0.9</v>
@@ -45117,10 +45119,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="521"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="239"/>
       <c r="D25" s="231">
         <v>0.73</v>
@@ -45153,10 +45155,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="513"/>
       <c r="C26" s="239"/>
       <c r="D26" s="231">
         <v>0</v>
@@ -45189,10 +45191,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="521" t="s">
+      <c r="A27" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="521"/>
+      <c r="B27" s="513"/>
       <c r="C27" s="239"/>
       <c r="D27" s="231">
         <v>0</v>
@@ -45225,10 +45227,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="521" t="s">
+      <c r="A28" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="521"/>
+      <c r="B28" s="513"/>
       <c r="C28" s="239"/>
       <c r="D28" s="231">
         <v>0</v>
@@ -45261,10 +45263,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="521" t="s">
+      <c r="A29" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="521"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="239"/>
       <c r="D29" s="231">
         <v>0.01</v>
@@ -45297,10 +45299,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="521" t="s">
+      <c r="A30" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="521"/>
+      <c r="B30" s="513"/>
       <c r="C30" s="239"/>
       <c r="D30" s="231">
         <v>0</v>
@@ -45333,11 +45335,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="521" t="s">
+      <c r="A31" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="521"/>
-      <c r="C31" s="521"/>
+      <c r="B31" s="513"/>
+      <c r="C31" s="513"/>
       <c r="D31" s="231">
         <v>0</v>
       </c>
@@ -45369,10 +45371,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="514" t="s">
+      <c r="A32" s="516" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="514"/>
+      <c r="B32" s="516"/>
       <c r="C32" s="239"/>
       <c r="D32" s="231">
         <v>56004</v>
@@ -45407,10 +45409,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="521" t="s">
+      <c r="A33" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="521"/>
+      <c r="B33" s="513"/>
       <c r="C33" s="239"/>
       <c r="D33" s="231">
         <v>48418</v>
@@ -45449,10 +45451,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="521" t="s">
+      <c r="A34" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="521"/>
+      <c r="B34" s="513"/>
       <c r="C34" s="239"/>
       <c r="D34" s="231">
         <v>4557</v>
@@ -45485,10 +45487,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="521" t="s">
+      <c r="A35" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="521"/>
+      <c r="B35" s="513"/>
       <c r="C35" s="239"/>
       <c r="D35" s="233">
         <v>16</v>
@@ -45521,10 +45523,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="521" t="s">
+      <c r="A36" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="521"/>
+      <c r="B36" s="513"/>
       <c r="C36" s="239"/>
       <c r="D36" s="233">
         <v>932</v>
@@ -45557,10 +45559,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="239"/>
       <c r="D37" s="233">
         <v>610</v>
@@ -45593,10 +45595,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="521" t="s">
+      <c r="A38" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="521"/>
+      <c r="B38" s="513"/>
       <c r="C38" s="239"/>
       <c r="D38" s="231">
         <v>1163</v>
@@ -45629,10 +45631,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="521" t="s">
+      <c r="A39" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="521"/>
+      <c r="B39" s="513"/>
       <c r="C39" s="239"/>
       <c r="D39" s="233">
         <v>261</v>
@@ -45665,11 +45667,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="521" t="s">
+      <c r="A40" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="521"/>
-      <c r="C40" s="521"/>
+      <c r="B40" s="513"/>
+      <c r="C40" s="513"/>
       <c r="D40" s="233">
         <v>47</v>
       </c>
@@ -45701,10 +45703,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="514" t="s">
+      <c r="A41" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="514"/>
+      <c r="B41" s="516"/>
       <c r="C41" s="241">
         <v>3</v>
       </c>
@@ -45725,10 +45727,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="521" t="s">
+      <c r="A42" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="521"/>
+      <c r="B42" s="513"/>
       <c r="C42" s="239"/>
       <c r="D42" s="231">
         <v>5596</v>
@@ -45764,10 +45766,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="521" t="s">
+      <c r="A43" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="521"/>
+      <c r="B43" s="513"/>
       <c r="C43" s="239"/>
       <c r="D43" s="233">
         <v>400</v>
@@ -45803,10 +45805,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="521" t="s">
+      <c r="A44" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="521"/>
+      <c r="B44" s="513"/>
       <c r="C44" s="239"/>
       <c r="D44" s="233">
         <v>726</v>
@@ -45842,10 +45844,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="521" t="s">
+      <c r="A45" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="521"/>
+      <c r="B45" s="513"/>
       <c r="C45" s="239"/>
       <c r="D45" s="233">
         <v>289</v>
@@ -45881,10 +45883,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="521" t="s">
+      <c r="A46" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="521"/>
+      <c r="B46" s="513"/>
       <c r="C46" s="239"/>
       <c r="D46" s="233">
         <v>108</v>
@@ -45901,10 +45903,10 @@
       <c r="H46" s="230"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="521" t="s">
+      <c r="A47" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="521"/>
+      <c r="B47" s="513"/>
       <c r="C47" s="239"/>
       <c r="D47" s="233">
         <v>498</v>
@@ -45921,10 +45923,10 @@
       <c r="H47" s="230"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="521" t="s">
+      <c r="A48" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="521"/>
+      <c r="B48" s="513"/>
       <c r="C48" s="239"/>
       <c r="D48" s="231">
         <v>0</v>
@@ -45941,11 +45943,11 @@
       <c r="H48" s="230"/>
     </row>
     <row r="49" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="521" t="s">
+      <c r="A49" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="521"/>
-      <c r="C49" s="521"/>
+      <c r="B49" s="513"/>
+      <c r="C49" s="513"/>
       <c r="D49" s="233">
         <v>36</v>
       </c>
@@ -45961,10 +45963,10 @@
       <c r="H49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="514" t="s">
+      <c r="A50" s="516" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="514"/>
+      <c r="B50" s="516"/>
       <c r="C50" s="241">
         <v>4</v>
       </c>
@@ -45985,10 +45987,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="521" t="s">
+      <c r="A51" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="521"/>
+      <c r="B51" s="513"/>
       <c r="C51" s="239"/>
       <c r="D51" s="231">
         <v>0</v>
@@ -46005,10 +46007,10 @@
       <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="521" t="s">
+      <c r="A52" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="521"/>
+      <c r="B52" s="513"/>
       <c r="C52" s="239"/>
       <c r="D52" s="231">
         <v>0</v>
@@ -46025,10 +46027,10 @@
       <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="521" t="s">
+      <c r="A53" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="521"/>
+      <c r="B53" s="513"/>
       <c r="C53" s="239"/>
       <c r="D53" s="231">
         <v>0</v>
@@ -46045,10 +46047,10 @@
       <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="521" t="s">
+      <c r="A54" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B54" s="521"/>
+      <c r="B54" s="513"/>
       <c r="C54" s="239"/>
       <c r="D54" s="231">
         <v>0</v>
@@ -46065,10 +46067,10 @@
       <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="521" t="s">
+      <c r="A55" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="521"/>
+      <c r="B55" s="513"/>
       <c r="C55" s="239"/>
       <c r="D55" s="231">
         <v>0</v>
@@ -46085,10 +46087,10 @@
       <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="521" t="s">
+      <c r="A56" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="521"/>
+      <c r="B56" s="513"/>
       <c r="C56" s="239"/>
       <c r="D56" s="231">
         <v>0</v>
@@ -46105,10 +46107,10 @@
       <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="521" t="s">
+      <c r="A57" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="521"/>
+      <c r="B57" s="513"/>
       <c r="C57" s="239"/>
       <c r="D57" s="231">
         <v>0.05</v>
@@ -46125,11 +46127,11 @@
       <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="522" t="s">
+      <c r="A58" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="522"/>
-      <c r="C58" s="522"/>
+      <c r="B58" s="514"/>
+      <c r="C58" s="514"/>
       <c r="D58" s="229">
         <v>0</v>
       </c>
@@ -46145,46 +46147,46 @@
       <c r="H58" s="238"/>
     </row>
     <row r="59" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="514"/>
-      <c r="B59" s="514"/>
-      <c r="C59" s="514"/>
-      <c r="D59" s="514"/>
-      <c r="E59" s="514"/>
-      <c r="F59" s="514"/>
-      <c r="G59" s="514"/>
-      <c r="H59" s="514"/>
-      <c r="I59" s="514"/>
+      <c r="A59" s="516"/>
+      <c r="B59" s="516"/>
+      <c r="C59" s="516"/>
+      <c r="D59" s="516"/>
+      <c r="E59" s="516"/>
+      <c r="F59" s="516"/>
+      <c r="G59" s="516"/>
+      <c r="H59" s="516"/>
+      <c r="I59" s="516"/>
     </row>
     <row r="60" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="514"/>
-      <c r="B60" s="514"/>
-      <c r="C60" s="514"/>
-      <c r="D60" s="514"/>
-      <c r="E60" s="514"/>
-      <c r="F60" s="514"/>
-      <c r="G60" s="514"/>
-      <c r="H60" s="514"/>
-      <c r="I60" s="514"/>
+      <c r="A60" s="516"/>
+      <c r="B60" s="516"/>
+      <c r="C60" s="516"/>
+      <c r="D60" s="516"/>
+      <c r="E60" s="516"/>
+      <c r="F60" s="516"/>
+      <c r="G60" s="516"/>
+      <c r="H60" s="516"/>
+      <c r="I60" s="516"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="524" t="s">
+      <c r="A61" s="519" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="524"/>
-      <c r="C61" s="524"/>
-      <c r="D61" s="524"/>
-      <c r="E61" s="524"/>
-      <c r="F61" s="524"/>
-      <c r="G61" s="524"/>
-      <c r="H61" s="524"/>
-      <c r="I61" s="524"/>
+      <c r="B61" s="519"/>
+      <c r="C61" s="519"/>
+      <c r="D61" s="519"/>
+      <c r="E61" s="519"/>
+      <c r="F61" s="519"/>
+      <c r="G61" s="519"/>
+      <c r="H61" s="519"/>
+      <c r="I61" s="519"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="525" t="s">
+      <c r="A62" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="525"/>
-      <c r="C62" s="525"/>
+      <c r="B62" s="517"/>
+      <c r="C62" s="517"/>
       <c r="D62" s="225">
         <v>2019</v>
       </c>
@@ -46202,11 +46204,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="526" t="s">
+      <c r="A63" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="526"/>
-      <c r="C63" s="526"/>
+      <c r="B63" s="518"/>
+      <c r="C63" s="518"/>
       <c r="D63" s="220" t="s">
         <v>386</v>
       </c>
@@ -46224,11 +46226,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="521" t="s">
+      <c r="A64" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="521"/>
-      <c r="C64" s="521"/>
+      <c r="B64" s="513"/>
+      <c r="C64" s="513"/>
       <c r="D64" s="231" t="s">
         <v>382</v>
       </c>
@@ -46244,11 +46246,11 @@
       <c r="H64" s="230"/>
     </row>
     <row r="65" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="521" t="s">
+      <c r="A65" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="521"/>
-      <c r="C65" s="521"/>
+      <c r="B65" s="513"/>
+      <c r="C65" s="513"/>
       <c r="D65" s="231" t="s">
         <v>380</v>
       </c>
@@ -46264,11 +46266,11 @@
       <c r="H65" s="230"/>
     </row>
     <row r="66" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="521" t="s">
+      <c r="A66" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="521"/>
-      <c r="C66" s="521"/>
+      <c r="B66" s="513"/>
+      <c r="C66" s="513"/>
       <c r="D66" s="233">
         <v>822</v>
       </c>
@@ -46284,11 +46286,11 @@
       <c r="H66" s="230"/>
     </row>
     <row r="67" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="521" t="s">
+      <c r="A67" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="521"/>
-      <c r="C67" s="521"/>
+      <c r="B67" s="513"/>
+      <c r="C67" s="513"/>
       <c r="D67" s="231" t="s">
         <v>379</v>
       </c>
@@ -46304,11 +46306,11 @@
       <c r="H67" s="230"/>
     </row>
     <row r="68" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="521" t="s">
+      <c r="A68" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="521"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="513"/>
+      <c r="C68" s="513"/>
       <c r="D68" s="233">
         <v>717</v>
       </c>
@@ -46324,11 +46326,11 @@
       <c r="H68" s="230"/>
     </row>
     <row r="69" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="521" t="s">
+      <c r="A69" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="521"/>
-      <c r="C69" s="521"/>
+      <c r="B69" s="513"/>
+      <c r="C69" s="513"/>
       <c r="D69" s="231" t="s">
         <v>378</v>
       </c>
@@ -46344,11 +46346,11 @@
       <c r="H69" s="230"/>
     </row>
     <row r="70" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="521" t="s">
+      <c r="A70" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="521"/>
-      <c r="C70" s="521"/>
+      <c r="B70" s="513"/>
+      <c r="C70" s="513"/>
       <c r="D70" s="233">
         <v>261</v>
       </c>
@@ -46364,11 +46366,11 @@
       <c r="H70" s="230"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="521" t="s">
+      <c r="A71" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="521"/>
-      <c r="C71" s="521"/>
+      <c r="B71" s="513"/>
+      <c r="C71" s="513"/>
       <c r="D71" s="233">
         <v>83</v>
       </c>
@@ -46384,11 +46386,11 @@
       <c r="H71" s="230"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514" t="s">
+      <c r="A72" s="516" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="514"/>
-      <c r="C72" s="514"/>
+      <c r="B72" s="516"/>
+      <c r="C72" s="516"/>
       <c r="D72" s="231" t="s">
         <v>368</v>
       </c>
@@ -46406,11 +46408,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="521" t="s">
+      <c r="A73" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="521"/>
-      <c r="C73" s="521"/>
+      <c r="B73" s="513"/>
+      <c r="C73" s="513"/>
       <c r="D73" s="231" t="s">
         <v>372</v>
       </c>
@@ -46426,11 +46428,11 @@
       <c r="H73" s="230"/>
     </row>
     <row r="74" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="521" t="s">
+      <c r="A74" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="521"/>
-      <c r="C74" s="521"/>
+      <c r="B74" s="513"/>
+      <c r="C74" s="513"/>
       <c r="D74" s="231" t="s">
         <v>368</v>
       </c>
@@ -46446,11 +46448,11 @@
       <c r="H74" s="230"/>
     </row>
     <row r="75" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="521" t="s">
+      <c r="A75" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B75" s="521"/>
-      <c r="C75" s="521"/>
+      <c r="B75" s="513"/>
+      <c r="C75" s="513"/>
       <c r="D75" s="231" t="s">
         <v>348</v>
       </c>
@@ -46466,11 +46468,11 @@
       <c r="H75" s="230"/>
     </row>
     <row r="76" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="521" t="s">
+      <c r="A76" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="521"/>
-      <c r="C76" s="521"/>
+      <c r="B76" s="513"/>
+      <c r="C76" s="513"/>
       <c r="D76" s="231" t="s">
         <v>362</v>
       </c>
@@ -46486,11 +46488,11 @@
       <c r="H76" s="230"/>
     </row>
     <row r="77" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="521" t="s">
+      <c r="A77" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="521"/>
-      <c r="C77" s="521"/>
+      <c r="B77" s="513"/>
+      <c r="C77" s="513"/>
       <c r="D77" s="231" t="s">
         <v>361</v>
       </c>
@@ -46506,11 +46508,11 @@
       <c r="H77" s="230"/>
     </row>
     <row r="78" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="521" t="s">
+      <c r="A78" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="521"/>
-      <c r="C78" s="521"/>
+      <c r="B78" s="513"/>
+      <c r="C78" s="513"/>
       <c r="D78" s="231" t="s">
         <v>358</v>
       </c>
@@ -46526,11 +46528,11 @@
       <c r="H78" s="230"/>
     </row>
     <row r="79" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="521" t="s">
+      <c r="A79" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="521"/>
-      <c r="C79" s="521"/>
+      <c r="B79" s="513"/>
+      <c r="C79" s="513"/>
       <c r="D79" s="231" t="s">
         <v>354</v>
       </c>
@@ -46546,11 +46548,11 @@
       <c r="H79" s="230"/>
     </row>
     <row r="80" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="522" t="s">
+      <c r="A80" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="522"/>
-      <c r="C80" s="522"/>
+      <c r="B80" s="514"/>
+      <c r="C80" s="514"/>
       <c r="D80" s="229" t="s">
         <v>349</v>
       </c>
@@ -46566,30 +46568,30 @@
       <c r="H80" s="226"/>
     </row>
     <row r="81" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="527" t="s">
+      <c r="A81" s="515" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="514"/>
-      <c r="C81" s="514"/>
-      <c r="D81" s="514"/>
-      <c r="E81" s="514"/>
-      <c r="F81" s="514"/>
-      <c r="G81" s="514"/>
-      <c r="H81" s="514"/>
-      <c r="I81" s="514"/>
+      <c r="B81" s="516"/>
+      <c r="C81" s="516"/>
+      <c r="D81" s="516"/>
+      <c r="E81" s="516"/>
+      <c r="F81" s="516"/>
+      <c r="G81" s="516"/>
+      <c r="H81" s="516"/>
+      <c r="I81" s="516"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="514" t="s">
+      <c r="A82" s="516" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="514"/>
-      <c r="C82" s="514"/>
-      <c r="D82" s="514"/>
-      <c r="E82" s="514"/>
-      <c r="F82" s="514"/>
-      <c r="G82" s="514"/>
-      <c r="H82" s="514"/>
-      <c r="I82" s="514"/>
+      <c r="B82" s="516"/>
+      <c r="C82" s="516"/>
+      <c r="D82" s="516"/>
+      <c r="E82" s="516"/>
+      <c r="F82" s="516"/>
+      <c r="G82" s="516"/>
+      <c r="H82" s="516"/>
+      <c r="I82" s="516"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="216" t="str">
@@ -46610,11 +46612,11 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="525" t="s">
+      <c r="A85" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="525"/>
-      <c r="C85" s="525"/>
+      <c r="B85" s="517"/>
+      <c r="C85" s="517"/>
       <c r="D85" s="225">
         <v>2019</v>
       </c>
@@ -46641,11 +46643,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="526" t="s">
+      <c r="A86" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="526"/>
-      <c r="C86" s="526"/>
+      <c r="B86" s="518"/>
+      <c r="C86" s="518"/>
       <c r="D86" s="220">
         <f>D14*gwpch4+D23*gwpn2o+D32+D41+D50</f>
         <v>66558.41</v>
@@ -46683,11 +46685,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="521" t="s">
+      <c r="A87" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="521"/>
-      <c r="C87" s="521"/>
+      <c r="B87" s="513"/>
+      <c r="C87" s="513"/>
       <c r="D87" s="220">
         <f t="shared" ref="D87:D94" si="14">D15*gwpch4+D24*gwpn2o+D33+D42+D51</f>
         <v>56492.08</v>
@@ -46722,11 +46724,11 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="521" t="s">
+      <c r="A88" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="521"/>
-      <c r="C88" s="521"/>
+      <c r="B88" s="513"/>
+      <c r="C88" s="513"/>
       <c r="D88" s="220">
         <f t="shared" si="14"/>
         <v>5295.9</v>
@@ -46761,11 +46763,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="521" t="s">
+      <c r="A89" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="521"/>
-      <c r="C89" s="521"/>
+      <c r="B89" s="513"/>
+      <c r="C89" s="513"/>
       <c r="D89" s="220">
         <f t="shared" si="14"/>
         <v>822.27</v>
@@ -46800,11 +46802,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="521" t="s">
+      <c r="A90" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="521"/>
-      <c r="C90" s="521"/>
+      <c r="B90" s="513"/>
+      <c r="C90" s="513"/>
       <c r="D90" s="220">
         <f t="shared" si="14"/>
         <v>1221</v>
@@ -46839,11 +46841,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="521" t="s">
+      <c r="A91" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="521"/>
-      <c r="C91" s="521"/>
+      <c r="B91" s="513"/>
+      <c r="C91" s="513"/>
       <c r="D91" s="220">
         <f t="shared" si="14"/>
         <v>718</v>
@@ -46878,11 +46880,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="521" t="s">
+      <c r="A92" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="521"/>
-      <c r="C92" s="521"/>
+      <c r="B92" s="513"/>
+      <c r="C92" s="513"/>
       <c r="D92" s="220">
         <f t="shared" si="14"/>
         <v>1664.88</v>
@@ -46917,11 +46919,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="521" t="s">
+      <c r="A93" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="521"/>
-      <c r="C93" s="521"/>
+      <c r="B93" s="513"/>
+      <c r="C93" s="513"/>
       <c r="D93" s="220">
         <f t="shared" si="14"/>
         <v>261.05</v>
@@ -46956,11 +46958,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="521" t="s">
+      <c r="A94" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="521"/>
-      <c r="C94" s="521"/>
+      <c r="B94" s="513"/>
+      <c r="C94" s="513"/>
       <c r="D94" s="220">
         <f t="shared" si="14"/>
         <v>83.22999999999999</v>
@@ -47044,38 +47046,51 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:I59"/>
@@ -47092,51 +47107,38 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" display="http://www.sasol.com/" xr:uid="{94E57AF8-CF1E-4A4A-992A-3647A9F5048E}"/>

--- a/VT_REGION1_REF.xlsx
+++ b/VT_REGION1_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B2AD8-FF79-48ED-BD19-13BBB5610ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468863CF-A6A6-410D-9954-15744A0F2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -9468,6 +9468,24 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9497,24 +9515,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9552,31 +9552,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9595,6 +9574,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18763,11 +18763,11 @@
   </sheetPr>
   <dimension ref="A1:BH117"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18975,150 +18975,150 @@
         <v>862</v>
       </c>
       <c r="V4" s="450" t="str">
-        <f>"AFA~UP~"&amp;V6</f>
-        <v>AFA~UP~2017</v>
+        <f>"AFA~FX~"&amp;V6</f>
+        <v>AFA~FX~2017</v>
       </c>
       <c r="W4" s="450" t="str">
-        <f t="shared" ref="W4:Z4" si="0">"AFA~UP~"&amp;W6</f>
-        <v>AFA~UP~2018</v>
+        <f t="shared" ref="W4:AC4" si="0">"AFA~FX~"&amp;W6</f>
+        <v>AFA~FX~2018</v>
       </c>
       <c r="X4" s="450" t="str">
         <f t="shared" si="0"/>
-        <v>AFA~UP~2019</v>
+        <v>AFA~FX~2019</v>
       </c>
       <c r="Y4" s="450" t="str">
         <f t="shared" si="0"/>
-        <v>AFA~UP~2020</v>
+        <v>AFA~FX~2020</v>
       </c>
       <c r="Z4" s="450" t="str">
         <f t="shared" si="0"/>
-        <v>AFA~UP~2021</v>
+        <v>AFA~FX~2021</v>
       </c>
       <c r="AA4" s="450" t="str">
-        <f t="shared" ref="AA4:AB4" si="1">"AFA~UP~"&amp;AA6</f>
-        <v>AFA~UP~2022</v>
+        <f t="shared" si="0"/>
+        <v>AFA~FX~2022</v>
       </c>
       <c r="AB4" s="450" t="str">
-        <f t="shared" si="1"/>
-        <v>AFA~UP~2023</v>
+        <f t="shared" si="0"/>
+        <v>AFA~FX~2023</v>
       </c>
       <c r="AC4" s="450" t="str">
-        <f t="shared" ref="AC4" si="2">"AFA~UP~"&amp;AC6</f>
-        <v>AFA~UP~2024</v>
+        <f t="shared" si="0"/>
+        <v>AFA~FX~2024</v>
       </c>
       <c r="AD4" s="451" t="s">
         <v>878</v>
       </c>
       <c r="AE4" s="449" t="str">
-        <f t="shared" ref="AE4:BF4" si="3">$AE$3&amp;"~"&amp;AE6</f>
+        <f t="shared" ref="AE4:BF4" si="1">$AE$3&amp;"~"&amp;AE6</f>
         <v>RESID~2017</v>
       </c>
       <c r="AF4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2018</v>
       </c>
       <c r="AG4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2019</v>
       </c>
       <c r="AH4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2020</v>
       </c>
       <c r="AI4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2021</v>
       </c>
       <c r="AJ4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2022</v>
       </c>
       <c r="AK4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2023</v>
       </c>
       <c r="AL4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2024</v>
       </c>
       <c r="AM4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2025</v>
       </c>
       <c r="AN4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2026</v>
       </c>
       <c r="AO4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2027</v>
       </c>
       <c r="AP4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2028</v>
       </c>
       <c r="AQ4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2029</v>
       </c>
       <c r="AR4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2030</v>
       </c>
       <c r="AS4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2031</v>
       </c>
       <c r="AT4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2032</v>
       </c>
       <c r="AU4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2033</v>
       </c>
       <c r="AV4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2034</v>
       </c>
       <c r="AW4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2035</v>
       </c>
       <c r="AX4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2036</v>
       </c>
       <c r="AY4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2037</v>
       </c>
       <c r="AZ4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2038</v>
       </c>
       <c r="BA4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2039</v>
       </c>
       <c r="BB4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2040</v>
       </c>
       <c r="BC4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2045</v>
       </c>
       <c r="BD4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2050</v>
       </c>
       <c r="BE4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2060</v>
       </c>
       <c r="BF4" s="449" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RESID~2070</v>
       </c>
     </row>
@@ -19337,47 +19337,47 @@
         <v>2029</v>
       </c>
       <c r="AR6" s="459">
-        <f t="shared" ref="AR6:BB6" si="4">AQ6+1</f>
+        <f t="shared" ref="AR6:BB6" si="2">AQ6+1</f>
         <v>2030</v>
       </c>
       <c r="AS6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
       <c r="AT6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
       <c r="AU6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
       <c r="AV6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
       <c r="AW6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="AX6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
       <c r="AY6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="AZ6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="BA6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="BB6" s="459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="BC6" s="459">
@@ -19453,19 +19453,19 @@
         <v>0.76</v>
       </c>
       <c r="Z7" s="435">
-        <f t="shared" ref="Z7:AC7" si="5">Y7</f>
+        <f t="shared" ref="Z7:AC7" si="3">Y7</f>
         <v>0.76</v>
       </c>
       <c r="AA7" s="435">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.76</v>
       </c>
       <c r="AB7" s="435">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.76</v>
       </c>
       <c r="AC7" s="435">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.76</v>
       </c>
       <c r="AD7" s="464">
@@ -19744,7 +19744,7 @@
       <c r="AB11" s="436"/>
       <c r="AC11" s="436"/>
       <c r="AD11" s="435">
-        <f t="shared" ref="AD11:AD16" si="6">AD$7*F$7*H11</f>
+        <f t="shared" ref="AD11:AD16" si="4">AD$7*F$7*H11</f>
         <v>135.2943527381006</v>
       </c>
       <c r="AE11" s="465"/>
@@ -19813,7 +19813,7 @@
       <c r="AB12" s="436"/>
       <c r="AC12" s="436"/>
       <c r="AD12" s="435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>119.014751183922</v>
       </c>
       <c r="AE12" s="465"/>
@@ -19882,7 +19882,7 @@
       <c r="AB13" s="436"/>
       <c r="AC13" s="436"/>
       <c r="AD13" s="435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>98.912487042853513</v>
       </c>
       <c r="AE13" s="465"/>
@@ -19951,7 +19951,7 @@
       <c r="AB14" s="436"/>
       <c r="AC14" s="436"/>
       <c r="AD14" s="435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>41.499520736419207</v>
       </c>
       <c r="AE14" s="465"/>
@@ -20020,7 +20020,7 @@
       <c r="AB15" s="436"/>
       <c r="AC15" s="436"/>
       <c r="AD15" s="435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.0721455959640007</v>
       </c>
       <c r="AE15" s="465"/>
@@ -20089,7 +20089,7 @@
       <c r="AB16" s="436"/>
       <c r="AC16" s="436"/>
       <c r="AD16" s="435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>17.814051090010466</v>
       </c>
       <c r="AE16" s="465"/>
@@ -20231,11 +20231,11 @@
         <v>0.76</v>
       </c>
       <c r="W18" s="435">
-        <f t="shared" ref="W18:X18" si="7">W7</f>
+        <f t="shared" ref="W18:X18" si="5">W7</f>
         <v>0.76</v>
       </c>
       <c r="X18" s="435">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="Y18" s="435">
@@ -20528,7 +20528,7 @@
       <c r="AB22" s="436"/>
       <c r="AC22" s="436"/>
       <c r="AD22" s="435">
-        <f t="shared" ref="AD22:AD27" si="8">AD$18*F$18*H22</f>
+        <f t="shared" ref="AD22:AD27" si="6">AD$18*F$18*H22</f>
         <v>50.96390846852993</v>
       </c>
       <c r="AE22" s="465"/>
@@ -20598,7 +20598,7 @@
       <c r="AB23" s="436"/>
       <c r="AC23" s="436"/>
       <c r="AD23" s="435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>43.372266387120007</v>
       </c>
       <c r="AE23" s="465"/>
@@ -20668,7 +20668,7 @@
       <c r="AB24" s="436"/>
       <c r="AC24" s="436"/>
       <c r="AD24" s="435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>29.179342140453457</v>
       </c>
       <c r="AE24" s="465"/>
@@ -20738,7 +20738,7 @@
       <c r="AB25" s="436"/>
       <c r="AC25" s="436"/>
       <c r="AD25" s="435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>18.093933000670802</v>
       </c>
       <c r="AE25" s="465"/>
@@ -20808,7 +20808,7 @@
       <c r="AB26" s="436"/>
       <c r="AC26" s="436"/>
       <c r="AD26" s="435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.8409817404492801</v>
       </c>
       <c r="AE26" s="465"/>
@@ -20878,7 +20878,7 @@
       <c r="AB27" s="436"/>
       <c r="AC27" s="436"/>
       <c r="AD27" s="435">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.8586058666101857</v>
       </c>
       <c r="AE27" s="465"/>
@@ -21020,11 +21020,11 @@
         <v>0.76</v>
       </c>
       <c r="W29" s="442">
-        <f t="shared" ref="W29:X29" si="9">W18</f>
+        <f t="shared" ref="W29:X29" si="7">W18</f>
         <v>0.76</v>
       </c>
       <c r="X29" s="442">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
       <c r="Y29" s="442">
@@ -21035,7 +21035,7 @@
         <v>0.76</v>
       </c>
       <c r="AA29" s="442">
-        <f t="shared" ref="AA29" si="10">X29</f>
+        <f t="shared" ref="AA29" si="8">X29</f>
         <v>0.76</v>
       </c>
       <c r="AB29" s="442">
@@ -21323,7 +21323,7 @@
       <c r="AB33" s="436"/>
       <c r="AC33" s="436"/>
       <c r="AD33" s="435">
-        <f t="shared" ref="AD33:AD38" si="11">AD$29*F$29*H33</f>
+        <f t="shared" ref="AD33:AD38" si="9">AD$29*F$29*H33</f>
         <v>62.108753503321424</v>
       </c>
       <c r="AE33" s="465"/>
@@ -21393,7 +21393,7 @@
       <c r="AB34" s="436"/>
       <c r="AC34" s="436"/>
       <c r="AD34" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>52.224285451851813</v>
       </c>
       <c r="AE34" s="465"/>
@@ -21463,7 +21463,7 @@
       <c r="AB35" s="436"/>
       <c r="AC35" s="436"/>
       <c r="AD35" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.9751176860345625</v>
       </c>
       <c r="AE35" s="465"/>
@@ -21533,7 +21533,7 @@
       <c r="AB36" s="436"/>
       <c r="AC36" s="436"/>
       <c r="AD36" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>34.464758096160011</v>
       </c>
       <c r="AE36" s="465"/>
@@ -21603,7 +21603,7 @@
       <c r="AB37" s="436"/>
       <c r="AC37" s="436"/>
       <c r="AD37" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.42767644284377521</v>
       </c>
       <c r="AE37" s="465"/>
@@ -21673,7 +21673,7 @@
       <c r="AB38" s="436"/>
       <c r="AC38" s="436"/>
       <c r="AD38" s="435">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.0408502943351339</v>
       </c>
       <c r="AE38" s="465"/>
@@ -22025,7 +22025,7 @@
       <c r="AB43" s="436"/>
       <c r="AC43" s="436"/>
       <c r="AD43" s="435">
-        <f t="shared" ref="AD43:AD48" si="12">AD$40*F$40*H43</f>
+        <f t="shared" ref="AD43:AD48" si="10">AD$40*F$40*H43</f>
         <v>1.0986365425199789</v>
       </c>
       <c r="AE43" s="465"/>
@@ -22093,7 +22093,7 @@
       <c r="AB44" s="436"/>
       <c r="AC44" s="436"/>
       <c r="AD44" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.6479548137799682</v>
       </c>
       <c r="AE44" s="465"/>
@@ -22161,7 +22161,7 @@
       <c r="AB45" s="436"/>
       <c r="AC45" s="436"/>
       <c r="AD45" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14.55693418838972</v>
       </c>
       <c r="AE45" s="465"/>
@@ -22229,7 +22229,7 @@
       <c r="AB46" s="436"/>
       <c r="AC46" s="436"/>
       <c r="AD46" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.0212504919299419</v>
       </c>
       <c r="AE46" s="465"/>
@@ -22297,7 +22297,7 @@
       <c r="AB47" s="436"/>
       <c r="AC47" s="436"/>
       <c r="AD47" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.1972730850399578</v>
       </c>
       <c r="AE47" s="465"/>
@@ -22365,7 +22365,7 @@
       <c r="AB48" s="436"/>
       <c r="AC48" s="436"/>
       <c r="AD48" s="435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.9438644413399047</v>
       </c>
       <c r="AE48" s="465"/>
@@ -24220,7 +24220,7 @@
       <c r="AB75" s="436"/>
       <c r="AC75" s="436"/>
       <c r="AD75" s="435">
-        <f t="shared" ref="AD75:AD80" si="13">AD$70*F$70*H75</f>
+        <f t="shared" ref="AD75:AD80" si="11">AD$70*F$70*H75</f>
         <v>53.084026088903464</v>
       </c>
       <c r="AE75" s="465"/>
@@ -24290,7 +24290,7 @@
       <c r="AB76" s="436"/>
       <c r="AC76" s="436"/>
       <c r="AD76" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>120.52809004075719</v>
       </c>
       <c r="AE76" s="465"/>
@@ -24360,7 +24360,7 @@
       <c r="AB77" s="436"/>
       <c r="AC77" s="436"/>
       <c r="AD77" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.9468278391547447</v>
       </c>
       <c r="AE77" s="465"/>
@@ -24430,7 +24430,7 @@
       <c r="AB78" s="436"/>
       <c r="AC78" s="436"/>
       <c r="AD78" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.6672857142857165</v>
       </c>
       <c r="AE78" s="465"/>
@@ -24500,7 +24500,7 @@
       <c r="AB79" s="436"/>
       <c r="AC79" s="436"/>
       <c r="AD79" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.0670273988922867</v>
       </c>
       <c r="AE79" s="465"/>
@@ -24570,7 +24570,7 @@
       <c r="AB80" s="436"/>
       <c r="AC80" s="436"/>
       <c r="AD80" s="435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20.5262472791314</v>
       </c>
       <c r="AE80" s="465"/>
@@ -26487,7 +26487,7 @@
         <v>499</v>
       </c>
       <c r="AD112" s="117">
-        <f t="shared" ref="AD112:AD117" si="14">SUMIF($E$7:$E$107,E112,$AD$7:$AD$107)</f>
+        <f t="shared" ref="AD112:AD117" si="12">SUMIF($E$7:$E$107,E112,$AD$7:$AD$107)</f>
         <v>303.09899561263535</v>
       </c>
     </row>
@@ -26496,7 +26496,7 @@
         <v>497</v>
       </c>
       <c r="AD113" s="117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>349.69632725204076</v>
       </c>
     </row>
@@ -26505,7 +26505,7 @@
         <v>491</v>
       </c>
       <c r="AD114" s="117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>135.16558341186152</v>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
         <v>490</v>
       </c>
       <c r="AD115" s="117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>106.74674803946569</v>
       </c>
     </row>
@@ -26523,7 +26523,7 @@
         <v>487</v>
       </c>
       <c r="AD116" s="117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>16.6051042631893</v>
       </c>
     </row>
@@ -26532,7 +26532,7 @@
         <v>485</v>
       </c>
       <c r="AD117" s="117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>52.183618971427094</v>
       </c>
     </row>
@@ -26550,7 +26550,7 @@
   </sheetPr>
   <dimension ref="A1:AH286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+    <sheetView topLeftCell="A237" workbookViewId="0">
       <selection activeCell="N267" sqref="N267"/>
     </sheetView>
   </sheetViews>
@@ -34453,26 +34453,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="496" t="s">
+      <c r="C2" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="498" t="s">
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="488" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="499"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="498" t="s">
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="488" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="500"/>
-      <c r="L2" s="498" t="s">
+      <c r="J2" s="489"/>
+      <c r="K2" s="490"/>
+      <c r="L2" s="488" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="499"/>
-      <c r="N2" s="500"/>
+      <c r="M2" s="489"/>
+      <c r="N2" s="490"/>
       <c r="O2" s="97"/>
       <c r="P2" s="13"/>
       <c r="AA2" s="96" t="s">
@@ -34745,10 +34745,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="485" t="s">
+      <c r="A9" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="486"/>
+      <c r="B9" s="492"/>
       <c r="C9" s="49"/>
       <c r="D9" s="44">
         <f>D5/$O$5</f>
@@ -34773,49 +34773,49 @@
       <c r="O9" s="7">
         <v>788</v>
       </c>
-      <c r="Q9" s="491" t="s">
+      <c r="Q9" s="497" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="493" t="s">
+      <c r="S9" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="489" t="s">
+      <c r="V9" s="495" t="s">
         <v>881</v>
       </c>
-      <c r="W9" s="489" t="s">
+      <c r="W9" s="495" t="s">
         <v>882</v>
       </c>
-      <c r="X9" s="489" t="s">
+      <c r="X9" s="495" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="489" t="s">
+      <c r="Y9" s="495" t="s">
         <v>883</v>
       </c>
-      <c r="Z9" s="489" t="s">
+      <c r="Z9" s="495" t="s">
         <v>884</v>
       </c>
-      <c r="AA9" s="489" t="s">
+      <c r="AA9" s="495" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="489" t="s">
+      <c r="AB9" s="495" t="s">
         <v>885</v>
       </c>
-      <c r="AC9" s="489" t="s">
+      <c r="AC9" s="495" t="s">
         <v>886</v>
       </c>
-      <c r="AD9" s="489" t="s">
+      <c r="AD9" s="495" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="489" t="s">
+      <c r="AE9" s="495" t="s">
         <v>887</v>
       </c>
-      <c r="AF9" s="489" t="s">
+      <c r="AF9" s="495" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="487"/>
-      <c r="B10" s="488"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9">
         <f>D9*788</f>
@@ -34841,25 +34841,25 @@
         <f>O9-G10</f>
         <v>422.2729198252656</v>
       </c>
-      <c r="Q10" s="492"/>
+      <c r="Q10" s="498"/>
       <c r="R10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="494"/>
+      <c r="S10" s="500"/>
       <c r="U10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="490"/>
-      <c r="W10" s="490"/>
-      <c r="X10" s="490"/>
-      <c r="Y10" s="490"/>
-      <c r="Z10" s="490"/>
-      <c r="AA10" s="490"/>
-      <c r="AB10" s="490"/>
-      <c r="AC10" s="490"/>
-      <c r="AD10" s="490"/>
-      <c r="AE10" s="490"/>
-      <c r="AF10" s="490"/>
+      <c r="V10" s="496"/>
+      <c r="W10" s="496"/>
+      <c r="X10" s="496"/>
+      <c r="Y10" s="496"/>
+      <c r="Z10" s="496"/>
+      <c r="AA10" s="496"/>
+      <c r="AB10" s="496"/>
+      <c r="AC10" s="496"/>
+      <c r="AD10" s="496"/>
+      <c r="AE10" s="496"/>
+      <c r="AF10" s="496"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -37351,11 +37351,11 @@
       <c r="J62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="495" t="s">
+      <c r="K62" s="485" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="495"/>
-      <c r="M62" s="495"/>
+      <c r="L62" s="485"/>
+      <c r="M62" s="485"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="3:22" ht="15" x14ac:dyDescent="0.25">
@@ -37613,11 +37613,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AC9:AC10"/>
@@ -37632,6 +37627,11 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40300,7 +40300,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="509"/>
-      <c r="H2" s="500"/>
+      <c r="H2" s="490"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -40542,7 +40542,7 @@
       <c r="G14" s="88"/>
       <c r="H14" s="154"/>
       <c r="I14" s="153"/>
-      <c r="J14" s="494"/>
+      <c r="J14" s="500"/>
       <c r="K14" s="152" t="s">
         <v>79</v>
       </c>
@@ -44430,27 +44430,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="513" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
+      <c r="B1" s="514"/>
+      <c r="C1" s="514"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
       <c r="J1" s="216" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="515" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
       <c r="D2" s="259">
         <v>2019</v>
       </c>
@@ -44487,16 +44487,16 @@
       <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="523" t="s">
+      <c r="A3" s="516" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="523"/>
+      <c r="B3" s="516"/>
       <c r="C3" s="254"/>
       <c r="D3" s="255"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="G3" s="253"/>
-      <c r="H3" s="524" t="s">
+      <c r="H3" s="517" t="s">
         <v>373</v>
       </c>
       <c r="Q3"/>
@@ -44506,10 +44506,10 @@
       <c r="U3" s="252"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="527" t="s">
+      <c r="A4" s="520" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="527"/>
+      <c r="B4" s="520"/>
       <c r="C4" s="241">
         <v>1</v>
       </c>
@@ -44525,7 +44525,7 @@
       <c r="G4" s="221">
         <v>18806</v>
       </c>
-      <c r="H4" s="525"/>
+      <c r="H4" s="518"/>
       <c r="J4" s="216">
         <f>D4/F4</f>
         <v>0.99859246427024684</v>
@@ -44543,10 +44543,10 @@
       <c r="T4" s="252"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="513" t="s">
+      <c r="A5" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="513"/>
+      <c r="B5" s="521"/>
       <c r="C5" s="239"/>
       <c r="D5" s="231">
         <v>6736</v>
@@ -44560,13 +44560,13 @@
       <c r="G5" s="221">
         <v>7019</v>
       </c>
-      <c r="H5" s="525"/>
+      <c r="H5" s="518"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="513" t="s">
+      <c r="A6" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="513"/>
+      <c r="B6" s="521"/>
       <c r="C6" s="239"/>
       <c r="D6" s="231">
         <v>1467</v>
@@ -44580,13 +44580,13 @@
       <c r="G6" s="221">
         <v>1461</v>
       </c>
-      <c r="H6" s="525"/>
+      <c r="H6" s="518"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="513" t="s">
+      <c r="A7" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="513"/>
+      <c r="B7" s="521"/>
       <c r="C7" s="239"/>
       <c r="D7" s="231">
         <v>3209</v>
@@ -44600,13 +44600,13 @@
       <c r="G7" s="221">
         <v>3331</v>
       </c>
-      <c r="H7" s="525"/>
+      <c r="H7" s="518"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="513" t="s">
+      <c r="A8" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="513"/>
+      <c r="B8" s="521"/>
       <c r="C8" s="239"/>
       <c r="D8" s="231">
         <v>4271</v>
@@ -44620,13 +44620,13 @@
       <c r="G8" s="221">
         <v>4067</v>
       </c>
-      <c r="H8" s="525"/>
+      <c r="H8" s="518"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="513" t="s">
+      <c r="A9" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="513"/>
+      <c r="B9" s="521"/>
       <c r="C9" s="239"/>
       <c r="D9" s="231">
         <v>1277</v>
@@ -44640,13 +44640,13 @@
       <c r="G9" s="221">
         <v>1309</v>
       </c>
-      <c r="H9" s="525"/>
+      <c r="H9" s="518"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="513" t="s">
+      <c r="A10" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="513"/>
+      <c r="B10" s="521"/>
       <c r="C10" s="239"/>
       <c r="D10" s="233">
         <v>688</v>
@@ -44660,13 +44660,13 @@
       <c r="G10" s="218">
         <v>793</v>
       </c>
-      <c r="H10" s="525"/>
+      <c r="H10" s="518"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="513"/>
+      <c r="B11" s="521"/>
       <c r="C11" s="239"/>
       <c r="D11" s="233">
         <v>53</v>
@@ -44680,14 +44680,14 @@
       <c r="G11" s="218">
         <v>62</v>
       </c>
-      <c r="H11" s="525"/>
+      <c r="H11" s="518"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
+      <c r="A12" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="514"/>
-      <c r="C12" s="514"/>
+      <c r="B12" s="522"/>
+      <c r="C12" s="522"/>
       <c r="D12" s="251">
         <v>745</v>
       </c>
@@ -44700,14 +44700,14 @@
       <c r="G12" s="249">
         <v>763</v>
       </c>
-      <c r="H12" s="526"/>
+      <c r="H12" s="519"/>
       <c r="V12" s="243"/>
     </row>
     <row r="13" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="520" t="s">
+      <c r="A13" s="523" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="520"/>
+      <c r="B13" s="523"/>
       <c r="C13" s="248">
         <v>2</v>
       </c>
@@ -44719,10 +44719,10 @@
       <c r="V13" s="243"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="516" t="s">
+      <c r="A14" s="514" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="516"/>
+      <c r="B14" s="514"/>
       <c r="C14" s="239"/>
       <c r="D14" s="231">
         <v>105.04</v>
@@ -44757,10 +44757,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="513" t="s">
+      <c r="A15" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="513"/>
+      <c r="B15" s="521"/>
       <c r="C15" s="239"/>
       <c r="D15" s="231">
         <v>96.16</v>
@@ -44793,10 +44793,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="513" t="s">
+      <c r="A16" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="513"/>
+      <c r="B16" s="521"/>
       <c r="C16" s="239"/>
       <c r="D16" s="231">
         <v>5.34</v>
@@ -44829,10 +44829,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="513" t="s">
+      <c r="A17" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B17" s="513"/>
+      <c r="B17" s="521"/>
       <c r="C17" s="239"/>
       <c r="D17" s="231">
         <v>3.49</v>
@@ -44865,10 +44865,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="513" t="s">
+      <c r="A18" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="513"/>
+      <c r="B18" s="521"/>
       <c r="C18" s="239"/>
       <c r="D18" s="242">
         <v>0</v>
@@ -44901,10 +44901,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="513" t="s">
+      <c r="A19" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="513"/>
+      <c r="B19" s="521"/>
       <c r="C19" s="239"/>
       <c r="D19" s="231">
         <v>0</v>
@@ -44937,10 +44937,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="513" t="s">
+      <c r="A20" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="513"/>
+      <c r="B20" s="521"/>
       <c r="C20" s="239"/>
       <c r="D20" s="231">
         <v>0.04</v>
@@ -44973,10 +44973,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="513" t="s">
+      <c r="A21" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="513"/>
+      <c r="B21" s="521"/>
       <c r="C21" s="239"/>
       <c r="D21" s="231">
         <v>0</v>
@@ -45009,11 +45009,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="513" t="s">
+      <c r="A22" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="513"/>
-      <c r="C22" s="513"/>
+      <c r="B22" s="521"/>
+      <c r="C22" s="521"/>
       <c r="D22" s="231">
         <v>0.01</v>
       </c>
@@ -45045,10 +45045,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="516" t="s">
+      <c r="A23" s="514" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="516"/>
+      <c r="B23" s="514"/>
       <c r="C23" s="239"/>
       <c r="D23" s="231">
         <v>1.64</v>
@@ -45083,10 +45083,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="513" t="s">
+      <c r="A24" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="513"/>
+      <c r="B24" s="521"/>
       <c r="C24" s="239"/>
       <c r="D24" s="231">
         <v>0.9</v>
@@ -45119,10 +45119,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="513" t="s">
+      <c r="A25" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="513"/>
+      <c r="B25" s="521"/>
       <c r="C25" s="239"/>
       <c r="D25" s="231">
         <v>0.73</v>
@@ -45155,10 +45155,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="513" t="s">
+      <c r="A26" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="513"/>
+      <c r="B26" s="521"/>
       <c r="C26" s="239"/>
       <c r="D26" s="231">
         <v>0</v>
@@ -45191,10 +45191,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="513" t="s">
+      <c r="A27" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="513"/>
+      <c r="B27" s="521"/>
       <c r="C27" s="239"/>
       <c r="D27" s="231">
         <v>0</v>
@@ -45227,10 +45227,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="513" t="s">
+      <c r="A28" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="513"/>
+      <c r="B28" s="521"/>
       <c r="C28" s="239"/>
       <c r="D28" s="231">
         <v>0</v>
@@ -45263,10 +45263,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="513" t="s">
+      <c r="A29" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="513"/>
+      <c r="B29" s="521"/>
       <c r="C29" s="239"/>
       <c r="D29" s="231">
         <v>0.01</v>
@@ -45299,10 +45299,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="513" t="s">
+      <c r="A30" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="513"/>
+      <c r="B30" s="521"/>
       <c r="C30" s="239"/>
       <c r="D30" s="231">
         <v>0</v>
@@ -45335,11 +45335,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="513" t="s">
+      <c r="A31" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="513"/>
-      <c r="C31" s="513"/>
+      <c r="B31" s="521"/>
+      <c r="C31" s="521"/>
       <c r="D31" s="231">
         <v>0</v>
       </c>
@@ -45371,10 +45371,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="516" t="s">
+      <c r="A32" s="514" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="516"/>
+      <c r="B32" s="514"/>
       <c r="C32" s="239"/>
       <c r="D32" s="231">
         <v>56004</v>
@@ -45409,10 +45409,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="513" t="s">
+      <c r="A33" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="513"/>
+      <c r="B33" s="521"/>
       <c r="C33" s="239"/>
       <c r="D33" s="231">
         <v>48418</v>
@@ -45451,10 +45451,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="513" t="s">
+      <c r="A34" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="513"/>
+      <c r="B34" s="521"/>
       <c r="C34" s="239"/>
       <c r="D34" s="231">
         <v>4557</v>
@@ -45487,10 +45487,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="513" t="s">
+      <c r="A35" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="513"/>
+      <c r="B35" s="521"/>
       <c r="C35" s="239"/>
       <c r="D35" s="233">
         <v>16</v>
@@ -45523,10 +45523,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="513" t="s">
+      <c r="A36" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="513"/>
+      <c r="B36" s="521"/>
       <c r="C36" s="239"/>
       <c r="D36" s="233">
         <v>932</v>
@@ -45559,10 +45559,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="513" t="s">
+      <c r="A37" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="513"/>
+      <c r="B37" s="521"/>
       <c r="C37" s="239"/>
       <c r="D37" s="233">
         <v>610</v>
@@ -45595,10 +45595,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="513" t="s">
+      <c r="A38" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="513"/>
+      <c r="B38" s="521"/>
       <c r="C38" s="239"/>
       <c r="D38" s="231">
         <v>1163</v>
@@ -45631,10 +45631,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="513" t="s">
+      <c r="A39" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="513"/>
+      <c r="B39" s="521"/>
       <c r="C39" s="239"/>
       <c r="D39" s="233">
         <v>261</v>
@@ -45667,11 +45667,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="513" t="s">
+      <c r="A40" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="513"/>
-      <c r="C40" s="513"/>
+      <c r="B40" s="521"/>
+      <c r="C40" s="521"/>
       <c r="D40" s="233">
         <v>47</v>
       </c>
@@ -45703,10 +45703,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="516" t="s">
+      <c r="A41" s="514" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="516"/>
+      <c r="B41" s="514"/>
       <c r="C41" s="241">
         <v>3</v>
       </c>
@@ -45727,10 +45727,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="513" t="s">
+      <c r="A42" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="513"/>
+      <c r="B42" s="521"/>
       <c r="C42" s="239"/>
       <c r="D42" s="231">
         <v>5596</v>
@@ -45766,10 +45766,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="513" t="s">
+      <c r="A43" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="513"/>
+      <c r="B43" s="521"/>
       <c r="C43" s="239"/>
       <c r="D43" s="233">
         <v>400</v>
@@ -45805,10 +45805,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="513" t="s">
+      <c r="A44" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="513"/>
+      <c r="B44" s="521"/>
       <c r="C44" s="239"/>
       <c r="D44" s="233">
         <v>726</v>
@@ -45844,10 +45844,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="513" t="s">
+      <c r="A45" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="513"/>
+      <c r="B45" s="521"/>
       <c r="C45" s="239"/>
       <c r="D45" s="233">
         <v>289</v>
@@ -45883,10 +45883,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="513" t="s">
+      <c r="A46" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="513"/>
+      <c r="B46" s="521"/>
       <c r="C46" s="239"/>
       <c r="D46" s="233">
         <v>108</v>
@@ -45903,10 +45903,10 @@
       <c r="H46" s="230"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="513" t="s">
+      <c r="A47" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="513"/>
+      <c r="B47" s="521"/>
       <c r="C47" s="239"/>
       <c r="D47" s="233">
         <v>498</v>
@@ -45923,10 +45923,10 @@
       <c r="H47" s="230"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="513" t="s">
+      <c r="A48" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="513"/>
+      <c r="B48" s="521"/>
       <c r="C48" s="239"/>
       <c r="D48" s="231">
         <v>0</v>
@@ -45943,11 +45943,11 @@
       <c r="H48" s="230"/>
     </row>
     <row r="49" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="513" t="s">
+      <c r="A49" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="513"/>
-      <c r="C49" s="513"/>
+      <c r="B49" s="521"/>
+      <c r="C49" s="521"/>
       <c r="D49" s="233">
         <v>36</v>
       </c>
@@ -45963,10 +45963,10 @@
       <c r="H49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="516" t="s">
+      <c r="A50" s="514" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="516"/>
+      <c r="B50" s="514"/>
       <c r="C50" s="241">
         <v>4</v>
       </c>
@@ -45987,10 +45987,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="513" t="s">
+      <c r="A51" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="513"/>
+      <c r="B51" s="521"/>
       <c r="C51" s="239"/>
       <c r="D51" s="231">
         <v>0</v>
@@ -46007,10 +46007,10 @@
       <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="513" t="s">
+      <c r="A52" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="513"/>
+      <c r="B52" s="521"/>
       <c r="C52" s="239"/>
       <c r="D52" s="231">
         <v>0</v>
@@ -46027,10 +46027,10 @@
       <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="513" t="s">
+      <c r="A53" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="513"/>
+      <c r="B53" s="521"/>
       <c r="C53" s="239"/>
       <c r="D53" s="231">
         <v>0</v>
@@ -46047,10 +46047,10 @@
       <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="513" t="s">
+      <c r="A54" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B54" s="513"/>
+      <c r="B54" s="521"/>
       <c r="C54" s="239"/>
       <c r="D54" s="231">
         <v>0</v>
@@ -46067,10 +46067,10 @@
       <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="513" t="s">
+      <c r="A55" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="513"/>
+      <c r="B55" s="521"/>
       <c r="C55" s="239"/>
       <c r="D55" s="231">
         <v>0</v>
@@ -46087,10 +46087,10 @@
       <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="513" t="s">
+      <c r="A56" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="513"/>
+      <c r="B56" s="521"/>
       <c r="C56" s="239"/>
       <c r="D56" s="231">
         <v>0</v>
@@ -46107,10 +46107,10 @@
       <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="513" t="s">
+      <c r="A57" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="513"/>
+      <c r="B57" s="521"/>
       <c r="C57" s="239"/>
       <c r="D57" s="231">
         <v>0.05</v>
@@ -46127,11 +46127,11 @@
       <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="514" t="s">
+      <c r="A58" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="514"/>
-      <c r="C58" s="514"/>
+      <c r="B58" s="522"/>
+      <c r="C58" s="522"/>
       <c r="D58" s="229">
         <v>0</v>
       </c>
@@ -46147,46 +46147,46 @@
       <c r="H58" s="238"/>
     </row>
     <row r="59" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="516"/>
-      <c r="B59" s="516"/>
-      <c r="C59" s="516"/>
-      <c r="D59" s="516"/>
-      <c r="E59" s="516"/>
-      <c r="F59" s="516"/>
-      <c r="G59" s="516"/>
-      <c r="H59" s="516"/>
-      <c r="I59" s="516"/>
+      <c r="A59" s="514"/>
+      <c r="B59" s="514"/>
+      <c r="C59" s="514"/>
+      <c r="D59" s="514"/>
+      <c r="E59" s="514"/>
+      <c r="F59" s="514"/>
+      <c r="G59" s="514"/>
+      <c r="H59" s="514"/>
+      <c r="I59" s="514"/>
     </row>
     <row r="60" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="516"/>
-      <c r="B60" s="516"/>
-      <c r="C60" s="516"/>
-      <c r="D60" s="516"/>
-      <c r="E60" s="516"/>
-      <c r="F60" s="516"/>
-      <c r="G60" s="516"/>
-      <c r="H60" s="516"/>
-      <c r="I60" s="516"/>
+      <c r="A60" s="514"/>
+      <c r="B60" s="514"/>
+      <c r="C60" s="514"/>
+      <c r="D60" s="514"/>
+      <c r="E60" s="514"/>
+      <c r="F60" s="514"/>
+      <c r="G60" s="514"/>
+      <c r="H60" s="514"/>
+      <c r="I60" s="514"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="519" t="s">
+      <c r="A61" s="524" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="519"/>
-      <c r="C61" s="519"/>
-      <c r="D61" s="519"/>
-      <c r="E61" s="519"/>
-      <c r="F61" s="519"/>
-      <c r="G61" s="519"/>
-      <c r="H61" s="519"/>
-      <c r="I61" s="519"/>
+      <c r="B61" s="524"/>
+      <c r="C61" s="524"/>
+      <c r="D61" s="524"/>
+      <c r="E61" s="524"/>
+      <c r="F61" s="524"/>
+      <c r="G61" s="524"/>
+      <c r="H61" s="524"/>
+      <c r="I61" s="524"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="517" t="s">
+      <c r="A62" s="525" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="517"/>
-      <c r="C62" s="517"/>
+      <c r="B62" s="525"/>
+      <c r="C62" s="525"/>
       <c r="D62" s="225">
         <v>2019</v>
       </c>
@@ -46204,11 +46204,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="518" t="s">
+      <c r="A63" s="526" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="518"/>
-      <c r="C63" s="518"/>
+      <c r="B63" s="526"/>
+      <c r="C63" s="526"/>
       <c r="D63" s="220" t="s">
         <v>386</v>
       </c>
@@ -46226,11 +46226,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="513" t="s">
+      <c r="A64" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="513"/>
-      <c r="C64" s="513"/>
+      <c r="B64" s="521"/>
+      <c r="C64" s="521"/>
       <c r="D64" s="231" t="s">
         <v>382</v>
       </c>
@@ -46246,11 +46246,11 @@
       <c r="H64" s="230"/>
     </row>
     <row r="65" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="513" t="s">
+      <c r="A65" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="513"/>
-      <c r="C65" s="513"/>
+      <c r="B65" s="521"/>
+      <c r="C65" s="521"/>
       <c r="D65" s="231" t="s">
         <v>380</v>
       </c>
@@ -46266,11 +46266,11 @@
       <c r="H65" s="230"/>
     </row>
     <row r="66" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="513" t="s">
+      <c r="A66" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="513"/>
-      <c r="C66" s="513"/>
+      <c r="B66" s="521"/>
+      <c r="C66" s="521"/>
       <c r="D66" s="233">
         <v>822</v>
       </c>
@@ -46286,11 +46286,11 @@
       <c r="H66" s="230"/>
     </row>
     <row r="67" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="513" t="s">
+      <c r="A67" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="513"/>
-      <c r="C67" s="513"/>
+      <c r="B67" s="521"/>
+      <c r="C67" s="521"/>
       <c r="D67" s="231" t="s">
         <v>379</v>
       </c>
@@ -46306,11 +46306,11 @@
       <c r="H67" s="230"/>
     </row>
     <row r="68" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="513" t="s">
+      <c r="A68" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="513"/>
-      <c r="C68" s="513"/>
+      <c r="B68" s="521"/>
+      <c r="C68" s="521"/>
       <c r="D68" s="233">
         <v>717</v>
       </c>
@@ -46326,11 +46326,11 @@
       <c r="H68" s="230"/>
     </row>
     <row r="69" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="513" t="s">
+      <c r="A69" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="513"/>
-      <c r="C69" s="513"/>
+      <c r="B69" s="521"/>
+      <c r="C69" s="521"/>
       <c r="D69" s="231" t="s">
         <v>378</v>
       </c>
@@ -46346,11 +46346,11 @@
       <c r="H69" s="230"/>
     </row>
     <row r="70" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="513" t="s">
+      <c r="A70" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="513"/>
-      <c r="C70" s="513"/>
+      <c r="B70" s="521"/>
+      <c r="C70" s="521"/>
       <c r="D70" s="233">
         <v>261</v>
       </c>
@@ -46366,11 +46366,11 @@
       <c r="H70" s="230"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="513" t="s">
+      <c r="A71" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="513"/>
-      <c r="C71" s="513"/>
+      <c r="B71" s="521"/>
+      <c r="C71" s="521"/>
       <c r="D71" s="233">
         <v>83</v>
       </c>
@@ -46386,11 +46386,11 @@
       <c r="H71" s="230"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="516" t="s">
+      <c r="A72" s="514" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="516"/>
-      <c r="C72" s="516"/>
+      <c r="B72" s="514"/>
+      <c r="C72" s="514"/>
       <c r="D72" s="231" t="s">
         <v>368</v>
       </c>
@@ -46408,11 +46408,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="513" t="s">
+      <c r="A73" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="513"/>
-      <c r="C73" s="513"/>
+      <c r="B73" s="521"/>
+      <c r="C73" s="521"/>
       <c r="D73" s="231" t="s">
         <v>372</v>
       </c>
@@ -46428,11 +46428,11 @@
       <c r="H73" s="230"/>
     </row>
     <row r="74" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="513" t="s">
+      <c r="A74" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="513"/>
-      <c r="C74" s="513"/>
+      <c r="B74" s="521"/>
+      <c r="C74" s="521"/>
       <c r="D74" s="231" t="s">
         <v>368</v>
       </c>
@@ -46448,11 +46448,11 @@
       <c r="H74" s="230"/>
     </row>
     <row r="75" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="513" t="s">
+      <c r="A75" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B75" s="513"/>
-      <c r="C75" s="513"/>
+      <c r="B75" s="521"/>
+      <c r="C75" s="521"/>
       <c r="D75" s="231" t="s">
         <v>348</v>
       </c>
@@ -46468,11 +46468,11 @@
       <c r="H75" s="230"/>
     </row>
     <row r="76" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="513" t="s">
+      <c r="A76" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="513"/>
-      <c r="C76" s="513"/>
+      <c r="B76" s="521"/>
+      <c r="C76" s="521"/>
       <c r="D76" s="231" t="s">
         <v>362</v>
       </c>
@@ -46488,11 +46488,11 @@
       <c r="H76" s="230"/>
     </row>
     <row r="77" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="513" t="s">
+      <c r="A77" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="513"/>
-      <c r="C77" s="513"/>
+      <c r="B77" s="521"/>
+      <c r="C77" s="521"/>
       <c r="D77" s="231" t="s">
         <v>361</v>
       </c>
@@ -46508,11 +46508,11 @@
       <c r="H77" s="230"/>
     </row>
     <row r="78" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="513" t="s">
+      <c r="A78" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="513"/>
-      <c r="C78" s="513"/>
+      <c r="B78" s="521"/>
+      <c r="C78" s="521"/>
       <c r="D78" s="231" t="s">
         <v>358</v>
       </c>
@@ -46528,11 +46528,11 @@
       <c r="H78" s="230"/>
     </row>
     <row r="79" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="513" t="s">
+      <c r="A79" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="513"/>
-      <c r="C79" s="513"/>
+      <c r="B79" s="521"/>
+      <c r="C79" s="521"/>
       <c r="D79" s="231" t="s">
         <v>354</v>
       </c>
@@ -46548,11 +46548,11 @@
       <c r="H79" s="230"/>
     </row>
     <row r="80" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="514" t="s">
+      <c r="A80" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="514"/>
-      <c r="C80" s="514"/>
+      <c r="B80" s="522"/>
+      <c r="C80" s="522"/>
       <c r="D80" s="229" t="s">
         <v>349</v>
       </c>
@@ -46568,30 +46568,30 @@
       <c r="H80" s="226"/>
     </row>
     <row r="81" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="515" t="s">
+      <c r="A81" s="527" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="516"/>
-      <c r="C81" s="516"/>
-      <c r="D81" s="516"/>
-      <c r="E81" s="516"/>
-      <c r="F81" s="516"/>
-      <c r="G81" s="516"/>
-      <c r="H81" s="516"/>
-      <c r="I81" s="516"/>
+      <c r="B81" s="514"/>
+      <c r="C81" s="514"/>
+      <c r="D81" s="514"/>
+      <c r="E81" s="514"/>
+      <c r="F81" s="514"/>
+      <c r="G81" s="514"/>
+      <c r="H81" s="514"/>
+      <c r="I81" s="514"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="516" t="s">
+      <c r="A82" s="514" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="516"/>
-      <c r="C82" s="516"/>
-      <c r="D82" s="516"/>
-      <c r="E82" s="516"/>
-      <c r="F82" s="516"/>
-      <c r="G82" s="516"/>
-      <c r="H82" s="516"/>
-      <c r="I82" s="516"/>
+      <c r="B82" s="514"/>
+      <c r="C82" s="514"/>
+      <c r="D82" s="514"/>
+      <c r="E82" s="514"/>
+      <c r="F82" s="514"/>
+      <c r="G82" s="514"/>
+      <c r="H82" s="514"/>
+      <c r="I82" s="514"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="216" t="str">
@@ -46612,11 +46612,11 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="517" t="s">
+      <c r="A85" s="525" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="517"/>
-      <c r="C85" s="517"/>
+      <c r="B85" s="525"/>
+      <c r="C85" s="525"/>
       <c r="D85" s="225">
         <v>2019</v>
       </c>
@@ -46643,11 +46643,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="518" t="s">
+      <c r="A86" s="526" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="518"/>
-      <c r="C86" s="518"/>
+      <c r="B86" s="526"/>
+      <c r="C86" s="526"/>
       <c r="D86" s="220">
         <f>D14*gwpch4+D23*gwpn2o+D32+D41+D50</f>
         <v>66558.41</v>
@@ -46685,11 +46685,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="513" t="s">
+      <c r="A87" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="513"/>
-      <c r="C87" s="513"/>
+      <c r="B87" s="521"/>
+      <c r="C87" s="521"/>
       <c r="D87" s="220">
         <f t="shared" ref="D87:D94" si="14">D15*gwpch4+D24*gwpn2o+D33+D42+D51</f>
         <v>56492.08</v>
@@ -46724,11 +46724,11 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="513" t="s">
+      <c r="A88" s="521" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="513"/>
-      <c r="C88" s="513"/>
+      <c r="B88" s="521"/>
+      <c r="C88" s="521"/>
       <c r="D88" s="220">
         <f t="shared" si="14"/>
         <v>5295.9</v>
@@ -46763,11 +46763,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="513" t="s">
+      <c r="A89" s="521" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="513"/>
-      <c r="C89" s="513"/>
+      <c r="B89" s="521"/>
+      <c r="C89" s="521"/>
       <c r="D89" s="220">
         <f t="shared" si="14"/>
         <v>822.27</v>
@@ -46802,11 +46802,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="513" t="s">
+      <c r="A90" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="513"/>
-      <c r="C90" s="513"/>
+      <c r="B90" s="521"/>
+      <c r="C90" s="521"/>
       <c r="D90" s="220">
         <f t="shared" si="14"/>
         <v>1221</v>
@@ -46841,11 +46841,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="513" t="s">
+      <c r="A91" s="521" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="513"/>
-      <c r="C91" s="513"/>
+      <c r="B91" s="521"/>
+      <c r="C91" s="521"/>
       <c r="D91" s="220">
         <f t="shared" si="14"/>
         <v>718</v>
@@ -46880,11 +46880,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="513" t="s">
+      <c r="A92" s="521" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="513"/>
-      <c r="C92" s="513"/>
+      <c r="B92" s="521"/>
+      <c r="C92" s="521"/>
       <c r="D92" s="220">
         <f t="shared" si="14"/>
         <v>1664.88</v>
@@ -46919,11 +46919,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="513" t="s">
+      <c r="A93" s="521" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="513"/>
-      <c r="C93" s="513"/>
+      <c r="B93" s="521"/>
+      <c r="C93" s="521"/>
       <c r="D93" s="220">
         <f t="shared" si="14"/>
         <v>261.05</v>
@@ -46958,11 +46958,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="513" t="s">
+      <c r="A94" s="521" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="513"/>
-      <c r="C94" s="513"/>
+      <c r="B94" s="521"/>
+      <c r="C94" s="521"/>
       <c r="D94" s="220">
         <f t="shared" si="14"/>
         <v>83.22999999999999</v>
@@ -47046,15 +47046,74 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:B23"/>
@@ -47071,74 +47130,15 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" display="http://www.sasol.com/" xr:uid="{94E57AF8-CF1E-4A4A-992A-3647A9F5048E}"/>

--- a/VT_REGION1_REF.xlsx
+++ b/VT_REGION1_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468863CF-A6A6-410D-9954-15744A0F2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED54206E-D22F-404B-A3DD-BE3FAABFB4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{D244279C-3AE9-4D06-974A-1742C2D08212}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
@@ -9468,24 +9468,6 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9515,6 +9497,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9552,10 +9552,31 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9574,27 +9595,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16922,9 +16922,6 @@
           <cell r="C14" t="str">
             <v>CLE</v>
           </cell>
-          <cell r="AZ14">
-            <v>1E-3</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
@@ -16956,12 +16953,6 @@
           </cell>
           <cell r="C18" t="str">
             <v>GAS</v>
-          </cell>
-          <cell r="AY18">
-            <v>56.1</v>
-          </cell>
-          <cell r="AZ18">
-            <v>1E-3</v>
           </cell>
         </row>
         <row r="19">
@@ -18764,10 +18755,10 @@
   <dimension ref="A1:BH117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4:AC4"/>
+      <selection pane="bottomRight" activeCell="K105" sqref="K105:L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21789,6 +21780,12 @@
         <f>SUMIF(RefineriesData!$J$13:$J$269,$B40&amp;J$4,RefineriesData!$N$13:$N$269)</f>
         <v>66.311492399999992</v>
       </c>
+      <c r="K40" s="117">
+        <v>0</v>
+      </c>
+      <c r="L40" s="117">
+        <v>0</v>
+      </c>
       <c r="M40" s="466">
         <f>RefineriesData!D243</f>
         <v>6.4894696089818042</v>
@@ -22478,6 +22475,12 @@
       <c r="J50" s="439">
         <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B50&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>55.422377929572328</v>
+      </c>
+      <c r="K50" s="117">
+        <v>0</v>
+      </c>
+      <c r="L50" s="117">
+        <v>0</v>
       </c>
       <c r="M50" s="466">
         <f>M40</f>
@@ -23163,6 +23166,12 @@
         <f>J50</f>
         <v>55.422377929572328</v>
       </c>
+      <c r="K60" s="117">
+        <v>0</v>
+      </c>
+      <c r="L60" s="117">
+        <v>0</v>
+      </c>
       <c r="M60" s="466">
         <f>M40</f>
         <v>6.4894696089818042</v>
@@ -23847,8 +23856,12 @@
         <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B70&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>36.817867655087646</v>
       </c>
-      <c r="K70" s="435"/>
-      <c r="L70" s="435"/>
+      <c r="K70" s="435">
+        <v>0</v>
+      </c>
+      <c r="L70" s="435">
+        <v>0</v>
+      </c>
       <c r="M70" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B70&amp;M$5,RefineriesData!$N$13:$N$245)</f>
         <v>109.73413027616279</v>
@@ -24686,8 +24699,12 @@
         <f>IFERROR(zar.2010*SUMIF(RefineriesData!$J$13:$J$269,$B82&amp;J$4,RefineriesData!$N$13:$N$269),"")</f>
         <v>36.817867655087646</v>
       </c>
-      <c r="K82" s="435"/>
-      <c r="L82" s="435"/>
+      <c r="K82" s="435">
+        <v>0</v>
+      </c>
+      <c r="L82" s="435">
+        <v>0</v>
+      </c>
       <c r="M82" s="435">
         <f>SUMIF(RefineriesData!$J$13:$J$245,$B82&amp;M$5,RefineriesData!$N$13:$N$245)</f>
         <v>109.73413027616279</v>
@@ -26263,11 +26280,11 @@
       <c r="I105" s="436"/>
       <c r="J105" s="435"/>
       <c r="K105" s="484">
-        <f>RefineriesData!D33</f>
-        <v>95.428011064048093</v>
-      </c>
-      <c r="L105" s="468">
-        <f>[4]NameConv!$AZ$14/F105</f>
+        <f>96.25/F105</f>
+        <v>113.10501165543117</v>
+      </c>
+      <c r="L105" s="484">
+        <f>0.001/F105</f>
         <v>1.1751170042122719E-3</v>
       </c>
       <c r="M105" s="484"/>
@@ -26340,11 +26357,11 @@
       <c r="I106" s="436"/>
       <c r="J106" s="435"/>
       <c r="K106" s="484">
-        <f>RefineriesData!D31/F106</f>
-        <v>95.428011064048093</v>
-      </c>
-      <c r="L106" s="468">
-        <f>[4]NameConv!$AZ$14/F106</f>
+        <f>96.25/F106</f>
+        <v>113.10501165543117</v>
+      </c>
+      <c r="L106" s="484">
+        <f>0.001/F106</f>
         <v>1.1751170042122719E-3</v>
       </c>
       <c r="M106" s="484"/>
@@ -26414,14 +26431,8 @@
       <c r="H107" s="435"/>
       <c r="I107" s="435"/>
       <c r="J107" s="465"/>
-      <c r="K107" s="484">
-        <f>[4]NameConv!AY18</f>
-        <v>56.1</v>
-      </c>
-      <c r="L107" s="468">
-        <f>[4]NameConv!AZ18</f>
-        <v>1E-3</v>
-      </c>
+      <c r="K107" s="484"/>
+      <c r="L107" s="468"/>
       <c r="M107" s="484"/>
       <c r="N107" s="468"/>
       <c r="P107" s="436"/>
@@ -26550,8 +26561,8 @@
   </sheetPr>
   <dimension ref="A1:AH286"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="N267" sqref="N267"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34453,26 +34464,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="486" t="s">
+      <c r="C2" s="496" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="488" t="s">
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="498" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="489"/>
-      <c r="H2" s="490"/>
-      <c r="I2" s="488" t="s">
+      <c r="G2" s="499"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="498" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="489"/>
-      <c r="K2" s="490"/>
-      <c r="L2" s="488" t="s">
+      <c r="J2" s="499"/>
+      <c r="K2" s="500"/>
+      <c r="L2" s="498" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="489"/>
-      <c r="N2" s="490"/>
+      <c r="M2" s="499"/>
+      <c r="N2" s="500"/>
       <c r="O2" s="97"/>
       <c r="P2" s="13"/>
       <c r="AA2" s="96" t="s">
@@ -34745,10 +34756,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="485" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="492"/>
+      <c r="B9" s="486"/>
       <c r="C9" s="49"/>
       <c r="D9" s="44">
         <f>D5/$O$5</f>
@@ -34773,49 +34784,49 @@
       <c r="O9" s="7">
         <v>788</v>
       </c>
-      <c r="Q9" s="497" t="s">
+      <c r="Q9" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="499" t="s">
+      <c r="S9" s="493" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="495" t="s">
+      <c r="V9" s="489" t="s">
         <v>881</v>
       </c>
-      <c r="W9" s="495" t="s">
+      <c r="W9" s="489" t="s">
         <v>882</v>
       </c>
-      <c r="X9" s="495" t="s">
+      <c r="X9" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="495" t="s">
+      <c r="Y9" s="489" t="s">
         <v>883</v>
       </c>
-      <c r="Z9" s="495" t="s">
+      <c r="Z9" s="489" t="s">
         <v>884</v>
       </c>
-      <c r="AA9" s="495" t="s">
+      <c r="AA9" s="489" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="495" t="s">
+      <c r="AB9" s="489" t="s">
         <v>885</v>
       </c>
-      <c r="AC9" s="495" t="s">
+      <c r="AC9" s="489" t="s">
         <v>886</v>
       </c>
-      <c r="AD9" s="495" t="s">
+      <c r="AD9" s="489" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="495" t="s">
+      <c r="AE9" s="489" t="s">
         <v>887</v>
       </c>
-      <c r="AF9" s="495" t="s">
+      <c r="AF9" s="489" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="493"/>
-      <c r="B10" s="494"/>
+      <c r="A10" s="487"/>
+      <c r="B10" s="488"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9">
         <f>D9*788</f>
@@ -34841,25 +34852,25 @@
         <f>O9-G10</f>
         <v>422.2729198252656</v>
       </c>
-      <c r="Q10" s="498"/>
+      <c r="Q10" s="492"/>
       <c r="R10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="500"/>
+      <c r="S10" s="494"/>
       <c r="U10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="496"/>
-      <c r="W10" s="496"/>
-      <c r="X10" s="496"/>
-      <c r="Y10" s="496"/>
-      <c r="Z10" s="496"/>
-      <c r="AA10" s="496"/>
-      <c r="AB10" s="496"/>
-      <c r="AC10" s="496"/>
-      <c r="AD10" s="496"/>
-      <c r="AE10" s="496"/>
-      <c r="AF10" s="496"/>
+      <c r="V10" s="490"/>
+      <c r="W10" s="490"/>
+      <c r="X10" s="490"/>
+      <c r="Y10" s="490"/>
+      <c r="Z10" s="490"/>
+      <c r="AA10" s="490"/>
+      <c r="AB10" s="490"/>
+      <c r="AC10" s="490"/>
+      <c r="AD10" s="490"/>
+      <c r="AE10" s="490"/>
+      <c r="AF10" s="490"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -37351,11 +37362,11 @@
       <c r="J62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="485" t="s">
+      <c r="K62" s="495" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="485"/>
-      <c r="M62" s="485"/>
+      <c r="L62" s="495"/>
+      <c r="M62" s="495"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="3:22" ht="15" x14ac:dyDescent="0.25">
@@ -37613,6 +37624,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AC9:AC10"/>
@@ -37627,11 +37643,6 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40300,7 +40311,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="509"/>
-      <c r="H2" s="490"/>
+      <c r="H2" s="500"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -40542,7 +40553,7 @@
       <c r="G14" s="88"/>
       <c r="H14" s="154"/>
       <c r="I14" s="153"/>
-      <c r="J14" s="500"/>
+      <c r="J14" s="494"/>
       <c r="K14" s="152" t="s">
         <v>79</v>
       </c>
@@ -44430,27 +44441,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="521" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="514"/>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
       <c r="J1" s="216" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="515" t="s">
+      <c r="A2" s="522" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
       <c r="D2" s="259">
         <v>2019</v>
       </c>
@@ -44487,16 +44498,16 @@
       <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="516" t="s">
+      <c r="A3" s="523" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="516"/>
+      <c r="B3" s="523"/>
       <c r="C3" s="254"/>
       <c r="D3" s="255"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="G3" s="253"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="524" t="s">
         <v>373</v>
       </c>
       <c r="Q3"/>
@@ -44506,10 +44517,10 @@
       <c r="U3" s="252"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="527" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="520"/>
+      <c r="B4" s="527"/>
       <c r="C4" s="241">
         <v>1</v>
       </c>
@@ -44525,7 +44536,7 @@
       <c r="G4" s="221">
         <v>18806</v>
       </c>
-      <c r="H4" s="518"/>
+      <c r="H4" s="525"/>
       <c r="J4" s="216">
         <f>D4/F4</f>
         <v>0.99859246427024684</v>
@@ -44543,10 +44554,10 @@
       <c r="T4" s="252"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="521" t="s">
+      <c r="A5" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="521"/>
+      <c r="B5" s="513"/>
       <c r="C5" s="239"/>
       <c r="D5" s="231">
         <v>6736</v>
@@ -44560,13 +44571,13 @@
       <c r="G5" s="221">
         <v>7019</v>
       </c>
-      <c r="H5" s="518"/>
+      <c r="H5" s="525"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="521" t="s">
+      <c r="A6" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="521"/>
+      <c r="B6" s="513"/>
       <c r="C6" s="239"/>
       <c r="D6" s="231">
         <v>1467</v>
@@ -44580,13 +44591,13 @@
       <c r="G6" s="221">
         <v>1461</v>
       </c>
-      <c r="H6" s="518"/>
+      <c r="H6" s="525"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="521" t="s">
+      <c r="A7" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="521"/>
+      <c r="B7" s="513"/>
       <c r="C7" s="239"/>
       <c r="D7" s="231">
         <v>3209</v>
@@ -44600,13 +44611,13 @@
       <c r="G7" s="221">
         <v>3331</v>
       </c>
-      <c r="H7" s="518"/>
+      <c r="H7" s="525"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="521" t="s">
+      <c r="A8" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="521"/>
+      <c r="B8" s="513"/>
       <c r="C8" s="239"/>
       <c r="D8" s="231">
         <v>4271</v>
@@ -44620,13 +44631,13 @@
       <c r="G8" s="221">
         <v>4067</v>
       </c>
-      <c r="H8" s="518"/>
+      <c r="H8" s="525"/>
     </row>
     <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="521"/>
+      <c r="B9" s="513"/>
       <c r="C9" s="239"/>
       <c r="D9" s="231">
         <v>1277</v>
@@ -44640,13 +44651,13 @@
       <c r="G9" s="221">
         <v>1309</v>
       </c>
-      <c r="H9" s="518"/>
+      <c r="H9" s="525"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="521" t="s">
+      <c r="A10" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="521"/>
+      <c r="B10" s="513"/>
       <c r="C10" s="239"/>
       <c r="D10" s="233">
         <v>688</v>
@@ -44660,13 +44671,13 @@
       <c r="G10" s="218">
         <v>793</v>
       </c>
-      <c r="H10" s="518"/>
+      <c r="H10" s="525"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="521"/>
+      <c r="B11" s="513"/>
       <c r="C11" s="239"/>
       <c r="D11" s="233">
         <v>53</v>
@@ -44680,14 +44691,14 @@
       <c r="G11" s="218">
         <v>62</v>
       </c>
-      <c r="H11" s="518"/>
+      <c r="H11" s="525"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="522" t="s">
+      <c r="A12" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="522"/>
-      <c r="C12" s="522"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
       <c r="D12" s="251">
         <v>745</v>
       </c>
@@ -44700,14 +44711,14 @@
       <c r="G12" s="249">
         <v>763</v>
       </c>
-      <c r="H12" s="519"/>
+      <c r="H12" s="526"/>
       <c r="V12" s="243"/>
     </row>
     <row r="13" spans="1:22" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="523" t="s">
+      <c r="A13" s="520" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="523"/>
+      <c r="B13" s="520"/>
       <c r="C13" s="248">
         <v>2</v>
       </c>
@@ -44719,10 +44730,10 @@
       <c r="V13" s="243"/>
     </row>
     <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="514" t="s">
+      <c r="A14" s="516" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="514"/>
+      <c r="B14" s="516"/>
       <c r="C14" s="239"/>
       <c r="D14" s="231">
         <v>105.04</v>
@@ -44757,10 +44768,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="521" t="s">
+      <c r="A15" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="521"/>
+      <c r="B15" s="513"/>
       <c r="C15" s="239"/>
       <c r="D15" s="231">
         <v>96.16</v>
@@ -44793,10 +44804,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="521" t="s">
+      <c r="A16" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="521"/>
+      <c r="B16" s="513"/>
       <c r="C16" s="239"/>
       <c r="D16" s="231">
         <v>5.34</v>
@@ -44829,10 +44840,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="521" t="s">
+      <c r="A17" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B17" s="521"/>
+      <c r="B17" s="513"/>
       <c r="C17" s="239"/>
       <c r="D17" s="231">
         <v>3.49</v>
@@ -44865,10 +44876,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="521" t="s">
+      <c r="A18" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="521"/>
+      <c r="B18" s="513"/>
       <c r="C18" s="239"/>
       <c r="D18" s="242">
         <v>0</v>
@@ -44901,10 +44912,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="521" t="s">
+      <c r="A19" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="521"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="239"/>
       <c r="D19" s="231">
         <v>0</v>
@@ -44937,10 +44948,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="521"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="239"/>
       <c r="D20" s="231">
         <v>0.04</v>
@@ -44973,10 +44984,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="521" t="s">
+      <c r="A21" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="521"/>
+      <c r="B21" s="513"/>
       <c r="C21" s="239"/>
       <c r="D21" s="231">
         <v>0</v>
@@ -45009,11 +45020,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="521" t="s">
+      <c r="A22" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="521"/>
-      <c r="C22" s="521"/>
+      <c r="B22" s="513"/>
+      <c r="C22" s="513"/>
       <c r="D22" s="231">
         <v>0.01</v>
       </c>
@@ -45045,10 +45056,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="514" t="s">
+      <c r="A23" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="514"/>
+      <c r="B23" s="516"/>
       <c r="C23" s="239"/>
       <c r="D23" s="231">
         <v>1.64</v>
@@ -45083,10 +45094,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="521" t="s">
+      <c r="A24" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="521"/>
+      <c r="B24" s="513"/>
       <c r="C24" s="239"/>
       <c r="D24" s="231">
         <v>0.9</v>
@@ -45119,10 +45130,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="521"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="239"/>
       <c r="D25" s="231">
         <v>0.73</v>
@@ -45155,10 +45166,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="513"/>
       <c r="C26" s="239"/>
       <c r="D26" s="231">
         <v>0</v>
@@ -45191,10 +45202,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="521" t="s">
+      <c r="A27" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="521"/>
+      <c r="B27" s="513"/>
       <c r="C27" s="239"/>
       <c r="D27" s="231">
         <v>0</v>
@@ -45227,10 +45238,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="521" t="s">
+      <c r="A28" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="521"/>
+      <c r="B28" s="513"/>
       <c r="C28" s="239"/>
       <c r="D28" s="231">
         <v>0</v>
@@ -45263,10 +45274,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="521" t="s">
+      <c r="A29" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="521"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="239"/>
       <c r="D29" s="231">
         <v>0.01</v>
@@ -45299,10 +45310,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="521" t="s">
+      <c r="A30" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="521"/>
+      <c r="B30" s="513"/>
       <c r="C30" s="239"/>
       <c r="D30" s="231">
         <v>0</v>
@@ -45335,11 +45346,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="521" t="s">
+      <c r="A31" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="521"/>
-      <c r="C31" s="521"/>
+      <c r="B31" s="513"/>
+      <c r="C31" s="513"/>
       <c r="D31" s="231">
         <v>0</v>
       </c>
@@ -45371,10 +45382,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="514" t="s">
+      <c r="A32" s="516" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="514"/>
+      <c r="B32" s="516"/>
       <c r="C32" s="239"/>
       <c r="D32" s="231">
         <v>56004</v>
@@ -45409,10 +45420,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="521" t="s">
+      <c r="A33" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="521"/>
+      <c r="B33" s="513"/>
       <c r="C33" s="239"/>
       <c r="D33" s="231">
         <v>48418</v>
@@ -45451,10 +45462,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="521" t="s">
+      <c r="A34" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="521"/>
+      <c r="B34" s="513"/>
       <c r="C34" s="239"/>
       <c r="D34" s="231">
         <v>4557</v>
@@ -45487,10 +45498,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="521" t="s">
+      <c r="A35" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="521"/>
+      <c r="B35" s="513"/>
       <c r="C35" s="239"/>
       <c r="D35" s="233">
         <v>16</v>
@@ -45523,10 +45534,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="521" t="s">
+      <c r="A36" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="521"/>
+      <c r="B36" s="513"/>
       <c r="C36" s="239"/>
       <c r="D36" s="233">
         <v>932</v>
@@ -45559,10 +45570,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="239"/>
       <c r="D37" s="233">
         <v>610</v>
@@ -45595,10 +45606,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="521" t="s">
+      <c r="A38" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="521"/>
+      <c r="B38" s="513"/>
       <c r="C38" s="239"/>
       <c r="D38" s="231">
         <v>1163</v>
@@ -45631,10 +45642,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="521" t="s">
+      <c r="A39" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="521"/>
+      <c r="B39" s="513"/>
       <c r="C39" s="239"/>
       <c r="D39" s="233">
         <v>261</v>
@@ -45667,11 +45678,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="521" t="s">
+      <c r="A40" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="521"/>
-      <c r="C40" s="521"/>
+      <c r="B40" s="513"/>
+      <c r="C40" s="513"/>
       <c r="D40" s="233">
         <v>47</v>
       </c>
@@ -45703,10 +45714,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="514" t="s">
+      <c r="A41" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="514"/>
+      <c r="B41" s="516"/>
       <c r="C41" s="241">
         <v>3</v>
       </c>
@@ -45727,10 +45738,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="521" t="s">
+      <c r="A42" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="521"/>
+      <c r="B42" s="513"/>
       <c r="C42" s="239"/>
       <c r="D42" s="231">
         <v>5596</v>
@@ -45766,10 +45777,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="521" t="s">
+      <c r="A43" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="521"/>
+      <c r="B43" s="513"/>
       <c r="C43" s="239"/>
       <c r="D43" s="233">
         <v>400</v>
@@ -45805,10 +45816,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="521" t="s">
+      <c r="A44" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="521"/>
+      <c r="B44" s="513"/>
       <c r="C44" s="239"/>
       <c r="D44" s="233">
         <v>726</v>
@@ -45844,10 +45855,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="521" t="s">
+      <c r="A45" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="521"/>
+      <c r="B45" s="513"/>
       <c r="C45" s="239"/>
       <c r="D45" s="233">
         <v>289</v>
@@ -45883,10 +45894,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="521" t="s">
+      <c r="A46" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="521"/>
+      <c r="B46" s="513"/>
       <c r="C46" s="239"/>
       <c r="D46" s="233">
         <v>108</v>
@@ -45903,10 +45914,10 @@
       <c r="H46" s="230"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="521" t="s">
+      <c r="A47" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="521"/>
+      <c r="B47" s="513"/>
       <c r="C47" s="239"/>
       <c r="D47" s="233">
         <v>498</v>
@@ -45923,10 +45934,10 @@
       <c r="H47" s="230"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="521" t="s">
+      <c r="A48" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="521"/>
+      <c r="B48" s="513"/>
       <c r="C48" s="239"/>
       <c r="D48" s="231">
         <v>0</v>
@@ -45943,11 +45954,11 @@
       <c r="H48" s="230"/>
     </row>
     <row r="49" spans="1:9" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="521" t="s">
+      <c r="A49" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="521"/>
-      <c r="C49" s="521"/>
+      <c r="B49" s="513"/>
+      <c r="C49" s="513"/>
       <c r="D49" s="233">
         <v>36</v>
       </c>
@@ -45963,10 +45974,10 @@
       <c r="H49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="514" t="s">
+      <c r="A50" s="516" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="514"/>
+      <c r="B50" s="516"/>
       <c r="C50" s="241">
         <v>4</v>
       </c>
@@ -45987,10 +45998,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="521" t="s">
+      <c r="A51" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="521"/>
+      <c r="B51" s="513"/>
       <c r="C51" s="239"/>
       <c r="D51" s="231">
         <v>0</v>
@@ -46007,10 +46018,10 @@
       <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="521" t="s">
+      <c r="A52" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="521"/>
+      <c r="B52" s="513"/>
       <c r="C52" s="239"/>
       <c r="D52" s="231">
         <v>0</v>
@@ -46027,10 +46038,10 @@
       <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="521" t="s">
+      <c r="A53" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="521"/>
+      <c r="B53" s="513"/>
       <c r="C53" s="239"/>
       <c r="D53" s="231">
         <v>0</v>
@@ -46047,10 +46058,10 @@
       <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="521" t="s">
+      <c r="A54" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B54" s="521"/>
+      <c r="B54" s="513"/>
       <c r="C54" s="239"/>
       <c r="D54" s="231">
         <v>0</v>
@@ -46067,10 +46078,10 @@
       <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="521" t="s">
+      <c r="A55" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="521"/>
+      <c r="B55" s="513"/>
       <c r="C55" s="239"/>
       <c r="D55" s="231">
         <v>0</v>
@@ -46087,10 +46098,10 @@
       <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="521" t="s">
+      <c r="A56" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="521"/>
+      <c r="B56" s="513"/>
       <c r="C56" s="239"/>
       <c r="D56" s="231">
         <v>0</v>
@@ -46107,10 +46118,10 @@
       <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="521" t="s">
+      <c r="A57" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="521"/>
+      <c r="B57" s="513"/>
       <c r="C57" s="239"/>
       <c r="D57" s="231">
         <v>0.05</v>
@@ -46127,11 +46138,11 @@
       <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="522" t="s">
+      <c r="A58" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="522"/>
-      <c r="C58" s="522"/>
+      <c r="B58" s="514"/>
+      <c r="C58" s="514"/>
       <c r="D58" s="229">
         <v>0</v>
       </c>
@@ -46147,46 +46158,46 @@
       <c r="H58" s="238"/>
     </row>
     <row r="59" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="514"/>
-      <c r="B59" s="514"/>
-      <c r="C59" s="514"/>
-      <c r="D59" s="514"/>
-      <c r="E59" s="514"/>
-      <c r="F59" s="514"/>
-      <c r="G59" s="514"/>
-      <c r="H59" s="514"/>
-      <c r="I59" s="514"/>
+      <c r="A59" s="516"/>
+      <c r="B59" s="516"/>
+      <c r="C59" s="516"/>
+      <c r="D59" s="516"/>
+      <c r="E59" s="516"/>
+      <c r="F59" s="516"/>
+      <c r="G59" s="516"/>
+      <c r="H59" s="516"/>
+      <c r="I59" s="516"/>
     </row>
     <row r="60" spans="1:9" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="514"/>
-      <c r="B60" s="514"/>
-      <c r="C60" s="514"/>
-      <c r="D60" s="514"/>
-      <c r="E60" s="514"/>
-      <c r="F60" s="514"/>
-      <c r="G60" s="514"/>
-      <c r="H60" s="514"/>
-      <c r="I60" s="514"/>
+      <c r="A60" s="516"/>
+      <c r="B60" s="516"/>
+      <c r="C60" s="516"/>
+      <c r="D60" s="516"/>
+      <c r="E60" s="516"/>
+      <c r="F60" s="516"/>
+      <c r="G60" s="516"/>
+      <c r="H60" s="516"/>
+      <c r="I60" s="516"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="524" t="s">
+      <c r="A61" s="519" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="524"/>
-      <c r="C61" s="524"/>
-      <c r="D61" s="524"/>
-      <c r="E61" s="524"/>
-      <c r="F61" s="524"/>
-      <c r="G61" s="524"/>
-      <c r="H61" s="524"/>
-      <c r="I61" s="524"/>
+      <c r="B61" s="519"/>
+      <c r="C61" s="519"/>
+      <c r="D61" s="519"/>
+      <c r="E61" s="519"/>
+      <c r="F61" s="519"/>
+      <c r="G61" s="519"/>
+      <c r="H61" s="519"/>
+      <c r="I61" s="519"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="525" t="s">
+      <c r="A62" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="525"/>
-      <c r="C62" s="525"/>
+      <c r="B62" s="517"/>
+      <c r="C62" s="517"/>
       <c r="D62" s="225">
         <v>2019</v>
       </c>
@@ -46204,11 +46215,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="526" t="s">
+      <c r="A63" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="526"/>
-      <c r="C63" s="526"/>
+      <c r="B63" s="518"/>
+      <c r="C63" s="518"/>
       <c r="D63" s="220" t="s">
         <v>386</v>
       </c>
@@ -46226,11 +46237,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="521" t="s">
+      <c r="A64" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="521"/>
-      <c r="C64" s="521"/>
+      <c r="B64" s="513"/>
+      <c r="C64" s="513"/>
       <c r="D64" s="231" t="s">
         <v>382</v>
       </c>
@@ -46246,11 +46257,11 @@
       <c r="H64" s="230"/>
     </row>
     <row r="65" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="521" t="s">
+      <c r="A65" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="521"/>
-      <c r="C65" s="521"/>
+      <c r="B65" s="513"/>
+      <c r="C65" s="513"/>
       <c r="D65" s="231" t="s">
         <v>380</v>
       </c>
@@ -46266,11 +46277,11 @@
       <c r="H65" s="230"/>
     </row>
     <row r="66" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="521" t="s">
+      <c r="A66" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="521"/>
-      <c r="C66" s="521"/>
+      <c r="B66" s="513"/>
+      <c r="C66" s="513"/>
       <c r="D66" s="233">
         <v>822</v>
       </c>
@@ -46286,11 +46297,11 @@
       <c r="H66" s="230"/>
     </row>
     <row r="67" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="521" t="s">
+      <c r="A67" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="521"/>
-      <c r="C67" s="521"/>
+      <c r="B67" s="513"/>
+      <c r="C67" s="513"/>
       <c r="D67" s="231" t="s">
         <v>379</v>
       </c>
@@ -46306,11 +46317,11 @@
       <c r="H67" s="230"/>
     </row>
     <row r="68" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="521" t="s">
+      <c r="A68" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="521"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="513"/>
+      <c r="C68" s="513"/>
       <c r="D68" s="233">
         <v>717</v>
       </c>
@@ -46326,11 +46337,11 @@
       <c r="H68" s="230"/>
     </row>
     <row r="69" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="521" t="s">
+      <c r="A69" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="521"/>
-      <c r="C69" s="521"/>
+      <c r="B69" s="513"/>
+      <c r="C69" s="513"/>
       <c r="D69" s="231" t="s">
         <v>378</v>
       </c>
@@ -46346,11 +46357,11 @@
       <c r="H69" s="230"/>
     </row>
     <row r="70" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="521" t="s">
+      <c r="A70" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="521"/>
-      <c r="C70" s="521"/>
+      <c r="B70" s="513"/>
+      <c r="C70" s="513"/>
       <c r="D70" s="233">
         <v>261</v>
       </c>
@@ -46366,11 +46377,11 @@
       <c r="H70" s="230"/>
     </row>
     <row r="71" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="521" t="s">
+      <c r="A71" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="521"/>
-      <c r="C71" s="521"/>
+      <c r="B71" s="513"/>
+      <c r="C71" s="513"/>
       <c r="D71" s="233">
         <v>83</v>
       </c>
@@ -46386,11 +46397,11 @@
       <c r="H71" s="230"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514" t="s">
+      <c r="A72" s="516" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="514"/>
-      <c r="C72" s="514"/>
+      <c r="B72" s="516"/>
+      <c r="C72" s="516"/>
       <c r="D72" s="231" t="s">
         <v>368</v>
       </c>
@@ -46408,11 +46419,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="521" t="s">
+      <c r="A73" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="521"/>
-      <c r="C73" s="521"/>
+      <c r="B73" s="513"/>
+      <c r="C73" s="513"/>
       <c r="D73" s="231" t="s">
         <v>372</v>
       </c>
@@ -46428,11 +46439,11 @@
       <c r="H73" s="230"/>
     </row>
     <row r="74" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="521" t="s">
+      <c r="A74" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="521"/>
-      <c r="C74" s="521"/>
+      <c r="B74" s="513"/>
+      <c r="C74" s="513"/>
       <c r="D74" s="231" t="s">
         <v>368</v>
       </c>
@@ -46448,11 +46459,11 @@
       <c r="H74" s="230"/>
     </row>
     <row r="75" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="521" t="s">
+      <c r="A75" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B75" s="521"/>
-      <c r="C75" s="521"/>
+      <c r="B75" s="513"/>
+      <c r="C75" s="513"/>
       <c r="D75" s="231" t="s">
         <v>348</v>
       </c>
@@ -46468,11 +46479,11 @@
       <c r="H75" s="230"/>
     </row>
     <row r="76" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="521" t="s">
+      <c r="A76" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="521"/>
-      <c r="C76" s="521"/>
+      <c r="B76" s="513"/>
+      <c r="C76" s="513"/>
       <c r="D76" s="231" t="s">
         <v>362</v>
       </c>
@@ -46488,11 +46499,11 @@
       <c r="H76" s="230"/>
     </row>
     <row r="77" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="521" t="s">
+      <c r="A77" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="521"/>
-      <c r="C77" s="521"/>
+      <c r="B77" s="513"/>
+      <c r="C77" s="513"/>
       <c r="D77" s="231" t="s">
         <v>361</v>
       </c>
@@ -46508,11 +46519,11 @@
       <c r="H77" s="230"/>
     </row>
     <row r="78" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="521" t="s">
+      <c r="A78" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="521"/>
-      <c r="C78" s="521"/>
+      <c r="B78" s="513"/>
+      <c r="C78" s="513"/>
       <c r="D78" s="231" t="s">
         <v>358</v>
       </c>
@@ -46528,11 +46539,11 @@
       <c r="H78" s="230"/>
     </row>
     <row r="79" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="521" t="s">
+      <c r="A79" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="521"/>
-      <c r="C79" s="521"/>
+      <c r="B79" s="513"/>
+      <c r="C79" s="513"/>
       <c r="D79" s="231" t="s">
         <v>354</v>
       </c>
@@ -46548,11 +46559,11 @@
       <c r="H79" s="230"/>
     </row>
     <row r="80" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="522" t="s">
+      <c r="A80" s="514" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="522"/>
-      <c r="C80" s="522"/>
+      <c r="B80" s="514"/>
+      <c r="C80" s="514"/>
       <c r="D80" s="229" t="s">
         <v>349</v>
       </c>
@@ -46568,30 +46579,30 @@
       <c r="H80" s="226"/>
     </row>
     <row r="81" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="527" t="s">
+      <c r="A81" s="515" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="514"/>
-      <c r="C81" s="514"/>
-      <c r="D81" s="514"/>
-      <c r="E81" s="514"/>
-      <c r="F81" s="514"/>
-      <c r="G81" s="514"/>
-      <c r="H81" s="514"/>
-      <c r="I81" s="514"/>
+      <c r="B81" s="516"/>
+      <c r="C81" s="516"/>
+      <c r="D81" s="516"/>
+      <c r="E81" s="516"/>
+      <c r="F81" s="516"/>
+      <c r="G81" s="516"/>
+      <c r="H81" s="516"/>
+      <c r="I81" s="516"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="514" t="s">
+      <c r="A82" s="516" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="514"/>
-      <c r="C82" s="514"/>
-      <c r="D82" s="514"/>
-      <c r="E82" s="514"/>
-      <c r="F82" s="514"/>
-      <c r="G82" s="514"/>
-      <c r="H82" s="514"/>
-      <c r="I82" s="514"/>
+      <c r="B82" s="516"/>
+      <c r="C82" s="516"/>
+      <c r="D82" s="516"/>
+      <c r="E82" s="516"/>
+      <c r="F82" s="516"/>
+      <c r="G82" s="516"/>
+      <c r="H82" s="516"/>
+      <c r="I82" s="516"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="216" t="str">
@@ -46612,11 +46623,11 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="525" t="s">
+      <c r="A85" s="517" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="525"/>
-      <c r="C85" s="525"/>
+      <c r="B85" s="517"/>
+      <c r="C85" s="517"/>
       <c r="D85" s="225">
         <v>2019</v>
       </c>
@@ -46643,11 +46654,11 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="526" t="s">
+      <c r="A86" s="518" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="526"/>
-      <c r="C86" s="526"/>
+      <c r="B86" s="518"/>
+      <c r="C86" s="518"/>
       <c r="D86" s="220">
         <f>D14*gwpch4+D23*gwpn2o+D32+D41+D50</f>
         <v>66558.41</v>
@@ -46685,11 +46696,11 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="521" t="s">
+      <c r="A87" s="513" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="521"/>
-      <c r="C87" s="521"/>
+      <c r="B87" s="513"/>
+      <c r="C87" s="513"/>
       <c r="D87" s="220">
         <f t="shared" ref="D87:D94" si="14">D15*gwpch4+D24*gwpn2o+D33+D42+D51</f>
         <v>56492.08</v>
@@ -46724,11 +46735,11 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="521" t="s">
+      <c r="A88" s="513" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="521"/>
-      <c r="C88" s="521"/>
+      <c r="B88" s="513"/>
+      <c r="C88" s="513"/>
       <c r="D88" s="220">
         <f t="shared" si="14"/>
         <v>5295.9</v>
@@ -46763,11 +46774,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="521" t="s">
+      <c r="A89" s="513" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="521"/>
-      <c r="C89" s="521"/>
+      <c r="B89" s="513"/>
+      <c r="C89" s="513"/>
       <c r="D89" s="220">
         <f t="shared" si="14"/>
         <v>822.27</v>
@@ -46802,11 +46813,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="521" t="s">
+      <c r="A90" s="513" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="521"/>
-      <c r="C90" s="521"/>
+      <c r="B90" s="513"/>
+      <c r="C90" s="513"/>
       <c r="D90" s="220">
         <f t="shared" si="14"/>
         <v>1221</v>
@@ -46841,11 +46852,11 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="521" t="s">
+      <c r="A91" s="513" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="521"/>
-      <c r="C91" s="521"/>
+      <c r="B91" s="513"/>
+      <c r="C91" s="513"/>
       <c r="D91" s="220">
         <f t="shared" si="14"/>
         <v>718</v>
@@ -46880,11 +46891,11 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="521" t="s">
+      <c r="A92" s="513" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="521"/>
-      <c r="C92" s="521"/>
+      <c r="B92" s="513"/>
+      <c r="C92" s="513"/>
       <c r="D92" s="220">
         <f t="shared" si="14"/>
         <v>1664.88</v>
@@ -46919,11 +46930,11 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="521" t="s">
+      <c r="A93" s="513" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="521"/>
-      <c r="C93" s="521"/>
+      <c r="B93" s="513"/>
+      <c r="C93" s="513"/>
       <c r="D93" s="220">
         <f t="shared" si="14"/>
         <v>261.05</v>
@@ -46958,11 +46969,11 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="521" t="s">
+      <c r="A94" s="513" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="521"/>
-      <c r="C94" s="521"/>
+      <c r="B94" s="513"/>
+      <c r="C94" s="513"/>
       <c r="D94" s="220">
         <f t="shared" si="14"/>
         <v>83.22999999999999</v>
@@ -47046,38 +47057,51 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:I59"/>
@@ -47094,51 +47118,38 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" display="http://www.sasol.com/" xr:uid="{94E57AF8-CF1E-4A4A-992A-3647A9F5048E}"/>
